--- a/8-team-double.xlsx
+++ b/8-team-double.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUAWEI\Documents\GitHub\2018_world_cup_draw\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A533FEE6-5101-4971-A44F-3A0E16B8F166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15315" windowHeight="7995"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>PrintYourBrackets</t>
   </si>
@@ -37,41 +43,6 @@
     <t>L8</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">       </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="20"/>
-        <color theme="3" tint="-0.249977111117893"/>
-        <rFont val="Georgia"/>
-        <family val="1"/>
-      </rPr>
-      <t>PrintYour</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="20"/>
-        <color theme="0" tint="-0.249977111117893"/>
-        <rFont val="Georgia"/>
-        <family val="1"/>
-      </rPr>
-      <t>Brackets</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="3" tint="-0.249977111117893"/>
-        <rFont val="Georgia"/>
-        <family val="1"/>
-      </rPr>
-      <t>.com</t>
-    </r>
-  </si>
-  <si>
     <t>Loser's Bracket</t>
   </si>
   <si>
@@ -85,17 +56,49 @@
   </si>
   <si>
     <t>L14 If First Loss</t>
+  </si>
+  <si>
+    <t>沙隆巴斯</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>金贝贝</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>约翰乔</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿土伯</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>莎拉公主</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱夫人</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>忍太郎</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>宫本宝藏</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -120,30 +123,9 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color theme="3" tint="-0.249977111117893"/>
-      <name val="Georgia"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="20"/>
-      <color theme="3" tint="-0.249977111117893"/>
-      <name val="Georgia"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="20"/>
-      <color theme="0" tint="-0.249977111117893"/>
-      <name val="Georgia"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Cambria"/>
+      <name val="宋体"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
@@ -164,6 +146,27 @@
       <color theme="0"/>
       <name val="Book Antiqua"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -300,46 +303,46 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -351,23 +354,35 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -409,7 +424,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -441,9 +456,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -475,6 +508,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -650,27 +701,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.42578125" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="17.375" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="1" customWidth="1"/>
-    <col min="2" max="7" width="12.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="17.42578125" style="1"/>
+    <col min="1" max="1" width="2.75" style="1" customWidth="1"/>
+    <col min="2" max="7" width="12.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="17.375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="11.1" customHeight="1">
+    <row r="1" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="25"/>
       <c r="B1" s="24"/>
       <c r="C1" s="31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D1" s="31"/>
       <c r="E1" s="31"/>
@@ -679,9 +730,9 @@
       <c r="H1" s="31"/>
       <c r="I1" s="24"/>
     </row>
-    <row r="2" spans="1:9" ht="11.1" customHeight="1">
+    <row r="2" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="29"/>
       <c r="C2" s="31"/>
@@ -692,43 +743,48 @@
       <c r="H2" s="31"/>
       <c r="I2" s="24"/>
     </row>
-    <row r="3" spans="1:9" s="2" customFormat="1" ht="11.85" customHeight="1">
+    <row r="3" spans="1:9" s="2" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1">
+    <row r="4" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="32" t="s">
+        <v>12</v>
+      </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1">
+    <row r="5" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="7"/>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1">
+    <row r="6" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="8"/>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1">
+    <row r="7" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="8">
         <v>1</v>
       </c>
       <c r="C7" s="7"/>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1">
-      <c r="B8" s="6"/>
+    <row r="8" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="33" t="s">
+        <v>13</v>
+      </c>
       <c r="C8" s="8"/>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1">
+    <row r="9" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="8"/>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1">
+    <row r="10" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="8"/>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1">
+    <row r="11" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="22">
         <v>7</v>
       </c>
@@ -736,65 +792,73 @@
       <c r="E11" s="7"/>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1">
+    <row r="12" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="34" t="s">
+        <v>14</v>
+      </c>
       <c r="C12" s="8"/>
       <c r="E12" s="8"/>
     </row>
-    <row r="13" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1">
+    <row r="13" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="7"/>
       <c r="C13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="11"/>
     </row>
-    <row r="14" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1">
+    <row r="14" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="8"/>
       <c r="C14" s="12"/>
       <c r="E14" s="8"/>
       <c r="F14" s="11"/>
     </row>
-    <row r="15" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1">
+    <row r="15" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="8">
         <v>2</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="11"/>
     </row>
-    <row r="16" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1">
-      <c r="B16" s="6"/>
+    <row r="16" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="35" t="s">
+        <v>15</v>
+      </c>
       <c r="E16" s="8"/>
       <c r="F16" s="11"/>
     </row>
-    <row r="17" spans="2:8" s="4" customFormat="1" ht="11.85" customHeight="1">
+    <row r="17" spans="2:8" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E17" s="8"/>
       <c r="F17" s="13"/>
       <c r="G17" s="14"/>
     </row>
-    <row r="18" spans="2:8" s="4" customFormat="1" ht="11.85" customHeight="1">
+    <row r="18" spans="2:8" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E18" s="8">
         <v>11</v>
       </c>
       <c r="F18" s="11"/>
       <c r="G18" s="7"/>
     </row>
-    <row r="19" spans="2:8" s="4" customFormat="1" ht="11.85" customHeight="1">
+    <row r="19" spans="2:8" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E19" s="8"/>
       <c r="G19" s="8"/>
     </row>
-    <row r="20" spans="2:8" s="4" customFormat="1" ht="11.85" customHeight="1">
+    <row r="20" spans="2:8" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="32" t="s">
+        <v>16</v>
+      </c>
       <c r="E20" s="8"/>
       <c r="G20" s="8"/>
     </row>
-    <row r="21" spans="2:8" s="4" customFormat="1" ht="11.85" customHeight="1">
+    <row r="21" spans="2:8" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="7"/>
       <c r="E21" s="8"/>
       <c r="G21" s="8"/>
     </row>
-    <row r="22" spans="2:8" s="4" customFormat="1" ht="11.85" customHeight="1">
+    <row r="22" spans="2:8" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="8"/>
       <c r="E22" s="8"/>
       <c r="G22" s="8"/>
     </row>
-    <row r="23" spans="2:8" s="4" customFormat="1" ht="11.85" customHeight="1">
+    <row r="23" spans="2:8" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="8">
         <v>3</v>
       </c>
@@ -802,34 +866,39 @@
       <c r="E23" s="8"/>
       <c r="G23" s="8"/>
     </row>
-    <row r="24" spans="2:8" s="4" customFormat="1" ht="11.85" customHeight="1">
-      <c r="B24" s="6"/>
+    <row r="24" spans="2:8" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="33" t="s">
+        <v>17</v>
+      </c>
       <c r="C24" s="8"/>
       <c r="E24" s="8"/>
       <c r="G24" s="8"/>
     </row>
-    <row r="25" spans="2:8" s="4" customFormat="1" ht="11.85" customHeight="1">
+    <row r="25" spans="2:8" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="8"/>
       <c r="E25" s="8"/>
       <c r="G25" s="8"/>
     </row>
-    <row r="26" spans="2:8" s="4" customFormat="1" ht="11.85" customHeight="1">
+    <row r="26" spans="2:8" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="8"/>
       <c r="D26" s="15"/>
       <c r="E26" s="6"/>
       <c r="G26" s="8"/>
     </row>
-    <row r="27" spans="2:8" s="4" customFormat="1" ht="11.85" customHeight="1">
+    <row r="27" spans="2:8" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C27" s="8">
         <v>8</v>
       </c>
       <c r="G27" s="8"/>
     </row>
-    <row r="28" spans="2:8" s="4" customFormat="1" ht="11.85" customHeight="1">
+    <row r="28" spans="2:8" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="32" t="s">
+        <v>18</v>
+      </c>
       <c r="C28" s="8"/>
       <c r="G28" s="8"/>
     </row>
-    <row r="29" spans="2:8" s="4" customFormat="1" ht="11.85" customHeight="1">
+    <row r="29" spans="2:8" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="7"/>
       <c r="C29" s="8"/>
       <c r="G29" s="8">
@@ -837,34 +906,36 @@
       </c>
       <c r="H29" s="9"/>
     </row>
-    <row r="30" spans="2:8" s="4" customFormat="1" ht="11.85" customHeight="1">
+    <row r="30" spans="2:8" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="8"/>
       <c r="C30" s="12"/>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="2:8" s="4" customFormat="1" ht="11.85" customHeight="1">
+    <row r="31" spans="2:8" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="8">
         <v>4</v>
       </c>
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="2:8" s="4" customFormat="1" ht="11.85" customHeight="1">
-      <c r="B32" s="6"/>
+    <row r="32" spans="2:8" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="33" t="s">
+        <v>19</v>
+      </c>
       <c r="E32" s="20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1">
+    <row r="33" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C33" s="16"/>
       <c r="F33" s="7"/>
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1">
+    <row r="34" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="30"/>
       <c r="B34" s="30"/>
       <c r="C34" s="16"/>
@@ -872,9 +943,9 @@
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1">
+    <row r="35" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B35" s="28"/>
       <c r="C35" s="20" t="s">
@@ -885,19 +956,19 @@
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1">
+    <row r="36" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1">
+    <row r="37" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D37" s="8"/>
       <c r="F37" s="17"/>
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1">
+    <row r="38" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="20"/>
       <c r="B38" s="26" t="s">
         <v>1</v>
@@ -907,7 +978,7 @@
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1">
+    <row r="39" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C39" s="7"/>
       <c r="D39" s="8"/>
       <c r="E39" s="15"/>
@@ -915,7 +986,7 @@
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1">
+    <row r="40" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C40" s="8"/>
       <c r="D40" s="8">
         <v>9</v>
@@ -925,7 +996,7 @@
       <c r="G40" s="12"/>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1">
+    <row r="41" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -935,7 +1006,7 @@
       <c r="H41" s="8"/>
       <c r="I41" s="15"/>
     </row>
-    <row r="42" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1">
+    <row r="42" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="20"/>
       <c r="C42" s="8"/>
       <c r="D42" s="6"/>
@@ -945,7 +1016,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1">
+    <row r="43" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C43" s="8">
         <v>5</v>
       </c>
@@ -954,20 +1025,20 @@
       <c r="F43" s="8"/>
       <c r="H43" s="8"/>
     </row>
-    <row r="44" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1">
+    <row r="44" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="H44" s="8"/>
     </row>
-    <row r="45" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1">
+    <row r="45" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C45" s="8"/>
       <c r="D45" s="18"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="H45" s="8"/>
     </row>
-    <row r="46" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1">
+    <row r="46" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="20"/>
       <c r="B46" s="26" t="s">
         <v>2</v>
@@ -977,23 +1048,23 @@
       <c r="F46" s="8"/>
       <c r="H46" s="8"/>
     </row>
-    <row r="47" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1">
+    <row r="47" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E47" s="8"/>
       <c r="F47" s="12"/>
       <c r="H47" s="8"/>
     </row>
-    <row r="48" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1">
+    <row r="48" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E48" s="4">
         <v>12</v>
       </c>
       <c r="F48" s="18"/>
       <c r="H48" s="8"/>
     </row>
-    <row r="49" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1">
+    <row r="49" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F49" s="18"/>
       <c r="H49" s="8"/>
     </row>
-    <row r="50" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1">
+    <row r="50" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="20"/>
       <c r="B50" s="16" t="s">
         <v>0</v>
@@ -1001,24 +1072,24 @@
       <c r="E50" s="8"/>
       <c r="H50" s="8"/>
     </row>
-    <row r="51" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1">
+    <row r="51" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C51" s="20" t="s">
         <v>5</v>
       </c>
       <c r="E51" s="8"/>
       <c r="H51" s="8"/>
     </row>
-    <row r="52" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1">
+    <row r="52" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D52" s="7"/>
       <c r="E52" s="19"/>
       <c r="H52" s="8"/>
     </row>
-    <row r="53" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1">
+    <row r="53" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D53" s="8"/>
       <c r="E53" s="19"/>
       <c r="H53" s="8"/>
     </row>
-    <row r="54" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1">
+    <row r="54" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="20"/>
       <c r="B54" s="26" t="s">
         <v>3</v>
@@ -1027,60 +1098,58 @@
       <c r="E54" s="19"/>
       <c r="H54" s="8"/>
     </row>
-    <row r="55" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1">
+    <row r="55" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C55" s="7"/>
       <c r="D55" s="8"/>
       <c r="E55" s="12"/>
       <c r="H55" s="6"/>
     </row>
-    <row r="56" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1">
+    <row r="56" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C56" s="8"/>
       <c r="D56" s="8">
         <v>10</v>
       </c>
       <c r="H56" s="23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I56" s="23"/>
     </row>
-    <row r="57" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1">
+    <row r="57" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C57" s="8"/>
       <c r="D57" s="8"/>
     </row>
-    <row r="58" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1">
+    <row r="58" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="20"/>
       <c r="C58" s="8"/>
       <c r="D58" s="12"/>
     </row>
-    <row r="59" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1">
+    <row r="59" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C59" s="8">
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1">
+    <row r="60" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C60" s="8"/>
     </row>
-    <row r="61" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1">
+    <row r="61" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C61" s="8"/>
     </row>
-    <row r="62" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1">
+    <row r="62" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="20"/>
       <c r="B62" s="26" t="s">
         <v>4</v>
       </c>
       <c r="C62" s="6"/>
     </row>
-    <row r="63" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1">
-      <c r="C63" s="27" t="s">
-        <v>7</v>
-      </c>
+    <row r="63" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C63" s="27"/>
       <c r="D63" s="27"/>
       <c r="E63" s="27"/>
       <c r="F63" s="27"/>
       <c r="G63" s="27"/>
       <c r="H63" s="27"/>
     </row>
-    <row r="64" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1">
+    <row r="64" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C64" s="27"/>
       <c r="D64" s="27"/>
       <c r="E64" s="27"/>
@@ -1088,7 +1157,7 @@
       <c r="G64" s="27"/>
       <c r="H64" s="27"/>
     </row>
-    <row r="65" spans="1:8" s="2" customFormat="1" ht="11.85" customHeight="1">
+    <row r="65" spans="1:8" s="2" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C65" s="27"/>
       <c r="D65" s="27"/>
       <c r="E65" s="27"/>
@@ -1096,7 +1165,7 @@
       <c r="G65" s="27"/>
       <c r="H65" s="27"/>
     </row>
-    <row r="66" spans="1:8" ht="11.85" customHeight="1">
+    <row r="66" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="21"/>
       <c r="C66" s="27"/>
       <c r="D66" s="27"/>
@@ -1105,7 +1174,7 @@
       <c r="G66" s="27"/>
       <c r="H66" s="27"/>
     </row>
-    <row r="67" spans="1:8" ht="13.5" customHeight="1">
+    <row r="67" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C67" s="27"/>
       <c r="D67" s="27"/>
       <c r="E67" s="27"/>
@@ -1121,7 +1190,8 @@
     <mergeCell ref="A34:B34"/>
     <mergeCell ref="C1:H2"/>
   </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.25" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/8-team-double.xlsx
+++ b/8-team-double.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUAWEI\Documents\GitHub\2018_world_cup_draw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A533FEE6-5101-4971-A44F-3A0E16B8F166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3271224-71A6-41E4-8F97-379B3BBCA896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>PrintYourBrackets</t>
   </si>
@@ -87,6 +87,22 @@
   </si>
   <si>
     <t>宫本宝藏</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙隆巴斯  0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>金贝贝   2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>约翰乔  0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿土伯  2</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -303,7 +319,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -345,6 +361,10 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -360,10 +380,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -704,8 +721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.375" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -720,27 +737,27 @@
     <row r="1" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="25"/>
       <c r="B1" s="24"/>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
       <c r="I1" s="24"/>
     </row>
     <row r="2" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
       <c r="I2" s="24"/>
     </row>
     <row r="3" spans="1:9" s="2" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
@@ -748,8 +765,8 @@
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="32" t="s">
-        <v>12</v>
+      <c r="B4" s="27" t="s">
+        <v>20</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -760,6 +777,9 @@
     </row>
     <row r="6" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="8"/>
+      <c r="C6" s="27" t="s">
+        <v>13</v>
+      </c>
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
@@ -770,8 +790,8 @@
       <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="33" t="s">
-        <v>13</v>
+      <c r="B8" s="28" t="s">
+        <v>21</v>
       </c>
       <c r="C8" s="8"/>
       <c r="F8" s="5"/>
@@ -793,8 +813,8 @@
       <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="34" t="s">
-        <v>14</v>
+      <c r="B12" s="29" t="s">
+        <v>22</v>
       </c>
       <c r="C12" s="8"/>
       <c r="E12" s="8"/>
@@ -807,7 +827,9 @@
     </row>
     <row r="14" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="8"/>
-      <c r="C14" s="12"/>
+      <c r="C14" s="36" t="s">
+        <v>15</v>
+      </c>
       <c r="E14" s="8"/>
       <c r="F14" s="11"/>
     </row>
@@ -819,8 +841,8 @@
       <c r="F15" s="11"/>
     </row>
     <row r="16" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="35" t="s">
-        <v>15</v>
+      <c r="B16" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="11"/>
@@ -842,7 +864,7 @@
       <c r="G19" s="8"/>
     </row>
     <row r="20" spans="2:8" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="27" t="s">
         <v>16</v>
       </c>
       <c r="E20" s="8"/>
@@ -867,7 +889,7 @@
       <c r="G23" s="8"/>
     </row>
     <row r="24" spans="2:8" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="33" t="s">
+      <c r="B24" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C24" s="8"/>
@@ -892,7 +914,7 @@
       <c r="G27" s="8"/>
     </row>
     <row r="28" spans="2:8" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="32" t="s">
+      <c r="B28" s="27" t="s">
         <v>18</v>
       </c>
       <c r="C28" s="8"/>
@@ -920,7 +942,7 @@
       <c r="H31" s="8"/>
     </row>
     <row r="32" spans="2:8" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="33" t="s">
+      <c r="B32" s="28" t="s">
         <v>19</v>
       </c>
       <c r="E32" s="20" t="s">
@@ -936,18 +958,18 @@
       <c r="H33" s="8"/>
     </row>
     <row r="34" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="30"/>
-      <c r="B34" s="30"/>
+      <c r="A34" s="34"/>
+      <c r="B34" s="34"/>
       <c r="C34" s="16"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
     </row>
     <row r="35" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="28" t="s">
+      <c r="A35" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B35" s="28"/>
+      <c r="B35" s="32"/>
       <c r="C35" s="20" t="s">
         <v>6</v>
       </c>
@@ -968,10 +990,13 @@
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="20"/>
       <c r="B38" s="26" t="s">
         <v>1</v>
+      </c>
+      <c r="C38" s="27" t="s">
+        <v>12</v>
       </c>
       <c r="D38" s="8"/>
       <c r="F38" s="17"/>
@@ -1038,12 +1063,14 @@
       <c r="F45" s="8"/>
       <c r="H45" s="8"/>
     </row>
-    <row r="46" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="20"/>
       <c r="B46" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C46" s="6"/>
+      <c r="C46" s="28" t="s">
+        <v>14</v>
+      </c>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="H46" s="8"/>
@@ -1142,45 +1169,45 @@
       <c r="C62" s="6"/>
     </row>
     <row r="63" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C63" s="27"/>
-      <c r="D63" s="27"/>
-      <c r="E63" s="27"/>
-      <c r="F63" s="27"/>
-      <c r="G63" s="27"/>
-      <c r="H63" s="27"/>
+      <c r="C63" s="31"/>
+      <c r="D63" s="31"/>
+      <c r="E63" s="31"/>
+      <c r="F63" s="31"/>
+      <c r="G63" s="31"/>
+      <c r="H63" s="31"/>
     </row>
     <row r="64" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C64" s="27"/>
-      <c r="D64" s="27"/>
-      <c r="E64" s="27"/>
-      <c r="F64" s="27"/>
-      <c r="G64" s="27"/>
-      <c r="H64" s="27"/>
+      <c r="C64" s="31"/>
+      <c r="D64" s="31"/>
+      <c r="E64" s="31"/>
+      <c r="F64" s="31"/>
+      <c r="G64" s="31"/>
+      <c r="H64" s="31"/>
     </row>
     <row r="65" spans="1:8" s="2" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C65" s="27"/>
-      <c r="D65" s="27"/>
-      <c r="E65" s="27"/>
-      <c r="F65" s="27"/>
-      <c r="G65" s="27"/>
-      <c r="H65" s="27"/>
+      <c r="C65" s="31"/>
+      <c r="D65" s="31"/>
+      <c r="E65" s="31"/>
+      <c r="F65" s="31"/>
+      <c r="G65" s="31"/>
+      <c r="H65" s="31"/>
     </row>
     <row r="66" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="21"/>
-      <c r="C66" s="27"/>
-      <c r="D66" s="27"/>
-      <c r="E66" s="27"/>
-      <c r="F66" s="27"/>
-      <c r="G66" s="27"/>
-      <c r="H66" s="27"/>
+      <c r="C66" s="31"/>
+      <c r="D66" s="31"/>
+      <c r="E66" s="31"/>
+      <c r="F66" s="31"/>
+      <c r="G66" s="31"/>
+      <c r="H66" s="31"/>
     </row>
     <row r="67" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C67" s="27"/>
-      <c r="D67" s="27"/>
-      <c r="E67" s="27"/>
-      <c r="F67" s="27"/>
-      <c r="G67" s="27"/>
-      <c r="H67" s="27"/>
+      <c r="C67" s="31"/>
+      <c r="D67" s="31"/>
+      <c r="E67" s="31"/>
+      <c r="F67" s="31"/>
+      <c r="G67" s="31"/>
+      <c r="H67" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/8-team-double.xlsx
+++ b/8-team-double.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUAWEI\Documents\GitHub\2018_world_cup_draw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3271224-71A6-41E4-8F97-379B3BBCA896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8131BAED-C25F-4A56-A35C-43E0D634B4B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>PrintYourBrackets</t>
   </si>
@@ -53,25 +53,6 @@
   </si>
   <si>
     <t>8 Team Double Elimination</t>
-  </si>
-  <si>
-    <t>L14 If First Loss</t>
-  </si>
-  <si>
-    <t>沙隆巴斯</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>金贝贝</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>约翰乔</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>阿土伯</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>莎拉公主</t>
@@ -103,6 +84,22 @@
   </si>
   <si>
     <t>阿土伯  2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">沙隆巴斯(0-2) </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>约翰乔(0-2)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>金贝贝(2-0)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿土伯(2-0)</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -110,7 +107,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,6 +181,13 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -364,7 +368,7 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -380,7 +384,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -721,8 +725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.375" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -766,7 +770,7 @@
     </row>
     <row r="4" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="27" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -778,7 +782,7 @@
     <row r="6" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="8"/>
       <c r="C6" s="27" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F6" s="5"/>
     </row>
@@ -790,8 +794,8 @@
       <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="28" t="s">
-        <v>21</v>
+      <c r="B8" s="36" t="s">
+        <v>16</v>
       </c>
       <c r="C8" s="8"/>
       <c r="F8" s="5"/>
@@ -814,7 +818,7 @@
     </row>
     <row r="12" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="29" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C12" s="8"/>
       <c r="E12" s="8"/>
@@ -827,8 +831,8 @@
     </row>
     <row r="14" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="8"/>
-      <c r="C14" s="36" t="s">
-        <v>15</v>
+      <c r="C14" s="30" t="s">
+        <v>22</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="11"/>
@@ -841,8 +845,8 @@
       <c r="F15" s="11"/>
     </row>
     <row r="16" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="30" t="s">
-        <v>23</v>
+      <c r="B16" s="36" t="s">
+        <v>18</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="11"/>
@@ -865,7 +869,7 @@
     </row>
     <row r="20" spans="2:8" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="27" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E20" s="8"/>
       <c r="G20" s="8"/>
@@ -890,7 +894,7 @@
     </row>
     <row r="24" spans="2:8" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="28" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C24" s="8"/>
       <c r="E24" s="8"/>
@@ -915,7 +919,7 @@
     </row>
     <row r="28" spans="2:8" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="27" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C28" s="8"/>
       <c r="G28" s="8"/>
@@ -926,46 +930,41 @@
       <c r="G29" s="8">
         <v>14</v>
       </c>
-      <c r="H29" s="9"/>
+      <c r="H29" s="10"/>
     </row>
     <row r="30" spans="2:8" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="8"/>
       <c r="C30" s="12"/>
       <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
     </row>
     <row r="31" spans="2:8" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="8">
         <v>4</v>
       </c>
       <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
     </row>
     <row r="32" spans="2:8" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="28" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E32" s="20" t="s">
         <v>9</v>
       </c>
       <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-    </row>
-    <row r="33" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C33" s="16"/>
       <c r="F33" s="7"/>
       <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-    </row>
-    <row r="34" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="34"/>
       <c r="B34" s="34"/>
       <c r="C34" s="16"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-    </row>
-    <row r="35" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="32" t="s">
         <v>7</v>
       </c>
@@ -976,42 +975,37 @@
       <c r="D35" s="14"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-    </row>
-    <row r="36" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-    </row>
-    <row r="37" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D37" s="8"/>
       <c r="F37" s="17"/>
       <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-    </row>
-    <row r="38" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="20"/>
       <c r="B38" s="26" t="s">
         <v>1</v>
       </c>
       <c r="C38" s="27" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D38" s="8"/>
       <c r="F38" s="17"/>
       <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-    </row>
-    <row r="39" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C39" s="7"/>
       <c r="D39" s="8"/>
       <c r="E39" s="15"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-    </row>
-    <row r="40" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C40" s="8"/>
       <c r="D40" s="8">
         <v>9</v>
@@ -1019,77 +1013,64 @@
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="12"/>
-      <c r="H40" s="8"/>
-    </row>
-    <row r="41" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8">
         <v>13</v>
       </c>
-      <c r="H41" s="8"/>
-      <c r="I41" s="15"/>
-    </row>
-    <row r="42" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="20"/>
       <c r="C42" s="8"/>
       <c r="D42" s="6"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
-      <c r="H42" s="8">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C43" s="8">
         <v>5</v>
       </c>
       <c r="D43" s="10"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
-      <c r="H43" s="8"/>
-    </row>
-    <row r="44" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
-      <c r="H44" s="8"/>
-    </row>
-    <row r="45" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C45" s="8"/>
       <c r="D45" s="18"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
-      <c r="H45" s="8"/>
-    </row>
-    <row r="46" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="20"/>
       <c r="B46" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C46" s="28" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
-      <c r="H46" s="8"/>
-    </row>
-    <row r="47" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E47" s="8"/>
       <c r="F47" s="12"/>
-      <c r="H47" s="8"/>
-    </row>
-    <row r="48" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E48" s="4">
         <v>12</v>
       </c>
       <c r="F48" s="18"/>
-      <c r="H48" s="8"/>
     </row>
     <row r="49" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F49" s="18"/>
-      <c r="H49" s="8"/>
     </row>
     <row r="50" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="20"/>
@@ -1097,24 +1078,20 @@
         <v>0</v>
       </c>
       <c r="E50" s="8"/>
-      <c r="H50" s="8"/>
     </row>
     <row r="51" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C51" s="20" t="s">
         <v>5</v>
       </c>
       <c r="E51" s="8"/>
-      <c r="H51" s="8"/>
     </row>
     <row r="52" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D52" s="7"/>
       <c r="E52" s="19"/>
-      <c r="H52" s="8"/>
     </row>
     <row r="53" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D53" s="8"/>
       <c r="E53" s="19"/>
-      <c r="H53" s="8"/>
     </row>
     <row r="54" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="20"/>
@@ -1123,22 +1100,18 @@
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="19"/>
-      <c r="H54" s="8"/>
     </row>
     <row r="55" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C55" s="7"/>
       <c r="D55" s="8"/>
       <c r="E55" s="12"/>
-      <c r="H55" s="6"/>
     </row>
     <row r="56" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C56" s="8"/>
       <c r="D56" s="8">
         <v>10</v>
       </c>
-      <c r="H56" s="23" t="s">
-        <v>11</v>
-      </c>
+      <c r="H56" s="23"/>
       <c r="I56" s="23"/>
     </row>
     <row r="57" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">

--- a/8-team-double.xlsx
+++ b/8-team-double.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUAWEI\Documents\GitHub\2018_world_cup_draw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lts\Documents\GitHub\2018_world_cup_draw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8131BAED-C25F-4A56-A35C-43E0D634B4B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9D4063A-4CA7-423B-AC20-DC3235A9C695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>PrintYourBrackets</t>
   </si>
@@ -55,22 +55,6 @@
     <t>8 Team Double Elimination</t>
   </si>
   <si>
-    <t>莎拉公主</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>钱夫人</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>忍太郎</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>宫本宝藏</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>沙隆巴斯  0</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -100,6 +84,38 @@
   </si>
   <si>
     <t>阿土伯(2-0)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>莎拉公主  2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱夫人  1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>忍太郎  2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>宫本宝藏  0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>忍太郎(2-0)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>莎拉公主(2-1)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱夫人(1-2)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>宫本宝藏(0-2)</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -323,7 +339,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -369,6 +385,7 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -384,7 +401,10 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -726,7 +746,7 @@
   <dimension ref="A1:I67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.375" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -741,27 +761,27 @@
     <row r="1" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="25"/>
       <c r="B1" s="24"/>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
       <c r="I1" s="24"/>
     </row>
     <row r="2" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
       <c r="I2" s="24"/>
     </row>
     <row r="3" spans="1:9" s="2" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
@@ -770,7 +790,7 @@
     </row>
     <row r="4" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="27" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -782,7 +802,7 @@
     <row r="6" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="8"/>
       <c r="C6" s="27" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F6" s="5"/>
     </row>
@@ -794,8 +814,8 @@
       <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="36" t="s">
-        <v>16</v>
+      <c r="B8" s="31" t="s">
+        <v>12</v>
       </c>
       <c r="C8" s="8"/>
       <c r="F8" s="5"/>
@@ -818,7 +838,7 @@
     </row>
     <row r="12" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="29" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C12" s="8"/>
       <c r="E12" s="8"/>
@@ -832,7 +852,7 @@
     <row r="14" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="8"/>
       <c r="C14" s="30" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="11"/>
@@ -845,8 +865,8 @@
       <c r="F15" s="11"/>
     </row>
     <row r="16" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="36" t="s">
-        <v>18</v>
+      <c r="B16" s="31" t="s">
+        <v>14</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="11"/>
@@ -868,8 +888,8 @@
       <c r="G19" s="8"/>
     </row>
     <row r="20" spans="2:8" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="27" t="s">
-        <v>11</v>
+      <c r="B20" s="40" t="s">
+        <v>19</v>
       </c>
       <c r="E20" s="8"/>
       <c r="G20" s="8"/>
@@ -879,8 +899,11 @@
       <c r="E21" s="8"/>
       <c r="G21" s="8"/>
     </row>
-    <row r="22" spans="2:8" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="8"/>
+      <c r="C22" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="E22" s="8"/>
       <c r="G22" s="8"/>
     </row>
@@ -894,7 +917,7 @@
     </row>
     <row r="24" spans="2:8" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="28" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C24" s="8"/>
       <c r="E24" s="8"/>
@@ -918,8 +941,8 @@
       <c r="G27" s="8"/>
     </row>
     <row r="28" spans="2:8" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="27" t="s">
-        <v>13</v>
+      <c r="B28" s="40" t="s">
+        <v>21</v>
       </c>
       <c r="C28" s="8"/>
       <c r="G28" s="8"/>
@@ -932,9 +955,11 @@
       </c>
       <c r="H29" s="10"/>
     </row>
-    <row r="30" spans="2:8" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="8"/>
-      <c r="C30" s="12"/>
+      <c r="C30" s="37" t="s">
+        <v>23</v>
+      </c>
       <c r="G30" s="8"/>
     </row>
     <row r="31" spans="2:8" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
@@ -945,7 +970,7 @@
     </row>
     <row r="32" spans="2:8" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="28" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E32" s="20" t="s">
         <v>9</v>
@@ -958,17 +983,17 @@
       <c r="G33" s="8"/>
     </row>
     <row r="34" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="34"/>
-      <c r="B34" s="34"/>
+      <c r="A34" s="35"/>
+      <c r="B34" s="35"/>
       <c r="C34" s="16"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
     </row>
     <row r="35" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="32" t="s">
+      <c r="A35" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B35" s="32"/>
+      <c r="B35" s="33"/>
       <c r="C35" s="20" t="s">
         <v>6</v>
       </c>
@@ -992,7 +1017,7 @@
         <v>1</v>
       </c>
       <c r="C38" s="27" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D38" s="8"/>
       <c r="F38" s="17"/>
@@ -1054,7 +1079,7 @@
         <v>2</v>
       </c>
       <c r="C46" s="28" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
@@ -1093,10 +1118,13 @@
       <c r="D53" s="8"/>
       <c r="E53" s="19"/>
     </row>
-    <row r="54" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="20"/>
       <c r="B54" s="26" t="s">
         <v>3</v>
+      </c>
+      <c r="C54" s="38" t="s">
+        <v>25</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="19"/>
@@ -1134,53 +1162,55 @@
     <row r="61" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C61" s="8"/>
     </row>
-    <row r="62" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="20"/>
       <c r="B62" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="C62" s="6"/>
+      <c r="C62" s="39" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="63" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C63" s="31"/>
-      <c r="D63" s="31"/>
-      <c r="E63" s="31"/>
-      <c r="F63" s="31"/>
-      <c r="G63" s="31"/>
-      <c r="H63" s="31"/>
+      <c r="C63" s="32"/>
+      <c r="D63" s="32"/>
+      <c r="E63" s="32"/>
+      <c r="F63" s="32"/>
+      <c r="G63" s="32"/>
+      <c r="H63" s="32"/>
     </row>
     <row r="64" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C64" s="31"/>
-      <c r="D64" s="31"/>
-      <c r="E64" s="31"/>
-      <c r="F64" s="31"/>
-      <c r="G64" s="31"/>
-      <c r="H64" s="31"/>
+      <c r="C64" s="32"/>
+      <c r="D64" s="32"/>
+      <c r="E64" s="32"/>
+      <c r="F64" s="32"/>
+      <c r="G64" s="32"/>
+      <c r="H64" s="32"/>
     </row>
     <row r="65" spans="1:8" s="2" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C65" s="31"/>
-      <c r="D65" s="31"/>
-      <c r="E65" s="31"/>
-      <c r="F65" s="31"/>
-      <c r="G65" s="31"/>
-      <c r="H65" s="31"/>
+      <c r="C65" s="32"/>
+      <c r="D65" s="32"/>
+      <c r="E65" s="32"/>
+      <c r="F65" s="32"/>
+      <c r="G65" s="32"/>
+      <c r="H65" s="32"/>
     </row>
     <row r="66" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="21"/>
-      <c r="C66" s="31"/>
-      <c r="D66" s="31"/>
-      <c r="E66" s="31"/>
-      <c r="F66" s="31"/>
-      <c r="G66" s="31"/>
-      <c r="H66" s="31"/>
+      <c r="C66" s="32"/>
+      <c r="D66" s="32"/>
+      <c r="E66" s="32"/>
+      <c r="F66" s="32"/>
+      <c r="G66" s="32"/>
+      <c r="H66" s="32"/>
     </row>
     <row r="67" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C67" s="31"/>
-      <c r="D67" s="31"/>
-      <c r="E67" s="31"/>
-      <c r="F67" s="31"/>
-      <c r="G67" s="31"/>
-      <c r="H67" s="31"/>
+      <c r="C67" s="32"/>
+      <c r="D67" s="32"/>
+      <c r="E67" s="32"/>
+      <c r="F67" s="32"/>
+      <c r="G67" s="32"/>
+      <c r="H67" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/8-team-double.xlsx
+++ b/8-team-double.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lts\Documents\GitHub\2018_world_cup_draw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUAWEI\Documents\GitHub\2018_world_cup_draw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9D4063A-4CA7-423B-AC20-DC3235A9C695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30425729-7C79-4670-AF02-91547F6BC3B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>PrintYourBrackets</t>
   </si>
@@ -71,14 +71,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">沙隆巴斯(0-2) </t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>约翰乔(0-2)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>金贝贝(2-0)</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -116,6 +108,18 @@
   </si>
   <si>
     <t>宫本宝藏(0-2)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>约翰乔(0-2)  2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙隆巴斯(0-2)  1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>约翰乔(2-3)</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -386,6 +390,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -401,10 +409,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -745,8 +749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.375" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -761,27 +765,27 @@
     <row r="1" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="25"/>
       <c r="B1" s="24"/>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
       <c r="I1" s="24"/>
     </row>
     <row r="2" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
       <c r="I2" s="24"/>
     </row>
     <row r="3" spans="1:9" s="2" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
@@ -802,7 +806,7 @@
     <row r="6" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="8"/>
       <c r="C6" s="27" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F6" s="5"/>
     </row>
@@ -852,7 +856,7 @@
     <row r="14" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="8"/>
       <c r="C14" s="30" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="11"/>
@@ -888,8 +892,8 @@
       <c r="G19" s="8"/>
     </row>
     <row r="20" spans="2:8" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="40" t="s">
-        <v>19</v>
+      <c r="B20" s="35" t="s">
+        <v>17</v>
       </c>
       <c r="E20" s="8"/>
       <c r="G20" s="8"/>
@@ -901,8 +905,8 @@
     </row>
     <row r="22" spans="2:8" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="8"/>
-      <c r="C22" s="38" t="s">
-        <v>24</v>
+      <c r="C22" s="33" t="s">
+        <v>22</v>
       </c>
       <c r="E22" s="8"/>
       <c r="G22" s="8"/>
@@ -917,7 +921,7 @@
     </row>
     <row r="24" spans="2:8" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="28" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C24" s="8"/>
       <c r="E24" s="8"/>
@@ -941,8 +945,8 @@
       <c r="G27" s="8"/>
     </row>
     <row r="28" spans="2:8" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="40" t="s">
-        <v>21</v>
+      <c r="B28" s="35" t="s">
+        <v>19</v>
       </c>
       <c r="C28" s="8"/>
       <c r="G28" s="8"/>
@@ -957,8 +961,8 @@
     </row>
     <row r="30" spans="2:8" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="8"/>
-      <c r="C30" s="37" t="s">
-        <v>23</v>
+      <c r="C30" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="G30" s="8"/>
     </row>
@@ -970,7 +974,7 @@
     </row>
     <row r="32" spans="2:8" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="28" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E32" s="20" t="s">
         <v>9</v>
@@ -983,17 +987,17 @@
       <c r="G33" s="8"/>
     </row>
     <row r="34" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="35"/>
-      <c r="B34" s="35"/>
+      <c r="A34" s="39"/>
+      <c r="B34" s="39"/>
       <c r="C34" s="16"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
     </row>
     <row r="35" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="33" t="s">
+      <c r="A35" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B35" s="33"/>
+      <c r="B35" s="37"/>
       <c r="C35" s="20" t="s">
         <v>6</v>
       </c>
@@ -1017,7 +1021,7 @@
         <v>1</v>
       </c>
       <c r="C38" s="27" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D38" s="8"/>
       <c r="F38" s="17"/>
@@ -1047,10 +1051,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="20"/>
       <c r="C42" s="8"/>
-      <c r="D42" s="6"/>
+      <c r="D42" s="34" t="s">
+        <v>27</v>
+      </c>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
     </row>
@@ -1078,8 +1084,8 @@
       <c r="B46" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C46" s="28" t="s">
-        <v>16</v>
+      <c r="C46" s="31" t="s">
+        <v>25</v>
       </c>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
@@ -1123,8 +1129,8 @@
       <c r="B54" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C54" s="38" t="s">
-        <v>25</v>
+      <c r="C54" s="33" t="s">
+        <v>23</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="19"/>
@@ -1167,50 +1173,50 @@
       <c r="B62" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="C62" s="39" t="s">
-        <v>26</v>
+      <c r="C62" s="34" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="63" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C63" s="32"/>
-      <c r="D63" s="32"/>
-      <c r="E63" s="32"/>
-      <c r="F63" s="32"/>
-      <c r="G63" s="32"/>
-      <c r="H63" s="32"/>
+      <c r="C63" s="36"/>
+      <c r="D63" s="36"/>
+      <c r="E63" s="36"/>
+      <c r="F63" s="36"/>
+      <c r="G63" s="36"/>
+      <c r="H63" s="36"/>
     </row>
     <row r="64" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C64" s="32"/>
-      <c r="D64" s="32"/>
-      <c r="E64" s="32"/>
-      <c r="F64" s="32"/>
-      <c r="G64" s="32"/>
-      <c r="H64" s="32"/>
+      <c r="C64" s="36"/>
+      <c r="D64" s="36"/>
+      <c r="E64" s="36"/>
+      <c r="F64" s="36"/>
+      <c r="G64" s="36"/>
+      <c r="H64" s="36"/>
     </row>
     <row r="65" spans="1:8" s="2" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C65" s="32"/>
-      <c r="D65" s="32"/>
-      <c r="E65" s="32"/>
-      <c r="F65" s="32"/>
-      <c r="G65" s="32"/>
-      <c r="H65" s="32"/>
+      <c r="C65" s="36"/>
+      <c r="D65" s="36"/>
+      <c r="E65" s="36"/>
+      <c r="F65" s="36"/>
+      <c r="G65" s="36"/>
+      <c r="H65" s="36"/>
     </row>
     <row r="66" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="21"/>
-      <c r="C66" s="32"/>
-      <c r="D66" s="32"/>
-      <c r="E66" s="32"/>
-      <c r="F66" s="32"/>
-      <c r="G66" s="32"/>
-      <c r="H66" s="32"/>
+      <c r="C66" s="36"/>
+      <c r="D66" s="36"/>
+      <c r="E66" s="36"/>
+      <c r="F66" s="36"/>
+      <c r="G66" s="36"/>
+      <c r="H66" s="36"/>
     </row>
     <row r="67" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C67" s="32"/>
-      <c r="D67" s="32"/>
-      <c r="E67" s="32"/>
-      <c r="F67" s="32"/>
-      <c r="G67" s="32"/>
-      <c r="H67" s="32"/>
+      <c r="C67" s="36"/>
+      <c r="D67" s="36"/>
+      <c r="E67" s="36"/>
+      <c r="F67" s="36"/>
+      <c r="G67" s="36"/>
+      <c r="H67" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/8-team-double.xlsx
+++ b/8-team-double.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUAWEI\Documents\GitHub\2018_world_cup_draw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lts\Documents\GitHub\2018_world_cup_draw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30425729-7C79-4670-AF02-91547F6BC3B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C1C163D-19B7-42FB-B02E-E9615E4A9F09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>PrintYourBrackets</t>
   </si>
@@ -103,14 +103,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>钱夫人(1-2)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>宫本宝藏(0-2)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>约翰乔(0-2)  2</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -120,6 +112,18 @@
   </si>
   <si>
     <t>约翰乔(2-3)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱夫人(1-2)  1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>宫本宝藏(0-2)  2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">宫本宝藏(2-3) </t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -749,8 +753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.375" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -1021,7 +1025,7 @@
         <v>1</v>
       </c>
       <c r="C38" s="27" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D38" s="8"/>
       <c r="F38" s="17"/>
@@ -1055,7 +1059,7 @@
       <c r="A42" s="20"/>
       <c r="C42" s="8"/>
       <c r="D42" s="34" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
@@ -1085,7 +1089,7 @@
         <v>2</v>
       </c>
       <c r="C46" s="31" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
@@ -1130,7 +1134,7 @@
         <v>3</v>
       </c>
       <c r="C54" s="33" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="19"/>
@@ -1152,10 +1156,12 @@
       <c r="C57" s="8"/>
       <c r="D57" s="8"/>
     </row>
-    <row r="58" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="20"/>
       <c r="C58" s="8"/>
-      <c r="D58" s="12"/>
+      <c r="D58" s="32" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="59" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C59" s="8">
@@ -1173,8 +1179,8 @@
       <c r="B62" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="C62" s="34" t="s">
-        <v>24</v>
+      <c r="C62" s="31" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="63" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">

--- a/8-team-double.xlsx
+++ b/8-team-double.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lts\Documents\GitHub\2018_world_cup_draw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C1C163D-19B7-42FB-B02E-E9615E4A9F09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{585763AC-8BC3-482B-80E9-8D402A113342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>PrintYourBrackets</t>
   </si>
@@ -71,14 +71,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>金贝贝(2-0)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>阿土伯(2-0)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>莎拉公主  2</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -124,6 +116,22 @@
   </si>
   <si>
     <t xml:space="preserve">宫本宝藏(2-3) </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>金贝贝(2-0)  2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿土伯(2-0)  1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>金贝贝(4-1)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿土伯(3-2)</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -753,8 +761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.375" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -809,8 +817,8 @@
     </row>
     <row r="6" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="8"/>
-      <c r="C6" s="27" t="s">
-        <v>15</v>
+      <c r="C6" s="35" t="s">
+        <v>27</v>
       </c>
       <c r="F6" s="5"/>
     </row>
@@ -834,6 +842,9 @@
     </row>
     <row r="10" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="8"/>
+      <c r="D10" s="33" t="s">
+        <v>29</v>
+      </c>
       <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
@@ -860,7 +871,7 @@
     <row r="14" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="8"/>
       <c r="C14" s="30" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="11"/>
@@ -897,7 +908,7 @@
     </row>
     <row r="20" spans="2:8" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="35" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E20" s="8"/>
       <c r="G20" s="8"/>
@@ -910,7 +921,7 @@
     <row r="22" spans="2:8" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="8"/>
       <c r="C22" s="33" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E22" s="8"/>
       <c r="G22" s="8"/>
@@ -925,7 +936,7 @@
     </row>
     <row r="24" spans="2:8" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="28" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C24" s="8"/>
       <c r="E24" s="8"/>
@@ -950,7 +961,7 @@
     </row>
     <row r="28" spans="2:8" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="35" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C28" s="8"/>
       <c r="G28" s="8"/>
@@ -966,7 +977,7 @@
     <row r="30" spans="2:8" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="8"/>
       <c r="C30" s="32" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G30" s="8"/>
     </row>
@@ -978,7 +989,7 @@
     </row>
     <row r="32" spans="2:8" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="28" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E32" s="20" t="s">
         <v>9</v>
@@ -1025,7 +1036,7 @@
         <v>1</v>
       </c>
       <c r="C38" s="27" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D38" s="8"/>
       <c r="F38" s="17"/>
@@ -1059,7 +1070,7 @@
       <c r="A42" s="20"/>
       <c r="C42" s="8"/>
       <c r="D42" s="34" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
@@ -1089,7 +1100,7 @@
         <v>2</v>
       </c>
       <c r="C46" s="31" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
@@ -1114,9 +1125,12 @@
       </c>
       <c r="E50" s="8"/>
     </row>
-    <row r="51" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C51" s="20" t="s">
         <v>5</v>
+      </c>
+      <c r="D51" s="33" t="s">
+        <v>30</v>
       </c>
       <c r="E51" s="8"/>
     </row>
@@ -1134,7 +1148,7 @@
         <v>3</v>
       </c>
       <c r="C54" s="33" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="19"/>
@@ -1160,7 +1174,7 @@
       <c r="A58" s="20"/>
       <c r="C58" s="8"/>
       <c r="D58" s="32" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="59" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
@@ -1180,7 +1194,7 @@
         <v>4</v>
       </c>
       <c r="C62" s="31" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">

--- a/8-team-double.xlsx
+++ b/8-team-double.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lts\Documents\GitHub\2018_world_cup_draw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUAWEI\Documents\GitHub\2018_world_cup_draw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{022A8160-DF2E-4447-A57E-10364640A757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB1193E-0E23-4327-84CE-7DCF4C603126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>PrintYourBrackets</t>
   </si>
@@ -92,10 +92,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>约翰乔(2-3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>钱夫人(1-2)  1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -136,11 +132,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>忍太郎(2-2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Winner's Bracket</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忍太郎(2-2)   0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>约翰乔(2-3)   2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>约翰乔(4-3)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -362,13 +366,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -387,12 +385,6 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -404,6 +396,18 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -745,487 +749,489 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.375" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.75" style="12" customWidth="1"/>
-    <col min="2" max="7" width="12.25" style="12" customWidth="1"/>
-    <col min="8" max="8" width="12.75" style="12" customWidth="1"/>
-    <col min="9" max="9" width="12.875" style="12" customWidth="1"/>
-    <col min="10" max="16384" width="17.375" style="12"/>
+    <col min="1" max="1" width="2.75" style="11" customWidth="1"/>
+    <col min="2" max="7" width="12.25" style="11" customWidth="1"/>
+    <col min="8" max="8" width="12.75" style="11" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="11" customWidth="1"/>
+    <col min="10" max="16384" width="17.375" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="9"/>
       <c r="B1" s="10"/>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
       <c r="I1" s="10"/>
     </row>
     <row r="2" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:9" s="14" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
+    <row r="3" spans="1:9" s="12" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
     </row>
     <row r="4" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
     </row>
     <row r="5" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="17"/>
-      <c r="F5" s="16"/>
+      <c r="B5" s="15"/>
+      <c r="F5" s="14"/>
     </row>
     <row r="6" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="18"/>
+      <c r="B6" s="16"/>
       <c r="C6" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="16"/>
+        <v>23</v>
+      </c>
+      <c r="F6" s="14"/>
     </row>
     <row r="7" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="18">
+      <c r="B7" s="16">
         <v>1</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="F7" s="16"/>
+      <c r="C7" s="15"/>
+      <c r="F7" s="14"/>
     </row>
     <row r="8" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="F8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="F8" s="14"/>
     </row>
     <row r="9" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="18"/>
-      <c r="F9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="F9" s="14"/>
     </row>
     <row r="10" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="18"/>
+      <c r="C10" s="16"/>
       <c r="D10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="16"/>
+        <v>25</v>
+      </c>
+      <c r="F10" s="14"/>
     </row>
     <row r="11" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="19">
+      <c r="C11" s="17">
         <v>7</v>
       </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="16"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="14"/>
     </row>
     <row r="12" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="E12" s="18"/>
+      <c r="C12" s="16"/>
+      <c r="E12" s="16"/>
     </row>
     <row r="13" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="17"/>
-      <c r="C13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="21"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="19"/>
     </row>
     <row r="14" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="18"/>
+      <c r="B14" s="16"/>
       <c r="C14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="18"/>
-      <c r="F14" s="21"/>
+        <v>24</v>
+      </c>
+      <c r="E14" s="16"/>
+      <c r="F14" s="19"/>
     </row>
     <row r="15" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="18">
+      <c r="B15" s="16">
         <v>2</v>
       </c>
-      <c r="E15" s="18"/>
-      <c r="F15" s="21"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="19"/>
     </row>
     <row r="16" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="18"/>
-      <c r="F16" s="21"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="19"/>
     </row>
     <row r="17" spans="2:8" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E17" s="18"/>
-      <c r="F17" s="22"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="20"/>
       <c r="G17" s="8"/>
     </row>
     <row r="18" spans="2:8" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E18" s="18">
+      <c r="E18" s="16">
         <v>11</v>
       </c>
-      <c r="F18" s="21"/>
-      <c r="G18" s="17"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="15"/>
     </row>
     <row r="19" spans="2:8" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E19" s="18"/>
-      <c r="G19" s="18"/>
+      <c r="E19" s="16"/>
+      <c r="G19" s="16"/>
     </row>
     <row r="20" spans="2:8" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="18"/>
-      <c r="G20" s="18"/>
+      <c r="E20" s="16"/>
+      <c r="G20" s="16"/>
     </row>
     <row r="21" spans="2:8" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="17"/>
-      <c r="E21" s="18"/>
-      <c r="G21" s="18"/>
+      <c r="B21" s="15"/>
+      <c r="E21" s="16"/>
+      <c r="G21" s="16"/>
     </row>
     <row r="22" spans="2:8" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="18"/>
+      <c r="B22" s="16"/>
       <c r="C22" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E22" s="18"/>
-      <c r="G22" s="18"/>
+        <v>27</v>
+      </c>
+      <c r="E22" s="16"/>
+      <c r="G22" s="16"/>
     </row>
     <row r="23" spans="2:8" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="18">
+      <c r="B23" s="16">
         <v>3</v>
       </c>
-      <c r="C23" s="23"/>
-      <c r="E23" s="18"/>
-      <c r="G23" s="18"/>
+      <c r="C23" s="21"/>
+      <c r="E23" s="16"/>
+      <c r="G23" s="16"/>
     </row>
     <row r="24" spans="2:8" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="G24" s="18"/>
+      <c r="C24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="G24" s="16"/>
     </row>
     <row r="25" spans="2:8" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="G25" s="18"/>
+      <c r="C25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="G25" s="16"/>
     </row>
     <row r="26" spans="2:8" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="18"/>
+      <c r="C26" s="16"/>
       <c r="D26" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E26" s="5"/>
-      <c r="G26" s="18"/>
+      <c r="G26" s="16"/>
     </row>
     <row r="27" spans="2:8" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="18">
+      <c r="C27" s="16">
         <v>8</v>
       </c>
-      <c r="G27" s="18"/>
+      <c r="G27" s="16"/>
     </row>
     <row r="28" spans="2:8" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="18"/>
-      <c r="G28" s="18"/>
+      <c r="C28" s="16"/>
+      <c r="G28" s="16"/>
     </row>
     <row r="29" spans="2:8" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="17"/>
-      <c r="C29" s="18"/>
-      <c r="G29" s="18">
+      <c r="B29" s="15"/>
+      <c r="C29" s="16"/>
+      <c r="G29" s="16">
         <v>14</v>
       </c>
-      <c r="H29" s="20"/>
+      <c r="H29" s="18"/>
     </row>
     <row r="30" spans="2:8" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="18"/>
+      <c r="B30" s="16"/>
       <c r="C30" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G30" s="18"/>
+        <v>28</v>
+      </c>
+      <c r="G30" s="16"/>
     </row>
     <row r="31" spans="2:8" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="18">
+      <c r="B31" s="16">
         <v>4</v>
       </c>
-      <c r="G31" s="18"/>
+      <c r="G31" s="16"/>
     </row>
     <row r="32" spans="2:8" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E32" s="24" t="s">
+      <c r="E32" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="G32" s="18"/>
+      <c r="G32" s="16"/>
     </row>
     <row r="33" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C33" s="25"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="18"/>
+      <c r="C33" s="23"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="16"/>
     </row>
     <row r="34" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="26"/>
-      <c r="B34" s="26"/>
-      <c r="C34" s="25"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
+      <c r="A34" s="33"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="23"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
     </row>
     <row r="35" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="27" t="s">
+      <c r="A35" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B35" s="27"/>
-      <c r="C35" s="24" t="s">
+      <c r="B35" s="31"/>
+      <c r="C35" s="22" t="s">
         <v>6</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
     </row>
     <row r="36" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
+      <c r="D36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
     </row>
     <row r="37" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D37" s="18"/>
-      <c r="F37" s="28"/>
-      <c r="G37" s="18"/>
+      <c r="D37" s="16"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="16"/>
     </row>
     <row r="38" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="24"/>
-      <c r="B38" s="29" t="s">
+      <c r="A38" s="22"/>
+      <c r="B38" s="25" t="s">
         <v>1</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D38" s="18"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="18"/>
+      <c r="D38" s="16"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="16"/>
     </row>
     <row r="39" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C39" s="17"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
     </row>
     <row r="40" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C40" s="18"/>
-      <c r="D40" s="18">
+      <c r="C40" s="16"/>
+      <c r="D40" s="16">
         <v>9</v>
       </c>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
       <c r="G40" s="3"/>
     </row>
     <row r="41" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18">
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16">
         <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="24"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
+      <c r="A42" s="22"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
     </row>
     <row r="43" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C43" s="18">
+      <c r="C43" s="16">
         <v>5</v>
       </c>
-      <c r="D43" s="20"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
     </row>
     <row r="44" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
+      <c r="C44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
     </row>
     <row r="45" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C45" s="18"/>
-      <c r="D45" s="30"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="18"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
     </row>
     <row r="46" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="24"/>
-      <c r="B46" s="29" t="s">
+      <c r="A46" s="22"/>
+      <c r="B46" s="25" t="s">
         <v>2</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E46" s="18"/>
-      <c r="F46" s="18"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
     </row>
     <row r="47" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E47" s="18"/>
+      <c r="E47" s="16"/>
       <c r="F47" s="3"/>
     </row>
     <row r="48" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E48" s="4">
         <v>12</v>
       </c>
-      <c r="F48" s="30"/>
+      <c r="F48" s="26"/>
     </row>
     <row r="49" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F49" s="30"/>
+      <c r="F49" s="26"/>
     </row>
     <row r="50" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="24"/>
-      <c r="B50" s="25" t="s">
+      <c r="A50" s="22"/>
+      <c r="B50" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="E50" s="18"/>
+      <c r="E50" s="16"/>
     </row>
     <row r="51" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C51" s="24" t="s">
+      <c r="C51" s="22" t="s">
         <v>5</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E51" s="18"/>
+        <v>26</v>
+      </c>
+      <c r="E51" s="16"/>
     </row>
     <row r="52" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D52" s="17"/>
-      <c r="E52" s="31"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="27"/>
     </row>
     <row r="53" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="18"/>
-      <c r="E53" s="31"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="27"/>
     </row>
     <row r="54" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="24"/>
-      <c r="B54" s="29" t="s">
+      <c r="A54" s="22"/>
+      <c r="B54" s="25" t="s">
         <v>3</v>
       </c>
       <c r="C54" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D54" s="16"/>
+      <c r="E54" s="27"/>
+    </row>
+    <row r="55" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C55" s="15"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="3"/>
+    </row>
+    <row r="56" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C56" s="16"/>
+      <c r="D56" s="16">
+        <v>10</v>
+      </c>
+      <c r="H56" s="28"/>
+      <c r="I56" s="28"/>
+    </row>
+    <row r="57" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C57" s="16"/>
+      <c r="D57" s="16"/>
+    </row>
+    <row r="58" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="22"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C59" s="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C60" s="16"/>
+    </row>
+    <row r="61" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C61" s="16"/>
+    </row>
+    <row r="62" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="22"/>
+      <c r="B62" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C62" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D54" s="18"/>
-      <c r="E54" s="31"/>
-    </row>
-    <row r="55" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C55" s="17"/>
-      <c r="D55" s="18"/>
-      <c r="E55" s="3"/>
-    </row>
-    <row r="56" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C56" s="18"/>
-      <c r="D56" s="18">
-        <v>10</v>
-      </c>
-      <c r="H56" s="32"/>
-      <c r="I56" s="32"/>
-    </row>
-    <row r="57" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C57" s="18"/>
-      <c r="D57" s="18"/>
-    </row>
-    <row r="58" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="24"/>
-      <c r="C58" s="18"/>
-      <c r="D58" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C59" s="18">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C60" s="18"/>
-    </row>
-    <row r="61" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C61" s="18"/>
-    </row>
-    <row r="62" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="24"/>
-      <c r="B62" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="63" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C63" s="11"/>
-      <c r="D63" s="11"/>
-      <c r="E63" s="11"/>
-      <c r="F63" s="11"/>
-      <c r="G63" s="11"/>
-      <c r="H63" s="11"/>
+      <c r="C63" s="30"/>
+      <c r="D63" s="30"/>
+      <c r="E63" s="30"/>
+      <c r="F63" s="30"/>
+      <c r="G63" s="30"/>
+      <c r="H63" s="30"/>
     </row>
     <row r="64" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C64" s="11"/>
-      <c r="D64" s="11"/>
-      <c r="E64" s="11"/>
-      <c r="F64" s="11"/>
-      <c r="G64" s="11"/>
-      <c r="H64" s="11"/>
-    </row>
-    <row r="65" spans="1:8" s="14" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C65" s="11"/>
-      <c r="D65" s="11"/>
-      <c r="E65" s="11"/>
-      <c r="F65" s="11"/>
-      <c r="G65" s="11"/>
-      <c r="H65" s="11"/>
+      <c r="C64" s="30"/>
+      <c r="D64" s="30"/>
+      <c r="E64" s="30"/>
+      <c r="F64" s="30"/>
+      <c r="G64" s="30"/>
+      <c r="H64" s="30"/>
+    </row>
+    <row r="65" spans="1:8" s="12" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C65" s="30"/>
+      <c r="D65" s="30"/>
+      <c r="E65" s="30"/>
+      <c r="F65" s="30"/>
+      <c r="G65" s="30"/>
+      <c r="H65" s="30"/>
     </row>
     <row r="66" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="33"/>
-      <c r="C66" s="11"/>
-      <c r="D66" s="11"/>
-      <c r="E66" s="11"/>
-      <c r="F66" s="11"/>
-      <c r="G66" s="11"/>
-      <c r="H66" s="11"/>
+      <c r="A66" s="29"/>
+      <c r="C66" s="30"/>
+      <c r="D66" s="30"/>
+      <c r="E66" s="30"/>
+      <c r="F66" s="30"/>
+      <c r="G66" s="30"/>
+      <c r="H66" s="30"/>
     </row>
     <row r="67" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C67" s="11"/>
-      <c r="D67" s="11"/>
-      <c r="E67" s="11"/>
-      <c r="F67" s="11"/>
-      <c r="G67" s="11"/>
-      <c r="H67" s="11"/>
+      <c r="C67" s="30"/>
+      <c r="D67" s="30"/>
+      <c r="E67" s="30"/>
+      <c r="F67" s="30"/>
+      <c r="G67" s="30"/>
+      <c r="H67" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/8-team-double.xlsx
+++ b/8-team-double.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUAWEI\Documents\GitHub\2018_world_cup_draw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB1193E-0E23-4327-84CE-7DCF4C603126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D114C5C3-4DAD-437E-95F7-F8EA0DE0A32C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>PrintYourBrackets</t>
   </si>
@@ -100,10 +100,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">宫本宝藏(2-3) </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>金贝贝(2-0)  2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -116,10 +112,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>阿土伯(3-2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>莎拉公主(2-1)   2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -145,6 +137,18 @@
   </si>
   <si>
     <t>约翰乔(4-3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿土伯(3-2)   2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宫本宝藏(2-3)    1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿土伯(5-3)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -749,8 +753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.375" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -788,7 +792,7 @@
     </row>
     <row r="3" spans="1:9" s="12" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
@@ -807,7 +811,7 @@
     <row r="6" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="16"/>
       <c r="C6" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F6" s="14"/>
     </row>
@@ -832,7 +836,7 @@
     <row r="10" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="16"/>
       <c r="D10" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F10" s="14"/>
     </row>
@@ -860,7 +864,7 @@
     <row r="14" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="16"/>
       <c r="C14" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E14" s="16"/>
       <c r="F14" s="19"/>
@@ -910,7 +914,7 @@
     <row r="22" spans="2:8" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="16"/>
       <c r="C22" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E22" s="16"/>
       <c r="G22" s="16"/>
@@ -939,7 +943,7 @@
     <row r="26" spans="2:8" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C26" s="16"/>
       <c r="D26" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E26" s="5"/>
       <c r="G26" s="16"/>
@@ -968,7 +972,7 @@
     <row r="30" spans="2:8" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="16"/>
       <c r="C30" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G30" s="16"/>
     </row>
@@ -1008,7 +1012,7 @@
         <v>6</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F35" s="16"/>
       <c r="G35" s="16"/>
@@ -1039,7 +1043,7 @@
       <c r="C39" s="15"/>
       <c r="D39" s="16"/>
       <c r="E39" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F39" s="16"/>
       <c r="G39" s="16"/>
@@ -1065,7 +1069,7 @@
       <c r="A42" s="22"/>
       <c r="C42" s="16"/>
       <c r="D42" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E42" s="16"/>
       <c r="F42" s="16"/>
@@ -1124,8 +1128,8 @@
       <c r="C51" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D51" s="4" t="s">
-        <v>26</v>
+      <c r="D51" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="E51" s="16"/>
     </row>
@@ -1151,7 +1155,9 @@
     <row r="55" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C55" s="15"/>
       <c r="D55" s="16"/>
-      <c r="E55" s="3"/>
+      <c r="E55" s="3" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="56" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C56" s="16"/>
@@ -1169,7 +1175,7 @@
       <c r="A58" s="22"/>
       <c r="C58" s="16"/>
       <c r="D58" s="3" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="59" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">

--- a/8-team-double.xlsx
+++ b/8-team-double.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUAWEI\Documents\GitHub\2018_world_cup_draw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D114C5C3-4DAD-437E-95F7-F8EA0DE0A32C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{469EEE0B-8FF8-44F7-A3AB-0876819EA4AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>PrintYourBrackets</t>
   </si>
@@ -108,10 +108,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>金贝贝(4-1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>莎拉公主(2-1)   2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -120,10 +116,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>莎拉公主(4-1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Winner's Bracket</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -149,6 +141,22 @@
   </si>
   <si>
     <t>阿土伯(5-3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金贝贝(4-1)   2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莎拉公主(4-1)   3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莎拉公主(7-3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金贝贝(6-4)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -156,7 +164,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,6 +229,12 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -356,7 +370,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -383,7 +397,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -404,6 +417,15 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -413,6 +435,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -751,10 +775,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I67"/>
+  <dimension ref="A1:I68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.375" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -769,482 +793,497 @@
     <row r="1" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="9"/>
       <c r="B1" s="10"/>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
       <c r="I1" s="10"/>
     </row>
     <row r="2" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:9" s="12" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-    </row>
-    <row r="4" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="4" t="s">
+    <row r="3" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="30"/>
+      <c r="B3" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="10"/>
+    </row>
+    <row r="4" spans="1:9" s="12" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+    </row>
+    <row r="5" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-    </row>
-    <row r="5" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="15"/>
+      <c r="E5" s="14"/>
       <c r="F5" s="14"/>
     </row>
     <row r="6" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="16"/>
-      <c r="C6" s="6" t="s">
+      <c r="B6" s="15"/>
+      <c r="F6" s="14"/>
+    </row>
+    <row r="7" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="16"/>
+      <c r="C7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="14"/>
-    </row>
-    <row r="7" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="16">
+      <c r="F7" s="14"/>
+    </row>
+    <row r="8" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="16">
         <v>1</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="F7" s="14"/>
-    </row>
-    <row r="8" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="15"/>
+      <c r="F8" s="14"/>
+    </row>
+    <row r="9" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="16"/>
-      <c r="F8" s="14"/>
-    </row>
-    <row r="9" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="16"/>
       <c r="F9" s="14"/>
     </row>
     <row r="10" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="16"/>
-      <c r="D10" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="F10" s="14"/>
     </row>
     <row r="11" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="17">
+      <c r="C11" s="16"/>
+      <c r="D11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="14"/>
+    </row>
+    <row r="12" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="17">
         <v>7</v>
       </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="14"/>
-    </row>
-    <row r="12" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="1" t="s">
+      <c r="D12" s="18"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="14"/>
+    </row>
+    <row r="13" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="E12" s="16"/>
-    </row>
-    <row r="13" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="15"/>
       <c r="C13" s="16"/>
       <c r="E13" s="16"/>
-      <c r="F13" s="19"/>
     </row>
     <row r="14" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="16"/>
-      <c r="C14" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="B14" s="15"/>
+      <c r="C14" s="16"/>
       <c r="E14" s="16"/>
       <c r="F14" s="19"/>
     </row>
     <row r="15" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="16">
-        <v>2</v>
+      <c r="B15" s="16"/>
+      <c r="C15" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="E15" s="16"/>
       <c r="F15" s="19"/>
     </row>
     <row r="16" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="2" t="s">
-        <v>13</v>
+      <c r="B16" s="16">
+        <v>2</v>
       </c>
       <c r="E16" s="16"/>
       <c r="F16" s="19"/>
     </row>
     <row r="17" spans="2:8" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="E17" s="16"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="8"/>
+      <c r="F17" s="19"/>
     </row>
     <row r="18" spans="2:8" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E18" s="16">
+      <c r="E18" s="16"/>
+      <c r="F18" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" s="8"/>
+    </row>
+    <row r="19" spans="2:8" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E19" s="16">
         <v>11</v>
       </c>
-      <c r="F18" s="19"/>
-      <c r="G18" s="15"/>
-    </row>
-    <row r="19" spans="2:8" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E19" s="16"/>
-      <c r="G19" s="16"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="15"/>
     </row>
     <row r="20" spans="2:8" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="E20" s="16"/>
       <c r="G20" s="16"/>
     </row>
     <row r="21" spans="2:8" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="15"/>
+      <c r="B21" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="E21" s="16"/>
       <c r="G21" s="16"/>
     </row>
     <row r="22" spans="2:8" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="16"/>
-      <c r="C22" s="6" t="s">
-        <v>25</v>
-      </c>
+      <c r="B22" s="15"/>
       <c r="E22" s="16"/>
       <c r="G22" s="16"/>
     </row>
     <row r="23" spans="2:8" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="16">
-        <v>3</v>
-      </c>
-      <c r="C23" s="21"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="E23" s="16"/>
       <c r="G23" s="16"/>
     </row>
     <row r="24" spans="2:8" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="16"/>
+      <c r="B24" s="16">
+        <v>3</v>
+      </c>
+      <c r="C24" s="20"/>
       <c r="E24" s="16"/>
       <c r="G24" s="16"/>
     </row>
     <row r="25" spans="2:8" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="C25" s="16"/>
       <c r="E25" s="16"/>
       <c r="G25" s="16"/>
     </row>
     <row r="26" spans="2:8" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C26" s="16"/>
-      <c r="D26" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E26" s="5"/>
+      <c r="E26" s="16"/>
       <c r="G26" s="16"/>
     </row>
     <row r="27" spans="2:8" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="16">
+      <c r="C27" s="16"/>
+      <c r="D27" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" s="5"/>
+      <c r="G27" s="16"/>
+    </row>
+    <row r="28" spans="2:8" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="16">
         <v>8</v>
       </c>
-      <c r="G27" s="16"/>
-    </row>
-    <row r="28" spans="2:8" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="6" t="s">
+      <c r="G28" s="16"/>
+    </row>
+    <row r="29" spans="2:8" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="16"/>
-      <c r="G28" s="16"/>
-    </row>
-    <row r="29" spans="2:8" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="15"/>
       <c r="C29" s="16"/>
-      <c r="G29" s="16">
+      <c r="G29" s="16"/>
+    </row>
+    <row r="30" spans="2:8" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="15"/>
+      <c r="C30" s="16"/>
+      <c r="G30" s="16">
         <v>14</v>
       </c>
-      <c r="H29" s="18"/>
-    </row>
-    <row r="30" spans="2:8" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="16"/>
-      <c r="C30" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G30" s="16"/>
+      <c r="H30" s="18"/>
     </row>
     <row r="31" spans="2:8" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="16">
+      <c r="B31" s="16"/>
+      <c r="C31" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G31" s="16"/>
+    </row>
+    <row r="32" spans="2:8" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="16">
         <v>4</v>
       </c>
-      <c r="G31" s="16"/>
-    </row>
-    <row r="32" spans="2:8" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="5" t="s">
+      <c r="G32" s="16"/>
+    </row>
+    <row r="33" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E32" s="22" t="s">
+      <c r="E33" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="G32" s="16"/>
-    </row>
-    <row r="33" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C33" s="23"/>
-      <c r="F33" s="15"/>
+      <c r="F33" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="G33" s="16"/>
     </row>
     <row r="34" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="33"/>
-      <c r="B34" s="33"/>
-      <c r="C34" s="23"/>
-      <c r="F34" s="16"/>
+      <c r="C34" s="22"/>
+      <c r="F34" s="15"/>
       <c r="G34" s="16"/>
     </row>
     <row r="35" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="B35" s="31"/>
-      <c r="C35" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>29</v>
-      </c>
+      <c r="A35" s="35"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="22"/>
       <c r="F35" s="16"/>
       <c r="G35" s="16"/>
     </row>
     <row r="36" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D36" s="16"/>
+      <c r="A36" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" s="33"/>
+      <c r="C36" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="F36" s="16"/>
       <c r="G36" s="16"/>
     </row>
     <row r="37" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D37" s="16"/>
-      <c r="F37" s="24"/>
+      <c r="F37" s="16"/>
       <c r="G37" s="16"/>
     </row>
     <row r="38" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="22"/>
-      <c r="B38" s="25" t="s">
+      <c r="D38" s="16"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="16"/>
+    </row>
+    <row r="39" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="21"/>
+      <c r="B39" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C39" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D38" s="16"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="16"/>
-    </row>
-    <row r="39" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C39" s="15"/>
       <c r="D39" s="16"/>
-      <c r="E39" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F39" s="16"/>
+      <c r="F39" s="23"/>
       <c r="G39" s="16"/>
     </row>
     <row r="40" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C40" s="16"/>
-      <c r="D40" s="16">
-        <v>9</v>
-      </c>
-      <c r="E40" s="16"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="7" t="s">
+        <v>29</v>
+      </c>
       <c r="F40" s="16"/>
-      <c r="G40" s="3"/>
+      <c r="G40" s="16"/>
     </row>
     <row r="41" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
+      <c r="D41" s="16">
+        <v>9</v>
+      </c>
       <c r="E41" s="16"/>
-      <c r="F41" s="16">
+      <c r="F41" s="16"/>
+      <c r="G41" s="3"/>
+    </row>
+    <row r="42" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16">
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="22"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-    </row>
     <row r="43" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C43" s="16">
-        <v>5</v>
-      </c>
-      <c r="D43" s="18"/>
+      <c r="A43" s="21"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="E43" s="16"/>
       <c r="F43" s="16"/>
     </row>
     <row r="44" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C44" s="16"/>
+      <c r="C44" s="16">
+        <v>5</v>
+      </c>
+      <c r="D44" s="18"/>
       <c r="E44" s="16"/>
       <c r="F44" s="16"/>
     </row>
     <row r="45" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C45" s="16"/>
-      <c r="D45" s="26"/>
       <c r="E45" s="16"/>
       <c r="F45" s="16"/>
     </row>
     <row r="46" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="22"/>
-      <c r="B46" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="C46" s="16"/>
+      <c r="D46" s="25"/>
       <c r="E46" s="16"/>
       <c r="F46" s="16"/>
     </row>
     <row r="47" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="21"/>
+      <c r="B47" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="E47" s="16"/>
-      <c r="F47" s="3"/>
+      <c r="F47" s="16"/>
     </row>
     <row r="48" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E48" s="4">
+      <c r="E48" s="16"/>
+      <c r="F48" s="3"/>
+    </row>
+    <row r="49" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E49" s="4">
         <v>12</v>
       </c>
-      <c r="F48" s="26"/>
-    </row>
-    <row r="49" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F49" s="26"/>
+      <c r="F49" s="25"/>
     </row>
     <row r="50" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="22"/>
-      <c r="B50" s="23" t="s">
+      <c r="F50" s="25"/>
+    </row>
+    <row r="51" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="21"/>
+      <c r="B51" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="E50" s="16"/>
-    </row>
-    <row r="51" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C51" s="22" t="s">
+      <c r="E51" s="16"/>
+    </row>
+    <row r="52" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C52" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D51" s="6" t="s">
+      <c r="D52" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E52" s="16"/>
+    </row>
+    <row r="53" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D53" s="15"/>
+      <c r="E53" s="26"/>
+    </row>
+    <row r="54" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D54" s="16"/>
+      <c r="E54" s="26"/>
+    </row>
+    <row r="55" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="21"/>
+      <c r="B55" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D55" s="16"/>
+      <c r="E55" s="26"/>
+    </row>
+    <row r="56" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C56" s="15"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E51" s="16"/>
-    </row>
-    <row r="52" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D52" s="15"/>
-      <c r="E52" s="27"/>
-    </row>
-    <row r="53" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="16"/>
-      <c r="E53" s="27"/>
-    </row>
-    <row r="54" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="22"/>
-      <c r="B54" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D54" s="16"/>
-      <c r="E54" s="27"/>
-    </row>
-    <row r="55" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C55" s="15"/>
-      <c r="D55" s="16"/>
-      <c r="E55" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C56" s="16"/>
-      <c r="D56" s="16">
-        <v>10</v>
-      </c>
-      <c r="H56" s="28"/>
-      <c r="I56" s="28"/>
     </row>
     <row r="57" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C57" s="16"/>
-      <c r="D57" s="16"/>
+      <c r="D57" s="16">
+        <v>10</v>
+      </c>
+      <c r="H57" s="27"/>
+      <c r="I57" s="27"/>
     </row>
     <row r="58" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="22"/>
       <c r="C58" s="16"/>
-      <c r="D58" s="3" t="s">
-        <v>33</v>
-      </c>
+      <c r="D58" s="16"/>
     </row>
     <row r="59" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C59" s="16">
+      <c r="A59" s="21"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C60" s="16">
         <v>6</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C60" s="16"/>
     </row>
     <row r="61" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C61" s="16"/>
     </row>
     <row r="62" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="22"/>
-      <c r="B62" s="25" t="s">
+      <c r="C62" s="16"/>
+    </row>
+    <row r="63" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="21"/>
+      <c r="B63" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C63" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="63" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C63" s="30"/>
-      <c r="D63" s="30"/>
-      <c r="E63" s="30"/>
-      <c r="F63" s="30"/>
-      <c r="G63" s="30"/>
-      <c r="H63" s="30"/>
-    </row>
     <row r="64" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C64" s="30"/>
-      <c r="D64" s="30"/>
-      <c r="E64" s="30"/>
-      <c r="F64" s="30"/>
-      <c r="G64" s="30"/>
-      <c r="H64" s="30"/>
-    </row>
-    <row r="65" spans="1:8" s="12" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C65" s="30"/>
-      <c r="D65" s="30"/>
-      <c r="E65" s="30"/>
-      <c r="F65" s="30"/>
-      <c r="G65" s="30"/>
-      <c r="H65" s="30"/>
-    </row>
-    <row r="66" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="29"/>
-      <c r="C66" s="30"/>
-      <c r="D66" s="30"/>
-      <c r="E66" s="30"/>
-      <c r="F66" s="30"/>
-      <c r="G66" s="30"/>
-      <c r="H66" s="30"/>
-    </row>
-    <row r="67" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C67" s="30"/>
-      <c r="D67" s="30"/>
-      <c r="E67" s="30"/>
-      <c r="F67" s="30"/>
-      <c r="G67" s="30"/>
-      <c r="H67" s="30"/>
+      <c r="C64" s="32"/>
+      <c r="D64" s="32"/>
+      <c r="E64" s="32"/>
+      <c r="F64" s="32"/>
+      <c r="G64" s="32"/>
+      <c r="H64" s="32"/>
+    </row>
+    <row r="65" spans="1:8" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C65" s="32"/>
+      <c r="D65" s="32"/>
+      <c r="E65" s="32"/>
+      <c r="F65" s="32"/>
+      <c r="G65" s="32"/>
+      <c r="H65" s="32"/>
+    </row>
+    <row r="66" spans="1:8" s="12" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C66" s="32"/>
+      <c r="D66" s="32"/>
+      <c r="E66" s="32"/>
+      <c r="F66" s="32"/>
+      <c r="G66" s="32"/>
+      <c r="H66" s="32"/>
+    </row>
+    <row r="67" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="28"/>
+      <c r="C67" s="32"/>
+      <c r="D67" s="32"/>
+      <c r="E67" s="32"/>
+      <c r="F67" s="32"/>
+      <c r="G67" s="32"/>
+      <c r="H67" s="32"/>
+    </row>
+    <row r="68" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C68" s="32"/>
+      <c r="D68" s="32"/>
+      <c r="E68" s="32"/>
+      <c r="F68" s="32"/>
+      <c r="G68" s="32"/>
+      <c r="H68" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="C63:H67"/>
+    <mergeCell ref="C64:H68"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A2:B2"/>
     <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A34:B34"/>
     <mergeCell ref="C1:H2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/8-team-double.xlsx
+++ b/8-team-double.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUAWEI\Documents\GitHub\2018_world_cup_draw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{469EEE0B-8FF8-44F7-A3AB-0876819EA4AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E06A18D-BD6D-4D75-A633-0F0BCE821C9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>PrintYourBrackets</t>
   </si>
@@ -128,10 +128,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>约翰乔(4-3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>阿土伯(3-2)   2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -140,10 +136,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>阿土伯(5-3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>金贝贝(4-1)   2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -157,6 +149,18 @@
   </si>
   <si>
     <t>金贝贝(6-4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>约翰乔(4-3)   2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿土伯(5-3)   3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿土伯(8-5)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -370,7 +374,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -423,6 +427,8 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -435,8 +441,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -777,8 +782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.375" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -793,25 +798,25 @@
     <row r="1" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="9"/>
       <c r="B1" s="10"/>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
       <c r="I1" s="10"/>
     </row>
     <row r="2" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
       <c r="I2" s="10"/>
     </row>
     <row r="3" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
@@ -870,7 +875,7 @@
     <row r="11" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="16"/>
       <c r="D11" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F11" s="14"/>
     </row>
@@ -919,8 +924,8 @@
     </row>
     <row r="18" spans="2:8" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E18" s="16"/>
-      <c r="F18" s="36" t="s">
-        <v>35</v>
+      <c r="F18" s="32" t="s">
+        <v>33</v>
       </c>
       <c r="G18" s="8"/>
     </row>
@@ -978,8 +983,8 @@
     </row>
     <row r="27" spans="2:8" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C27" s="16"/>
-      <c r="D27" s="37" t="s">
-        <v>34</v>
+      <c r="D27" s="33" t="s">
+        <v>32</v>
       </c>
       <c r="E27" s="5"/>
       <c r="G27" s="16"/>
@@ -1026,7 +1031,7 @@
         <v>8</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G33" s="16"/>
     </row>
@@ -1036,17 +1041,17 @@
       <c r="G34" s="16"/>
     </row>
     <row r="35" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="35"/>
-      <c r="B35" s="35"/>
+      <c r="A35" s="37"/>
+      <c r="B35" s="37"/>
       <c r="C35" s="22"/>
       <c r="F35" s="16"/>
       <c r="G35" s="16"/>
     </row>
     <row r="36" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="33" t="s">
+      <c r="A36" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="33"/>
+      <c r="B36" s="35"/>
       <c r="C36" s="21" t="s">
         <v>6</v>
       </c>
@@ -1082,7 +1087,7 @@
       <c r="C40" s="15"/>
       <c r="D40" s="16"/>
       <c r="E40" s="7" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F40" s="16"/>
       <c r="G40" s="16"/>
@@ -1145,7 +1150,9 @@
     </row>
     <row r="48" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E48" s="16"/>
-      <c r="F48" s="3"/>
+      <c r="F48" s="3" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="49" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E49" s="4">
@@ -1168,7 +1175,7 @@
         <v>5</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E52" s="16"/>
     </row>
@@ -1194,8 +1201,8 @@
     <row r="56" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C56" s="15"/>
       <c r="D56" s="16"/>
-      <c r="E56" s="3" t="s">
-        <v>32</v>
+      <c r="E56" s="38" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="57" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
@@ -1214,7 +1221,7 @@
       <c r="A59" s="21"/>
       <c r="C59" s="16"/>
       <c r="D59" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="60" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
@@ -1238,45 +1245,45 @@
       </c>
     </row>
     <row r="64" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C64" s="32"/>
-      <c r="D64" s="32"/>
-      <c r="E64" s="32"/>
-      <c r="F64" s="32"/>
-      <c r="G64" s="32"/>
-      <c r="H64" s="32"/>
+      <c r="C64" s="34"/>
+      <c r="D64" s="34"/>
+      <c r="E64" s="34"/>
+      <c r="F64" s="34"/>
+      <c r="G64" s="34"/>
+      <c r="H64" s="34"/>
     </row>
     <row r="65" spans="1:8" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C65" s="32"/>
-      <c r="D65" s="32"/>
-      <c r="E65" s="32"/>
-      <c r="F65" s="32"/>
-      <c r="G65" s="32"/>
-      <c r="H65" s="32"/>
+      <c r="C65" s="34"/>
+      <c r="D65" s="34"/>
+      <c r="E65" s="34"/>
+      <c r="F65" s="34"/>
+      <c r="G65" s="34"/>
+      <c r="H65" s="34"/>
     </row>
     <row r="66" spans="1:8" s="12" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C66" s="32"/>
-      <c r="D66" s="32"/>
-      <c r="E66" s="32"/>
-      <c r="F66" s="32"/>
-      <c r="G66" s="32"/>
-      <c r="H66" s="32"/>
+      <c r="C66" s="34"/>
+      <c r="D66" s="34"/>
+      <c r="E66" s="34"/>
+      <c r="F66" s="34"/>
+      <c r="G66" s="34"/>
+      <c r="H66" s="34"/>
     </row>
     <row r="67" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="28"/>
-      <c r="C67" s="32"/>
-      <c r="D67" s="32"/>
-      <c r="E67" s="32"/>
-      <c r="F67" s="32"/>
-      <c r="G67" s="32"/>
-      <c r="H67" s="32"/>
+      <c r="C67" s="34"/>
+      <c r="D67" s="34"/>
+      <c r="E67" s="34"/>
+      <c r="F67" s="34"/>
+      <c r="G67" s="34"/>
+      <c r="H67" s="34"/>
     </row>
     <row r="68" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C68" s="32"/>
-      <c r="D68" s="32"/>
-      <c r="E68" s="32"/>
-      <c r="F68" s="32"/>
-      <c r="G68" s="32"/>
-      <c r="H68" s="32"/>
+      <c r="C68" s="34"/>
+      <c r="D68" s="34"/>
+      <c r="E68" s="34"/>
+      <c r="F68" s="34"/>
+      <c r="G68" s="34"/>
+      <c r="H68" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/8-team-double.xlsx
+++ b/8-team-double.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUAWEI\Documents\GitHub\2018_world_cup_draw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E06A18D-BD6D-4D75-A633-0F0BCE821C9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01C68251-E055-4C5D-8CEA-A2969DCA8549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>PrintYourBrackets</t>
   </si>
@@ -148,10 +148,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>金贝贝(6-4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>约翰乔(4-3)   2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -160,7 +156,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>阿土伯(8-5)</t>
+    <t>金贝贝(6-4)   3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿土伯(8-5)   1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金贝贝(9-5)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -429,6 +433,7 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -441,7 +446,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -782,8 +786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.375" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -798,25 +802,25 @@
     <row r="1" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="9"/>
       <c r="B1" s="10"/>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
       <c r="I1" s="10"/>
     </row>
     <row r="2" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
       <c r="I2" s="10"/>
     </row>
     <row r="3" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
@@ -1030,8 +1034,8 @@
       <c r="E33" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="F33" s="4" t="s">
-        <v>34</v>
+      <c r="F33" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="G33" s="16"/>
     </row>
@@ -1041,17 +1045,17 @@
       <c r="G34" s="16"/>
     </row>
     <row r="35" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="37"/>
-      <c r="B35" s="37"/>
+      <c r="A35" s="38"/>
+      <c r="B35" s="38"/>
       <c r="C35" s="22"/>
       <c r="F35" s="16"/>
       <c r="G35" s="16"/>
     </row>
     <row r="36" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="35" t="s">
+      <c r="A36" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="35"/>
+      <c r="B36" s="36"/>
       <c r="C36" s="21" t="s">
         <v>6</v>
       </c>
@@ -1087,7 +1091,7 @@
       <c r="C40" s="15"/>
       <c r="D40" s="16"/>
       <c r="E40" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F40" s="16"/>
       <c r="G40" s="16"/>
@@ -1099,7 +1103,9 @@
       </c>
       <c r="E41" s="16"/>
       <c r="F41" s="16"/>
-      <c r="G41" s="3"/>
+      <c r="G41" s="3" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="42" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C42" s="16"/>
@@ -1201,8 +1207,8 @@
     <row r="56" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C56" s="15"/>
       <c r="D56" s="16"/>
-      <c r="E56" s="38" t="s">
-        <v>36</v>
+      <c r="E56" s="34" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="57" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
@@ -1245,45 +1251,45 @@
       </c>
     </row>
     <row r="64" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C64" s="34"/>
-      <c r="D64" s="34"/>
-      <c r="E64" s="34"/>
-      <c r="F64" s="34"/>
-      <c r="G64" s="34"/>
-      <c r="H64" s="34"/>
+      <c r="C64" s="35"/>
+      <c r="D64" s="35"/>
+      <c r="E64" s="35"/>
+      <c r="F64" s="35"/>
+      <c r="G64" s="35"/>
+      <c r="H64" s="35"/>
     </row>
     <row r="65" spans="1:8" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C65" s="34"/>
-      <c r="D65" s="34"/>
-      <c r="E65" s="34"/>
-      <c r="F65" s="34"/>
-      <c r="G65" s="34"/>
-      <c r="H65" s="34"/>
+      <c r="C65" s="35"/>
+      <c r="D65" s="35"/>
+      <c r="E65" s="35"/>
+      <c r="F65" s="35"/>
+      <c r="G65" s="35"/>
+      <c r="H65" s="35"/>
     </row>
     <row r="66" spans="1:8" s="12" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C66" s="34"/>
-      <c r="D66" s="34"/>
-      <c r="E66" s="34"/>
-      <c r="F66" s="34"/>
-      <c r="G66" s="34"/>
-      <c r="H66" s="34"/>
+      <c r="C66" s="35"/>
+      <c r="D66" s="35"/>
+      <c r="E66" s="35"/>
+      <c r="F66" s="35"/>
+      <c r="G66" s="35"/>
+      <c r="H66" s="35"/>
     </row>
     <row r="67" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="28"/>
-      <c r="C67" s="34"/>
-      <c r="D67" s="34"/>
-      <c r="E67" s="34"/>
-      <c r="F67" s="34"/>
-      <c r="G67" s="34"/>
-      <c r="H67" s="34"/>
+      <c r="C67" s="35"/>
+      <c r="D67" s="35"/>
+      <c r="E67" s="35"/>
+      <c r="F67" s="35"/>
+      <c r="G67" s="35"/>
+      <c r="H67" s="35"/>
     </row>
     <row r="68" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C68" s="34"/>
-      <c r="D68" s="34"/>
-      <c r="E68" s="34"/>
-      <c r="F68" s="34"/>
-      <c r="G68" s="34"/>
-      <c r="H68" s="34"/>
+      <c r="C68" s="35"/>
+      <c r="D68" s="35"/>
+      <c r="E68" s="35"/>
+      <c r="F68" s="35"/>
+      <c r="G68" s="35"/>
+      <c r="H68" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/8-team-double.xlsx
+++ b/8-team-double.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUAWEI\Documents\GitHub\2018_world_cup_draw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lts\Documents\GitHub\2018_world_cup_draw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01C68251-E055-4C5D-8CEA-A2969DCA8549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CC09F34-B625-411B-A5B1-CF6F238ED331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>PrintYourBrackets</t>
   </si>
@@ -144,10 +144,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>莎拉公主(7-3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>约翰乔(4-3)   2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -164,7 +160,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>金贝贝(9-5)</t>
+    <t>金贝贝(9-5)   3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莎拉公主(7-3)   1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">金贝贝(12-6) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总冠军！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -787,7 +795,7 @@
   <dimension ref="A1:I68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.375" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -919,44 +927,44 @@
       <c r="E16" s="16"/>
       <c r="F16" s="19"/>
     </row>
-    <row r="17" spans="2:8" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E17" s="16"/>
       <c r="F17" s="19"/>
     </row>
-    <row r="18" spans="2:8" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E18" s="16"/>
       <c r="F18" s="32" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G18" s="8"/>
     </row>
-    <row r="19" spans="2:8" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E19" s="16">
         <v>11</v>
       </c>
       <c r="F19" s="19"/>
       <c r="G19" s="15"/>
     </row>
-    <row r="20" spans="2:8" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E20" s="16"/>
       <c r="G20" s="16"/>
     </row>
-    <row r="21" spans="2:8" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E21" s="16"/>
       <c r="G21" s="16"/>
     </row>
-    <row r="22" spans="2:8" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="15"/>
       <c r="E22" s="16"/>
       <c r="G22" s="16"/>
     </row>
-    <row r="23" spans="2:8" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="16"/>
       <c r="C23" s="6" t="s">
         <v>24</v>
@@ -964,7 +972,7 @@
       <c r="E23" s="16"/>
       <c r="G23" s="16"/>
     </row>
-    <row r="24" spans="2:8" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="16">
         <v>3</v>
       </c>
@@ -972,7 +980,7 @@
       <c r="E24" s="16"/>
       <c r="G24" s="16"/>
     </row>
-    <row r="25" spans="2:8" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="5" t="s">
         <v>15</v>
       </c>
@@ -980,12 +988,12 @@
       <c r="E25" s="16"/>
       <c r="G25" s="16"/>
     </row>
-    <row r="26" spans="2:8" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C26" s="16"/>
       <c r="E26" s="16"/>
       <c r="G26" s="16"/>
     </row>
-    <row r="27" spans="2:8" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C27" s="16"/>
       <c r="D27" s="33" t="s">
         <v>32</v>
@@ -993,20 +1001,26 @@
       <c r="E27" s="5"/>
       <c r="G27" s="16"/>
     </row>
-    <row r="28" spans="2:8" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C28" s="16">
         <v>8</v>
       </c>
       <c r="G28" s="16"/>
     </row>
-    <row r="29" spans="2:8" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C29" s="16"/>
       <c r="G29" s="16"/>
-    </row>
-    <row r="30" spans="2:8" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H29" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="15"/>
       <c r="C30" s="16"/>
       <c r="G30" s="16">
@@ -1014,14 +1028,14 @@
       </c>
       <c r="H30" s="18"/>
     </row>
-    <row r="31" spans="2:8" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="16"/>
       <c r="C31" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G31" s="16"/>
     </row>
-    <row r="32" spans="2:8" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="16">
         <v>4</v>
       </c>
@@ -1035,7 +1049,7 @@
         <v>8</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G33" s="16"/>
     </row>
@@ -1091,7 +1105,7 @@
       <c r="C40" s="15"/>
       <c r="D40" s="16"/>
       <c r="E40" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F40" s="16"/>
       <c r="G40" s="16"/>
@@ -1103,8 +1117,8 @@
       </c>
       <c r="E41" s="16"/>
       <c r="F41" s="16"/>
-      <c r="G41" s="3" t="s">
-        <v>38</v>
+      <c r="G41" s="34" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
@@ -1157,7 +1171,7 @@
     <row r="48" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E48" s="16"/>
       <c r="F48" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="49" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
@@ -1208,7 +1222,7 @@
       <c r="C56" s="15"/>
       <c r="D56" s="16"/>
       <c r="E56" s="34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="57" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">

--- a/8-team-double.xlsx
+++ b/8-team-double.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lts\Documents\GitHub\2018_world_cup_draw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUAWEI\Documents\GitHub\2018_world_cup_draw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CC09F34-B625-411B-A5B1-CF6F238ED331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EB3A4D4-798E-4D20-B5DA-DA14526ACFDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="41">
   <si>
     <t>PrintYourBrackets</t>
   </si>
@@ -386,7 +387,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -442,6 +443,12 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -794,8 +801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView topLeftCell="A13" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="I37" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.375" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -810,25 +817,25 @@
     <row r="1" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="9"/>
       <c r="B1" s="10"/>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
       <c r="I1" s="10"/>
     </row>
     <row r="2" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="37"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
       <c r="I2" s="10"/>
     </row>
     <row r="3" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
@@ -1059,17 +1066,17 @@
       <c r="G34" s="16"/>
     </row>
     <row r="35" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="38"/>
-      <c r="B35" s="38"/>
+      <c r="A35" s="40"/>
+      <c r="B35" s="40"/>
       <c r="C35" s="22"/>
       <c r="F35" s="16"/>
       <c r="G35" s="16"/>
     </row>
     <row r="36" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="36" t="s">
+      <c r="A36" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="36"/>
+      <c r="B36" s="38"/>
       <c r="C36" s="21" t="s">
         <v>6</v>
       </c>
@@ -1265,45 +1272,45 @@
       </c>
     </row>
     <row r="64" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C64" s="35"/>
-      <c r="D64" s="35"/>
-      <c r="E64" s="35"/>
-      <c r="F64" s="35"/>
-      <c r="G64" s="35"/>
-      <c r="H64" s="35"/>
+      <c r="C64" s="37"/>
+      <c r="D64" s="37"/>
+      <c r="E64" s="37"/>
+      <c r="F64" s="37"/>
+      <c r="G64" s="37"/>
+      <c r="H64" s="37"/>
     </row>
     <row r="65" spans="1:8" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C65" s="35"/>
-      <c r="D65" s="35"/>
-      <c r="E65" s="35"/>
-      <c r="F65" s="35"/>
-      <c r="G65" s="35"/>
-      <c r="H65" s="35"/>
+      <c r="C65" s="37"/>
+      <c r="D65" s="37"/>
+      <c r="E65" s="37"/>
+      <c r="F65" s="37"/>
+      <c r="G65" s="37"/>
+      <c r="H65" s="37"/>
     </row>
     <row r="66" spans="1:8" s="12" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C66" s="35"/>
-      <c r="D66" s="35"/>
-      <c r="E66" s="35"/>
-      <c r="F66" s="35"/>
-      <c r="G66" s="35"/>
-      <c r="H66" s="35"/>
+      <c r="C66" s="37"/>
+      <c r="D66" s="37"/>
+      <c r="E66" s="37"/>
+      <c r="F66" s="37"/>
+      <c r="G66" s="37"/>
+      <c r="H66" s="37"/>
     </row>
     <row r="67" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="28"/>
-      <c r="C67" s="35"/>
-      <c r="D67" s="35"/>
-      <c r="E67" s="35"/>
-      <c r="F67" s="35"/>
-      <c r="G67" s="35"/>
-      <c r="H67" s="35"/>
+      <c r="C67" s="37"/>
+      <c r="D67" s="37"/>
+      <c r="E67" s="37"/>
+      <c r="F67" s="37"/>
+      <c r="G67" s="37"/>
+      <c r="H67" s="37"/>
     </row>
     <row r="68" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C68" s="35"/>
-      <c r="D68" s="35"/>
-      <c r="E68" s="35"/>
-      <c r="F68" s="35"/>
-      <c r="G68" s="35"/>
-      <c r="H68" s="35"/>
+      <c r="C68" s="37"/>
+      <c r="D68" s="37"/>
+      <c r="E68" s="37"/>
+      <c r="F68" s="37"/>
+      <c r="G68" s="37"/>
+      <c r="H68" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1317,4 +1324,533 @@
   <pageMargins left="0.25" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E2329AE-8E4E-42E7-B08B-4E199AF74E76}">
+  <dimension ref="A1:I68"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="17.375" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2.75" style="11" customWidth="1"/>
+    <col min="2" max="7" width="12.25" style="11" customWidth="1"/>
+    <col min="8" max="8" width="12.75" style="11" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="11" customWidth="1"/>
+    <col min="10" max="16384" width="17.375" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="10"/>
+    </row>
+    <row r="2" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="10"/>
+    </row>
+    <row r="3" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="36"/>
+      <c r="B3" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="10"/>
+    </row>
+    <row r="4" spans="1:9" s="12" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+    </row>
+    <row r="5" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+    </row>
+    <row r="6" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="15"/>
+      <c r="F6" s="14"/>
+    </row>
+    <row r="7" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="16"/>
+      <c r="C7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="14"/>
+    </row>
+    <row r="8" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="16">
+        <v>1</v>
+      </c>
+      <c r="C8" s="15"/>
+      <c r="F8" s="14"/>
+    </row>
+    <row r="9" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="F9" s="14"/>
+    </row>
+    <row r="10" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="16"/>
+      <c r="F10" s="14"/>
+    </row>
+    <row r="11" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="16"/>
+      <c r="D11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="14"/>
+    </row>
+    <row r="12" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="17">
+        <v>7</v>
+      </c>
+      <c r="D12" s="18"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="14"/>
+    </row>
+    <row r="13" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="16"/>
+      <c r="E13" s="16"/>
+    </row>
+    <row r="14" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="15"/>
+      <c r="C14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="19"/>
+    </row>
+    <row r="15" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="16"/>
+      <c r="C15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="16"/>
+      <c r="F15" s="19"/>
+    </row>
+    <row r="16" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="16">
+        <v>2</v>
+      </c>
+      <c r="E16" s="16"/>
+      <c r="F16" s="19"/>
+    </row>
+    <row r="17" spans="2:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="16"/>
+      <c r="F17" s="19"/>
+    </row>
+    <row r="18" spans="2:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E18" s="16"/>
+      <c r="F18" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="8"/>
+    </row>
+    <row r="19" spans="2:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E19" s="16">
+        <v>11</v>
+      </c>
+      <c r="F19" s="19"/>
+      <c r="G19" s="15"/>
+    </row>
+    <row r="20" spans="2:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E20" s="16"/>
+      <c r="G20" s="16"/>
+    </row>
+    <row r="21" spans="2:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="16"/>
+      <c r="G21" s="16"/>
+    </row>
+    <row r="22" spans="2:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="15"/>
+      <c r="E22" s="16"/>
+      <c r="G22" s="16"/>
+    </row>
+    <row r="23" spans="2:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="16"/>
+      <c r="C23" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="16"/>
+      <c r="G23" s="16"/>
+    </row>
+    <row r="24" spans="2:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="16">
+        <v>3</v>
+      </c>
+      <c r="C24" s="20"/>
+      <c r="E24" s="16"/>
+      <c r="G24" s="16"/>
+    </row>
+    <row r="25" spans="2:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="G25" s="16"/>
+    </row>
+    <row r="26" spans="2:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="G26" s="16"/>
+    </row>
+    <row r="27" spans="2:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="16"/>
+      <c r="D27" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" s="5"/>
+      <c r="G27" s="16"/>
+    </row>
+    <row r="28" spans="2:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="16">
+        <v>8</v>
+      </c>
+      <c r="G28" s="16"/>
+    </row>
+    <row r="29" spans="2:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="15"/>
+      <c r="C30" s="16"/>
+      <c r="G30" s="16">
+        <v>14</v>
+      </c>
+      <c r="H30" s="18"/>
+    </row>
+    <row r="31" spans="2:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="16"/>
+      <c r="C31" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G31" s="16"/>
+    </row>
+    <row r="32" spans="2:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="16">
+        <v>4</v>
+      </c>
+      <c r="G32" s="16"/>
+    </row>
+    <row r="33" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G33" s="16"/>
+    </row>
+    <row r="34" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C34" s="22"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="16"/>
+    </row>
+    <row r="35" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="40"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="22"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+    </row>
+    <row r="36" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" s="38"/>
+      <c r="C36" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+    </row>
+    <row r="37" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+    </row>
+    <row r="38" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D38" s="16"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="16"/>
+    </row>
+    <row r="39" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="21"/>
+      <c r="B39" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" s="16"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="16"/>
+    </row>
+    <row r="40" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C40" s="15"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+    </row>
+    <row r="41" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C41" s="16"/>
+      <c r="D41" s="16">
+        <v>9</v>
+      </c>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="21"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+    </row>
+    <row r="44" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C44" s="16">
+        <v>5</v>
+      </c>
+      <c r="D44" s="18"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+    </row>
+    <row r="45" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
+    </row>
+    <row r="46" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C46" s="16"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
+    </row>
+    <row r="47" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="21"/>
+      <c r="B47" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+    </row>
+    <row r="48" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E48" s="16"/>
+      <c r="F48" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E49" s="4">
+        <v>12</v>
+      </c>
+      <c r="F49" s="25"/>
+    </row>
+    <row r="50" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F50" s="25"/>
+    </row>
+    <row r="51" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="21"/>
+      <c r="B51" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="E51" s="16"/>
+    </row>
+    <row r="52" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C52" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E52" s="16"/>
+    </row>
+    <row r="53" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D53" s="15"/>
+      <c r="E53" s="26"/>
+    </row>
+    <row r="54" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D54" s="16"/>
+      <c r="E54" s="26"/>
+    </row>
+    <row r="55" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="21"/>
+      <c r="B55" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D55" s="16"/>
+      <c r="E55" s="26"/>
+    </row>
+    <row r="56" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C56" s="15"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="34" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C57" s="16"/>
+      <c r="D57" s="16">
+        <v>10</v>
+      </c>
+      <c r="H57" s="27"/>
+      <c r="I57" s="27"/>
+    </row>
+    <row r="58" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C58" s="16"/>
+      <c r="D58" s="16"/>
+    </row>
+    <row r="59" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="21"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C60" s="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C61" s="16"/>
+    </row>
+    <row r="62" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C62" s="16"/>
+    </row>
+    <row r="63" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="21"/>
+      <c r="B63" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C64" s="37"/>
+      <c r="D64" s="37"/>
+      <c r="E64" s="37"/>
+      <c r="F64" s="37"/>
+      <c r="G64" s="37"/>
+      <c r="H64" s="37"/>
+    </row>
+    <row r="65" spans="1:8" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C65" s="37"/>
+      <c r="D65" s="37"/>
+      <c r="E65" s="37"/>
+      <c r="F65" s="37"/>
+      <c r="G65" s="37"/>
+      <c r="H65" s="37"/>
+    </row>
+    <row r="66" spans="1:8" s="12" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C66" s="37"/>
+      <c r="D66" s="37"/>
+      <c r="E66" s="37"/>
+      <c r="F66" s="37"/>
+      <c r="G66" s="37"/>
+      <c r="H66" s="37"/>
+    </row>
+    <row r="67" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="28"/>
+      <c r="C67" s="37"/>
+      <c r="D67" s="37"/>
+      <c r="E67" s="37"/>
+      <c r="F67" s="37"/>
+      <c r="G67" s="37"/>
+      <c r="H67" s="37"/>
+    </row>
+    <row r="68" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C68" s="37"/>
+      <c r="D68" s="37"/>
+      <c r="E68" s="37"/>
+      <c r="F68" s="37"/>
+      <c r="G68" s="37"/>
+      <c r="H68" s="37"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="C1:H2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C64:H68"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/8-team-double.xlsx
+++ b/8-team-double.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUAWEI\Documents\GitHub\2018_world_cup_draw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lts\Documents\GitHub\2018_world_cup_draw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EB3A4D4-798E-4D20-B5DA-DA14526ACFDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F6B60D-8C36-4098-87E5-303373F4748D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="49">
   <si>
     <t>PrintYourBrackets</t>
   </si>
@@ -174,6 +175,38 @@
   </si>
   <si>
     <t>总冠军！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金贝贝(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乌咪(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莎拉公主(3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">沙隆巴斯(4)  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小丹尼(5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙小美(6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忍太郎(7)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱夫人(8)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -387,7 +420,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -452,6 +485,12 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -461,6 +500,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -817,25 +858,25 @@
     <row r="1" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="9"/>
       <c r="B1" s="10"/>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
       <c r="I1" s="10"/>
     </row>
     <row r="2" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
       <c r="I2" s="10"/>
     </row>
     <row r="3" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
@@ -1066,17 +1107,17 @@
       <c r="G34" s="16"/>
     </row>
     <row r="35" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="40"/>
-      <c r="B35" s="40"/>
+      <c r="A35" s="42"/>
+      <c r="B35" s="42"/>
       <c r="C35" s="22"/>
       <c r="F35" s="16"/>
       <c r="G35" s="16"/>
     </row>
     <row r="36" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="38" t="s">
+      <c r="A36" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="38"/>
+      <c r="B36" s="40"/>
       <c r="C36" s="21" t="s">
         <v>6</v>
       </c>
@@ -1272,45 +1313,45 @@
       </c>
     </row>
     <row r="64" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C64" s="37"/>
-      <c r="D64" s="37"/>
-      <c r="E64" s="37"/>
-      <c r="F64" s="37"/>
-      <c r="G64" s="37"/>
-      <c r="H64" s="37"/>
+      <c r="C64" s="39"/>
+      <c r="D64" s="39"/>
+      <c r="E64" s="39"/>
+      <c r="F64" s="39"/>
+      <c r="G64" s="39"/>
+      <c r="H64" s="39"/>
     </row>
     <row r="65" spans="1:8" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C65" s="37"/>
-      <c r="D65" s="37"/>
-      <c r="E65" s="37"/>
-      <c r="F65" s="37"/>
-      <c r="G65" s="37"/>
-      <c r="H65" s="37"/>
+      <c r="C65" s="39"/>
+      <c r="D65" s="39"/>
+      <c r="E65" s="39"/>
+      <c r="F65" s="39"/>
+      <c r="G65" s="39"/>
+      <c r="H65" s="39"/>
     </row>
     <row r="66" spans="1:8" s="12" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C66" s="37"/>
-      <c r="D66" s="37"/>
-      <c r="E66" s="37"/>
-      <c r="F66" s="37"/>
-      <c r="G66" s="37"/>
-      <c r="H66" s="37"/>
+      <c r="C66" s="39"/>
+      <c r="D66" s="39"/>
+      <c r="E66" s="39"/>
+      <c r="F66" s="39"/>
+      <c r="G66" s="39"/>
+      <c r="H66" s="39"/>
     </row>
     <row r="67" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="28"/>
-      <c r="C67" s="37"/>
-      <c r="D67" s="37"/>
-      <c r="E67" s="37"/>
-      <c r="F67" s="37"/>
-      <c r="G67" s="37"/>
-      <c r="H67" s="37"/>
+      <c r="C67" s="39"/>
+      <c r="D67" s="39"/>
+      <c r="E67" s="39"/>
+      <c r="F67" s="39"/>
+      <c r="G67" s="39"/>
+      <c r="H67" s="39"/>
     </row>
     <row r="68" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C68" s="37"/>
-      <c r="D68" s="37"/>
-      <c r="E68" s="37"/>
-      <c r="F68" s="37"/>
-      <c r="G68" s="37"/>
-      <c r="H68" s="37"/>
+      <c r="C68" s="39"/>
+      <c r="D68" s="39"/>
+      <c r="E68" s="39"/>
+      <c r="F68" s="39"/>
+      <c r="G68" s="39"/>
+      <c r="H68" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1330,11 +1371,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E2329AE-8E4E-42E7-B08B-4E199AF74E76}">
   <dimension ref="A1:I68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.375" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="17.375" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.75" style="11" customWidth="1"/>
     <col min="2" max="7" width="12.25" style="11" customWidth="1"/>
@@ -1346,25 +1387,25 @@
     <row r="1" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="9"/>
       <c r="B1" s="10"/>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
       <c r="I1" s="10"/>
     </row>
     <row r="2" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
       <c r="I2" s="10"/>
     </row>
     <row r="3" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
@@ -1386,7 +1427,7 @@
     </row>
     <row r="5" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
@@ -1397,9 +1438,7 @@
     </row>
     <row r="7" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="16"/>
-      <c r="C7" s="6" t="s">
-        <v>22</v>
-      </c>
+      <c r="C7" s="6"/>
       <c r="F7" s="14"/>
     </row>
     <row r="8" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
@@ -1410,8 +1449,8 @@
       <c r="F8" s="14"/>
     </row>
     <row r="9" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="2" t="s">
-        <v>11</v>
+      <c r="B9" s="43" t="s">
+        <v>46</v>
       </c>
       <c r="C9" s="16"/>
       <c r="F9" s="14"/>
@@ -1422,9 +1461,6 @@
     </row>
     <row r="11" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="16"/>
-      <c r="D11" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="F11" s="14"/>
     </row>
     <row r="12" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
@@ -1437,7 +1473,7 @@
     </row>
     <row r="13" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="C13" s="16"/>
       <c r="E13" s="16"/>
@@ -1450,9 +1486,7 @@
     </row>
     <row r="15" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="16"/>
-      <c r="C15" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="C15" s="3"/>
       <c r="E15" s="16"/>
       <c r="F15" s="19"/>
     </row>
@@ -1464,17 +1498,15 @@
       <c r="F16" s="19"/>
     </row>
     <row r="17" spans="2:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="2" t="s">
-        <v>13</v>
+      <c r="B17" s="43" t="s">
+        <v>47</v>
       </c>
       <c r="E17" s="16"/>
       <c r="F17" s="19"/>
     </row>
     <row r="18" spans="2:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E18" s="16"/>
-      <c r="F18" s="32" t="s">
-        <v>38</v>
-      </c>
+      <c r="F18" s="32"/>
       <c r="G18" s="8"/>
     </row>
     <row r="19" spans="2:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
@@ -1489,8 +1521,8 @@
       <c r="G20" s="16"/>
     </row>
     <row r="21" spans="2:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="6" t="s">
-        <v>14</v>
+      <c r="B21" s="44" t="s">
+        <v>42</v>
       </c>
       <c r="E21" s="16"/>
       <c r="G21" s="16"/>
@@ -1502,9 +1534,7 @@
     </row>
     <row r="23" spans="2:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="16"/>
-      <c r="C23" s="6" t="s">
-        <v>24</v>
-      </c>
+      <c r="C23" s="6"/>
       <c r="E23" s="16"/>
       <c r="G23" s="16"/>
     </row>
@@ -1518,7 +1548,7 @@
     </row>
     <row r="25" spans="2:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="5" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="C25" s="16"/>
       <c r="E25" s="16"/>
@@ -1531,9 +1561,7 @@
     </row>
     <row r="27" spans="2:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C27" s="16"/>
-      <c r="D27" s="33" t="s">
-        <v>32</v>
-      </c>
+      <c r="D27" s="33"/>
       <c r="E27" s="5"/>
       <c r="G27" s="16"/>
     </row>
@@ -1544,14 +1572,11 @@
       <c r="G28" s="16"/>
     </row>
     <row r="29" spans="2:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="6" t="s">
-        <v>16</v>
+      <c r="B29" s="44" t="s">
+        <v>41</v>
       </c>
       <c r="C29" s="16"/>
       <c r="G29" s="16"/>
-      <c r="H29" s="4" t="s">
-        <v>39</v>
-      </c>
       <c r="I29" s="8" t="s">
         <v>40</v>
       </c>
@@ -1566,9 +1591,7 @@
     </row>
     <row r="31" spans="2:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="16"/>
-      <c r="C31" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="C31" s="3"/>
       <c r="G31" s="16"/>
     </row>
     <row r="32" spans="2:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
@@ -1579,14 +1602,12 @@
     </row>
     <row r="33" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="5" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="E33" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="F33" s="6" t="s">
-        <v>35</v>
-      </c>
+      <c r="F33" s="6"/>
       <c r="G33" s="16"/>
     </row>
     <row r="34" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
@@ -1595,23 +1616,21 @@
       <c r="G34" s="16"/>
     </row>
     <row r="35" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="40"/>
-      <c r="B35" s="40"/>
+      <c r="A35" s="42"/>
+      <c r="B35" s="42"/>
       <c r="C35" s="22"/>
       <c r="F35" s="16"/>
       <c r="G35" s="16"/>
     </row>
     <row r="36" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="38" t="s">
+      <c r="A36" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="38"/>
+      <c r="B36" s="40"/>
       <c r="C36" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D36" s="8" t="s">
-        <v>27</v>
-      </c>
+      <c r="D36" s="8"/>
       <c r="F36" s="16"/>
       <c r="G36" s="16"/>
     </row>
@@ -1630,9 +1649,6 @@
       <c r="B39" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C39" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="D39" s="16"/>
       <c r="F39" s="23"/>
       <c r="G39" s="16"/>
@@ -1640,9 +1656,7 @@
     <row r="40" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C40" s="15"/>
       <c r="D40" s="16"/>
-      <c r="E40" s="7" t="s">
-        <v>33</v>
-      </c>
+      <c r="E40" s="7"/>
       <c r="F40" s="16"/>
       <c r="G40" s="16"/>
     </row>
@@ -1653,9 +1667,7 @@
       </c>
       <c r="E41" s="16"/>
       <c r="F41" s="16"/>
-      <c r="G41" s="34" t="s">
-        <v>37</v>
-      </c>
+      <c r="G41" s="34"/>
     </row>
     <row r="42" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C42" s="16"/>
@@ -1668,9 +1680,7 @@
     <row r="43" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="21"/>
       <c r="C43" s="16"/>
-      <c r="D43" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="D43" s="2"/>
       <c r="E43" s="16"/>
       <c r="F43" s="16"/>
     </row>
@@ -1698,17 +1708,13 @@
       <c r="B47" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="C47" s="2"/>
       <c r="E47" s="16"/>
       <c r="F47" s="16"/>
     </row>
     <row r="48" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E48" s="16"/>
-      <c r="F48" s="3" t="s">
-        <v>36</v>
-      </c>
+      <c r="F48" s="3"/>
     </row>
     <row r="49" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E49" s="4">
@@ -1730,9 +1736,7 @@
       <c r="C52" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D52" s="6" t="s">
-        <v>29</v>
-      </c>
+      <c r="D52" s="6"/>
       <c r="E52" s="16"/>
     </row>
     <row r="53" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
@@ -1748,18 +1752,13 @@
       <c r="B55" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C55" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="D55" s="16"/>
       <c r="E55" s="26"/>
     </row>
     <row r="56" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C56" s="15"/>
       <c r="D56" s="16"/>
-      <c r="E56" s="34" t="s">
-        <v>34</v>
-      </c>
+      <c r="E56" s="34"/>
     </row>
     <row r="57" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C57" s="16"/>
@@ -1776,9 +1775,7 @@
     <row r="59" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="21"/>
       <c r="C59" s="16"/>
-      <c r="D59" s="3" t="s">
-        <v>30</v>
-      </c>
+      <c r="D59" s="3"/>
     </row>
     <row r="60" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C60" s="16">
@@ -1796,50 +1793,514 @@
       <c r="B63" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="C63" s="2"/>
     </row>
     <row r="64" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C64" s="37"/>
-      <c r="D64" s="37"/>
-      <c r="E64" s="37"/>
-      <c r="F64" s="37"/>
-      <c r="G64" s="37"/>
-      <c r="H64" s="37"/>
+      <c r="C64" s="39"/>
+      <c r="D64" s="39"/>
+      <c r="E64" s="39"/>
+      <c r="F64" s="39"/>
+      <c r="G64" s="39"/>
+      <c r="H64" s="39"/>
     </row>
     <row r="65" spans="1:8" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C65" s="37"/>
-      <c r="D65" s="37"/>
-      <c r="E65" s="37"/>
-      <c r="F65" s="37"/>
-      <c r="G65" s="37"/>
-      <c r="H65" s="37"/>
+      <c r="C65" s="39"/>
+      <c r="D65" s="39"/>
+      <c r="E65" s="39"/>
+      <c r="F65" s="39"/>
+      <c r="G65" s="39"/>
+      <c r="H65" s="39"/>
     </row>
     <row r="66" spans="1:8" s="12" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C66" s="37"/>
-      <c r="D66" s="37"/>
-      <c r="E66" s="37"/>
-      <c r="F66" s="37"/>
-      <c r="G66" s="37"/>
-      <c r="H66" s="37"/>
+      <c r="C66" s="39"/>
+      <c r="D66" s="39"/>
+      <c r="E66" s="39"/>
+      <c r="F66" s="39"/>
+      <c r="G66" s="39"/>
+      <c r="H66" s="39"/>
     </row>
     <row r="67" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="28"/>
-      <c r="C67" s="37"/>
-      <c r="D67" s="37"/>
-      <c r="E67" s="37"/>
-      <c r="F67" s="37"/>
-      <c r="G67" s="37"/>
-      <c r="H67" s="37"/>
+      <c r="C67" s="39"/>
+      <c r="D67" s="39"/>
+      <c r="E67" s="39"/>
+      <c r="F67" s="39"/>
+      <c r="G67" s="39"/>
+      <c r="H67" s="39"/>
     </row>
     <row r="68" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C68" s="37"/>
-      <c r="D68" s="37"/>
-      <c r="E68" s="37"/>
-      <c r="F68" s="37"/>
-      <c r="G68" s="37"/>
-      <c r="H68" s="37"/>
+      <c r="C68" s="39"/>
+      <c r="D68" s="39"/>
+      <c r="E68" s="39"/>
+      <c r="F68" s="39"/>
+      <c r="G68" s="39"/>
+      <c r="H68" s="39"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="C1:H2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C64:H68"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC41AD02-D213-4B8C-8C48-D69FD6AD7D98}">
+  <dimension ref="A1:I68"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="17.375" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2.75" style="11" customWidth="1"/>
+    <col min="2" max="7" width="12.25" style="11" customWidth="1"/>
+    <col min="8" max="8" width="12.75" style="11" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="11" customWidth="1"/>
+    <col min="10" max="16384" width="17.375" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="10"/>
+    </row>
+    <row r="2" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="10"/>
+    </row>
+    <row r="3" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="38"/>
+      <c r="B3" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="10"/>
+    </row>
+    <row r="4" spans="1:9" s="12" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+    </row>
+    <row r="5" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+    </row>
+    <row r="6" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="15"/>
+      <c r="F6" s="14"/>
+    </row>
+    <row r="7" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="16"/>
+      <c r="C7" s="6"/>
+      <c r="F7" s="14"/>
+    </row>
+    <row r="8" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="16">
+        <v>1</v>
+      </c>
+      <c r="C8" s="15"/>
+      <c r="F8" s="14"/>
+    </row>
+    <row r="9" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="43"/>
+      <c r="C9" s="16"/>
+      <c r="F9" s="14"/>
+    </row>
+    <row r="10" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="16"/>
+      <c r="F10" s="14"/>
+    </row>
+    <row r="11" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="16"/>
+      <c r="F11" s="14"/>
+    </row>
+    <row r="12" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="17">
+        <v>7</v>
+      </c>
+      <c r="D12" s="18"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="14"/>
+    </row>
+    <row r="13" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="1"/>
+      <c r="C13" s="16"/>
+      <c r="E13" s="16"/>
+    </row>
+    <row r="14" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="15"/>
+      <c r="C14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="19"/>
+    </row>
+    <row r="15" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="16"/>
+      <c r="C15" s="3"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="19"/>
+    </row>
+    <row r="16" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="16">
+        <v>2</v>
+      </c>
+      <c r="E16" s="16"/>
+      <c r="F16" s="19"/>
+    </row>
+    <row r="17" spans="2:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="43"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="19"/>
+    </row>
+    <row r="18" spans="2:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E18" s="16"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="8"/>
+    </row>
+    <row r="19" spans="2:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E19" s="16">
+        <v>11</v>
+      </c>
+      <c r="F19" s="19"/>
+      <c r="G19" s="15"/>
+    </row>
+    <row r="20" spans="2:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E20" s="16"/>
+      <c r="G20" s="16"/>
+    </row>
+    <row r="21" spans="2:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="6"/>
+      <c r="E21" s="16"/>
+      <c r="G21" s="16"/>
+    </row>
+    <row r="22" spans="2:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="15"/>
+      <c r="E22" s="16"/>
+      <c r="G22" s="16"/>
+    </row>
+    <row r="23" spans="2:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="16"/>
+      <c r="C23" s="6"/>
+      <c r="E23" s="16"/>
+      <c r="G23" s="16"/>
+    </row>
+    <row r="24" spans="2:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="16">
+        <v>3</v>
+      </c>
+      <c r="C24" s="20"/>
+      <c r="E24" s="16"/>
+      <c r="G24" s="16"/>
+    </row>
+    <row r="25" spans="2:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="5"/>
+      <c r="C25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="G25" s="16"/>
+    </row>
+    <row r="26" spans="2:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="G26" s="16"/>
+    </row>
+    <row r="27" spans="2:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="16"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="5"/>
+      <c r="G27" s="16"/>
+    </row>
+    <row r="28" spans="2:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="16">
+        <v>8</v>
+      </c>
+      <c r="G28" s="16"/>
+    </row>
+    <row r="29" spans="2:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="6"/>
+      <c r="C29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="I29" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="15"/>
+      <c r="C30" s="16"/>
+      <c r="G30" s="16">
+        <v>14</v>
+      </c>
+      <c r="H30" s="18"/>
+    </row>
+    <row r="31" spans="2:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="16"/>
+      <c r="C31" s="3"/>
+      <c r="G31" s="16"/>
+    </row>
+    <row r="32" spans="2:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="16">
+        <v>4</v>
+      </c>
+      <c r="G32" s="16"/>
+    </row>
+    <row r="33" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="5"/>
+      <c r="E33" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="6"/>
+      <c r="G33" s="16"/>
+    </row>
+    <row r="34" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C34" s="22"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="16"/>
+    </row>
+    <row r="35" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="42"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="22"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+    </row>
+    <row r="36" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" s="40"/>
+      <c r="C36" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+    </row>
+    <row r="37" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+    </row>
+    <row r="38" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D38" s="16"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="16"/>
+    </row>
+    <row r="39" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="21"/>
+      <c r="B39" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" s="16"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="16"/>
+    </row>
+    <row r="40" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C40" s="15"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+    </row>
+    <row r="41" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C41" s="16"/>
+      <c r="D41" s="16">
+        <v>9</v>
+      </c>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="34"/>
+    </row>
+    <row r="42" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="21"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+    </row>
+    <row r="44" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C44" s="16">
+        <v>5</v>
+      </c>
+      <c r="D44" s="18"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+    </row>
+    <row r="45" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
+    </row>
+    <row r="46" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C46" s="16"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
+    </row>
+    <row r="47" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="21"/>
+      <c r="B47" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+    </row>
+    <row r="48" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E48" s="16"/>
+      <c r="F48" s="3"/>
+    </row>
+    <row r="49" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E49" s="4">
+        <v>12</v>
+      </c>
+      <c r="F49" s="25"/>
+    </row>
+    <row r="50" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F50" s="25"/>
+    </row>
+    <row r="51" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="21"/>
+      <c r="B51" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="E51" s="16"/>
+    </row>
+    <row r="52" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C52" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" s="6"/>
+      <c r="E52" s="16"/>
+    </row>
+    <row r="53" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D53" s="15"/>
+      <c r="E53" s="26"/>
+    </row>
+    <row r="54" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D54" s="16"/>
+      <c r="E54" s="26"/>
+    </row>
+    <row r="55" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="21"/>
+      <c r="B55" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D55" s="16"/>
+      <c r="E55" s="26"/>
+    </row>
+    <row r="56" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C56" s="15"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="34"/>
+    </row>
+    <row r="57" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C57" s="16"/>
+      <c r="D57" s="16">
+        <v>10</v>
+      </c>
+      <c r="H57" s="27"/>
+      <c r="I57" s="27"/>
+    </row>
+    <row r="58" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C58" s="16"/>
+      <c r="D58" s="16"/>
+    </row>
+    <row r="59" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="21"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="3"/>
+    </row>
+    <row r="60" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C60" s="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C61" s="16"/>
+    </row>
+    <row r="62" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C62" s="16"/>
+    </row>
+    <row r="63" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="21"/>
+      <c r="B63" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C63" s="2"/>
+    </row>
+    <row r="64" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C64" s="39"/>
+      <c r="D64" s="39"/>
+      <c r="E64" s="39"/>
+      <c r="F64" s="39"/>
+      <c r="G64" s="39"/>
+      <c r="H64" s="39"/>
+    </row>
+    <row r="65" spans="1:8" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C65" s="39"/>
+      <c r="D65" s="39"/>
+      <c r="E65" s="39"/>
+      <c r="F65" s="39"/>
+      <c r="G65" s="39"/>
+      <c r="H65" s="39"/>
+    </row>
+    <row r="66" spans="1:8" s="12" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C66" s="39"/>
+      <c r="D66" s="39"/>
+      <c r="E66" s="39"/>
+      <c r="F66" s="39"/>
+      <c r="G66" s="39"/>
+      <c r="H66" s="39"/>
+    </row>
+    <row r="67" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="28"/>
+      <c r="C67" s="39"/>
+      <c r="D67" s="39"/>
+      <c r="E67" s="39"/>
+      <c r="F67" s="39"/>
+      <c r="G67" s="39"/>
+      <c r="H67" s="39"/>
+    </row>
+    <row r="68" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C68" s="39"/>
+      <c r="D68" s="39"/>
+      <c r="E68" s="39"/>
+      <c r="F68" s="39"/>
+      <c r="G68" s="39"/>
+      <c r="H68" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/8-team-double.xlsx
+++ b/8-team-double.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lts\Documents\GitHub\2018_world_cup_draw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F6B60D-8C36-4098-87E5-303373F4748D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{235916FA-C016-400B-B822-EC87A196F01E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="51">
   <si>
     <t>PrintYourBrackets</t>
   </si>
@@ -190,10 +190,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">沙隆巴斯(4)  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>小丹尼(5)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -207,6 +203,18 @@
   </si>
   <si>
     <t>钱夫人(8)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙隆巴斯(4)  3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙小美(6)  0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙隆巴斯(4)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -214,7 +222,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -281,6 +289,19 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -420,7 +441,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -476,18 +497,8 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -500,8 +511,57 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -858,25 +918,25 @@
     <row r="1" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="9"/>
       <c r="B1" s="10"/>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
       <c r="I1" s="10"/>
     </row>
     <row r="2" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
       <c r="I2" s="10"/>
     </row>
     <row r="3" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
@@ -1107,17 +1167,17 @@
       <c r="G34" s="16"/>
     </row>
     <row r="35" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="42"/>
-      <c r="B35" s="42"/>
+      <c r="A35" s="40"/>
+      <c r="B35" s="40"/>
       <c r="C35" s="22"/>
       <c r="F35" s="16"/>
       <c r="G35" s="16"/>
     </row>
     <row r="36" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="40" t="s">
+      <c r="A36" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="40"/>
+      <c r="B36" s="38"/>
       <c r="C36" s="21" t="s">
         <v>6</v>
       </c>
@@ -1313,45 +1373,45 @@
       </c>
     </row>
     <row r="64" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C64" s="39"/>
-      <c r="D64" s="39"/>
-      <c r="E64" s="39"/>
-      <c r="F64" s="39"/>
-      <c r="G64" s="39"/>
-      <c r="H64" s="39"/>
+      <c r="C64" s="37"/>
+      <c r="D64" s="37"/>
+      <c r="E64" s="37"/>
+      <c r="F64" s="37"/>
+      <c r="G64" s="37"/>
+      <c r="H64" s="37"/>
     </row>
     <row r="65" spans="1:8" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C65" s="39"/>
-      <c r="D65" s="39"/>
-      <c r="E65" s="39"/>
-      <c r="F65" s="39"/>
-      <c r="G65" s="39"/>
-      <c r="H65" s="39"/>
+      <c r="C65" s="37"/>
+      <c r="D65" s="37"/>
+      <c r="E65" s="37"/>
+      <c r="F65" s="37"/>
+      <c r="G65" s="37"/>
+      <c r="H65" s="37"/>
     </row>
     <row r="66" spans="1:8" s="12" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C66" s="39"/>
-      <c r="D66" s="39"/>
-      <c r="E66" s="39"/>
-      <c r="F66" s="39"/>
-      <c r="G66" s="39"/>
-      <c r="H66" s="39"/>
+      <c r="C66" s="37"/>
+      <c r="D66" s="37"/>
+      <c r="E66" s="37"/>
+      <c r="F66" s="37"/>
+      <c r="G66" s="37"/>
+      <c r="H66" s="37"/>
     </row>
     <row r="67" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="28"/>
-      <c r="C67" s="39"/>
-      <c r="D67" s="39"/>
-      <c r="E67" s="39"/>
-      <c r="F67" s="39"/>
-      <c r="G67" s="39"/>
-      <c r="H67" s="39"/>
+      <c r="C67" s="37"/>
+      <c r="D67" s="37"/>
+      <c r="E67" s="37"/>
+      <c r="F67" s="37"/>
+      <c r="G67" s="37"/>
+      <c r="H67" s="37"/>
     </row>
     <row r="68" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C68" s="39"/>
-      <c r="D68" s="39"/>
-      <c r="E68" s="39"/>
-      <c r="F68" s="39"/>
-      <c r="G68" s="39"/>
-      <c r="H68" s="39"/>
+      <c r="C68" s="37"/>
+      <c r="D68" s="37"/>
+      <c r="E68" s="37"/>
+      <c r="F68" s="37"/>
+      <c r="G68" s="37"/>
+      <c r="H68" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1369,10 +1429,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E2329AE-8E4E-42E7-B08B-4E199AF74E76}">
-  <dimension ref="A1:I68"/>
+  <dimension ref="A1:I71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.375" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -1387,454 +1447,855 @@
     <row r="1" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="9"/>
       <c r="B1" s="10"/>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
       <c r="I1" s="10"/>
     </row>
     <row r="2" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
       <c r="I2" s="10"/>
     </row>
     <row r="3" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="36"/>
-      <c r="B3" s="31" t="s">
+      <c r="A3" s="41"/>
+      <c r="B3" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="10"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="44"/>
     </row>
     <row r="4" spans="1:9" s="12" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="45"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
     </row>
     <row r="5" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="4" t="s">
-        <v>44</v>
-      </c>
+      <c r="A5" s="36"/>
+      <c r="B5" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
     </row>
     <row r="6" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="15"/>
+      <c r="A6" s="36"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
       <c r="F6" s="14"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
     </row>
     <row r="7" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="16"/>
-      <c r="C7" s="6"/>
+      <c r="A7" s="36"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
       <c r="F7" s="14"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
     </row>
     <row r="8" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="16">
+      <c r="A8" s="36"/>
+      <c r="B8" s="47">
         <v>1</v>
       </c>
-      <c r="C8" s="15"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
       <c r="F8" s="14"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
     </row>
     <row r="9" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="43" t="s">
+      <c r="A9" s="36"/>
+      <c r="B9" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="47"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+    </row>
+    <row r="10" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="36"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+    </row>
+    <row r="11" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="36"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+    </row>
+    <row r="12" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="36"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="48">
+        <v>7</v>
+      </c>
+      <c r="D12" s="49"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+    </row>
+    <row r="13" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="36"/>
+      <c r="B13" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="47"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+    </row>
+    <row r="14" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="36"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+    </row>
+    <row r="15" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="36"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+    </row>
+    <row r="16" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="36"/>
+      <c r="B16" s="47">
+        <v>2</v>
+      </c>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+    </row>
+    <row r="17" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="36"/>
+      <c r="B17" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="F9" s="14"/>
-    </row>
-    <row r="10" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="16"/>
-      <c r="F10" s="14"/>
-    </row>
-    <row r="11" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="16"/>
-      <c r="F11" s="14"/>
-    </row>
-    <row r="12" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="17">
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+    </row>
+    <row r="18" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="36"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+    </row>
+    <row r="19" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="36"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="47">
+        <v>11</v>
+      </c>
+      <c r="F19" s="19"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+    </row>
+    <row r="20" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="36"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+    </row>
+    <row r="21" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="36"/>
+      <c r="B21" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+    </row>
+    <row r="22" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="36"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+    </row>
+    <row r="23" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="36"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+    </row>
+    <row r="24" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="36"/>
+      <c r="B24" s="47">
+        <v>3</v>
+      </c>
+      <c r="C24" s="53"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+    </row>
+    <row r="25" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="36"/>
+      <c r="B25" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="47"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+    </row>
+    <row r="26" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="36"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+    </row>
+    <row r="27" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="36"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+    </row>
+    <row r="28" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="36"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="47">
+        <v>8</v>
+      </c>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+    </row>
+    <row r="29" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="36"/>
+      <c r="B29" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="47"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="47"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="52" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="36"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="47">
+        <v>14</v>
+      </c>
+      <c r="H30" s="49"/>
+      <c r="I30" s="36"/>
+    </row>
+    <row r="31" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="36"/>
+      <c r="B31" s="47"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
+    </row>
+    <row r="32" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="36"/>
+      <c r="B32" s="47">
+        <v>4</v>
+      </c>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
+    </row>
+    <row r="33" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="36"/>
+      <c r="B33" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="36"/>
+      <c r="G33" s="47"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+    </row>
+    <row r="34" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="36"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
+    </row>
+    <row r="35" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="56"/>
+      <c r="B35" s="56"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="47"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="36"/>
+    </row>
+    <row r="36" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="14"/>
-    </row>
-    <row r="13" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="16"/>
-      <c r="E13" s="16"/>
-    </row>
-    <row r="14" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="15"/>
-      <c r="C14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="19"/>
-    </row>
-    <row r="15" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="16"/>
-      <c r="C15" s="3"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="19"/>
-    </row>
-    <row r="16" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="16">
+      <c r="B36" s="57"/>
+      <c r="C36" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="52"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="47"/>
+      <c r="G36" s="47"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="36"/>
+    </row>
+    <row r="37" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="36"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="47"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="47"/>
+      <c r="G37" s="47"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="36"/>
+    </row>
+    <row r="38" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="36"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="47"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="58"/>
+      <c r="G38" s="47"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="36"/>
+    </row>
+    <row r="39" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="55"/>
+      <c r="B39" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="D39" s="47"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="58"/>
+      <c r="G39" s="47"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="36"/>
+    </row>
+    <row r="40" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="36"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="47"/>
+      <c r="E40" s="54"/>
+      <c r="F40" s="47"/>
+      <c r="G40" s="47"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="36"/>
+    </row>
+    <row r="41" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="36"/>
+      <c r="B41" s="36"/>
+      <c r="C41" s="47"/>
+      <c r="D41" s="47">
+        <v>9</v>
+      </c>
+      <c r="E41" s="47"/>
+      <c r="F41" s="47"/>
+      <c r="G41" s="51"/>
+      <c r="H41" s="36"/>
+      <c r="I41" s="36"/>
+    </row>
+    <row r="42" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="36"/>
+      <c r="B42" s="36"/>
+      <c r="C42" s="47"/>
+      <c r="D42" s="47"/>
+      <c r="E42" s="47"/>
+      <c r="F42" s="47">
+        <v>13</v>
+      </c>
+      <c r="G42" s="36"/>
+      <c r="H42" s="36"/>
+      <c r="I42" s="36"/>
+    </row>
+    <row r="43" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="55"/>
+      <c r="B43" s="36"/>
+      <c r="C43" s="47"/>
+      <c r="D43" s="35"/>
+      <c r="E43" s="47"/>
+      <c r="F43" s="47"/>
+      <c r="G43" s="36"/>
+      <c r="H43" s="36"/>
+      <c r="I43" s="36"/>
+    </row>
+    <row r="44" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="36"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="47">
+        <v>5</v>
+      </c>
+      <c r="D44" s="49"/>
+      <c r="E44" s="47"/>
+      <c r="F44" s="47"/>
+      <c r="G44" s="36"/>
+      <c r="H44" s="36"/>
+      <c r="I44" s="36"/>
+    </row>
+    <row r="45" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="36"/>
+      <c r="B45" s="36"/>
+      <c r="C45" s="47"/>
+      <c r="D45" s="36"/>
+      <c r="E45" s="47"/>
+      <c r="F45" s="47"/>
+      <c r="G45" s="36"/>
+      <c r="H45" s="36"/>
+      <c r="I45" s="36"/>
+    </row>
+    <row r="46" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="36"/>
+      <c r="B46" s="36"/>
+      <c r="C46" s="47"/>
+      <c r="D46" s="60"/>
+      <c r="E46" s="47"/>
+      <c r="F46" s="47"/>
+      <c r="G46" s="36"/>
+      <c r="H46" s="36"/>
+      <c r="I46" s="36"/>
+    </row>
+    <row r="47" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="55"/>
+      <c r="B47" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="16"/>
-      <c r="F16" s="19"/>
-    </row>
-    <row r="17" spans="2:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="E17" s="16"/>
-      <c r="F17" s="19"/>
-    </row>
-    <row r="18" spans="2:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E18" s="16"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="8"/>
-    </row>
-    <row r="19" spans="2:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E19" s="16">
-        <v>11</v>
-      </c>
-      <c r="F19" s="19"/>
-      <c r="G19" s="15"/>
-    </row>
-    <row r="20" spans="2:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E20" s="16"/>
-      <c r="G20" s="16"/>
-    </row>
-    <row r="21" spans="2:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="E21" s="16"/>
-      <c r="G21" s="16"/>
-    </row>
-    <row r="22" spans="2:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="15"/>
-      <c r="E22" s="16"/>
-      <c r="G22" s="16"/>
-    </row>
-    <row r="23" spans="2:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="16"/>
-      <c r="C23" s="6"/>
-      <c r="E23" s="16"/>
-      <c r="G23" s="16"/>
-    </row>
-    <row r="24" spans="2:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="16">
+      <c r="C47" s="35"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="47"/>
+      <c r="F47" s="47"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="36"/>
+      <c r="I47" s="36"/>
+    </row>
+    <row r="48" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="36"/>
+      <c r="B48" s="36"/>
+      <c r="C48" s="36"/>
+      <c r="D48" s="36"/>
+      <c r="E48" s="47"/>
+      <c r="F48" s="51"/>
+      <c r="G48" s="36"/>
+      <c r="H48" s="36"/>
+      <c r="I48" s="36"/>
+    </row>
+    <row r="49" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="36"/>
+      <c r="B49" s="36"/>
+      <c r="C49" s="36"/>
+      <c r="D49" s="36"/>
+      <c r="E49" s="36">
+        <v>12</v>
+      </c>
+      <c r="F49" s="60"/>
+      <c r="G49" s="36"/>
+      <c r="H49" s="36"/>
+      <c r="I49" s="36"/>
+    </row>
+    <row r="50" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="36"/>
+      <c r="B50" s="36"/>
+      <c r="C50" s="36"/>
+      <c r="D50" s="36"/>
+      <c r="E50" s="36"/>
+      <c r="F50" s="60"/>
+      <c r="G50" s="36"/>
+      <c r="H50" s="36"/>
+      <c r="I50" s="36"/>
+    </row>
+    <row r="51" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="55"/>
+      <c r="B51" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C51" s="36"/>
+      <c r="D51" s="36"/>
+      <c r="E51" s="47"/>
+      <c r="F51" s="36"/>
+      <c r="G51" s="36"/>
+      <c r="H51" s="36"/>
+      <c r="I51" s="36"/>
+    </row>
+    <row r="52" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="36"/>
+      <c r="B52" s="36"/>
+      <c r="C52" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" s="36"/>
+      <c r="E52" s="47"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="36"/>
+    </row>
+    <row r="53" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="36"/>
+      <c r="B53" s="36"/>
+      <c r="C53" s="36"/>
+      <c r="D53" s="46"/>
+      <c r="E53" s="61"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="36"/>
+      <c r="H53" s="36"/>
+      <c r="I53" s="36"/>
+    </row>
+    <row r="54" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="36"/>
+      <c r="B54" s="36"/>
+      <c r="C54" s="36"/>
+      <c r="D54" s="47"/>
+      <c r="E54" s="61"/>
+      <c r="F54" s="36"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="36"/>
+      <c r="I54" s="36"/>
+    </row>
+    <row r="55" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="55"/>
+      <c r="B55" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="20"/>
-      <c r="E24" s="16"/>
-      <c r="G24" s="16"/>
-    </row>
-    <row r="25" spans="2:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="G25" s="16"/>
-    </row>
-    <row r="26" spans="2:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="G26" s="16"/>
-    </row>
-    <row r="27" spans="2:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="16"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="5"/>
-      <c r="G27" s="16"/>
-    </row>
-    <row r="28" spans="2:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="16">
-        <v>8</v>
-      </c>
-      <c r="G28" s="16"/>
-    </row>
-    <row r="29" spans="2:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="I29" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="15"/>
-      <c r="C30" s="16"/>
-      <c r="G30" s="16">
-        <v>14</v>
-      </c>
-      <c r="H30" s="18"/>
-    </row>
-    <row r="31" spans="2:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="16"/>
-      <c r="C31" s="3"/>
-      <c r="G31" s="16"/>
-    </row>
-    <row r="32" spans="2:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="16">
+      <c r="C55" s="36"/>
+      <c r="D55" s="47"/>
+      <c r="E55" s="61"/>
+      <c r="F55" s="36"/>
+      <c r="G55" s="36"/>
+      <c r="H55" s="36"/>
+      <c r="I55" s="36"/>
+    </row>
+    <row r="56" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="36"/>
+      <c r="B56" s="36"/>
+      <c r="C56" s="46"/>
+      <c r="D56" s="47"/>
+      <c r="E56" s="51"/>
+      <c r="F56" s="36"/>
+      <c r="G56" s="36"/>
+      <c r="H56" s="36"/>
+      <c r="I56" s="36"/>
+    </row>
+    <row r="57" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="36"/>
+      <c r="B57" s="36"/>
+      <c r="C57" s="47"/>
+      <c r="D57" s="47">
+        <v>10</v>
+      </c>
+      <c r="E57" s="36"/>
+      <c r="F57" s="36"/>
+      <c r="G57" s="36"/>
+      <c r="H57" s="62"/>
+      <c r="I57" s="62"/>
+    </row>
+    <row r="58" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="36"/>
+      <c r="B58" s="36"/>
+      <c r="C58" s="47"/>
+      <c r="D58" s="47"/>
+      <c r="E58" s="36"/>
+      <c r="F58" s="36"/>
+      <c r="G58" s="36"/>
+      <c r="H58" s="36"/>
+      <c r="I58" s="36"/>
+    </row>
+    <row r="59" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="55"/>
+      <c r="B59" s="36"/>
+      <c r="C59" s="47"/>
+      <c r="D59" s="51"/>
+      <c r="E59" s="36"/>
+      <c r="F59" s="36"/>
+      <c r="G59" s="36"/>
+      <c r="H59" s="36"/>
+      <c r="I59" s="36"/>
+    </row>
+    <row r="60" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="36"/>
+      <c r="B60" s="36"/>
+      <c r="C60" s="47">
+        <v>6</v>
+      </c>
+      <c r="D60" s="36"/>
+      <c r="E60" s="36"/>
+      <c r="F60" s="36"/>
+      <c r="G60" s="36"/>
+      <c r="H60" s="36"/>
+      <c r="I60" s="36"/>
+    </row>
+    <row r="61" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="36"/>
+      <c r="B61" s="36"/>
+      <c r="C61" s="47"/>
+      <c r="D61" s="36"/>
+      <c r="E61" s="36"/>
+      <c r="F61" s="36"/>
+      <c r="G61" s="36"/>
+      <c r="H61" s="36"/>
+      <c r="I61" s="36"/>
+    </row>
+    <row r="62" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="36"/>
+      <c r="B62" s="36"/>
+      <c r="C62" s="47"/>
+      <c r="D62" s="36"/>
+      <c r="E62" s="36"/>
+      <c r="F62" s="36"/>
+      <c r="G62" s="36"/>
+      <c r="H62" s="36"/>
+      <c r="I62" s="36"/>
+    </row>
+    <row r="63" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="55"/>
+      <c r="B63" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="G32" s="16"/>
-    </row>
-    <row r="33" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E33" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="F33" s="6"/>
-      <c r="G33" s="16"/>
-    </row>
-    <row r="34" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C34" s="22"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="16"/>
-    </row>
-    <row r="35" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="42"/>
-      <c r="B35" s="42"/>
-      <c r="C35" s="22"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-    </row>
-    <row r="36" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="B36" s="40"/>
-      <c r="C36" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="D36" s="8"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-    </row>
-    <row r="37" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
-    </row>
-    <row r="38" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D38" s="16"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="16"/>
-    </row>
-    <row r="39" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="21"/>
-      <c r="B39" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="D39" s="16"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="16"/>
-    </row>
-    <row r="40" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C40" s="15"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="16"/>
-    </row>
-    <row r="41" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C41" s="16"/>
-      <c r="D41" s="16">
-        <v>9</v>
-      </c>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="34"/>
-    </row>
-    <row r="42" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="21"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
-    </row>
-    <row r="44" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C44" s="16">
-        <v>5</v>
-      </c>
-      <c r="D44" s="18"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16"/>
-    </row>
-    <row r="45" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C45" s="16"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="16"/>
-    </row>
-    <row r="46" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C46" s="16"/>
-      <c r="D46" s="25"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
-    </row>
-    <row r="47" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="21"/>
-      <c r="B47" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="C47" s="2"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-    </row>
-    <row r="48" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E48" s="16"/>
-      <c r="F48" s="3"/>
-    </row>
-    <row r="49" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E49" s="4">
-        <v>12</v>
-      </c>
-      <c r="F49" s="25"/>
-    </row>
-    <row r="50" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F50" s="25"/>
-    </row>
-    <row r="51" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="21"/>
-      <c r="B51" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="E51" s="16"/>
-    </row>
-    <row r="52" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C52" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D52" s="6"/>
-      <c r="E52" s="16"/>
-    </row>
-    <row r="53" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="15"/>
-      <c r="E53" s="26"/>
-    </row>
-    <row r="54" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D54" s="16"/>
-      <c r="E54" s="26"/>
-    </row>
-    <row r="55" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="21"/>
-      <c r="B55" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="D55" s="16"/>
-      <c r="E55" s="26"/>
-    </row>
-    <row r="56" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C56" s="15"/>
-      <c r="D56" s="16"/>
-      <c r="E56" s="34"/>
-    </row>
-    <row r="57" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C57" s="16"/>
-      <c r="D57" s="16">
-        <v>10</v>
-      </c>
-      <c r="H57" s="27"/>
-      <c r="I57" s="27"/>
-    </row>
-    <row r="58" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C58" s="16"/>
-      <c r="D58" s="16"/>
-    </row>
-    <row r="59" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="21"/>
-      <c r="C59" s="16"/>
-      <c r="D59" s="3"/>
-    </row>
-    <row r="60" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C60" s="16">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C61" s="16"/>
-    </row>
-    <row r="62" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C62" s="16"/>
-    </row>
-    <row r="63" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="21"/>
-      <c r="B63" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="C63" s="2"/>
+      <c r="C63" s="35"/>
+      <c r="D63" s="36"/>
+      <c r="E63" s="36"/>
+      <c r="F63" s="36"/>
+      <c r="G63" s="36"/>
+      <c r="H63" s="36"/>
+      <c r="I63" s="36"/>
     </row>
     <row r="64" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C64" s="39"/>
-      <c r="D64" s="39"/>
-      <c r="E64" s="39"/>
-      <c r="F64" s="39"/>
-      <c r="G64" s="39"/>
-      <c r="H64" s="39"/>
-    </row>
-    <row r="65" spans="1:8" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C65" s="39"/>
-      <c r="D65" s="39"/>
-      <c r="E65" s="39"/>
-      <c r="F65" s="39"/>
-      <c r="G65" s="39"/>
-      <c r="H65" s="39"/>
-    </row>
-    <row r="66" spans="1:8" s="12" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C66" s="39"/>
-      <c r="D66" s="39"/>
-      <c r="E66" s="39"/>
-      <c r="F66" s="39"/>
-      <c r="G66" s="39"/>
-      <c r="H66" s="39"/>
-    </row>
-    <row r="67" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="28"/>
-      <c r="C67" s="39"/>
-      <c r="D67" s="39"/>
-      <c r="E67" s="39"/>
-      <c r="F67" s="39"/>
-      <c r="G67" s="39"/>
-      <c r="H67" s="39"/>
-    </row>
-    <row r="68" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C68" s="39"/>
-      <c r="D68" s="39"/>
-      <c r="E68" s="39"/>
-      <c r="F68" s="39"/>
-      <c r="G68" s="39"/>
-      <c r="H68" s="39"/>
+      <c r="A64" s="36"/>
+      <c r="B64" s="36"/>
+      <c r="C64" s="63"/>
+      <c r="D64" s="63"/>
+      <c r="E64" s="63"/>
+      <c r="F64" s="63"/>
+      <c r="G64" s="63"/>
+      <c r="H64" s="63"/>
+      <c r="I64" s="36"/>
+    </row>
+    <row r="65" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="36"/>
+      <c r="B65" s="36"/>
+      <c r="C65" s="63"/>
+      <c r="D65" s="63"/>
+      <c r="E65" s="63"/>
+      <c r="F65" s="63"/>
+      <c r="G65" s="63"/>
+      <c r="H65" s="63"/>
+      <c r="I65" s="36"/>
+    </row>
+    <row r="66" spans="1:9" s="12" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="45"/>
+      <c r="B66" s="45"/>
+      <c r="C66" s="63"/>
+      <c r="D66" s="63"/>
+      <c r="E66" s="63"/>
+      <c r="F66" s="63"/>
+      <c r="G66" s="63"/>
+      <c r="H66" s="63"/>
+      <c r="I66" s="45"/>
+    </row>
+    <row r="67" spans="1:9" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="64"/>
+      <c r="B67" s="65"/>
+      <c r="C67" s="63"/>
+      <c r="D67" s="63"/>
+      <c r="E67" s="63"/>
+      <c r="F67" s="63"/>
+      <c r="G67" s="63"/>
+      <c r="H67" s="63"/>
+      <c r="I67" s="65"/>
+    </row>
+    <row r="68" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="65"/>
+      <c r="B68" s="65"/>
+      <c r="C68" s="63"/>
+      <c r="D68" s="63"/>
+      <c r="E68" s="63"/>
+      <c r="F68" s="63"/>
+      <c r="G68" s="63"/>
+      <c r="H68" s="63"/>
+      <c r="I68" s="65"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A69" s="65"/>
+      <c r="B69" s="65"/>
+      <c r="C69" s="65"/>
+      <c r="D69" s="65"/>
+      <c r="E69" s="65"/>
+      <c r="F69" s="65"/>
+      <c r="G69" s="65"/>
+      <c r="H69" s="65"/>
+      <c r="I69" s="65"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A70" s="65"/>
+      <c r="B70" s="65"/>
+      <c r="C70" s="65"/>
+      <c r="D70" s="65"/>
+      <c r="E70" s="65"/>
+      <c r="F70" s="65"/>
+      <c r="G70" s="65"/>
+      <c r="H70" s="65"/>
+      <c r="I70" s="65"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A71" s="65"/>
+      <c r="B71" s="65"/>
+      <c r="C71" s="65"/>
+      <c r="D71" s="65"/>
+      <c r="E71" s="65"/>
+      <c r="F71" s="65"/>
+      <c r="G71" s="65"/>
+      <c r="H71" s="65"/>
+      <c r="I71" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1855,452 +2316,444 @@
   <dimension ref="A1:I68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.375" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.75" style="11" customWidth="1"/>
-    <col min="2" max="7" width="12.25" style="11" customWidth="1"/>
-    <col min="8" max="8" width="12.75" style="11" customWidth="1"/>
-    <col min="9" max="9" width="12.875" style="11" customWidth="1"/>
-    <col min="10" max="16384" width="17.375" style="11"/>
+    <col min="1" max="1" width="2.75" style="65" customWidth="1"/>
+    <col min="2" max="7" width="12.25" style="65" customWidth="1"/>
+    <col min="8" max="8" width="12.75" style="65" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="65" customWidth="1"/>
+    <col min="10" max="16384" width="17.375" style="65"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="9"/>
-      <c r="B1" s="10"/>
-      <c r="C1" s="39" t="s">
+      <c r="A1" s="66"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="10"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="44"/>
     </row>
     <row r="2" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="10"/>
+      <c r="A2" s="67"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="44"/>
     </row>
     <row r="3" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="38"/>
-      <c r="B3" s="31" t="s">
+      <c r="A3" s="41"/>
+      <c r="B3" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="10"/>
-    </row>
-    <row r="4" spans="1:9" s="12" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="44"/>
+    </row>
+    <row r="4" spans="1:9" s="45" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
     </row>
-    <row r="5" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
     </row>
-    <row r="6" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="15"/>
+    <row r="6" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="46"/>
       <c r="F6" s="14"/>
     </row>
-    <row r="7" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="16"/>
-      <c r="C7" s="6"/>
+    <row r="7" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="47"/>
       <c r="F7" s="14"/>
     </row>
-    <row r="8" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="16">
+    <row r="8" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="47">
         <v>1</v>
       </c>
-      <c r="C8" s="15"/>
+      <c r="C8" s="46"/>
       <c r="F8" s="14"/>
     </row>
-    <row r="9" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="43"/>
-      <c r="C9" s="16"/>
+    <row r="9" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="35"/>
+      <c r="C9" s="47"/>
       <c r="F9" s="14"/>
     </row>
-    <row r="10" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="16"/>
+    <row r="10" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="47"/>
       <c r="F10" s="14"/>
     </row>
-    <row r="11" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="16"/>
+    <row r="11" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="47"/>
       <c r="F11" s="14"/>
     </row>
-    <row r="12" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="17">
+    <row r="12" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="48">
         <v>7</v>
       </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="15"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="46"/>
       <c r="F12" s="14"/>
     </row>
-    <row r="13" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="1"/>
-      <c r="C13" s="16"/>
-      <c r="E13" s="16"/>
-    </row>
-    <row r="14" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="15"/>
-      <c r="C14" s="16"/>
-      <c r="E14" s="16"/>
+    <row r="13" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="50"/>
+      <c r="C13" s="47"/>
+      <c r="E13" s="47"/>
+    </row>
+    <row r="14" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="46"/>
+      <c r="C14" s="47"/>
+      <c r="E14" s="47"/>
       <c r="F14" s="19"/>
     </row>
-    <row r="15" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="16"/>
-      <c r="C15" s="3"/>
-      <c r="E15" s="16"/>
+    <row r="15" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="47"/>
+      <c r="C15" s="51"/>
+      <c r="E15" s="47"/>
       <c r="F15" s="19"/>
     </row>
-    <row r="16" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="16">
+    <row r="16" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="47">
         <v>2</v>
       </c>
-      <c r="E16" s="16"/>
+      <c r="E16" s="47"/>
       <c r="F16" s="19"/>
     </row>
-    <row r="17" spans="2:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="43"/>
-      <c r="E17" s="16"/>
+    <row r="17" spans="2:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="35"/>
+      <c r="E17" s="47"/>
       <c r="F17" s="19"/>
     </row>
-    <row r="18" spans="2:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E18" s="16"/>
+    <row r="18" spans="2:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E18" s="47"/>
       <c r="F18" s="32"/>
-      <c r="G18" s="8"/>
-    </row>
-    <row r="19" spans="2:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E19" s="16">
+      <c r="G18" s="52"/>
+    </row>
+    <row r="19" spans="2:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E19" s="47">
         <v>11</v>
       </c>
       <c r="F19" s="19"/>
-      <c r="G19" s="15"/>
-    </row>
-    <row r="20" spans="2:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E20" s="16"/>
-      <c r="G20" s="16"/>
-    </row>
-    <row r="21" spans="2:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="6"/>
-      <c r="E21" s="16"/>
-      <c r="G21" s="16"/>
-    </row>
-    <row r="22" spans="2:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="15"/>
-      <c r="E22" s="16"/>
-      <c r="G22" s="16"/>
-    </row>
-    <row r="23" spans="2:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="16"/>
-      <c r="C23" s="6"/>
-      <c r="E23" s="16"/>
-      <c r="G23" s="16"/>
-    </row>
-    <row r="24" spans="2:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="16">
+      <c r="G19" s="46"/>
+    </row>
+    <row r="20" spans="2:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E20" s="47"/>
+      <c r="G20" s="47"/>
+    </row>
+    <row r="21" spans="2:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E21" s="47"/>
+      <c r="G21" s="47"/>
+    </row>
+    <row r="22" spans="2:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="46"/>
+      <c r="E22" s="47"/>
+      <c r="G22" s="47"/>
+    </row>
+    <row r="23" spans="2:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="47"/>
+      <c r="E23" s="47"/>
+      <c r="G23" s="47"/>
+    </row>
+    <row r="24" spans="2:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="47">
         <v>3</v>
       </c>
-      <c r="C24" s="20"/>
-      <c r="E24" s="16"/>
-      <c r="G24" s="16"/>
-    </row>
-    <row r="25" spans="2:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="5"/>
-      <c r="C25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="G25" s="16"/>
-    </row>
-    <row r="26" spans="2:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="G26" s="16"/>
-    </row>
-    <row r="27" spans="2:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="16"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="5"/>
-      <c r="G27" s="16"/>
-    </row>
-    <row r="28" spans="2:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="16">
+      <c r="C24" s="53"/>
+      <c r="E24" s="47"/>
+      <c r="G24" s="47"/>
+    </row>
+    <row r="25" spans="2:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="35"/>
+      <c r="C25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="G25" s="47"/>
+    </row>
+    <row r="26" spans="2:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="47"/>
+      <c r="E26" s="47"/>
+      <c r="G26" s="47"/>
+    </row>
+    <row r="27" spans="2:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="47"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="35"/>
+      <c r="G27" s="47"/>
+    </row>
+    <row r="28" spans="2:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="47">
         <v>8</v>
       </c>
-      <c r="G28" s="16"/>
-    </row>
-    <row r="29" spans="2:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="6"/>
-      <c r="C29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="I29" s="8" t="s">
+      <c r="G28" s="47"/>
+    </row>
+    <row r="29" spans="2:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="47"/>
+      <c r="G29" s="47"/>
+      <c r="I29" s="52" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="2:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="15"/>
-      <c r="C30" s="16"/>
-      <c r="G30" s="16">
+    <row r="30" spans="2:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="46"/>
+      <c r="C30" s="47"/>
+      <c r="G30" s="47">
         <v>14</v>
       </c>
-      <c r="H30" s="18"/>
-    </row>
-    <row r="31" spans="2:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="16"/>
-      <c r="C31" s="3"/>
-      <c r="G31" s="16"/>
-    </row>
-    <row r="32" spans="2:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="16">
+      <c r="H30" s="49"/>
+    </row>
+    <row r="31" spans="2:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="47"/>
+      <c r="C31" s="51"/>
+      <c r="G31" s="47"/>
+    </row>
+    <row r="32" spans="2:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="47">
         <v>4</v>
       </c>
-      <c r="G32" s="16"/>
-    </row>
-    <row r="33" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="5"/>
-      <c r="E33" s="21" t="s">
+      <c r="G32" s="47"/>
+    </row>
+    <row r="33" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="35"/>
+      <c r="E33" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="F33" s="6"/>
-      <c r="G33" s="16"/>
-    </row>
-    <row r="34" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C34" s="22"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="16"/>
-    </row>
-    <row r="35" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="42"/>
-      <c r="B35" s="42"/>
-      <c r="C35" s="22"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-    </row>
-    <row r="36" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="40" t="s">
+      <c r="G33" s="47"/>
+    </row>
+    <row r="34" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F34" s="46"/>
+      <c r="G34" s="47"/>
+    </row>
+    <row r="35" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="56"/>
+      <c r="B35" s="56"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="47"/>
+    </row>
+    <row r="36" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="40"/>
-      <c r="C36" s="21" t="s">
+      <c r="B36" s="57"/>
+      <c r="C36" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="D36" s="8"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-    </row>
-    <row r="37" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
-    </row>
-    <row r="38" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D38" s="16"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="16"/>
-    </row>
-    <row r="39" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="21"/>
-      <c r="B39" s="24" t="s">
+      <c r="D36" s="52"/>
+      <c r="F36" s="47"/>
+      <c r="G36" s="47"/>
+    </row>
+    <row r="37" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D37" s="47"/>
+      <c r="F37" s="47"/>
+      <c r="G37" s="47"/>
+    </row>
+    <row r="38" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D38" s="47"/>
+      <c r="F38" s="58"/>
+      <c r="G38" s="47"/>
+    </row>
+    <row r="39" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="55"/>
+      <c r="B39" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="D39" s="16"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="16"/>
-    </row>
-    <row r="40" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C40" s="15"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="16"/>
-    </row>
-    <row r="41" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C41" s="16"/>
-      <c r="D41" s="16">
+      <c r="D39" s="47"/>
+      <c r="F39" s="58"/>
+      <c r="G39" s="47"/>
+    </row>
+    <row r="40" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C40" s="46"/>
+      <c r="D40" s="47"/>
+      <c r="E40" s="54"/>
+      <c r="F40" s="47"/>
+      <c r="G40" s="47"/>
+    </row>
+    <row r="41" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C41" s="47"/>
+      <c r="D41" s="47">
         <v>9</v>
       </c>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="34"/>
-    </row>
-    <row r="42" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16">
+      <c r="E41" s="47"/>
+      <c r="F41" s="47"/>
+      <c r="G41" s="51"/>
+    </row>
+    <row r="42" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C42" s="47"/>
+      <c r="D42" s="47"/>
+      <c r="E42" s="47"/>
+      <c r="F42" s="47">
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="21"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
-    </row>
-    <row r="44" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C44" s="16">
+    <row r="43" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="55"/>
+      <c r="C43" s="47"/>
+      <c r="D43" s="35"/>
+      <c r="E43" s="47"/>
+      <c r="F43" s="47"/>
+    </row>
+    <row r="44" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C44" s="47">
         <v>5</v>
       </c>
-      <c r="D44" s="18"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16"/>
-    </row>
-    <row r="45" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C45" s="16"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="16"/>
-    </row>
-    <row r="46" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C46" s="16"/>
-      <c r="D46" s="25"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
-    </row>
-    <row r="47" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="21"/>
-      <c r="B47" s="24" t="s">
+      <c r="D44" s="49"/>
+      <c r="E44" s="47"/>
+      <c r="F44" s="47"/>
+    </row>
+    <row r="45" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C45" s="47"/>
+      <c r="E45" s="47"/>
+      <c r="F45" s="47"/>
+    </row>
+    <row r="46" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C46" s="47"/>
+      <c r="D46" s="60"/>
+      <c r="E46" s="47"/>
+      <c r="F46" s="47"/>
+    </row>
+    <row r="47" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="55"/>
+      <c r="B47" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="C47" s="2"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-    </row>
-    <row r="48" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E48" s="16"/>
-      <c r="F48" s="3"/>
-    </row>
-    <row r="49" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E49" s="4">
+      <c r="C47" s="35"/>
+      <c r="E47" s="47"/>
+      <c r="F47" s="47"/>
+    </row>
+    <row r="48" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E48" s="47"/>
+      <c r="F48" s="51"/>
+    </row>
+    <row r="49" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E49" s="36">
         <v>12</v>
       </c>
-      <c r="F49" s="25"/>
-    </row>
-    <row r="50" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F50" s="25"/>
-    </row>
-    <row r="51" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="21"/>
-      <c r="B51" s="22" t="s">
+      <c r="F49" s="60"/>
+    </row>
+    <row r="50" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F50" s="60"/>
+    </row>
+    <row r="51" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="55"/>
+      <c r="B51" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="E51" s="16"/>
-    </row>
-    <row r="52" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C52" s="21" t="s">
+      <c r="E51" s="47"/>
+    </row>
+    <row r="52" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C52" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="D52" s="6"/>
-      <c r="E52" s="16"/>
-    </row>
-    <row r="53" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="15"/>
-      <c r="E53" s="26"/>
-    </row>
-    <row r="54" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D54" s="16"/>
-      <c r="E54" s="26"/>
-    </row>
-    <row r="55" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="21"/>
-      <c r="B55" s="24" t="s">
+      <c r="E52" s="47"/>
+    </row>
+    <row r="53" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D53" s="46"/>
+      <c r="E53" s="61"/>
+    </row>
+    <row r="54" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D54" s="47"/>
+      <c r="E54" s="61"/>
+    </row>
+    <row r="55" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="55"/>
+      <c r="B55" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="D55" s="16"/>
-      <c r="E55" s="26"/>
-    </row>
-    <row r="56" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C56" s="15"/>
-      <c r="D56" s="16"/>
-      <c r="E56" s="34"/>
-    </row>
-    <row r="57" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C57" s="16"/>
-      <c r="D57" s="16">
+      <c r="D55" s="47"/>
+      <c r="E55" s="61"/>
+    </row>
+    <row r="56" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C56" s="46"/>
+      <c r="D56" s="47"/>
+      <c r="E56" s="51"/>
+    </row>
+    <row r="57" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C57" s="47"/>
+      <c r="D57" s="47">
         <v>10</v>
       </c>
-      <c r="H57" s="27"/>
-      <c r="I57" s="27"/>
-    </row>
-    <row r="58" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C58" s="16"/>
-      <c r="D58" s="16"/>
-    </row>
-    <row r="59" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="21"/>
-      <c r="C59" s="16"/>
-      <c r="D59" s="3"/>
-    </row>
-    <row r="60" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C60" s="16">
+      <c r="H57" s="62"/>
+      <c r="I57" s="62"/>
+    </row>
+    <row r="58" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C58" s="47"/>
+      <c r="D58" s="47"/>
+    </row>
+    <row r="59" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="55"/>
+      <c r="C59" s="47"/>
+      <c r="D59" s="51"/>
+    </row>
+    <row r="60" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C60" s="47">
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C61" s="16"/>
-    </row>
-    <row r="62" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C62" s="16"/>
-    </row>
-    <row r="63" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="21"/>
-      <c r="B63" s="24" t="s">
+    <row r="61" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C61" s="47"/>
+    </row>
+    <row r="62" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C62" s="47"/>
+    </row>
+    <row r="63" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="55"/>
+      <c r="B63" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="C63" s="2"/>
-    </row>
-    <row r="64" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C64" s="39"/>
-      <c r="D64" s="39"/>
-      <c r="E64" s="39"/>
-      <c r="F64" s="39"/>
-      <c r="G64" s="39"/>
-      <c r="H64" s="39"/>
-    </row>
-    <row r="65" spans="1:8" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C65" s="39"/>
-      <c r="D65" s="39"/>
-      <c r="E65" s="39"/>
-      <c r="F65" s="39"/>
-      <c r="G65" s="39"/>
-      <c r="H65" s="39"/>
-    </row>
-    <row r="66" spans="1:8" s="12" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C66" s="39"/>
-      <c r="D66" s="39"/>
-      <c r="E66" s="39"/>
-      <c r="F66" s="39"/>
-      <c r="G66" s="39"/>
-      <c r="H66" s="39"/>
+      <c r="C63" s="35"/>
+    </row>
+    <row r="64" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C64" s="63"/>
+      <c r="D64" s="63"/>
+      <c r="E64" s="63"/>
+      <c r="F64" s="63"/>
+      <c r="G64" s="63"/>
+      <c r="H64" s="63"/>
+    </row>
+    <row r="65" spans="1:8" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C65" s="63"/>
+      <c r="D65" s="63"/>
+      <c r="E65" s="63"/>
+      <c r="F65" s="63"/>
+      <c r="G65" s="63"/>
+      <c r="H65" s="63"/>
+    </row>
+    <row r="66" spans="1:8" s="45" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C66" s="63"/>
+      <c r="D66" s="63"/>
+      <c r="E66" s="63"/>
+      <c r="F66" s="63"/>
+      <c r="G66" s="63"/>
+      <c r="H66" s="63"/>
     </row>
     <row r="67" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="28"/>
-      <c r="C67" s="39"/>
-      <c r="D67" s="39"/>
-      <c r="E67" s="39"/>
-      <c r="F67" s="39"/>
-      <c r="G67" s="39"/>
-      <c r="H67" s="39"/>
+      <c r="A67" s="64"/>
+      <c r="C67" s="63"/>
+      <c r="D67" s="63"/>
+      <c r="E67" s="63"/>
+      <c r="F67" s="63"/>
+      <c r="G67" s="63"/>
+      <c r="H67" s="63"/>
     </row>
     <row r="68" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C68" s="39"/>
-      <c r="D68" s="39"/>
-      <c r="E68" s="39"/>
-      <c r="F68" s="39"/>
-      <c r="G68" s="39"/>
-      <c r="H68" s="39"/>
+      <c r="C68" s="63"/>
+      <c r="D68" s="63"/>
+      <c r="E68" s="63"/>
+      <c r="F68" s="63"/>
+      <c r="G68" s="63"/>
+      <c r="H68" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/8-team-double.xlsx
+++ b/8-team-double.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lts\Documents\GitHub\2018_world_cup_draw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{235916FA-C016-400B-B822-EC87A196F01E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC38E62C-2C81-4CB3-A908-953FD10F11A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="53">
   <si>
     <t>PrintYourBrackets</t>
   </si>
@@ -215,6 +215,14 @@
   </si>
   <si>
     <t>沙隆巴斯(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莎拉公主(3)  3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忍太郎(7)  0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -441,7 +449,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -499,18 +507,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -534,12 +530,6 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -549,9 +539,6 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -559,9 +546,31 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -918,25 +927,25 @@
     <row r="1" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="9"/>
       <c r="B1" s="10"/>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
       <c r="I1" s="10"/>
     </row>
     <row r="2" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
+      <c r="A2" s="62"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
       <c r="I2" s="10"/>
     </row>
     <row r="3" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
@@ -1167,17 +1176,17 @@
       <c r="G34" s="16"/>
     </row>
     <row r="35" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="40"/>
-      <c r="B35" s="40"/>
+      <c r="A35" s="63"/>
+      <c r="B35" s="63"/>
       <c r="C35" s="22"/>
       <c r="F35" s="16"/>
       <c r="G35" s="16"/>
     </row>
     <row r="36" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="38" t="s">
+      <c r="A36" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="38"/>
+      <c r="B36" s="61"/>
       <c r="C36" s="21" t="s">
         <v>6</v>
       </c>
@@ -1373,45 +1382,45 @@
       </c>
     </row>
     <row r="64" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C64" s="37"/>
-      <c r="D64" s="37"/>
-      <c r="E64" s="37"/>
-      <c r="F64" s="37"/>
-      <c r="G64" s="37"/>
-      <c r="H64" s="37"/>
+      <c r="C64" s="60"/>
+      <c r="D64" s="60"/>
+      <c r="E64" s="60"/>
+      <c r="F64" s="60"/>
+      <c r="G64" s="60"/>
+      <c r="H64" s="60"/>
     </row>
     <row r="65" spans="1:8" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C65" s="37"/>
-      <c r="D65" s="37"/>
-      <c r="E65" s="37"/>
-      <c r="F65" s="37"/>
-      <c r="G65" s="37"/>
-      <c r="H65" s="37"/>
+      <c r="C65" s="60"/>
+      <c r="D65" s="60"/>
+      <c r="E65" s="60"/>
+      <c r="F65" s="60"/>
+      <c r="G65" s="60"/>
+      <c r="H65" s="60"/>
     </row>
     <row r="66" spans="1:8" s="12" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C66" s="37"/>
-      <c r="D66" s="37"/>
-      <c r="E66" s="37"/>
-      <c r="F66" s="37"/>
-      <c r="G66" s="37"/>
-      <c r="H66" s="37"/>
+      <c r="C66" s="60"/>
+      <c r="D66" s="60"/>
+      <c r="E66" s="60"/>
+      <c r="F66" s="60"/>
+      <c r="G66" s="60"/>
+      <c r="H66" s="60"/>
     </row>
     <row r="67" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="28"/>
-      <c r="C67" s="37"/>
-      <c r="D67" s="37"/>
-      <c r="E67" s="37"/>
-      <c r="F67" s="37"/>
-      <c r="G67" s="37"/>
-      <c r="H67" s="37"/>
+      <c r="C67" s="60"/>
+      <c r="D67" s="60"/>
+      <c r="E67" s="60"/>
+      <c r="F67" s="60"/>
+      <c r="G67" s="60"/>
+      <c r="H67" s="60"/>
     </row>
     <row r="68" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C68" s="37"/>
-      <c r="D68" s="37"/>
-      <c r="E68" s="37"/>
-      <c r="F68" s="37"/>
-      <c r="G68" s="37"/>
-      <c r="H68" s="37"/>
+      <c r="C68" s="60"/>
+      <c r="D68" s="60"/>
+      <c r="E68" s="60"/>
+      <c r="F68" s="60"/>
+      <c r="G68" s="60"/>
+      <c r="H68" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1432,7 +1441,7 @@
   <dimension ref="A1:I71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.375" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -1447,50 +1456,50 @@
     <row r="1" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="9"/>
       <c r="B1" s="10"/>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
       <c r="I1" s="10"/>
     </row>
     <row r="2" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
+      <c r="A2" s="62"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
       <c r="I2" s="10"/>
     </row>
     <row r="3" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="41"/>
-      <c r="B3" s="42" t="s">
+      <c r="A3" s="37"/>
+      <c r="B3" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="44"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="40"/>
     </row>
     <row r="4" spans="1:9" s="12" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
+      <c r="A4" s="41"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
     </row>
     <row r="5" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="36"/>
@@ -1507,7 +1516,7 @@
     </row>
     <row r="6" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="36"/>
-      <c r="B6" s="46"/>
+      <c r="B6" s="42"/>
       <c r="C6" s="36"/>
       <c r="D6" s="36"/>
       <c r="E6" s="36"/>
@@ -1518,7 +1527,7 @@
     </row>
     <row r="7" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="36"/>
-      <c r="B7" s="47"/>
+      <c r="B7" s="43"/>
       <c r="C7" s="36" t="s">
         <v>50</v>
       </c>
@@ -1531,10 +1540,10 @@
     </row>
     <row r="8" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="36"/>
-      <c r="B8" s="47">
+      <c r="B8" s="43">
         <v>1</v>
       </c>
-      <c r="C8" s="46"/>
+      <c r="C8" s="42"/>
       <c r="D8" s="36"/>
       <c r="E8" s="36"/>
       <c r="F8" s="14"/>
@@ -1547,7 +1556,7 @@
       <c r="B9" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="47"/>
+      <c r="C9" s="43"/>
       <c r="D9" s="36"/>
       <c r="E9" s="36"/>
       <c r="F9" s="14"/>
@@ -1558,7 +1567,7 @@
     <row r="10" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="36"/>
       <c r="B10" s="36"/>
-      <c r="C10" s="47"/>
+      <c r="C10" s="43"/>
       <c r="D10" s="36"/>
       <c r="E10" s="36"/>
       <c r="F10" s="14"/>
@@ -1569,7 +1578,7 @@
     <row r="11" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="36"/>
       <c r="B11" s="36"/>
-      <c r="C11" s="47"/>
+      <c r="C11" s="43"/>
       <c r="D11" s="36"/>
       <c r="E11" s="36"/>
       <c r="F11" s="14"/>
@@ -1580,11 +1589,11 @@
     <row r="12" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="36"/>
       <c r="B12" s="36"/>
-      <c r="C12" s="48">
+      <c r="C12" s="44">
         <v>7</v>
       </c>
-      <c r="D12" s="49"/>
-      <c r="E12" s="46"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="42"/>
       <c r="F12" s="14"/>
       <c r="G12" s="36"/>
       <c r="H12" s="36"/>
@@ -1592,12 +1601,12 @@
     </row>
     <row r="13" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="36"/>
-      <c r="B13" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="47"/>
+      <c r="B13" s="68" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="43"/>
       <c r="D13" s="36"/>
-      <c r="E13" s="47"/>
+      <c r="E13" s="43"/>
       <c r="F13" s="36"/>
       <c r="G13" s="36"/>
       <c r="H13" s="36"/>
@@ -1605,10 +1614,10 @@
     </row>
     <row r="14" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="36"/>
-      <c r="B14" s="46"/>
-      <c r="C14" s="47"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="43"/>
       <c r="D14" s="36"/>
-      <c r="E14" s="47"/>
+      <c r="E14" s="43"/>
       <c r="F14" s="19"/>
       <c r="G14" s="36"/>
       <c r="H14" s="36"/>
@@ -1616,10 +1625,12 @@
     </row>
     <row r="15" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="36"/>
-      <c r="B15" s="47"/>
-      <c r="C15" s="51"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="47" t="s">
+        <v>43</v>
+      </c>
       <c r="D15" s="36"/>
-      <c r="E15" s="47"/>
+      <c r="E15" s="43"/>
       <c r="F15" s="19"/>
       <c r="G15" s="36"/>
       <c r="H15" s="36"/>
@@ -1627,12 +1638,12 @@
     </row>
     <row r="16" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="36"/>
-      <c r="B16" s="47">
+      <c r="B16" s="43">
         <v>2</v>
       </c>
       <c r="C16" s="36"/>
       <c r="D16" s="36"/>
-      <c r="E16" s="47"/>
+      <c r="E16" s="43"/>
       <c r="F16" s="19"/>
       <c r="G16" s="36"/>
       <c r="H16" s="36"/>
@@ -1641,11 +1652,11 @@
     <row r="17" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="36"/>
       <c r="B17" s="35" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C17" s="36"/>
       <c r="D17" s="36"/>
-      <c r="E17" s="47"/>
+      <c r="E17" s="43"/>
       <c r="F17" s="19"/>
       <c r="G17" s="36"/>
       <c r="H17" s="36"/>
@@ -1656,9 +1667,9 @@
       <c r="B18" s="36"/>
       <c r="C18" s="36"/>
       <c r="D18" s="36"/>
-      <c r="E18" s="47"/>
+      <c r="E18" s="43"/>
       <c r="F18" s="32"/>
-      <c r="G18" s="52"/>
+      <c r="G18" s="48"/>
       <c r="H18" s="36"/>
       <c r="I18" s="36"/>
     </row>
@@ -1667,11 +1678,11 @@
       <c r="B19" s="36"/>
       <c r="C19" s="36"/>
       <c r="D19" s="36"/>
-      <c r="E19" s="47">
+      <c r="E19" s="43">
         <v>11</v>
       </c>
       <c r="F19" s="19"/>
-      <c r="G19" s="46"/>
+      <c r="G19" s="42"/>
       <c r="H19" s="36"/>
       <c r="I19" s="36"/>
     </row>
@@ -1680,9 +1691,9 @@
       <c r="B20" s="36"/>
       <c r="C20" s="36"/>
       <c r="D20" s="36"/>
-      <c r="E20" s="47"/>
+      <c r="E20" s="43"/>
       <c r="F20" s="36"/>
-      <c r="G20" s="47"/>
+      <c r="G20" s="43"/>
       <c r="H20" s="36"/>
       <c r="I20" s="36"/>
     </row>
@@ -1693,44 +1704,44 @@
       </c>
       <c r="C21" s="36"/>
       <c r="D21" s="36"/>
-      <c r="E21" s="47"/>
+      <c r="E21" s="43"/>
       <c r="F21" s="36"/>
-      <c r="G21" s="47"/>
+      <c r="G21" s="43"/>
       <c r="H21" s="36"/>
       <c r="I21" s="36"/>
     </row>
     <row r="22" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="36"/>
-      <c r="B22" s="46"/>
+      <c r="B22" s="42"/>
       <c r="C22" s="36"/>
       <c r="D22" s="36"/>
-      <c r="E22" s="47"/>
+      <c r="E22" s="43"/>
       <c r="F22" s="36"/>
-      <c r="G22" s="47"/>
+      <c r="G22" s="43"/>
       <c r="H22" s="36"/>
       <c r="I22" s="36"/>
     </row>
     <row r="23" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="36"/>
-      <c r="B23" s="47"/>
+      <c r="B23" s="43"/>
       <c r="C23" s="36"/>
       <c r="D23" s="36"/>
-      <c r="E23" s="47"/>
+      <c r="E23" s="43"/>
       <c r="F23" s="36"/>
-      <c r="G23" s="47"/>
+      <c r="G23" s="43"/>
       <c r="H23" s="36"/>
       <c r="I23" s="36"/>
     </row>
     <row r="24" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="36"/>
-      <c r="B24" s="47">
+      <c r="B24" s="43">
         <v>3</v>
       </c>
-      <c r="C24" s="53"/>
+      <c r="C24" s="49"/>
       <c r="D24" s="36"/>
-      <c r="E24" s="47"/>
+      <c r="E24" s="43"/>
       <c r="F24" s="36"/>
-      <c r="G24" s="47"/>
+      <c r="G24" s="43"/>
       <c r="H24" s="36"/>
       <c r="I24" s="36"/>
     </row>
@@ -1739,46 +1750,46 @@
       <c r="B25" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="47"/>
+      <c r="C25" s="43"/>
       <c r="D25" s="36"/>
-      <c r="E25" s="47"/>
+      <c r="E25" s="43"/>
       <c r="F25" s="36"/>
-      <c r="G25" s="47"/>
+      <c r="G25" s="43"/>
       <c r="H25" s="36"/>
       <c r="I25" s="36"/>
     </row>
     <row r="26" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="36"/>
       <c r="B26" s="36"/>
-      <c r="C26" s="47"/>
+      <c r="C26" s="43"/>
       <c r="D26" s="36"/>
-      <c r="E26" s="47"/>
+      <c r="E26" s="43"/>
       <c r="F26" s="36"/>
-      <c r="G26" s="47"/>
+      <c r="G26" s="43"/>
       <c r="H26" s="36"/>
       <c r="I26" s="36"/>
     </row>
     <row r="27" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="36"/>
       <c r="B27" s="36"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="54"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="50"/>
       <c r="E27" s="35"/>
       <c r="F27" s="36"/>
-      <c r="G27" s="47"/>
+      <c r="G27" s="43"/>
       <c r="H27" s="36"/>
       <c r="I27" s="36"/>
     </row>
     <row r="28" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="36"/>
       <c r="B28" s="36"/>
-      <c r="C28" s="47">
+      <c r="C28" s="43">
         <v>8</v>
       </c>
       <c r="D28" s="36"/>
       <c r="E28" s="36"/>
       <c r="F28" s="36"/>
-      <c r="G28" s="47"/>
+      <c r="G28" s="43"/>
       <c r="H28" s="36"/>
       <c r="I28" s="36"/>
     </row>
@@ -1787,50 +1798,50 @@
       <c r="B29" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="47"/>
+      <c r="C29" s="43"/>
       <c r="D29" s="36"/>
       <c r="E29" s="36"/>
       <c r="F29" s="36"/>
-      <c r="G29" s="47"/>
+      <c r="G29" s="43"/>
       <c r="H29" s="36"/>
-      <c r="I29" s="52" t="s">
+      <c r="I29" s="48" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="36"/>
-      <c r="B30" s="46"/>
-      <c r="C30" s="47"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="43"/>
       <c r="D30" s="36"/>
       <c r="E30" s="36"/>
       <c r="F30" s="36"/>
-      <c r="G30" s="47">
+      <c r="G30" s="43">
         <v>14</v>
       </c>
-      <c r="H30" s="49"/>
+      <c r="H30" s="45"/>
       <c r="I30" s="36"/>
     </row>
     <row r="31" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="36"/>
-      <c r="B31" s="47"/>
-      <c r="C31" s="51"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="47"/>
       <c r="D31" s="36"/>
       <c r="E31" s="36"/>
       <c r="F31" s="36"/>
-      <c r="G31" s="47"/>
+      <c r="G31" s="43"/>
       <c r="H31" s="36"/>
       <c r="I31" s="36"/>
     </row>
     <row r="32" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="36"/>
-      <c r="B32" s="47">
+      <c r="B32" s="43">
         <v>4</v>
       </c>
       <c r="C32" s="36"/>
       <c r="D32" s="36"/>
       <c r="E32" s="36"/>
       <c r="F32" s="36"/>
-      <c r="G32" s="47"/>
+      <c r="G32" s="43"/>
       <c r="H32" s="36"/>
       <c r="I32" s="36"/>
     </row>
@@ -1841,11 +1852,11 @@
       </c>
       <c r="C33" s="36"/>
       <c r="D33" s="36"/>
-      <c r="E33" s="55" t="s">
+      <c r="E33" s="51" t="s">
         <v>8</v>
       </c>
       <c r="F33" s="36"/>
-      <c r="G33" s="47"/>
+      <c r="G33" s="43"/>
       <c r="H33" s="36"/>
       <c r="I33" s="36"/>
     </row>
@@ -1855,34 +1866,34 @@
       <c r="C34" s="36"/>
       <c r="D34" s="36"/>
       <c r="E34" s="36"/>
-      <c r="F34" s="46"/>
-      <c r="G34" s="47"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="43"/>
       <c r="H34" s="36"/>
       <c r="I34" s="36"/>
     </row>
     <row r="35" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="56"/>
-      <c r="B35" s="56"/>
+      <c r="A35" s="64"/>
+      <c r="B35" s="64"/>
       <c r="C35" s="36"/>
       <c r="D35" s="36"/>
       <c r="E35" s="36"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="47"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="43"/>
       <c r="H35" s="36"/>
       <c r="I35" s="36"/>
     </row>
     <row r="36" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="57" t="s">
+      <c r="A36" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="57"/>
-      <c r="C36" s="55" t="s">
+      <c r="B36" s="65"/>
+      <c r="C36" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="D36" s="52"/>
+      <c r="D36" s="48"/>
       <c r="E36" s="36"/>
-      <c r="F36" s="47"/>
-      <c r="G36" s="47"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="43"/>
       <c r="H36" s="36"/>
       <c r="I36" s="36"/>
     </row>
@@ -1890,10 +1901,10 @@
       <c r="A37" s="36"/>
       <c r="B37" s="36"/>
       <c r="C37" s="36"/>
-      <c r="D37" s="47"/>
+      <c r="D37" s="43"/>
       <c r="E37" s="36"/>
-      <c r="F37" s="47"/>
-      <c r="G37" s="47"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="43"/>
       <c r="H37" s="36"/>
       <c r="I37" s="36"/>
     </row>
@@ -1901,59 +1912,59 @@
       <c r="A38" s="36"/>
       <c r="B38" s="36"/>
       <c r="C38" s="36"/>
-      <c r="D38" s="47"/>
+      <c r="D38" s="43"/>
       <c r="E38" s="36"/>
-      <c r="F38" s="58"/>
-      <c r="G38" s="47"/>
+      <c r="F38" s="52"/>
+      <c r="G38" s="43"/>
       <c r="H38" s="36"/>
       <c r="I38" s="36"/>
     </row>
     <row r="39" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="55"/>
-      <c r="B39" s="59" t="s">
+      <c r="A39" s="51"/>
+      <c r="B39" s="53" t="s">
         <v>1</v>
       </c>
       <c r="C39" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="D39" s="47"/>
+      <c r="D39" s="43"/>
       <c r="E39" s="36"/>
-      <c r="F39" s="58"/>
-      <c r="G39" s="47"/>
+      <c r="F39" s="52"/>
+      <c r="G39" s="43"/>
       <c r="H39" s="36"/>
       <c r="I39" s="36"/>
     </row>
     <row r="40" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="36"/>
       <c r="B40" s="36"/>
-      <c r="C40" s="46"/>
-      <c r="D40" s="47"/>
-      <c r="E40" s="54"/>
-      <c r="F40" s="47"/>
-      <c r="G40" s="47"/>
+      <c r="C40" s="42"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="43"/>
       <c r="H40" s="36"/>
       <c r="I40" s="36"/>
     </row>
     <row r="41" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="36"/>
       <c r="B41" s="36"/>
-      <c r="C41" s="47"/>
-      <c r="D41" s="47">
+      <c r="C41" s="43"/>
+      <c r="D41" s="43">
         <v>9</v>
       </c>
-      <c r="E41" s="47"/>
-      <c r="F41" s="47"/>
-      <c r="G41" s="51"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="47"/>
       <c r="H41" s="36"/>
       <c r="I41" s="36"/>
     </row>
     <row r="42" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="36"/>
       <c r="B42" s="36"/>
-      <c r="C42" s="47"/>
-      <c r="D42" s="47"/>
-      <c r="E42" s="47"/>
-      <c r="F42" s="47">
+      <c r="C42" s="43"/>
+      <c r="D42" s="43"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="43">
         <v>13</v>
       </c>
       <c r="G42" s="36"/>
@@ -1961,12 +1972,12 @@
       <c r="I42" s="36"/>
     </row>
     <row r="43" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="55"/>
+      <c r="A43" s="51"/>
       <c r="B43" s="36"/>
-      <c r="C43" s="47"/>
+      <c r="C43" s="43"/>
       <c r="D43" s="35"/>
-      <c r="E43" s="47"/>
-      <c r="F43" s="47"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="43"/>
       <c r="G43" s="36"/>
       <c r="H43" s="36"/>
       <c r="I43" s="36"/>
@@ -1974,12 +1985,12 @@
     <row r="44" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="36"/>
       <c r="B44" s="36"/>
-      <c r="C44" s="47">
+      <c r="C44" s="43">
         <v>5</v>
       </c>
-      <c r="D44" s="49"/>
-      <c r="E44" s="47"/>
-      <c r="F44" s="47"/>
+      <c r="D44" s="45"/>
+      <c r="E44" s="43"/>
+      <c r="F44" s="43"/>
       <c r="G44" s="36"/>
       <c r="H44" s="36"/>
       <c r="I44" s="36"/>
@@ -1987,10 +1998,10 @@
     <row r="45" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="36"/>
       <c r="B45" s="36"/>
-      <c r="C45" s="47"/>
+      <c r="C45" s="43"/>
       <c r="D45" s="36"/>
-      <c r="E45" s="47"/>
-      <c r="F45" s="47"/>
+      <c r="E45" s="43"/>
+      <c r="F45" s="43"/>
       <c r="G45" s="36"/>
       <c r="H45" s="36"/>
       <c r="I45" s="36"/>
@@ -1998,23 +2009,25 @@
     <row r="46" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="36"/>
       <c r="B46" s="36"/>
-      <c r="C46" s="47"/>
-      <c r="D46" s="60"/>
-      <c r="E46" s="47"/>
-      <c r="F46" s="47"/>
+      <c r="C46" s="43"/>
+      <c r="D46" s="54"/>
+      <c r="E46" s="43"/>
+      <c r="F46" s="43"/>
       <c r="G46" s="36"/>
       <c r="H46" s="36"/>
       <c r="I46" s="36"/>
     </row>
     <row r="47" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="55"/>
-      <c r="B47" s="59" t="s">
+      <c r="A47" s="51"/>
+      <c r="B47" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="C47" s="35"/>
+      <c r="C47" s="35" t="s">
+        <v>46</v>
+      </c>
       <c r="D47" s="36"/>
-      <c r="E47" s="47"/>
-      <c r="F47" s="47"/>
+      <c r="E47" s="43"/>
+      <c r="F47" s="43"/>
       <c r="G47" s="36"/>
       <c r="H47" s="36"/>
       <c r="I47" s="36"/>
@@ -2024,8 +2037,8 @@
       <c r="B48" s="36"/>
       <c r="C48" s="36"/>
       <c r="D48" s="36"/>
-      <c r="E48" s="47"/>
-      <c r="F48" s="51"/>
+      <c r="E48" s="43"/>
+      <c r="F48" s="47"/>
       <c r="G48" s="36"/>
       <c r="H48" s="36"/>
       <c r="I48" s="36"/>
@@ -2038,7 +2051,7 @@
       <c r="E49" s="36">
         <v>12</v>
       </c>
-      <c r="F49" s="60"/>
+      <c r="F49" s="54"/>
       <c r="G49" s="36"/>
       <c r="H49" s="36"/>
       <c r="I49" s="36"/>
@@ -2049,19 +2062,19 @@
       <c r="C50" s="36"/>
       <c r="D50" s="36"/>
       <c r="E50" s="36"/>
-      <c r="F50" s="60"/>
+      <c r="F50" s="54"/>
       <c r="G50" s="36"/>
       <c r="H50" s="36"/>
       <c r="I50" s="36"/>
     </row>
     <row r="51" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="55"/>
+      <c r="A51" s="51"/>
       <c r="B51" s="36" t="s">
         <v>0</v>
       </c>
       <c r="C51" s="36"/>
       <c r="D51" s="36"/>
-      <c r="E51" s="47"/>
+      <c r="E51" s="43"/>
       <c r="F51" s="36"/>
       <c r="G51" s="36"/>
       <c r="H51" s="36"/>
@@ -2070,11 +2083,11 @@
     <row r="52" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="36"/>
       <c r="B52" s="36"/>
-      <c r="C52" s="55" t="s">
+      <c r="C52" s="51" t="s">
         <v>5</v>
       </c>
       <c r="D52" s="36"/>
-      <c r="E52" s="47"/>
+      <c r="E52" s="43"/>
       <c r="F52" s="36"/>
       <c r="G52" s="36"/>
       <c r="H52" s="36"/>
@@ -2084,8 +2097,8 @@
       <c r="A53" s="36"/>
       <c r="B53" s="36"/>
       <c r="C53" s="36"/>
-      <c r="D53" s="46"/>
-      <c r="E53" s="61"/>
+      <c r="D53" s="42"/>
+      <c r="E53" s="55"/>
       <c r="F53" s="36"/>
       <c r="G53" s="36"/>
       <c r="H53" s="36"/>
@@ -2095,21 +2108,21 @@
       <c r="A54" s="36"/>
       <c r="B54" s="36"/>
       <c r="C54" s="36"/>
-      <c r="D54" s="47"/>
-      <c r="E54" s="61"/>
+      <c r="D54" s="43"/>
+      <c r="E54" s="55"/>
       <c r="F54" s="36"/>
       <c r="G54" s="36"/>
       <c r="H54" s="36"/>
       <c r="I54" s="36"/>
     </row>
     <row r="55" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="55"/>
-      <c r="B55" s="59" t="s">
+      <c r="A55" s="51"/>
+      <c r="B55" s="53" t="s">
         <v>3</v>
       </c>
       <c r="C55" s="36"/>
-      <c r="D55" s="47"/>
-      <c r="E55" s="61"/>
+      <c r="D55" s="43"/>
+      <c r="E55" s="55"/>
       <c r="F55" s="36"/>
       <c r="G55" s="36"/>
       <c r="H55" s="36"/>
@@ -2118,9 +2131,9 @@
     <row r="56" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="36"/>
       <c r="B56" s="36"/>
-      <c r="C56" s="46"/>
-      <c r="D56" s="47"/>
-      <c r="E56" s="51"/>
+      <c r="C56" s="42"/>
+      <c r="D56" s="43"/>
+      <c r="E56" s="47"/>
       <c r="F56" s="36"/>
       <c r="G56" s="36"/>
       <c r="H56" s="36"/>
@@ -2129,21 +2142,21 @@
     <row r="57" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="36"/>
       <c r="B57" s="36"/>
-      <c r="C57" s="47"/>
-      <c r="D57" s="47">
+      <c r="C57" s="43"/>
+      <c r="D57" s="43">
         <v>10</v>
       </c>
       <c r="E57" s="36"/>
       <c r="F57" s="36"/>
       <c r="G57" s="36"/>
-      <c r="H57" s="62"/>
-      <c r="I57" s="62"/>
+      <c r="H57" s="56"/>
+      <c r="I57" s="56"/>
     </row>
     <row r="58" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="36"/>
       <c r="B58" s="36"/>
-      <c r="C58" s="47"/>
-      <c r="D58" s="47"/>
+      <c r="C58" s="43"/>
+      <c r="D58" s="43"/>
       <c r="E58" s="36"/>
       <c r="F58" s="36"/>
       <c r="G58" s="36"/>
@@ -2151,10 +2164,10 @@
       <c r="I58" s="36"/>
     </row>
     <row r="59" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="55"/>
+      <c r="A59" s="51"/>
       <c r="B59" s="36"/>
-      <c r="C59" s="47"/>
-      <c r="D59" s="51"/>
+      <c r="C59" s="43"/>
+      <c r="D59" s="47"/>
       <c r="E59" s="36"/>
       <c r="F59" s="36"/>
       <c r="G59" s="36"/>
@@ -2164,7 +2177,7 @@
     <row r="60" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="36"/>
       <c r="B60" s="36"/>
-      <c r="C60" s="47">
+      <c r="C60" s="43">
         <v>6</v>
       </c>
       <c r="D60" s="36"/>
@@ -2177,7 +2190,7 @@
     <row r="61" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="36"/>
       <c r="B61" s="36"/>
-      <c r="C61" s="47"/>
+      <c r="C61" s="43"/>
       <c r="D61" s="36"/>
       <c r="E61" s="36"/>
       <c r="F61" s="36"/>
@@ -2188,7 +2201,7 @@
     <row r="62" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="36"/>
       <c r="B62" s="36"/>
-      <c r="C62" s="47"/>
+      <c r="C62" s="43"/>
       <c r="D62" s="36"/>
       <c r="E62" s="36"/>
       <c r="F62" s="36"/>
@@ -2197,8 +2210,8 @@
       <c r="I62" s="36"/>
     </row>
     <row r="63" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="55"/>
-      <c r="B63" s="59" t="s">
+      <c r="A63" s="51"/>
+      <c r="B63" s="53" t="s">
         <v>4</v>
       </c>
       <c r="C63" s="35"/>
@@ -2212,90 +2225,90 @@
     <row r="64" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="36"/>
       <c r="B64" s="36"/>
-      <c r="C64" s="63"/>
-      <c r="D64" s="63"/>
-      <c r="E64" s="63"/>
-      <c r="F64" s="63"/>
-      <c r="G64" s="63"/>
-      <c r="H64" s="63"/>
+      <c r="C64" s="66"/>
+      <c r="D64" s="66"/>
+      <c r="E64" s="66"/>
+      <c r="F64" s="66"/>
+      <c r="G64" s="66"/>
+      <c r="H64" s="66"/>
       <c r="I64" s="36"/>
     </row>
     <row r="65" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="36"/>
       <c r="B65" s="36"/>
-      <c r="C65" s="63"/>
-      <c r="D65" s="63"/>
-      <c r="E65" s="63"/>
-      <c r="F65" s="63"/>
-      <c r="G65" s="63"/>
-      <c r="H65" s="63"/>
+      <c r="C65" s="66"/>
+      <c r="D65" s="66"/>
+      <c r="E65" s="66"/>
+      <c r="F65" s="66"/>
+      <c r="G65" s="66"/>
+      <c r="H65" s="66"/>
       <c r="I65" s="36"/>
     </row>
     <row r="66" spans="1:9" s="12" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="45"/>
-      <c r="B66" s="45"/>
-      <c r="C66" s="63"/>
-      <c r="D66" s="63"/>
-      <c r="E66" s="63"/>
-      <c r="F66" s="63"/>
-      <c r="G66" s="63"/>
-      <c r="H66" s="63"/>
-      <c r="I66" s="45"/>
+      <c r="A66" s="41"/>
+      <c r="B66" s="41"/>
+      <c r="C66" s="66"/>
+      <c r="D66" s="66"/>
+      <c r="E66" s="66"/>
+      <c r="F66" s="66"/>
+      <c r="G66" s="66"/>
+      <c r="H66" s="66"/>
+      <c r="I66" s="41"/>
     </row>
     <row r="67" spans="1:9" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="64"/>
-      <c r="B67" s="65"/>
-      <c r="C67" s="63"/>
-      <c r="D67" s="63"/>
-      <c r="E67" s="63"/>
-      <c r="F67" s="63"/>
-      <c r="G67" s="63"/>
-      <c r="H67" s="63"/>
-      <c r="I67" s="65"/>
+      <c r="A67" s="57"/>
+      <c r="B67" s="58"/>
+      <c r="C67" s="66"/>
+      <c r="D67" s="66"/>
+      <c r="E67" s="66"/>
+      <c r="F67" s="66"/>
+      <c r="G67" s="66"/>
+      <c r="H67" s="66"/>
+      <c r="I67" s="58"/>
     </row>
     <row r="68" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="65"/>
-      <c r="B68" s="65"/>
-      <c r="C68" s="63"/>
-      <c r="D68" s="63"/>
-      <c r="E68" s="63"/>
-      <c r="F68" s="63"/>
-      <c r="G68" s="63"/>
-      <c r="H68" s="63"/>
-      <c r="I68" s="65"/>
+      <c r="A68" s="58"/>
+      <c r="B68" s="58"/>
+      <c r="C68" s="66"/>
+      <c r="D68" s="66"/>
+      <c r="E68" s="66"/>
+      <c r="F68" s="66"/>
+      <c r="G68" s="66"/>
+      <c r="H68" s="66"/>
+      <c r="I68" s="58"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A69" s="65"/>
-      <c r="B69" s="65"/>
-      <c r="C69" s="65"/>
-      <c r="D69" s="65"/>
-      <c r="E69" s="65"/>
-      <c r="F69" s="65"/>
-      <c r="G69" s="65"/>
-      <c r="H69" s="65"/>
-      <c r="I69" s="65"/>
+      <c r="A69" s="58"/>
+      <c r="B69" s="58"/>
+      <c r="C69" s="58"/>
+      <c r="D69" s="58"/>
+      <c r="E69" s="58"/>
+      <c r="F69" s="58"/>
+      <c r="G69" s="58"/>
+      <c r="H69" s="58"/>
+      <c r="I69" s="58"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A70" s="65"/>
-      <c r="B70" s="65"/>
-      <c r="C70" s="65"/>
-      <c r="D70" s="65"/>
-      <c r="E70" s="65"/>
-      <c r="F70" s="65"/>
-      <c r="G70" s="65"/>
-      <c r="H70" s="65"/>
-      <c r="I70" s="65"/>
+      <c r="A70" s="58"/>
+      <c r="B70" s="58"/>
+      <c r="C70" s="58"/>
+      <c r="D70" s="58"/>
+      <c r="E70" s="58"/>
+      <c r="F70" s="58"/>
+      <c r="G70" s="58"/>
+      <c r="H70" s="58"/>
+      <c r="I70" s="58"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A71" s="65"/>
-      <c r="B71" s="65"/>
-      <c r="C71" s="65"/>
-      <c r="D71" s="65"/>
-      <c r="E71" s="65"/>
-      <c r="F71" s="65"/>
-      <c r="G71" s="65"/>
-      <c r="H71" s="65"/>
-      <c r="I71" s="65"/>
+      <c r="A71" s="58"/>
+      <c r="B71" s="58"/>
+      <c r="C71" s="58"/>
+      <c r="D71" s="58"/>
+      <c r="E71" s="58"/>
+      <c r="F71" s="58"/>
+      <c r="G71" s="58"/>
+      <c r="H71" s="58"/>
+      <c r="I71" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2321,51 +2334,51 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.375" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.75" style="65" customWidth="1"/>
-    <col min="2" max="7" width="12.25" style="65" customWidth="1"/>
-    <col min="8" max="8" width="12.75" style="65" customWidth="1"/>
-    <col min="9" max="9" width="12.875" style="65" customWidth="1"/>
-    <col min="10" max="16384" width="17.375" style="65"/>
+    <col min="1" max="1" width="2.75" style="58" customWidth="1"/>
+    <col min="2" max="7" width="12.25" style="58" customWidth="1"/>
+    <col min="8" max="8" width="12.75" style="58" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="58" customWidth="1"/>
+    <col min="10" max="16384" width="17.375" style="58"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="66"/>
-      <c r="B1" s="44"/>
-      <c r="C1" s="63" t="s">
+      <c r="A1" s="59"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="44"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="40"/>
     </row>
     <row r="2" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="67"/>
       <c r="B2" s="67"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="44"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="40"/>
     </row>
     <row r="3" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="41"/>
-      <c r="B3" s="42" t="s">
+      <c r="A3" s="37"/>
+      <c r="B3" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="44"/>
-    </row>
-    <row r="4" spans="1:9" s="45" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="40"/>
+    </row>
+    <row r="4" spans="1:9" s="41" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
     </row>
@@ -2374,386 +2387,386 @@
       <c r="F5" s="14"/>
     </row>
     <row r="6" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="46"/>
+      <c r="B6" s="42"/>
       <c r="F6" s="14"/>
     </row>
     <row r="7" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="47"/>
+      <c r="B7" s="43"/>
       <c r="F7" s="14"/>
     </row>
     <row r="8" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="47">
+      <c r="B8" s="43">
         <v>1</v>
       </c>
-      <c r="C8" s="46"/>
+      <c r="C8" s="42"/>
       <c r="F8" s="14"/>
     </row>
     <row r="9" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="35"/>
-      <c r="C9" s="47"/>
+      <c r="C9" s="43"/>
       <c r="F9" s="14"/>
     </row>
     <row r="10" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="47"/>
+      <c r="C10" s="43"/>
       <c r="F10" s="14"/>
     </row>
     <row r="11" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="47"/>
+      <c r="C11" s="43"/>
       <c r="F11" s="14"/>
     </row>
     <row r="12" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="48">
+      <c r="C12" s="44">
         <v>7</v>
       </c>
-      <c r="D12" s="49"/>
-      <c r="E12" s="46"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="42"/>
       <c r="F12" s="14"/>
     </row>
     <row r="13" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="50"/>
-      <c r="C13" s="47"/>
-      <c r="E13" s="47"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="43"/>
+      <c r="E13" s="43"/>
     </row>
     <row r="14" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="46"/>
-      <c r="C14" s="47"/>
-      <c r="E14" s="47"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="43"/>
+      <c r="E14" s="43"/>
       <c r="F14" s="19"/>
     </row>
     <row r="15" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="47"/>
-      <c r="C15" s="51"/>
-      <c r="E15" s="47"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="47"/>
+      <c r="E15" s="43"/>
       <c r="F15" s="19"/>
     </row>
     <row r="16" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="47">
+      <c r="B16" s="43">
         <v>2</v>
       </c>
-      <c r="E16" s="47"/>
+      <c r="E16" s="43"/>
       <c r="F16" s="19"/>
     </row>
     <row r="17" spans="2:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="35"/>
-      <c r="E17" s="47"/>
+      <c r="E17" s="43"/>
       <c r="F17" s="19"/>
     </row>
     <row r="18" spans="2:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E18" s="47"/>
+      <c r="E18" s="43"/>
       <c r="F18" s="32"/>
-      <c r="G18" s="52"/>
+      <c r="G18" s="48"/>
     </row>
     <row r="19" spans="2:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E19" s="47">
+      <c r="E19" s="43">
         <v>11</v>
       </c>
       <c r="F19" s="19"/>
-      <c r="G19" s="46"/>
+      <c r="G19" s="42"/>
     </row>
     <row r="20" spans="2:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E20" s="47"/>
-      <c r="G20" s="47"/>
+      <c r="E20" s="43"/>
+      <c r="G20" s="43"/>
     </row>
     <row r="21" spans="2:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E21" s="47"/>
-      <c r="G21" s="47"/>
+      <c r="E21" s="43"/>
+      <c r="G21" s="43"/>
     </row>
     <row r="22" spans="2:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="46"/>
-      <c r="E22" s="47"/>
-      <c r="G22" s="47"/>
+      <c r="B22" s="42"/>
+      <c r="E22" s="43"/>
+      <c r="G22" s="43"/>
     </row>
     <row r="23" spans="2:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="47"/>
-      <c r="E23" s="47"/>
-      <c r="G23" s="47"/>
+      <c r="B23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="G23" s="43"/>
     </row>
     <row r="24" spans="2:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="47">
+      <c r="B24" s="43">
         <v>3</v>
       </c>
-      <c r="C24" s="53"/>
-      <c r="E24" s="47"/>
-      <c r="G24" s="47"/>
+      <c r="C24" s="49"/>
+      <c r="E24" s="43"/>
+      <c r="G24" s="43"/>
     </row>
     <row r="25" spans="2:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="35"/>
-      <c r="C25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="G25" s="47"/>
+      <c r="C25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="G25" s="43"/>
     </row>
     <row r="26" spans="2:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="47"/>
-      <c r="E26" s="47"/>
-      <c r="G26" s="47"/>
+      <c r="C26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="G26" s="43"/>
     </row>
     <row r="27" spans="2:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="47"/>
-      <c r="D27" s="54"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="50"/>
       <c r="E27" s="35"/>
-      <c r="G27" s="47"/>
+      <c r="G27" s="43"/>
     </row>
     <row r="28" spans="2:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="47">
+      <c r="C28" s="43">
         <v>8</v>
       </c>
-      <c r="G28" s="47"/>
+      <c r="G28" s="43"/>
     </row>
     <row r="29" spans="2:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C29" s="47"/>
-      <c r="G29" s="47"/>
-      <c r="I29" s="52" t="s">
+      <c r="C29" s="43"/>
+      <c r="G29" s="43"/>
+      <c r="I29" s="48" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="30" spans="2:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="46"/>
-      <c r="C30" s="47"/>
-      <c r="G30" s="47">
+      <c r="B30" s="42"/>
+      <c r="C30" s="43"/>
+      <c r="G30" s="43">
         <v>14</v>
       </c>
-      <c r="H30" s="49"/>
+      <c r="H30" s="45"/>
     </row>
     <row r="31" spans="2:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="47"/>
-      <c r="C31" s="51"/>
-      <c r="G31" s="47"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="47"/>
+      <c r="G31" s="43"/>
     </row>
     <row r="32" spans="2:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="47">
+      <c r="B32" s="43">
         <v>4</v>
       </c>
-      <c r="G32" s="47"/>
+      <c r="G32" s="43"/>
     </row>
     <row r="33" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="35"/>
-      <c r="E33" s="55" t="s">
+      <c r="E33" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="G33" s="47"/>
+      <c r="G33" s="43"/>
     </row>
     <row r="34" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F34" s="46"/>
-      <c r="G34" s="47"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="43"/>
     </row>
     <row r="35" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="56"/>
-      <c r="B35" s="56"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="47"/>
+      <c r="A35" s="64"/>
+      <c r="B35" s="64"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="43"/>
     </row>
     <row r="36" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="57" t="s">
+      <c r="A36" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="57"/>
-      <c r="C36" s="55" t="s">
+      <c r="B36" s="65"/>
+      <c r="C36" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="D36" s="52"/>
-      <c r="F36" s="47"/>
-      <c r="G36" s="47"/>
+      <c r="D36" s="48"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="43"/>
     </row>
     <row r="37" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D37" s="47"/>
-      <c r="F37" s="47"/>
-      <c r="G37" s="47"/>
+      <c r="D37" s="43"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="43"/>
     </row>
     <row r="38" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D38" s="47"/>
-      <c r="F38" s="58"/>
-      <c r="G38" s="47"/>
+      <c r="D38" s="43"/>
+      <c r="F38" s="52"/>
+      <c r="G38" s="43"/>
     </row>
     <row r="39" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="55"/>
-      <c r="B39" s="59" t="s">
+      <c r="A39" s="51"/>
+      <c r="B39" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="D39" s="47"/>
-      <c r="F39" s="58"/>
-      <c r="G39" s="47"/>
+      <c r="D39" s="43"/>
+      <c r="F39" s="52"/>
+      <c r="G39" s="43"/>
     </row>
     <row r="40" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C40" s="46"/>
-      <c r="D40" s="47"/>
-      <c r="E40" s="54"/>
-      <c r="F40" s="47"/>
-      <c r="G40" s="47"/>
+      <c r="C40" s="42"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="43"/>
     </row>
     <row r="41" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C41" s="47"/>
-      <c r="D41" s="47">
+      <c r="C41" s="43"/>
+      <c r="D41" s="43">
         <v>9</v>
       </c>
-      <c r="E41" s="47"/>
-      <c r="F41" s="47"/>
-      <c r="G41" s="51"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="47"/>
     </row>
     <row r="42" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C42" s="47"/>
-      <c r="D42" s="47"/>
-      <c r="E42" s="47"/>
-      <c r="F42" s="47">
+      <c r="C42" s="43"/>
+      <c r="D42" s="43"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="43">
         <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="55"/>
-      <c r="C43" s="47"/>
+      <c r="A43" s="51"/>
+      <c r="C43" s="43"/>
       <c r="D43" s="35"/>
-      <c r="E43" s="47"/>
-      <c r="F43" s="47"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="43"/>
     </row>
     <row r="44" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C44" s="47">
+      <c r="C44" s="43">
         <v>5</v>
       </c>
-      <c r="D44" s="49"/>
-      <c r="E44" s="47"/>
-      <c r="F44" s="47"/>
+      <c r="D44" s="45"/>
+      <c r="E44" s="43"/>
+      <c r="F44" s="43"/>
     </row>
     <row r="45" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C45" s="47"/>
-      <c r="E45" s="47"/>
-      <c r="F45" s="47"/>
+      <c r="C45" s="43"/>
+      <c r="E45" s="43"/>
+      <c r="F45" s="43"/>
     </row>
     <row r="46" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C46" s="47"/>
-      <c r="D46" s="60"/>
-      <c r="E46" s="47"/>
-      <c r="F46" s="47"/>
+      <c r="C46" s="43"/>
+      <c r="D46" s="54"/>
+      <c r="E46" s="43"/>
+      <c r="F46" s="43"/>
     </row>
     <row r="47" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="55"/>
-      <c r="B47" s="59" t="s">
+      <c r="A47" s="51"/>
+      <c r="B47" s="53" t="s">
         <v>2</v>
       </c>
       <c r="C47" s="35"/>
-      <c r="E47" s="47"/>
-      <c r="F47" s="47"/>
+      <c r="E47" s="43"/>
+      <c r="F47" s="43"/>
     </row>
     <row r="48" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E48" s="47"/>
-      <c r="F48" s="51"/>
+      <c r="E48" s="43"/>
+      <c r="F48" s="47"/>
     </row>
     <row r="49" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E49" s="36">
         <v>12</v>
       </c>
-      <c r="F49" s="60"/>
+      <c r="F49" s="54"/>
     </row>
     <row r="50" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F50" s="60"/>
+      <c r="F50" s="54"/>
     </row>
     <row r="51" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="55"/>
+      <c r="A51" s="51"/>
       <c r="B51" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="E51" s="47"/>
+      <c r="E51" s="43"/>
     </row>
     <row r="52" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C52" s="55" t="s">
+      <c r="C52" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="E52" s="47"/>
+      <c r="E52" s="43"/>
     </row>
     <row r="53" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="46"/>
-      <c r="E53" s="61"/>
+      <c r="D53" s="42"/>
+      <c r="E53" s="55"/>
     </row>
     <row r="54" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D54" s="47"/>
-      <c r="E54" s="61"/>
+      <c r="D54" s="43"/>
+      <c r="E54" s="55"/>
     </row>
     <row r="55" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="55"/>
-      <c r="B55" s="59" t="s">
+      <c r="A55" s="51"/>
+      <c r="B55" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="D55" s="47"/>
-      <c r="E55" s="61"/>
+      <c r="D55" s="43"/>
+      <c r="E55" s="55"/>
     </row>
     <row r="56" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C56" s="46"/>
-      <c r="D56" s="47"/>
-      <c r="E56" s="51"/>
+      <c r="C56" s="42"/>
+      <c r="D56" s="43"/>
+      <c r="E56" s="47"/>
     </row>
     <row r="57" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C57" s="47"/>
-      <c r="D57" s="47">
+      <c r="C57" s="43"/>
+      <c r="D57" s="43">
         <v>10</v>
       </c>
-      <c r="H57" s="62"/>
-      <c r="I57" s="62"/>
+      <c r="H57" s="56"/>
+      <c r="I57" s="56"/>
     </row>
     <row r="58" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C58" s="47"/>
-      <c r="D58" s="47"/>
+      <c r="C58" s="43"/>
+      <c r="D58" s="43"/>
     </row>
     <row r="59" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="55"/>
-      <c r="C59" s="47"/>
-      <c r="D59" s="51"/>
+      <c r="A59" s="51"/>
+      <c r="C59" s="43"/>
+      <c r="D59" s="47"/>
     </row>
     <row r="60" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C60" s="47">
+      <c r="C60" s="43">
         <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C61" s="47"/>
+      <c r="C61" s="43"/>
     </row>
     <row r="62" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C62" s="47"/>
+      <c r="C62" s="43"/>
     </row>
     <row r="63" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="55"/>
-      <c r="B63" s="59" t="s">
+      <c r="A63" s="51"/>
+      <c r="B63" s="53" t="s">
         <v>4</v>
       </c>
       <c r="C63" s="35"/>
     </row>
     <row r="64" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C64" s="63"/>
-      <c r="D64" s="63"/>
-      <c r="E64" s="63"/>
-      <c r="F64" s="63"/>
-      <c r="G64" s="63"/>
-      <c r="H64" s="63"/>
+      <c r="C64" s="66"/>
+      <c r="D64" s="66"/>
+      <c r="E64" s="66"/>
+      <c r="F64" s="66"/>
+      <c r="G64" s="66"/>
+      <c r="H64" s="66"/>
     </row>
     <row r="65" spans="1:8" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C65" s="63"/>
-      <c r="D65" s="63"/>
-      <c r="E65" s="63"/>
-      <c r="F65" s="63"/>
-      <c r="G65" s="63"/>
-      <c r="H65" s="63"/>
-    </row>
-    <row r="66" spans="1:8" s="45" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C66" s="63"/>
-      <c r="D66" s="63"/>
-      <c r="E66" s="63"/>
-      <c r="F66" s="63"/>
-      <c r="G66" s="63"/>
-      <c r="H66" s="63"/>
+      <c r="C65" s="66"/>
+      <c r="D65" s="66"/>
+      <c r="E65" s="66"/>
+      <c r="F65" s="66"/>
+      <c r="G65" s="66"/>
+      <c r="H65" s="66"/>
+    </row>
+    <row r="66" spans="1:8" s="41" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C66" s="66"/>
+      <c r="D66" s="66"/>
+      <c r="E66" s="66"/>
+      <c r="F66" s="66"/>
+      <c r="G66" s="66"/>
+      <c r="H66" s="66"/>
     </row>
     <row r="67" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="64"/>
-      <c r="C67" s="63"/>
-      <c r="D67" s="63"/>
-      <c r="E67" s="63"/>
-      <c r="F67" s="63"/>
-      <c r="G67" s="63"/>
-      <c r="H67" s="63"/>
+      <c r="A67" s="57"/>
+      <c r="C67" s="66"/>
+      <c r="D67" s="66"/>
+      <c r="E67" s="66"/>
+      <c r="F67" s="66"/>
+      <c r="G67" s="66"/>
+      <c r="H67" s="66"/>
     </row>
     <row r="68" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C68" s="63"/>
-      <c r="D68" s="63"/>
-      <c r="E68" s="63"/>
-      <c r="F68" s="63"/>
-      <c r="G68" s="63"/>
-      <c r="H68" s="63"/>
+      <c r="C68" s="66"/>
+      <c r="D68" s="66"/>
+      <c r="E68" s="66"/>
+      <c r="F68" s="66"/>
+      <c r="G68" s="66"/>
+      <c r="H68" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/8-team-double.xlsx
+++ b/8-team-double.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lts\Documents\GitHub\2018_world_cup_draw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC38E62C-2C81-4CB3-A908-953FD10F11A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A53DE108-1946-450C-9D0F-08BD41E847A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="58">
   <si>
     <t>PrintYourBrackets</t>
   </si>
@@ -178,10 +178,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>金贝贝(1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>乌咪(2)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -223,6 +219,30 @@
   </si>
   <si>
     <t>忍太郎(7)  0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乌咪(2)   1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱夫人(8)   3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金贝贝(1)   2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小丹尼(5)   3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">金贝贝(1) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Loser's Bracket</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -449,7 +469,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -546,6 +566,7 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -570,7 +591,10 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -927,25 +951,25 @@
     <row r="1" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="9"/>
       <c r="B1" s="10"/>
-      <c r="C1" s="60" t="s">
+      <c r="C1" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
       <c r="I1" s="10"/>
     </row>
     <row r="2" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="62"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
       <c r="I2" s="10"/>
     </row>
     <row r="3" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
@@ -1176,17 +1200,17 @@
       <c r="G34" s="16"/>
     </row>
     <row r="35" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="63"/>
-      <c r="B35" s="63"/>
+      <c r="A35" s="64"/>
+      <c r="B35" s="64"/>
       <c r="C35" s="22"/>
       <c r="F35" s="16"/>
       <c r="G35" s="16"/>
     </row>
     <row r="36" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="61" t="s">
+      <c r="A36" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="61"/>
+      <c r="B36" s="62"/>
       <c r="C36" s="21" t="s">
         <v>6</v>
       </c>
@@ -1382,45 +1406,45 @@
       </c>
     </row>
     <row r="64" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C64" s="60"/>
-      <c r="D64" s="60"/>
-      <c r="E64" s="60"/>
-      <c r="F64" s="60"/>
-      <c r="G64" s="60"/>
-      <c r="H64" s="60"/>
+      <c r="C64" s="61"/>
+      <c r="D64" s="61"/>
+      <c r="E64" s="61"/>
+      <c r="F64" s="61"/>
+      <c r="G64" s="61"/>
+      <c r="H64" s="61"/>
     </row>
     <row r="65" spans="1:8" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C65" s="60"/>
-      <c r="D65" s="60"/>
-      <c r="E65" s="60"/>
-      <c r="F65" s="60"/>
-      <c r="G65" s="60"/>
-      <c r="H65" s="60"/>
+      <c r="C65" s="61"/>
+      <c r="D65" s="61"/>
+      <c r="E65" s="61"/>
+      <c r="F65" s="61"/>
+      <c r="G65" s="61"/>
+      <c r="H65" s="61"/>
     </row>
     <row r="66" spans="1:8" s="12" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C66" s="60"/>
-      <c r="D66" s="60"/>
-      <c r="E66" s="60"/>
-      <c r="F66" s="60"/>
-      <c r="G66" s="60"/>
-      <c r="H66" s="60"/>
+      <c r="C66" s="61"/>
+      <c r="D66" s="61"/>
+      <c r="E66" s="61"/>
+      <c r="F66" s="61"/>
+      <c r="G66" s="61"/>
+      <c r="H66" s="61"/>
     </row>
     <row r="67" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="28"/>
-      <c r="C67" s="60"/>
-      <c r="D67" s="60"/>
-      <c r="E67" s="60"/>
-      <c r="F67" s="60"/>
-      <c r="G67" s="60"/>
-      <c r="H67" s="60"/>
+      <c r="C67" s="61"/>
+      <c r="D67" s="61"/>
+      <c r="E67" s="61"/>
+      <c r="F67" s="61"/>
+      <c r="G67" s="61"/>
+      <c r="H67" s="61"/>
     </row>
     <row r="68" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C68" s="60"/>
-      <c r="D68" s="60"/>
-      <c r="E68" s="60"/>
-      <c r="F68" s="60"/>
-      <c r="G68" s="60"/>
-      <c r="H68" s="60"/>
+      <c r="C68" s="61"/>
+      <c r="D68" s="61"/>
+      <c r="E68" s="61"/>
+      <c r="F68" s="61"/>
+      <c r="G68" s="61"/>
+      <c r="H68" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1440,8 +1464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E2329AE-8E4E-42E7-B08B-4E199AF74E76}">
   <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.375" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -1456,25 +1480,25 @@
     <row r="1" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="9"/>
       <c r="B1" s="10"/>
-      <c r="C1" s="60" t="s">
+      <c r="C1" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
       <c r="I1" s="10"/>
     </row>
     <row r="2" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="62"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
       <c r="I2" s="10"/>
     </row>
     <row r="3" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
@@ -1504,7 +1528,7 @@
     <row r="5" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="36"/>
       <c r="B5" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C5" s="36"/>
       <c r="D5" s="36"/>
@@ -1529,7 +1553,7 @@
       <c r="A7" s="36"/>
       <c r="B7" s="43"/>
       <c r="C7" s="36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D7" s="36"/>
       <c r="E7" s="36"/>
@@ -1554,7 +1578,7 @@
     <row r="9" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="36"/>
       <c r="B9" s="35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C9" s="43"/>
       <c r="D9" s="36"/>
@@ -1601,8 +1625,8 @@
     </row>
     <row r="13" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="36"/>
-      <c r="B13" s="68" t="s">
-        <v>51</v>
+      <c r="B13" s="60" t="s">
+        <v>50</v>
       </c>
       <c r="C13" s="43"/>
       <c r="D13" s="36"/>
@@ -1627,7 +1651,7 @@
       <c r="A15" s="36"/>
       <c r="B15" s="43"/>
       <c r="C15" s="47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="36"/>
       <c r="E15" s="43"/>
@@ -1652,7 +1676,7 @@
     <row r="17" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="36"/>
       <c r="B17" s="35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C17" s="36"/>
       <c r="D17" s="36"/>
@@ -1700,7 +1724,7 @@
     <row r="21" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="36"/>
       <c r="B21" s="36" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C21" s="36"/>
       <c r="D21" s="36"/>
@@ -1724,7 +1748,9 @@
     <row r="23" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="36"/>
       <c r="B23" s="43"/>
-      <c r="C23" s="36"/>
+      <c r="C23" s="36" t="s">
+        <v>46</v>
+      </c>
       <c r="D23" s="36"/>
       <c r="E23" s="43"/>
       <c r="F23" s="36"/>
@@ -1747,8 +1773,8 @@
     </row>
     <row r="25" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="36"/>
-      <c r="B25" s="35" t="s">
-        <v>47</v>
+      <c r="B25" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="C25" s="43"/>
       <c r="D25" s="36"/>
@@ -1796,7 +1822,7 @@
     <row r="29" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="36"/>
       <c r="B29" s="36" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="C29" s="43"/>
       <c r="D29" s="36"/>
@@ -1824,7 +1850,9 @@
     <row r="31" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="36"/>
       <c r="B31" s="43"/>
-      <c r="C31" s="47"/>
+      <c r="C31" s="47" t="s">
+        <v>43</v>
+      </c>
       <c r="D31" s="36"/>
       <c r="E31" s="36"/>
       <c r="F31" s="36"/>
@@ -1847,8 +1875,8 @@
     </row>
     <row r="33" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="36"/>
-      <c r="B33" s="35" t="s">
-        <v>44</v>
+      <c r="B33" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="C33" s="36"/>
       <c r="D33" s="36"/>
@@ -1872,8 +1900,8 @@
       <c r="I34" s="36"/>
     </row>
     <row r="35" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="64"/>
-      <c r="B35" s="64"/>
+      <c r="A35" s="65"/>
+      <c r="B35" s="65"/>
       <c r="C35" s="36"/>
       <c r="D35" s="36"/>
       <c r="E35" s="36"/>
@@ -1883,10 +1911,10 @@
       <c r="I35" s="36"/>
     </row>
     <row r="36" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="65" t="s">
-        <v>7</v>
-      </c>
-      <c r="B36" s="65"/>
+      <c r="A36" s="69"/>
+      <c r="B36" s="70" t="s">
+        <v>57</v>
+      </c>
       <c r="C36" s="51" t="s">
         <v>6</v>
       </c>
@@ -1925,7 +1953,7 @@
         <v>1</v>
       </c>
       <c r="C39" s="36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D39" s="43"/>
       <c r="E39" s="36"/>
@@ -2023,7 +2051,7 @@
         <v>2</v>
       </c>
       <c r="C47" s="35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D47" s="36"/>
       <c r="E47" s="43"/>
@@ -2069,9 +2097,7 @@
     </row>
     <row r="51" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="51"/>
-      <c r="B51" s="36" t="s">
-        <v>0</v>
-      </c>
+      <c r="B51" s="36"/>
       <c r="C51" s="36"/>
       <c r="D51" s="36"/>
       <c r="E51" s="43"/>
@@ -2120,7 +2146,9 @@
       <c r="B55" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C55" s="36"/>
+      <c r="C55" s="36" t="s">
+        <v>41</v>
+      </c>
       <c r="D55" s="43"/>
       <c r="E55" s="55"/>
       <c r="F55" s="36"/>
@@ -2214,7 +2242,9 @@
       <c r="B63" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="C63" s="35"/>
+      <c r="C63" s="35" t="s">
+        <v>56</v>
+      </c>
       <c r="D63" s="36"/>
       <c r="E63" s="36"/>
       <c r="F63" s="36"/>
@@ -2225,56 +2255,56 @@
     <row r="64" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="36"/>
       <c r="B64" s="36"/>
-      <c r="C64" s="66"/>
-      <c r="D64" s="66"/>
-      <c r="E64" s="66"/>
-      <c r="F64" s="66"/>
-      <c r="G64" s="66"/>
-      <c r="H64" s="66"/>
+      <c r="C64" s="67"/>
+      <c r="D64" s="67"/>
+      <c r="E64" s="67"/>
+      <c r="F64" s="67"/>
+      <c r="G64" s="67"/>
+      <c r="H64" s="67"/>
       <c r="I64" s="36"/>
     </row>
     <row r="65" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="36"/>
       <c r="B65" s="36"/>
-      <c r="C65" s="66"/>
-      <c r="D65" s="66"/>
-      <c r="E65" s="66"/>
-      <c r="F65" s="66"/>
-      <c r="G65" s="66"/>
-      <c r="H65" s="66"/>
+      <c r="C65" s="67"/>
+      <c r="D65" s="67"/>
+      <c r="E65" s="67"/>
+      <c r="F65" s="67"/>
+      <c r="G65" s="67"/>
+      <c r="H65" s="67"/>
       <c r="I65" s="36"/>
     </row>
     <row r="66" spans="1:9" s="12" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="41"/>
       <c r="B66" s="41"/>
-      <c r="C66" s="66"/>
-      <c r="D66" s="66"/>
-      <c r="E66" s="66"/>
-      <c r="F66" s="66"/>
-      <c r="G66" s="66"/>
-      <c r="H66" s="66"/>
+      <c r="C66" s="67"/>
+      <c r="D66" s="67"/>
+      <c r="E66" s="67"/>
+      <c r="F66" s="67"/>
+      <c r="G66" s="67"/>
+      <c r="H66" s="67"/>
       <c r="I66" s="41"/>
     </row>
     <row r="67" spans="1:9" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="57"/>
       <c r="B67" s="58"/>
-      <c r="C67" s="66"/>
-      <c r="D67" s="66"/>
-      <c r="E67" s="66"/>
-      <c r="F67" s="66"/>
-      <c r="G67" s="66"/>
-      <c r="H67" s="66"/>
+      <c r="C67" s="67"/>
+      <c r="D67" s="67"/>
+      <c r="E67" s="67"/>
+      <c r="F67" s="67"/>
+      <c r="G67" s="67"/>
+      <c r="H67" s="67"/>
       <c r="I67" s="58"/>
     </row>
     <row r="68" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="58"/>
       <c r="B68" s="58"/>
-      <c r="C68" s="66"/>
-      <c r="D68" s="66"/>
-      <c r="E68" s="66"/>
-      <c r="F68" s="66"/>
-      <c r="G68" s="66"/>
-      <c r="H68" s="66"/>
+      <c r="C68" s="67"/>
+      <c r="D68" s="67"/>
+      <c r="E68" s="67"/>
+      <c r="F68" s="67"/>
+      <c r="G68" s="67"/>
+      <c r="H68" s="67"/>
       <c r="I68" s="58"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
@@ -2311,11 +2341,10 @@
       <c r="I71" s="58"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="C1:H2"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
     <mergeCell ref="C64:H68"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2329,7 +2358,7 @@
   <dimension ref="A1:I68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.375" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -2344,25 +2373,25 @@
     <row r="1" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="59"/>
       <c r="B1" s="40"/>
-      <c r="C1" s="66" t="s">
+      <c r="C1" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
       <c r="I1" s="40"/>
     </row>
     <row r="2" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="67"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
+      <c r="A2" s="68"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
       <c r="I2" s="40"/>
     </row>
     <row r="3" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
@@ -2550,16 +2579,16 @@
       <c r="G34" s="43"/>
     </row>
     <row r="35" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="64"/>
-      <c r="B35" s="64"/>
+      <c r="A35" s="65"/>
+      <c r="B35" s="65"/>
       <c r="F35" s="43"/>
       <c r="G35" s="43"/>
     </row>
     <row r="36" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="65" t="s">
+      <c r="A36" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="65"/>
+      <c r="B36" s="66"/>
       <c r="C36" s="51" t="s">
         <v>6</v>
       </c>
@@ -2660,9 +2689,6 @@
     </row>
     <row r="51" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="51"/>
-      <c r="B51" s="36" t="s">
-        <v>0</v>
-      </c>
       <c r="E51" s="43"/>
     </row>
     <row r="52" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
@@ -2728,45 +2754,45 @@
       <c r="C63" s="35"/>
     </row>
     <row r="64" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C64" s="66"/>
-      <c r="D64" s="66"/>
-      <c r="E64" s="66"/>
-      <c r="F64" s="66"/>
-      <c r="G64" s="66"/>
-      <c r="H64" s="66"/>
+      <c r="C64" s="67"/>
+      <c r="D64" s="67"/>
+      <c r="E64" s="67"/>
+      <c r="F64" s="67"/>
+      <c r="G64" s="67"/>
+      <c r="H64" s="67"/>
     </row>
     <row r="65" spans="1:8" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C65" s="66"/>
-      <c r="D65" s="66"/>
-      <c r="E65" s="66"/>
-      <c r="F65" s="66"/>
-      <c r="G65" s="66"/>
-      <c r="H65" s="66"/>
+      <c r="C65" s="67"/>
+      <c r="D65" s="67"/>
+      <c r="E65" s="67"/>
+      <c r="F65" s="67"/>
+      <c r="G65" s="67"/>
+      <c r="H65" s="67"/>
     </row>
     <row r="66" spans="1:8" s="41" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C66" s="66"/>
-      <c r="D66" s="66"/>
-      <c r="E66" s="66"/>
-      <c r="F66" s="66"/>
-      <c r="G66" s="66"/>
-      <c r="H66" s="66"/>
+      <c r="C66" s="67"/>
+      <c r="D66" s="67"/>
+      <c r="E66" s="67"/>
+      <c r="F66" s="67"/>
+      <c r="G66" s="67"/>
+      <c r="H66" s="67"/>
     </row>
     <row r="67" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="57"/>
-      <c r="C67" s="66"/>
-      <c r="D67" s="66"/>
-      <c r="E67" s="66"/>
-      <c r="F67" s="66"/>
-      <c r="G67" s="66"/>
-      <c r="H67" s="66"/>
+      <c r="C67" s="67"/>
+      <c r="D67" s="67"/>
+      <c r="E67" s="67"/>
+      <c r="F67" s="67"/>
+      <c r="G67" s="67"/>
+      <c r="H67" s="67"/>
     </row>
     <row r="68" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C68" s="66"/>
-      <c r="D68" s="66"/>
-      <c r="E68" s="66"/>
-      <c r="F68" s="66"/>
-      <c r="G68" s="66"/>
-      <c r="H68" s="66"/>
+      <c r="C68" s="67"/>
+      <c r="D68" s="67"/>
+      <c r="E68" s="67"/>
+      <c r="F68" s="67"/>
+      <c r="G68" s="67"/>
+      <c r="H68" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/8-team-double.xlsx
+++ b/8-team-double.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lts\Documents\GitHub\2018_world_cup_draw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A53DE108-1946-450C-9D0F-08BD41E847A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D904A31-8FE2-41A3-AA2E-12266DAC627D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="59">
   <si>
     <t>PrintYourBrackets</t>
   </si>
@@ -194,10 +194,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>忍太郎(7)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>钱夫人(8)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -243,6 +239,14 @@
   </si>
   <si>
     <t>Loser's Bracket</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙小美(6)   3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忍太郎(7)   1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -567,6 +571,10 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -582,18 +590,14 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -951,25 +955,25 @@
     <row r="1" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="9"/>
       <c r="B1" s="10"/>
-      <c r="C1" s="61" t="s">
+      <c r="C1" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
       <c r="I1" s="10"/>
     </row>
     <row r="2" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="63"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
+      <c r="A2" s="65"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
       <c r="I2" s="10"/>
     </row>
     <row r="3" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
@@ -1200,17 +1204,17 @@
       <c r="G34" s="16"/>
     </row>
     <row r="35" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="64"/>
-      <c r="B35" s="64"/>
+      <c r="A35" s="66"/>
+      <c r="B35" s="66"/>
       <c r="C35" s="22"/>
       <c r="F35" s="16"/>
       <c r="G35" s="16"/>
     </row>
     <row r="36" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="62" t="s">
+      <c r="A36" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="62"/>
+      <c r="B36" s="64"/>
       <c r="C36" s="21" t="s">
         <v>6</v>
       </c>
@@ -1406,45 +1410,45 @@
       </c>
     </row>
     <row r="64" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C64" s="61"/>
-      <c r="D64" s="61"/>
-      <c r="E64" s="61"/>
-      <c r="F64" s="61"/>
-      <c r="G64" s="61"/>
-      <c r="H64" s="61"/>
+      <c r="C64" s="63"/>
+      <c r="D64" s="63"/>
+      <c r="E64" s="63"/>
+      <c r="F64" s="63"/>
+      <c r="G64" s="63"/>
+      <c r="H64" s="63"/>
     </row>
     <row r="65" spans="1:8" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C65" s="61"/>
-      <c r="D65" s="61"/>
-      <c r="E65" s="61"/>
-      <c r="F65" s="61"/>
-      <c r="G65" s="61"/>
-      <c r="H65" s="61"/>
+      <c r="C65" s="63"/>
+      <c r="D65" s="63"/>
+      <c r="E65" s="63"/>
+      <c r="F65" s="63"/>
+      <c r="G65" s="63"/>
+      <c r="H65" s="63"/>
     </row>
     <row r="66" spans="1:8" s="12" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C66" s="61"/>
-      <c r="D66" s="61"/>
-      <c r="E66" s="61"/>
-      <c r="F66" s="61"/>
-      <c r="G66" s="61"/>
-      <c r="H66" s="61"/>
+      <c r="C66" s="63"/>
+      <c r="D66" s="63"/>
+      <c r="E66" s="63"/>
+      <c r="F66" s="63"/>
+      <c r="G66" s="63"/>
+      <c r="H66" s="63"/>
     </row>
     <row r="67" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="28"/>
-      <c r="C67" s="61"/>
-      <c r="D67" s="61"/>
-      <c r="E67" s="61"/>
-      <c r="F67" s="61"/>
-      <c r="G67" s="61"/>
-      <c r="H67" s="61"/>
+      <c r="C67" s="63"/>
+      <c r="D67" s="63"/>
+      <c r="E67" s="63"/>
+      <c r="F67" s="63"/>
+      <c r="G67" s="63"/>
+      <c r="H67" s="63"/>
     </row>
     <row r="68" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C68" s="61"/>
-      <c r="D68" s="61"/>
-      <c r="E68" s="61"/>
-      <c r="F68" s="61"/>
-      <c r="G68" s="61"/>
-      <c r="H68" s="61"/>
+      <c r="C68" s="63"/>
+      <c r="D68" s="63"/>
+      <c r="E68" s="63"/>
+      <c r="F68" s="63"/>
+      <c r="G68" s="63"/>
+      <c r="H68" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1464,8 +1468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E2329AE-8E4E-42E7-B08B-4E199AF74E76}">
   <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.375" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -1480,25 +1484,25 @@
     <row r="1" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="9"/>
       <c r="B1" s="10"/>
-      <c r="C1" s="61" t="s">
+      <c r="C1" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
       <c r="I1" s="10"/>
     </row>
     <row r="2" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="63"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
+      <c r="A2" s="65"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
       <c r="I2" s="10"/>
     </row>
     <row r="3" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
@@ -1528,7 +1532,7 @@
     <row r="5" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="36"/>
       <c r="B5" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C5" s="36"/>
       <c r="D5" s="36"/>
@@ -1553,7 +1557,7 @@
       <c r="A7" s="36"/>
       <c r="B7" s="43"/>
       <c r="C7" s="36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D7" s="36"/>
       <c r="E7" s="36"/>
@@ -1578,7 +1582,7 @@
     <row r="9" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="36"/>
       <c r="B9" s="35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C9" s="43"/>
       <c r="D9" s="36"/>
@@ -1626,7 +1630,7 @@
     <row r="13" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="36"/>
       <c r="B13" s="60" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C13" s="43"/>
       <c r="D13" s="36"/>
@@ -1676,7 +1680,7 @@
     <row r="17" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="36"/>
       <c r="B17" s="35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C17" s="36"/>
       <c r="D17" s="36"/>
@@ -1724,7 +1728,7 @@
     <row r="21" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="36"/>
       <c r="B21" s="36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C21" s="36"/>
       <c r="D21" s="36"/>
@@ -1749,7 +1753,7 @@
       <c r="A23" s="36"/>
       <c r="B23" s="43"/>
       <c r="C23" s="36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D23" s="36"/>
       <c r="E23" s="43"/>
@@ -1774,7 +1778,7 @@
     <row r="25" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="36"/>
       <c r="B25" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C25" s="43"/>
       <c r="D25" s="36"/>
@@ -1822,7 +1826,7 @@
     <row r="29" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="36"/>
       <c r="B29" s="36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C29" s="43"/>
       <c r="D29" s="36"/>
@@ -1876,7 +1880,7 @@
     <row r="33" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="36"/>
       <c r="B33" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C33" s="36"/>
       <c r="D33" s="36"/>
@@ -1900,8 +1904,8 @@
       <c r="I34" s="36"/>
     </row>
     <row r="35" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="65"/>
-      <c r="B35" s="65"/>
+      <c r="A35" s="67"/>
+      <c r="B35" s="67"/>
       <c r="C35" s="36"/>
       <c r="D35" s="36"/>
       <c r="E35" s="36"/>
@@ -1911,9 +1915,9 @@
       <c r="I35" s="36"/>
     </row>
     <row r="36" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="69"/>
-      <c r="B36" s="70" t="s">
-        <v>57</v>
+      <c r="A36" s="61"/>
+      <c r="B36" s="62" t="s">
+        <v>56</v>
       </c>
       <c r="C36" s="51" t="s">
         <v>6</v>
@@ -1952,8 +1956,8 @@
       <c r="B39" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C39" s="36" t="s">
-        <v>44</v>
+      <c r="C39" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="D39" s="43"/>
       <c r="E39" s="36"/>
@@ -2003,7 +2007,9 @@
       <c r="A43" s="51"/>
       <c r="B43" s="36"/>
       <c r="C43" s="43"/>
-      <c r="D43" s="35"/>
+      <c r="D43" s="35" t="s">
+        <v>44</v>
+      </c>
       <c r="E43" s="43"/>
       <c r="F43" s="43"/>
       <c r="G43" s="36"/>
@@ -2051,7 +2057,7 @@
         <v>2</v>
       </c>
       <c r="C47" s="35" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="D47" s="36"/>
       <c r="E47" s="43"/>
@@ -2243,7 +2249,7 @@
         <v>4</v>
       </c>
       <c r="C63" s="35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D63" s="36"/>
       <c r="E63" s="36"/>
@@ -2255,56 +2261,56 @@
     <row r="64" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="36"/>
       <c r="B64" s="36"/>
-      <c r="C64" s="67"/>
-      <c r="D64" s="67"/>
-      <c r="E64" s="67"/>
-      <c r="F64" s="67"/>
-      <c r="G64" s="67"/>
-      <c r="H64" s="67"/>
+      <c r="C64" s="68"/>
+      <c r="D64" s="68"/>
+      <c r="E64" s="68"/>
+      <c r="F64" s="68"/>
+      <c r="G64" s="68"/>
+      <c r="H64" s="68"/>
       <c r="I64" s="36"/>
     </row>
     <row r="65" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="36"/>
       <c r="B65" s="36"/>
-      <c r="C65" s="67"/>
-      <c r="D65" s="67"/>
-      <c r="E65" s="67"/>
-      <c r="F65" s="67"/>
-      <c r="G65" s="67"/>
-      <c r="H65" s="67"/>
+      <c r="C65" s="68"/>
+      <c r="D65" s="68"/>
+      <c r="E65" s="68"/>
+      <c r="F65" s="68"/>
+      <c r="G65" s="68"/>
+      <c r="H65" s="68"/>
       <c r="I65" s="36"/>
     </row>
     <row r="66" spans="1:9" s="12" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="41"/>
       <c r="B66" s="41"/>
-      <c r="C66" s="67"/>
-      <c r="D66" s="67"/>
-      <c r="E66" s="67"/>
-      <c r="F66" s="67"/>
-      <c r="G66" s="67"/>
-      <c r="H66" s="67"/>
+      <c r="C66" s="68"/>
+      <c r="D66" s="68"/>
+      <c r="E66" s="68"/>
+      <c r="F66" s="68"/>
+      <c r="G66" s="68"/>
+      <c r="H66" s="68"/>
       <c r="I66" s="41"/>
     </row>
     <row r="67" spans="1:9" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="57"/>
       <c r="B67" s="58"/>
-      <c r="C67" s="67"/>
-      <c r="D67" s="67"/>
-      <c r="E67" s="67"/>
-      <c r="F67" s="67"/>
-      <c r="G67" s="67"/>
-      <c r="H67" s="67"/>
+      <c r="C67" s="68"/>
+      <c r="D67" s="68"/>
+      <c r="E67" s="68"/>
+      <c r="F67" s="68"/>
+      <c r="G67" s="68"/>
+      <c r="H67" s="68"/>
       <c r="I67" s="58"/>
     </row>
     <row r="68" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="58"/>
       <c r="B68" s="58"/>
-      <c r="C68" s="67"/>
-      <c r="D68" s="67"/>
-      <c r="E68" s="67"/>
-      <c r="F68" s="67"/>
-      <c r="G68" s="67"/>
-      <c r="H68" s="67"/>
+      <c r="C68" s="68"/>
+      <c r="D68" s="68"/>
+      <c r="E68" s="68"/>
+      <c r="F68" s="68"/>
+      <c r="G68" s="68"/>
+      <c r="H68" s="68"/>
       <c r="I68" s="58"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
@@ -2373,25 +2379,25 @@
     <row r="1" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="59"/>
       <c r="B1" s="40"/>
-      <c r="C1" s="67" t="s">
+      <c r="C1" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
       <c r="I1" s="40"/>
     </row>
     <row r="2" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="68"/>
-      <c r="B2" s="68"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
+      <c r="A2" s="69"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
       <c r="I2" s="40"/>
     </row>
     <row r="3" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
@@ -2579,16 +2585,16 @@
       <c r="G34" s="43"/>
     </row>
     <row r="35" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="65"/>
-      <c r="B35" s="65"/>
+      <c r="A35" s="67"/>
+      <c r="B35" s="67"/>
       <c r="F35" s="43"/>
       <c r="G35" s="43"/>
     </row>
     <row r="36" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="66" t="s">
+      <c r="A36" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="66"/>
+      <c r="B36" s="70"/>
       <c r="C36" s="51" t="s">
         <v>6</v>
       </c>
@@ -2754,45 +2760,45 @@
       <c r="C63" s="35"/>
     </row>
     <row r="64" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C64" s="67"/>
-      <c r="D64" s="67"/>
-      <c r="E64" s="67"/>
-      <c r="F64" s="67"/>
-      <c r="G64" s="67"/>
-      <c r="H64" s="67"/>
+      <c r="C64" s="68"/>
+      <c r="D64" s="68"/>
+      <c r="E64" s="68"/>
+      <c r="F64" s="68"/>
+      <c r="G64" s="68"/>
+      <c r="H64" s="68"/>
     </row>
     <row r="65" spans="1:8" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C65" s="67"/>
-      <c r="D65" s="67"/>
-      <c r="E65" s="67"/>
-      <c r="F65" s="67"/>
-      <c r="G65" s="67"/>
-      <c r="H65" s="67"/>
+      <c r="C65" s="68"/>
+      <c r="D65" s="68"/>
+      <c r="E65" s="68"/>
+      <c r="F65" s="68"/>
+      <c r="G65" s="68"/>
+      <c r="H65" s="68"/>
     </row>
     <row r="66" spans="1:8" s="41" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C66" s="67"/>
-      <c r="D66" s="67"/>
-      <c r="E66" s="67"/>
-      <c r="F66" s="67"/>
-      <c r="G66" s="67"/>
-      <c r="H66" s="67"/>
+      <c r="C66" s="68"/>
+      <c r="D66" s="68"/>
+      <c r="E66" s="68"/>
+      <c r="F66" s="68"/>
+      <c r="G66" s="68"/>
+      <c r="H66" s="68"/>
     </row>
     <row r="67" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="57"/>
-      <c r="C67" s="67"/>
-      <c r="D67" s="67"/>
-      <c r="E67" s="67"/>
-      <c r="F67" s="67"/>
-      <c r="G67" s="67"/>
-      <c r="H67" s="67"/>
+      <c r="C67" s="68"/>
+      <c r="D67" s="68"/>
+      <c r="E67" s="68"/>
+      <c r="F67" s="68"/>
+      <c r="G67" s="68"/>
+      <c r="H67" s="68"/>
     </row>
     <row r="68" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C68" s="67"/>
-      <c r="D68" s="67"/>
-      <c r="E68" s="67"/>
-      <c r="F68" s="67"/>
-      <c r="G68" s="67"/>
-      <c r="H68" s="67"/>
+      <c r="C68" s="68"/>
+      <c r="D68" s="68"/>
+      <c r="E68" s="68"/>
+      <c r="F68" s="68"/>
+      <c r="G68" s="68"/>
+      <c r="H68" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/8-team-double.xlsx
+++ b/8-team-double.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lts\Documents\GitHub\2018_world_cup_draw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D904A31-8FE2-41A3-AA2E-12266DAC627D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3DFA380-692B-4AA9-9042-769DA98FD9FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="68">
   <si>
     <t>PrintYourBrackets</t>
   </si>
@@ -178,10 +178,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>乌咪(2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>莎拉公主(3)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -247,6 +243,46 @@
   </si>
   <si>
     <t>忍太郎(7)   1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忍太郎(7)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第七名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,6名排位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,8名排位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第五名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金贝贝(1)    3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -473,7 +509,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -575,6 +611,15 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -598,6 +643,15 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -955,25 +1009,25 @@
     <row r="1" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="9"/>
       <c r="B1" s="10"/>
-      <c r="C1" s="63" t="s">
+      <c r="C1" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
       <c r="I1" s="10"/>
     </row>
     <row r="2" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="65"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
+      <c r="A2" s="70"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
       <c r="I2" s="10"/>
     </row>
     <row r="3" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
@@ -1204,17 +1258,17 @@
       <c r="G34" s="16"/>
     </row>
     <row r="35" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="66"/>
-      <c r="B35" s="66"/>
+      <c r="A35" s="71"/>
+      <c r="B35" s="71"/>
       <c r="C35" s="22"/>
       <c r="F35" s="16"/>
       <c r="G35" s="16"/>
     </row>
     <row r="36" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="64" t="s">
+      <c r="A36" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="64"/>
+      <c r="B36" s="69"/>
       <c r="C36" s="21" t="s">
         <v>6</v>
       </c>
@@ -1410,45 +1464,45 @@
       </c>
     </row>
     <row r="64" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C64" s="63"/>
-      <c r="D64" s="63"/>
-      <c r="E64" s="63"/>
-      <c r="F64" s="63"/>
-      <c r="G64" s="63"/>
-      <c r="H64" s="63"/>
+      <c r="C64" s="68"/>
+      <c r="D64" s="68"/>
+      <c r="E64" s="68"/>
+      <c r="F64" s="68"/>
+      <c r="G64" s="68"/>
+      <c r="H64" s="68"/>
     </row>
     <row r="65" spans="1:8" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C65" s="63"/>
-      <c r="D65" s="63"/>
-      <c r="E65" s="63"/>
-      <c r="F65" s="63"/>
-      <c r="G65" s="63"/>
-      <c r="H65" s="63"/>
+      <c r="C65" s="68"/>
+      <c r="D65" s="68"/>
+      <c r="E65" s="68"/>
+      <c r="F65" s="68"/>
+      <c r="G65" s="68"/>
+      <c r="H65" s="68"/>
     </row>
     <row r="66" spans="1:8" s="12" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C66" s="63"/>
-      <c r="D66" s="63"/>
-      <c r="E66" s="63"/>
-      <c r="F66" s="63"/>
-      <c r="G66" s="63"/>
-      <c r="H66" s="63"/>
+      <c r="C66" s="68"/>
+      <c r="D66" s="68"/>
+      <c r="E66" s="68"/>
+      <c r="F66" s="68"/>
+      <c r="G66" s="68"/>
+      <c r="H66" s="68"/>
     </row>
     <row r="67" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="28"/>
-      <c r="C67" s="63"/>
-      <c r="D67" s="63"/>
-      <c r="E67" s="63"/>
-      <c r="F67" s="63"/>
-      <c r="G67" s="63"/>
-      <c r="H67" s="63"/>
+      <c r="C67" s="68"/>
+      <c r="D67" s="68"/>
+      <c r="E67" s="68"/>
+      <c r="F67" s="68"/>
+      <c r="G67" s="68"/>
+      <c r="H67" s="68"/>
     </row>
     <row r="68" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C68" s="63"/>
-      <c r="D68" s="63"/>
-      <c r="E68" s="63"/>
-      <c r="F68" s="63"/>
-      <c r="G68" s="63"/>
-      <c r="H68" s="63"/>
+      <c r="C68" s="68"/>
+      <c r="D68" s="68"/>
+      <c r="E68" s="68"/>
+      <c r="F68" s="68"/>
+      <c r="G68" s="68"/>
+      <c r="H68" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1466,10 +1520,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E2329AE-8E4E-42E7-B08B-4E199AF74E76}">
-  <dimension ref="A1:I71"/>
+  <dimension ref="A1:I90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView topLeftCell="A40" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66:F89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.375" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -1484,25 +1538,25 @@
     <row r="1" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="9"/>
       <c r="B1" s="10"/>
-      <c r="C1" s="63" t="s">
+      <c r="C1" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
       <c r="I1" s="10"/>
     </row>
     <row r="2" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="65"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
+      <c r="A2" s="70"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
       <c r="I2" s="10"/>
     </row>
     <row r="3" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
@@ -1532,7 +1586,7 @@
     <row r="5" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="36"/>
       <c r="B5" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C5" s="36"/>
       <c r="D5" s="36"/>
@@ -1557,7 +1611,7 @@
       <c r="A7" s="36"/>
       <c r="B7" s="43"/>
       <c r="C7" s="36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D7" s="36"/>
       <c r="E7" s="36"/>
@@ -1582,7 +1636,7 @@
     <row r="9" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="36"/>
       <c r="B9" s="35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C9" s="43"/>
       <c r="D9" s="36"/>
@@ -1630,7 +1684,7 @@
     <row r="13" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="36"/>
       <c r="B13" s="60" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C13" s="43"/>
       <c r="D13" s="36"/>
@@ -1655,7 +1709,7 @@
       <c r="A15" s="36"/>
       <c r="B15" s="43"/>
       <c r="C15" s="47" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" s="36"/>
       <c r="E15" s="43"/>
@@ -1680,7 +1734,7 @@
     <row r="17" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="36"/>
       <c r="B17" s="35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C17" s="36"/>
       <c r="D17" s="36"/>
@@ -1728,7 +1782,7 @@
     <row r="21" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="36"/>
       <c r="B21" s="36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C21" s="36"/>
       <c r="D21" s="36"/>
@@ -1753,7 +1807,7 @@
       <c r="A23" s="36"/>
       <c r="B23" s="43"/>
       <c r="C23" s="36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D23" s="36"/>
       <c r="E23" s="43"/>
@@ -1778,7 +1832,7 @@
     <row r="25" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="36"/>
       <c r="B25" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C25" s="43"/>
       <c r="D25" s="36"/>
@@ -1826,7 +1880,7 @@
     <row r="29" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="36"/>
       <c r="B29" s="36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C29" s="43"/>
       <c r="D29" s="36"/>
@@ -1855,7 +1909,7 @@
       <c r="A31" s="36"/>
       <c r="B31" s="43"/>
       <c r="C31" s="47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D31" s="36"/>
       <c r="E31" s="36"/>
@@ -1880,7 +1934,7 @@
     <row r="33" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="36"/>
       <c r="B33" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C33" s="36"/>
       <c r="D33" s="36"/>
@@ -1904,8 +1958,8 @@
       <c r="I34" s="36"/>
     </row>
     <row r="35" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="67"/>
-      <c r="B35" s="67"/>
+      <c r="A35" s="72"/>
+      <c r="B35" s="72"/>
       <c r="C35" s="36"/>
       <c r="D35" s="36"/>
       <c r="E35" s="36"/>
@@ -1917,7 +1971,7 @@
     <row r="36" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="61"/>
       <c r="B36" s="62" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C36" s="51" t="s">
         <v>6</v>
@@ -1957,7 +2011,7 @@
         <v>1</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D39" s="43"/>
       <c r="E39" s="36"/>
@@ -2008,7 +2062,7 @@
       <c r="B43" s="36"/>
       <c r="C43" s="43"/>
       <c r="D43" s="35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E43" s="43"/>
       <c r="F43" s="43"/>
@@ -2057,7 +2111,7 @@
         <v>2</v>
       </c>
       <c r="C47" s="35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D47" s="36"/>
       <c r="E47" s="43"/>
@@ -2153,7 +2207,7 @@
         <v>3</v>
       </c>
       <c r="C55" s="36" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D55" s="43"/>
       <c r="E55" s="55"/>
@@ -2201,7 +2255,9 @@
       <c r="A59" s="51"/>
       <c r="B59" s="36"/>
       <c r="C59" s="43"/>
-      <c r="D59" s="47"/>
+      <c r="D59" s="47" t="s">
+        <v>54</v>
+      </c>
       <c r="E59" s="36"/>
       <c r="F59" s="36"/>
       <c r="G59" s="36"/>
@@ -2248,8 +2304,8 @@
       <c r="B63" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="C63" s="35" t="s">
-        <v>55</v>
+      <c r="C63" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="D63" s="36"/>
       <c r="E63" s="36"/>
@@ -2258,100 +2314,200 @@
       <c r="H63" s="36"/>
       <c r="I63" s="36"/>
     </row>
-    <row r="64" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="36"/>
       <c r="B64" s="36"/>
-      <c r="C64" s="68"/>
-      <c r="D64" s="68"/>
-      <c r="E64" s="68"/>
-      <c r="F64" s="68"/>
-      <c r="G64" s="68"/>
-      <c r="H64" s="68"/>
+      <c r="C64" s="40"/>
+      <c r="D64" s="40"/>
+      <c r="E64" s="40"/>
+      <c r="F64" s="40"/>
+      <c r="G64" s="40"/>
+      <c r="H64" s="40"/>
       <c r="I64" s="36"/>
     </row>
-    <row r="65" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="36"/>
       <c r="B65" s="36"/>
-      <c r="C65" s="68"/>
-      <c r="D65" s="68"/>
-      <c r="E65" s="68"/>
-      <c r="F65" s="68"/>
-      <c r="G65" s="68"/>
-      <c r="H65" s="68"/>
+      <c r="C65" s="40"/>
+      <c r="D65" s="40"/>
+      <c r="E65" s="40"/>
+      <c r="F65" s="40"/>
+      <c r="G65" s="40"/>
+      <c r="H65" s="40"/>
       <c r="I65" s="36"/>
     </row>
-    <row r="66" spans="1:9" s="12" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" s="12" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="41"/>
-      <c r="B66" s="41"/>
-      <c r="C66" s="68"/>
-      <c r="D66" s="68"/>
-      <c r="E66" s="68"/>
-      <c r="F66" s="68"/>
-      <c r="G66" s="68"/>
-      <c r="H66" s="68"/>
+      <c r="B66" s="67" t="s">
+        <v>60</v>
+      </c>
+      <c r="C66" s="78" t="s">
+        <v>66</v>
+      </c>
+      <c r="D66" s="48"/>
+      <c r="E66" s="64"/>
+      <c r="F66" s="64"/>
+      <c r="G66" s="40"/>
+      <c r="H66" s="40"/>
       <c r="I66" s="41"/>
     </row>
-    <row r="67" spans="1:9" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" ht="11.85" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="57"/>
-      <c r="B67" s="58"/>
-      <c r="C67" s="68"/>
-      <c r="D67" s="68"/>
-      <c r="E67" s="68"/>
-      <c r="F67" s="68"/>
-      <c r="G67" s="68"/>
-      <c r="H67" s="68"/>
+      <c r="C67" s="77"/>
+      <c r="D67" s="42"/>
+      <c r="E67" s="64"/>
+      <c r="F67" s="64"/>
+      <c r="G67" s="40"/>
+      <c r="H67" s="40"/>
       <c r="I67" s="58"/>
     </row>
-    <row r="68" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" ht="11.85" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="58"/>
-      <c r="B68" s="58"/>
-      <c r="C68" s="68"/>
-      <c r="D68" s="68"/>
-      <c r="E68" s="68"/>
-      <c r="F68" s="68"/>
-      <c r="G68" s="68"/>
-      <c r="H68" s="68"/>
+      <c r="D68" s="16"/>
+      <c r="E68" s="65"/>
+      <c r="F68" s="65"/>
+      <c r="G68" s="40"/>
+      <c r="H68" s="40"/>
       <c r="I68" s="58"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="58"/>
-      <c r="B69" s="58"/>
-      <c r="C69" s="58"/>
-      <c r="D69" s="58"/>
-      <c r="E69" s="58"/>
-      <c r="F69" s="58"/>
+      <c r="D69" s="16"/>
+      <c r="E69" s="65"/>
+      <c r="F69" s="65"/>
       <c r="G69" s="58"/>
       <c r="H69" s="58"/>
       <c r="I69" s="58"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="58"/>
-      <c r="B70" s="58"/>
-      <c r="C70" s="58"/>
-      <c r="D70" s="58"/>
-      <c r="E70" s="58"/>
-      <c r="F70" s="58"/>
-      <c r="G70" s="58"/>
+      <c r="D70" s="16"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="65" t="s">
+        <v>62</v>
+      </c>
+      <c r="G70" s="64"/>
       <c r="H70" s="58"/>
       <c r="I70" s="58"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="58"/>
-      <c r="B71" s="58"/>
-      <c r="C71" s="58"/>
-      <c r="D71" s="58"/>
-      <c r="E71" s="58"/>
-      <c r="F71" s="58"/>
-      <c r="G71" s="58"/>
+      <c r="D71" s="63"/>
+      <c r="E71" s="65"/>
+      <c r="F71" s="65"/>
+      <c r="G71" s="64"/>
       <c r="H71" s="58"/>
       <c r="I71" s="58"/>
     </row>
+    <row r="72" spans="1:9" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D72" s="16"/>
+      <c r="E72" s="65"/>
+      <c r="F72" s="65"/>
+      <c r="G72" s="65"/>
+    </row>
+    <row r="73" spans="1:9" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D73" s="16"/>
+      <c r="E73" s="65"/>
+      <c r="F73" s="65"/>
+      <c r="G73" s="65"/>
+    </row>
+    <row r="74" spans="1:9" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C74" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="D74" s="5"/>
+      <c r="E74" s="65"/>
+      <c r="F74" s="65"/>
+      <c r="G74" s="65"/>
+    </row>
+    <row r="75" spans="1:9" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C75" s="65"/>
+      <c r="D75" s="65"/>
+      <c r="E75" s="65"/>
+      <c r="F75" s="65"/>
+      <c r="G75" s="65"/>
+    </row>
+    <row r="76" spans="1:9" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G76" s="65"/>
+    </row>
+    <row r="77" spans="1:9" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G77" s="65"/>
+    </row>
+    <row r="78" spans="1:9" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G78" s="65"/>
+    </row>
+    <row r="79" spans="1:9" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="66" t="s">
+        <v>61</v>
+      </c>
+      <c r="C79" s="58"/>
+      <c r="D79" s="58"/>
+      <c r="E79" s="58"/>
+      <c r="G79" s="65"/>
+    </row>
+    <row r="80" spans="1:9" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="76" t="s">
+        <v>64</v>
+      </c>
+      <c r="C80" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="D80" s="64"/>
+      <c r="E80" s="64"/>
+    </row>
+    <row r="81" spans="2:5" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="58"/>
+      <c r="C81" s="42"/>
+      <c r="D81" s="64"/>
+      <c r="E81" s="64"/>
+    </row>
+    <row r="82" spans="2:5" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C82" s="16"/>
+      <c r="D82" s="65"/>
+      <c r="E82" s="65"/>
+    </row>
+    <row r="83" spans="2:5" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C83" s="16"/>
+      <c r="D83" s="65"/>
+      <c r="E83" s="65"/>
+    </row>
+    <row r="84" spans="2:5" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C84" s="16"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="65" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C85" s="63"/>
+      <c r="D85" s="65"/>
+      <c r="E85" s="65"/>
+    </row>
+    <row r="86" spans="2:5" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C86" s="16"/>
+      <c r="D86" s="65"/>
+      <c r="E86" s="65"/>
+    </row>
+    <row r="87" spans="2:5" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C87" s="16"/>
+      <c r="D87" s="65"/>
+      <c r="E87" s="65"/>
+    </row>
+    <row r="88" spans="2:5" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B88" s="77" t="s">
+        <v>65</v>
+      </c>
+      <c r="C88" s="5"/>
+      <c r="D88" s="65"/>
+      <c r="E88" s="65"/>
+    </row>
+    <row r="89" spans="2:5" ht="11.85" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="90" spans="2:5" ht="11.85" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="C1:H2"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C64:H68"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2361,10 +2517,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC41AD02-D213-4B8C-8C48-D69FD6AD7D98}">
-  <dimension ref="A1:I68"/>
+  <dimension ref="A1:I90"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.375" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -2379,25 +2535,25 @@
     <row r="1" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="59"/>
       <c r="B1" s="40"/>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
       <c r="I1" s="40"/>
     </row>
     <row r="2" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="69"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
+      <c r="A2" s="74"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
       <c r="I2" s="40"/>
     </row>
     <row r="3" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
@@ -2585,16 +2741,16 @@
       <c r="G34" s="43"/>
     </row>
     <row r="35" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="67"/>
-      <c r="B35" s="67"/>
+      <c r="A35" s="72"/>
+      <c r="B35" s="72"/>
       <c r="F35" s="43"/>
       <c r="G35" s="43"/>
     </row>
     <row r="36" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="70" t="s">
+      <c r="A36" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="70"/>
+      <c r="B36" s="75"/>
       <c r="C36" s="51" t="s">
         <v>6</v>
       </c>
@@ -2759,54 +2915,220 @@
       </c>
       <c r="C63" s="35"/>
     </row>
-    <row r="64" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C64" s="68"/>
-      <c r="D64" s="68"/>
-      <c r="E64" s="68"/>
-      <c r="F64" s="68"/>
-      <c r="G64" s="68"/>
-      <c r="H64" s="68"/>
-    </row>
-    <row r="65" spans="1:8" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C65" s="68"/>
-      <c r="D65" s="68"/>
-      <c r="E65" s="68"/>
-      <c r="F65" s="68"/>
-      <c r="G65" s="68"/>
-      <c r="H65" s="68"/>
-    </row>
-    <row r="66" spans="1:8" s="41" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C66" s="68"/>
-      <c r="D66" s="68"/>
-      <c r="E66" s="68"/>
-      <c r="F66" s="68"/>
-      <c r="G66" s="68"/>
-      <c r="H66" s="68"/>
-    </row>
-    <row r="67" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C64" s="40"/>
+      <c r="D64" s="40"/>
+      <c r="E64" s="40"/>
+      <c r="F64" s="40"/>
+      <c r="G64" s="40"/>
+      <c r="H64" s="40"/>
+    </row>
+    <row r="65" spans="1:8" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C65" s="40"/>
+      <c r="D65" s="40"/>
+      <c r="E65" s="40"/>
+      <c r="F65" s="40"/>
+      <c r="G65" s="40"/>
+      <c r="H65" s="40"/>
+    </row>
+    <row r="66" spans="1:8" s="41" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B66" s="11"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="58"/>
+      <c r="G66" s="58"/>
+      <c r="H66" s="40"/>
+    </row>
+    <row r="67" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="57"/>
-      <c r="C67" s="68"/>
-      <c r="D67" s="68"/>
-      <c r="E67" s="68"/>
-      <c r="F67" s="68"/>
-      <c r="G67" s="68"/>
-      <c r="H67" s="68"/>
-    </row>
-    <row r="68" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C68" s="68"/>
-      <c r="D68" s="68"/>
-      <c r="E68" s="68"/>
-      <c r="F68" s="68"/>
-      <c r="G68" s="68"/>
-      <c r="H68" s="68"/>
+      <c r="B67" s="67" t="s">
+        <v>60</v>
+      </c>
+      <c r="C67" s="78" t="s">
+        <v>66</v>
+      </c>
+      <c r="D67" s="48"/>
+      <c r="E67" s="64"/>
+      <c r="F67" s="64"/>
+      <c r="H67" s="40"/>
+    </row>
+    <row r="68" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B68" s="11"/>
+      <c r="C68" s="77"/>
+      <c r="D68" s="42"/>
+      <c r="E68" s="64"/>
+      <c r="F68" s="64"/>
+      <c r="H68" s="40"/>
+    </row>
+    <row r="69" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="11"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="16"/>
+      <c r="E69" s="65"/>
+      <c r="F69" s="65"/>
+    </row>
+    <row r="70" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="11"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="16"/>
+      <c r="E70" s="65"/>
+      <c r="F70" s="65"/>
+    </row>
+    <row r="71" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="11"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="16"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="65" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="11"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="63"/>
+      <c r="E72" s="65"/>
+      <c r="F72" s="65"/>
+    </row>
+    <row r="73" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="11"/>
+      <c r="C73" s="11"/>
+      <c r="D73" s="16"/>
+      <c r="E73" s="65"/>
+      <c r="F73" s="65"/>
+    </row>
+    <row r="74" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="11"/>
+      <c r="C74" s="11"/>
+      <c r="D74" s="16"/>
+      <c r="E74" s="65"/>
+      <c r="F74" s="65"/>
+    </row>
+    <row r="75" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="11"/>
+      <c r="C75" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="D75" s="5"/>
+      <c r="E75" s="65"/>
+      <c r="F75" s="65"/>
+    </row>
+    <row r="76" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="11"/>
+      <c r="C76" s="65"/>
+      <c r="D76" s="65"/>
+      <c r="E76" s="65"/>
+      <c r="F76" s="65"/>
+    </row>
+    <row r="77" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="11"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="11"/>
+      <c r="F77" s="11"/>
+    </row>
+    <row r="78" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="11"/>
+      <c r="C78" s="11"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="11"/>
+    </row>
+    <row r="79" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="11"/>
+      <c r="C79" s="11"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="11"/>
+      <c r="F79" s="11"/>
+    </row>
+    <row r="80" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="66" t="s">
+        <v>61</v>
+      </c>
+      <c r="F80" s="11"/>
+    </row>
+    <row r="81" spans="2:6" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="76" t="s">
+        <v>64</v>
+      </c>
+      <c r="C81" s="48"/>
+      <c r="D81" s="64"/>
+      <c r="E81" s="64"/>
+      <c r="F81" s="11"/>
+    </row>
+    <row r="82" spans="2:6" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C82" s="42"/>
+      <c r="D82" s="64"/>
+      <c r="E82" s="64"/>
+      <c r="F82" s="11"/>
+    </row>
+    <row r="83" spans="2:6" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="11"/>
+      <c r="C83" s="16"/>
+      <c r="D83" s="65"/>
+      <c r="E83" s="65"/>
+      <c r="F83" s="11"/>
+    </row>
+    <row r="84" spans="2:6" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="11"/>
+      <c r="C84" s="16"/>
+      <c r="D84" s="65"/>
+      <c r="E84" s="65"/>
+      <c r="F84" s="11"/>
+    </row>
+    <row r="85" spans="2:6" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B85" s="11"/>
+      <c r="C85" s="16"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="65" t="s">
+        <v>59</v>
+      </c>
+      <c r="F85" s="11"/>
+    </row>
+    <row r="86" spans="2:6" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="11"/>
+      <c r="C86" s="63"/>
+      <c r="D86" s="65"/>
+      <c r="E86" s="65"/>
+      <c r="F86" s="11"/>
+    </row>
+    <row r="87" spans="2:6" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B87" s="11"/>
+      <c r="C87" s="16"/>
+      <c r="D87" s="65"/>
+      <c r="E87" s="65"/>
+      <c r="F87" s="11"/>
+    </row>
+    <row r="88" spans="2:6" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B88" s="11"/>
+      <c r="C88" s="16"/>
+      <c r="D88" s="65"/>
+      <c r="E88" s="65"/>
+      <c r="F88" s="11"/>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B89" s="77" t="s">
+        <v>65</v>
+      </c>
+      <c r="C89" s="5"/>
+      <c r="D89" s="65"/>
+      <c r="E89" s="65"/>
+      <c r="F89" s="11"/>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B90" s="11"/>
+      <c r="C90" s="11"/>
+      <c r="D90" s="11"/>
+      <c r="E90" s="11"/>
+      <c r="F90" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="C1:H2"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A35:B35"/>
     <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C64:H68"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/8-team-double.xlsx
+++ b/8-team-double.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lts\Documents\GitHub\2018_world_cup_draw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3DFA380-692B-4AA9-9042-769DA98FD9FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A5D8FB6-4078-4F87-9FF6-317D19867550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="72">
   <si>
     <t>PrintYourBrackets</t>
   </si>
@@ -182,10 +182,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>小丹尼(5)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>孙小美(6)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -246,10 +242,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>忍太郎(7)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>第七名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -283,6 +275,30 @@
   </si>
   <si>
     <t>L10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乌咪(2)   2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">乌咪(2)  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙隆巴斯(4)   3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莎拉公主(3)   0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱夫人(8)   2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">小丹尼(5) </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -620,6 +636,15 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -643,15 +668,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1009,25 +1025,25 @@
     <row r="1" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="9"/>
       <c r="B1" s="10"/>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
       <c r="I1" s="10"/>
     </row>
     <row r="2" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="70"/>
-      <c r="B2" s="70"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
+      <c r="A2" s="73"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
       <c r="I2" s="10"/>
     </row>
     <row r="3" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
@@ -1258,17 +1274,17 @@
       <c r="G34" s="16"/>
     </row>
     <row r="35" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="71"/>
-      <c r="B35" s="71"/>
+      <c r="A35" s="74"/>
+      <c r="B35" s="74"/>
       <c r="C35" s="22"/>
       <c r="F35" s="16"/>
       <c r="G35" s="16"/>
     </row>
     <row r="36" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="69" t="s">
+      <c r="A36" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="69"/>
+      <c r="B36" s="72"/>
       <c r="C36" s="21" t="s">
         <v>6</v>
       </c>
@@ -1464,45 +1480,45 @@
       </c>
     </row>
     <row r="64" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C64" s="68"/>
-      <c r="D64" s="68"/>
-      <c r="E64" s="68"/>
-      <c r="F64" s="68"/>
-      <c r="G64" s="68"/>
-      <c r="H64" s="68"/>
+      <c r="C64" s="71"/>
+      <c r="D64" s="71"/>
+      <c r="E64" s="71"/>
+      <c r="F64" s="71"/>
+      <c r="G64" s="71"/>
+      <c r="H64" s="71"/>
     </row>
     <row r="65" spans="1:8" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C65" s="68"/>
-      <c r="D65" s="68"/>
-      <c r="E65" s="68"/>
-      <c r="F65" s="68"/>
-      <c r="G65" s="68"/>
-      <c r="H65" s="68"/>
+      <c r="C65" s="71"/>
+      <c r="D65" s="71"/>
+      <c r="E65" s="71"/>
+      <c r="F65" s="71"/>
+      <c r="G65" s="71"/>
+      <c r="H65" s="71"/>
     </row>
     <row r="66" spans="1:8" s="12" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C66" s="68"/>
-      <c r="D66" s="68"/>
-      <c r="E66" s="68"/>
-      <c r="F66" s="68"/>
-      <c r="G66" s="68"/>
-      <c r="H66" s="68"/>
+      <c r="C66" s="71"/>
+      <c r="D66" s="71"/>
+      <c r="E66" s="71"/>
+      <c r="F66" s="71"/>
+      <c r="G66" s="71"/>
+      <c r="H66" s="71"/>
     </row>
     <row r="67" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="28"/>
-      <c r="C67" s="68"/>
-      <c r="D67" s="68"/>
-      <c r="E67" s="68"/>
-      <c r="F67" s="68"/>
-      <c r="G67" s="68"/>
-      <c r="H67" s="68"/>
+      <c r="C67" s="71"/>
+      <c r="D67" s="71"/>
+      <c r="E67" s="71"/>
+      <c r="F67" s="71"/>
+      <c r="G67" s="71"/>
+      <c r="H67" s="71"/>
     </row>
     <row r="68" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C68" s="68"/>
-      <c r="D68" s="68"/>
-      <c r="E68" s="68"/>
-      <c r="F68" s="68"/>
-      <c r="G68" s="68"/>
-      <c r="H68" s="68"/>
+      <c r="C68" s="71"/>
+      <c r="D68" s="71"/>
+      <c r="E68" s="71"/>
+      <c r="F68" s="71"/>
+      <c r="G68" s="71"/>
+      <c r="H68" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1522,8 +1538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E2329AE-8E4E-42E7-B08B-4E199AF74E76}">
   <dimension ref="A1:I90"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66:F89"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.375" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -1538,25 +1554,25 @@
     <row r="1" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="9"/>
       <c r="B1" s="10"/>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
       <c r="I1" s="10"/>
     </row>
     <row r="2" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="70"/>
-      <c r="B2" s="70"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
+      <c r="A2" s="73"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
       <c r="I2" s="10"/>
     </row>
     <row r="3" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
@@ -1586,7 +1602,7 @@
     <row r="5" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="36"/>
       <c r="B5" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C5" s="36"/>
       <c r="D5" s="36"/>
@@ -1610,8 +1626,8 @@
     <row r="7" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="36"/>
       <c r="B7" s="43"/>
-      <c r="C7" s="36" t="s">
-        <v>47</v>
+      <c r="C7" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="D7" s="36"/>
       <c r="E7" s="36"/>
@@ -1636,7 +1652,7 @@
     <row r="9" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="36"/>
       <c r="B9" s="35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C9" s="43"/>
       <c r="D9" s="36"/>
@@ -1661,7 +1677,9 @@
       <c r="A11" s="36"/>
       <c r="B11" s="36"/>
       <c r="C11" s="43"/>
-      <c r="D11" s="36"/>
+      <c r="D11" s="36" t="s">
+        <v>46</v>
+      </c>
       <c r="E11" s="36"/>
       <c r="F11" s="14"/>
       <c r="G11" s="36"/>
@@ -1684,7 +1702,7 @@
     <row r="13" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="36"/>
       <c r="B13" s="60" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C13" s="43"/>
       <c r="D13" s="36"/>
@@ -1709,7 +1727,7 @@
       <c r="A15" s="36"/>
       <c r="B15" s="43"/>
       <c r="C15" s="47" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="D15" s="36"/>
       <c r="E15" s="43"/>
@@ -1734,7 +1752,7 @@
     <row r="17" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="36"/>
       <c r="B17" s="35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C17" s="36"/>
       <c r="D17" s="36"/>
@@ -1782,7 +1800,7 @@
     <row r="21" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="36"/>
       <c r="B21" s="36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C21" s="36"/>
       <c r="D21" s="36"/>
@@ -1807,7 +1825,7 @@
       <c r="A23" s="36"/>
       <c r="B23" s="43"/>
       <c r="C23" s="36" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="D23" s="36"/>
       <c r="E23" s="43"/>
@@ -1832,7 +1850,7 @@
     <row r="25" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="36"/>
       <c r="B25" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C25" s="43"/>
       <c r="D25" s="36"/>
@@ -1857,7 +1875,9 @@
       <c r="A27" s="36"/>
       <c r="B27" s="36"/>
       <c r="C27" s="43"/>
-      <c r="D27" s="50"/>
+      <c r="D27" s="50" t="s">
+        <v>71</v>
+      </c>
       <c r="E27" s="35"/>
       <c r="F27" s="36"/>
       <c r="G27" s="43"/>
@@ -1880,7 +1900,7 @@
     <row r="29" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="36"/>
       <c r="B29" s="36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C29" s="43"/>
       <c r="D29" s="36"/>
@@ -1908,8 +1928,8 @@
     <row r="31" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="36"/>
       <c r="B31" s="43"/>
-      <c r="C31" s="47" t="s">
-        <v>42</v>
+      <c r="C31" s="34" t="s">
+        <v>52</v>
       </c>
       <c r="D31" s="36"/>
       <c r="E31" s="36"/>
@@ -1934,7 +1954,7 @@
     <row r="33" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="36"/>
       <c r="B33" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C33" s="36"/>
       <c r="D33" s="36"/>
@@ -1958,8 +1978,8 @@
       <c r="I34" s="36"/>
     </row>
     <row r="35" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="72"/>
-      <c r="B35" s="72"/>
+      <c r="A35" s="75"/>
+      <c r="B35" s="75"/>
       <c r="C35" s="36"/>
       <c r="D35" s="36"/>
       <c r="E35" s="36"/>
@@ -1971,12 +1991,14 @@
     <row r="36" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="61"/>
       <c r="B36" s="62" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C36" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="D36" s="48"/>
+      <c r="D36" s="48" t="s">
+        <v>43</v>
+      </c>
       <c r="E36" s="36"/>
       <c r="F36" s="43"/>
       <c r="G36" s="43"/>
@@ -2011,7 +2033,7 @@
         <v>1</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D39" s="43"/>
       <c r="E39" s="36"/>
@@ -2062,7 +2084,7 @@
       <c r="B43" s="36"/>
       <c r="C43" s="43"/>
       <c r="D43" s="35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E43" s="43"/>
       <c r="F43" s="43"/>
@@ -2111,7 +2133,7 @@
         <v>2</v>
       </c>
       <c r="C47" s="35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D47" s="36"/>
       <c r="E47" s="43"/>
@@ -2172,7 +2194,9 @@
       <c r="C52" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="D52" s="36"/>
+      <c r="D52" s="36" t="s">
+        <v>41</v>
+      </c>
       <c r="E52" s="43"/>
       <c r="F52" s="36"/>
       <c r="G52" s="36"/>
@@ -2207,7 +2231,7 @@
         <v>3</v>
       </c>
       <c r="C55" s="36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D55" s="43"/>
       <c r="E55" s="55"/>
@@ -2256,7 +2280,7 @@
       <c r="B59" s="36"/>
       <c r="C59" s="43"/>
       <c r="D59" s="47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E59" s="36"/>
       <c r="F59" s="36"/>
@@ -2305,7 +2329,7 @@
         <v>4</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D63" s="36"/>
       <c r="E63" s="36"/>
@@ -2339,10 +2363,10 @@
     <row r="66" spans="1:9" s="12" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="41"/>
       <c r="B66" s="67" t="s">
-        <v>60</v>
-      </c>
-      <c r="C66" s="78" t="s">
-        <v>66</v>
+        <v>58</v>
+      </c>
+      <c r="C66" s="70" t="s">
+        <v>64</v>
       </c>
       <c r="D66" s="48"/>
       <c r="E66" s="64"/>
@@ -2353,7 +2377,7 @@
     </row>
     <row r="67" spans="1:9" ht="11.85" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="57"/>
-      <c r="C67" s="77"/>
+      <c r="C67" s="69"/>
       <c r="D67" s="42"/>
       <c r="E67" s="64"/>
       <c r="F67" s="64"/>
@@ -2384,7 +2408,7 @@
       <c r="D70" s="16"/>
       <c r="E70" s="7"/>
       <c r="F70" s="65" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G70" s="64"/>
       <c r="H70" s="58"/>
@@ -2412,8 +2436,8 @@
       <c r="G73" s="65"/>
     </row>
     <row r="74" spans="1:9" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C74" s="77" t="s">
-        <v>67</v>
+      <c r="C74" s="69" t="s">
+        <v>65</v>
       </c>
       <c r="D74" s="5"/>
       <c r="E74" s="65"/>
@@ -2438,7 +2462,7 @@
     </row>
     <row r="79" spans="1:9" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B79" s="66" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C79" s="58"/>
       <c r="D79" s="58"/>
@@ -2446,11 +2470,11 @@
       <c r="G79" s="65"/>
     </row>
     <row r="80" spans="1:9" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="76" t="s">
-        <v>64</v>
+      <c r="B80" s="68" t="s">
+        <v>62</v>
       </c>
       <c r="C80" s="48" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D80" s="64"/>
       <c r="E80" s="64"/>
@@ -2473,9 +2497,11 @@
     </row>
     <row r="84" spans="2:5" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C84" s="16"/>
-      <c r="D84" s="7"/>
+      <c r="D84" s="7" t="s">
+        <v>67</v>
+      </c>
       <c r="E84" s="65" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="85" spans="2:5" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
@@ -2494,10 +2520,12 @@
       <c r="E87" s="65"/>
     </row>
     <row r="88" spans="2:5" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="77" t="s">
-        <v>65</v>
-      </c>
-      <c r="C88" s="5"/>
+      <c r="B88" s="69" t="s">
+        <v>63</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="D88" s="65"/>
       <c r="E88" s="65"/>
     </row>
@@ -2519,8 +2547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC41AD02-D213-4B8C-8C48-D69FD6AD7D98}">
   <dimension ref="A1:I90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="F57" sqref="F57"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.375" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -2535,25 +2563,25 @@
     <row r="1" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="59"/>
       <c r="B1" s="40"/>
-      <c r="C1" s="73" t="s">
+      <c r="C1" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
       <c r="I1" s="40"/>
     </row>
     <row r="2" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="74"/>
-      <c r="B2" s="74"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
+      <c r="A2" s="77"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
       <c r="I2" s="40"/>
     </row>
     <row r="3" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
@@ -2741,16 +2769,16 @@
       <c r="G34" s="43"/>
     </row>
     <row r="35" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="72"/>
-      <c r="B35" s="72"/>
+      <c r="A35" s="75"/>
+      <c r="B35" s="75"/>
       <c r="F35" s="43"/>
       <c r="G35" s="43"/>
     </row>
     <row r="36" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="75" t="s">
+      <c r="A36" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="75"/>
+      <c r="B36" s="78"/>
       <c r="C36" s="51" t="s">
         <v>6</v>
       </c>
@@ -2943,10 +2971,10 @@
     <row r="67" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="57"/>
       <c r="B67" s="67" t="s">
-        <v>60</v>
-      </c>
-      <c r="C67" s="78" t="s">
-        <v>66</v>
+        <v>58</v>
+      </c>
+      <c r="C67" s="70" t="s">
+        <v>64</v>
       </c>
       <c r="D67" s="48"/>
       <c r="E67" s="64"/>
@@ -2955,7 +2983,7 @@
     </row>
     <row r="68" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B68" s="11"/>
-      <c r="C68" s="77"/>
+      <c r="C68" s="69"/>
       <c r="D68" s="42"/>
       <c r="E68" s="64"/>
       <c r="F68" s="64"/>
@@ -2981,7 +3009,7 @@
       <c r="D71" s="16"/>
       <c r="E71" s="7"/>
       <c r="F71" s="65" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
@@ -3007,8 +3035,8 @@
     </row>
     <row r="75" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B75" s="11"/>
-      <c r="C75" s="77" t="s">
-        <v>67</v>
+      <c r="C75" s="69" t="s">
+        <v>65</v>
       </c>
       <c r="D75" s="5"/>
       <c r="E75" s="65"/>
@@ -3044,13 +3072,13 @@
     </row>
     <row r="80" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B80" s="66" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F80" s="11"/>
     </row>
     <row r="81" spans="2:6" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="76" t="s">
-        <v>64</v>
+      <c r="B81" s="68" t="s">
+        <v>62</v>
       </c>
       <c r="C81" s="48"/>
       <c r="D81" s="64"/>
@@ -3082,7 +3110,7 @@
       <c r="C85" s="16"/>
       <c r="D85" s="7"/>
       <c r="E85" s="65" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F85" s="11"/>
     </row>
@@ -3108,8 +3136,8 @@
       <c r="F88" s="11"/>
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B89" s="77" t="s">
-        <v>65</v>
+      <c r="B89" s="69" t="s">
+        <v>63</v>
       </c>
       <c r="C89" s="5"/>
       <c r="D89" s="65"/>

--- a/8-team-double.xlsx
+++ b/8-team-double.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lts\Documents\GitHub\2018_world_cup_draw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A5D8FB6-4078-4F87-9FF6-317D19867550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3007AE0-95C5-461A-A913-EE1F9747EA89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="75">
   <si>
     <t>PrintYourBrackets</t>
   </si>
@@ -178,14 +178,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>莎拉公主(3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙小美(6)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>钱夫人(8)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -226,10 +218,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">金贝贝(1) </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Loser's Bracket</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -299,6 +287,30 @@
   </si>
   <si>
     <t xml:space="preserve">小丹尼(5) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙小美(6)   2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">孙小美(6) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莎拉公主(3)   3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金贝贝(1)    0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">莎拉公主(3) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金贝贝(1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -525,7 +537,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -668,6 +680,15 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1538,8 +1559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E2329AE-8E4E-42E7-B08B-4E199AF74E76}">
   <dimension ref="A1:I90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.375" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -1602,7 +1623,7 @@
     <row r="5" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="36"/>
       <c r="B5" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C5" s="36"/>
       <c r="D5" s="36"/>
@@ -1627,7 +1648,7 @@
       <c r="A7" s="36"/>
       <c r="B7" s="43"/>
       <c r="C7" s="6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D7" s="36"/>
       <c r="E7" s="36"/>
@@ -1652,7 +1673,7 @@
     <row r="9" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="36"/>
       <c r="B9" s="35" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C9" s="43"/>
       <c r="D9" s="36"/>
@@ -1678,7 +1699,7 @@
       <c r="B11" s="36"/>
       <c r="C11" s="43"/>
       <c r="D11" s="36" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E11" s="36"/>
       <c r="F11" s="14"/>
@@ -1702,7 +1723,7 @@
     <row r="13" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="36"/>
       <c r="B13" s="60" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C13" s="43"/>
       <c r="D13" s="36"/>
@@ -1727,7 +1748,7 @@
       <c r="A15" s="36"/>
       <c r="B15" s="43"/>
       <c r="C15" s="47" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D15" s="36"/>
       <c r="E15" s="43"/>
@@ -1752,7 +1773,7 @@
     <row r="17" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="36"/>
       <c r="B17" s="35" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C17" s="36"/>
       <c r="D17" s="36"/>
@@ -1800,7 +1821,7 @@
     <row r="21" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="36"/>
       <c r="B21" s="36" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C21" s="36"/>
       <c r="D21" s="36"/>
@@ -1825,7 +1846,7 @@
       <c r="A23" s="36"/>
       <c r="B23" s="43"/>
       <c r="C23" s="36" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D23" s="36"/>
       <c r="E23" s="43"/>
@@ -1850,7 +1871,7 @@
     <row r="25" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="36"/>
       <c r="B25" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C25" s="43"/>
       <c r="D25" s="36"/>
@@ -1876,7 +1897,7 @@
       <c r="B27" s="36"/>
       <c r="C27" s="43"/>
       <c r="D27" s="50" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E27" s="35"/>
       <c r="F27" s="36"/>
@@ -1900,7 +1921,7 @@
     <row r="29" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="36"/>
       <c r="B29" s="36" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C29" s="43"/>
       <c r="D29" s="36"/>
@@ -1929,7 +1950,7 @@
       <c r="A31" s="36"/>
       <c r="B31" s="43"/>
       <c r="C31" s="34" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D31" s="36"/>
       <c r="E31" s="36"/>
@@ -1954,7 +1975,7 @@
     <row r="33" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="36"/>
       <c r="B33" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C33" s="36"/>
       <c r="D33" s="36"/>
@@ -1991,13 +2012,13 @@
     <row r="36" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="61"/>
       <c r="B36" s="62" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C36" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="D36" s="48" t="s">
-        <v>43</v>
+      <c r="D36" s="81" t="s">
+        <v>48</v>
       </c>
       <c r="E36" s="36"/>
       <c r="F36" s="43"/>
@@ -2033,7 +2054,7 @@
         <v>1</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D39" s="43"/>
       <c r="E39" s="36"/>
@@ -2047,7 +2068,9 @@
       <c r="B40" s="36"/>
       <c r="C40" s="42"/>
       <c r="D40" s="43"/>
-      <c r="E40" s="50"/>
+      <c r="E40" s="50" t="s">
+        <v>41</v>
+      </c>
       <c r="F40" s="43"/>
       <c r="G40" s="43"/>
       <c r="H40" s="36"/>
@@ -2084,7 +2107,7 @@
       <c r="B43" s="36"/>
       <c r="C43" s="43"/>
       <c r="D43" s="35" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="E43" s="43"/>
       <c r="F43" s="43"/>
@@ -2133,7 +2156,7 @@
         <v>2</v>
       </c>
       <c r="C47" s="35" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D47" s="36"/>
       <c r="E47" s="43"/>
@@ -2194,8 +2217,8 @@
       <c r="C52" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="D52" s="36" t="s">
-        <v>41</v>
+      <c r="D52" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="E52" s="43"/>
       <c r="F52" s="36"/>
@@ -2231,7 +2254,7 @@
         <v>3</v>
       </c>
       <c r="C55" s="36" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D55" s="43"/>
       <c r="E55" s="55"/>
@@ -2245,7 +2268,9 @@
       <c r="B56" s="36"/>
       <c r="C56" s="42"/>
       <c r="D56" s="43"/>
-      <c r="E56" s="47"/>
+      <c r="E56" s="80" t="s">
+        <v>73</v>
+      </c>
       <c r="F56" s="36"/>
       <c r="G56" s="36"/>
       <c r="H56" s="36"/>
@@ -2279,8 +2304,8 @@
       <c r="A59" s="51"/>
       <c r="B59" s="36"/>
       <c r="C59" s="43"/>
-      <c r="D59" s="47" t="s">
-        <v>53</v>
+      <c r="D59" s="80" t="s">
+        <v>72</v>
       </c>
       <c r="E59" s="36"/>
       <c r="F59" s="36"/>
@@ -2329,7 +2354,7 @@
         <v>4</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D63" s="36"/>
       <c r="E63" s="36"/>
@@ -2363,12 +2388,14 @@
     <row r="66" spans="1:9" s="12" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="41"/>
       <c r="B66" s="67" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C66" s="70" t="s">
-        <v>64</v>
-      </c>
-      <c r="D66" s="48"/>
+        <v>61</v>
+      </c>
+      <c r="D66" s="79" t="s">
+        <v>70</v>
+      </c>
       <c r="E66" s="64"/>
       <c r="F66" s="64"/>
       <c r="G66" s="40"/>
@@ -2408,7 +2435,7 @@
       <c r="D70" s="16"/>
       <c r="E70" s="7"/>
       <c r="F70" s="65" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G70" s="64"/>
       <c r="H70" s="58"/>
@@ -2437,9 +2464,11 @@
     </row>
     <row r="74" spans="1:9" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C74" s="69" t="s">
-        <v>65</v>
-      </c>
-      <c r="D74" s="5"/>
+        <v>62</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>74</v>
+      </c>
       <c r="E74" s="65"/>
       <c r="F74" s="65"/>
       <c r="G74" s="65"/>
@@ -2462,7 +2491,7 @@
     </row>
     <row r="79" spans="1:9" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B79" s="66" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C79" s="58"/>
       <c r="D79" s="58"/>
@@ -2471,10 +2500,10 @@
     </row>
     <row r="80" spans="1:9" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B80" s="68" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C80" s="48" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D80" s="64"/>
       <c r="E80" s="64"/>
@@ -2498,10 +2527,10 @@
     <row r="84" spans="2:5" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C84" s="16"/>
       <c r="D84" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E84" s="65" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="85" spans="2:5" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
@@ -2521,10 +2550,10 @@
     </row>
     <row r="88" spans="2:5" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B88" s="69" t="s">
+        <v>60</v>
+      </c>
+      <c r="C88" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="D88" s="65"/>
       <c r="E88" s="65"/>
@@ -2971,10 +3000,10 @@
     <row r="67" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="57"/>
       <c r="B67" s="67" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C67" s="70" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D67" s="48"/>
       <c r="E67" s="64"/>
@@ -3009,7 +3038,7 @@
       <c r="D71" s="16"/>
       <c r="E71" s="7"/>
       <c r="F71" s="65" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
@@ -3036,7 +3065,7 @@
     <row r="75" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B75" s="11"/>
       <c r="C75" s="69" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D75" s="5"/>
       <c r="E75" s="65"/>
@@ -3072,13 +3101,13 @@
     </row>
     <row r="80" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B80" s="66" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F80" s="11"/>
     </row>
     <row r="81" spans="2:6" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B81" s="68" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C81" s="48"/>
       <c r="D81" s="64"/>
@@ -3110,7 +3139,7 @@
       <c r="C85" s="16"/>
       <c r="D85" s="7"/>
       <c r="E85" s="65" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F85" s="11"/>
     </row>
@@ -3137,7 +3166,7 @@
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B89" s="69" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C89" s="5"/>
       <c r="D89" s="65"/>

--- a/8-team-double.xlsx
+++ b/8-team-double.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lts\Documents\GitHub\2018_world_cup_draw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3007AE0-95C5-461A-A913-EE1F9747EA89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCE3AE98-633E-4C32-8334-85EBBEFECB6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="77">
   <si>
     <t>PrintYourBrackets</t>
   </si>
@@ -178,10 +178,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>钱夫人(8)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>沙隆巴斯(4)  3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -294,10 +290,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">孙小美(6) </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>莎拉公主(3)   3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -310,7 +302,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>金贝贝(1)</t>
+    <t>孙小美(6)    0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">金贝贝(1) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱夫人(8)   1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莎拉公主(3)    3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -537,7 +545,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -657,6 +665,15 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -681,13 +698,7 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1030,8 +1041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I68"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="I37" sqref="A1:XFD1048576"/>
+    <sheetView zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.375" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -1046,25 +1057,25 @@
     <row r="1" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="9"/>
       <c r="B1" s="10"/>
-      <c r="C1" s="71" t="s">
+      <c r="C1" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
       <c r="I1" s="10"/>
     </row>
     <row r="2" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="73"/>
-      <c r="B2" s="73"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
+      <c r="A2" s="76"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
       <c r="I2" s="10"/>
     </row>
     <row r="3" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
@@ -1295,17 +1306,17 @@
       <c r="G34" s="16"/>
     </row>
     <row r="35" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="74"/>
-      <c r="B35" s="74"/>
+      <c r="A35" s="77"/>
+      <c r="B35" s="77"/>
       <c r="C35" s="22"/>
       <c r="F35" s="16"/>
       <c r="G35" s="16"/>
     </row>
     <row r="36" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="72" t="s">
+      <c r="A36" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="72"/>
+      <c r="B36" s="75"/>
       <c r="C36" s="21" t="s">
         <v>6</v>
       </c>
@@ -1501,45 +1512,45 @@
       </c>
     </row>
     <row r="64" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C64" s="71"/>
-      <c r="D64" s="71"/>
-      <c r="E64" s="71"/>
-      <c r="F64" s="71"/>
-      <c r="G64" s="71"/>
-      <c r="H64" s="71"/>
+      <c r="C64" s="74"/>
+      <c r="D64" s="74"/>
+      <c r="E64" s="74"/>
+      <c r="F64" s="74"/>
+      <c r="G64" s="74"/>
+      <c r="H64" s="74"/>
     </row>
     <row r="65" spans="1:8" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C65" s="71"/>
-      <c r="D65" s="71"/>
-      <c r="E65" s="71"/>
-      <c r="F65" s="71"/>
-      <c r="G65" s="71"/>
-      <c r="H65" s="71"/>
+      <c r="C65" s="74"/>
+      <c r="D65" s="74"/>
+      <c r="E65" s="74"/>
+      <c r="F65" s="74"/>
+      <c r="G65" s="74"/>
+      <c r="H65" s="74"/>
     </row>
     <row r="66" spans="1:8" s="12" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C66" s="71"/>
-      <c r="D66" s="71"/>
-      <c r="E66" s="71"/>
-      <c r="F66" s="71"/>
-      <c r="G66" s="71"/>
-      <c r="H66" s="71"/>
+      <c r="C66" s="74"/>
+      <c r="D66" s="74"/>
+      <c r="E66" s="74"/>
+      <c r="F66" s="74"/>
+      <c r="G66" s="74"/>
+      <c r="H66" s="74"/>
     </row>
     <row r="67" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="28"/>
-      <c r="C67" s="71"/>
-      <c r="D67" s="71"/>
-      <c r="E67" s="71"/>
-      <c r="F67" s="71"/>
-      <c r="G67" s="71"/>
-      <c r="H67" s="71"/>
+      <c r="C67" s="74"/>
+      <c r="D67" s="74"/>
+      <c r="E67" s="74"/>
+      <c r="F67" s="74"/>
+      <c r="G67" s="74"/>
+      <c r="H67" s="74"/>
     </row>
     <row r="68" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C68" s="71"/>
-      <c r="D68" s="71"/>
-      <c r="E68" s="71"/>
-      <c r="F68" s="71"/>
-      <c r="G68" s="71"/>
-      <c r="H68" s="71"/>
+      <c r="C68" s="74"/>
+      <c r="D68" s="74"/>
+      <c r="E68" s="74"/>
+      <c r="F68" s="74"/>
+      <c r="G68" s="74"/>
+      <c r="H68" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1559,8 +1570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E2329AE-8E4E-42E7-B08B-4E199AF74E76}">
   <dimension ref="A1:I90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.375" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -1575,25 +1586,25 @@
     <row r="1" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="9"/>
       <c r="B1" s="10"/>
-      <c r="C1" s="71" t="s">
+      <c r="C1" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
       <c r="I1" s="10"/>
     </row>
     <row r="2" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="73"/>
-      <c r="B2" s="73"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
+      <c r="A2" s="76"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
       <c r="I2" s="10"/>
     </row>
     <row r="3" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
@@ -1623,7 +1634,7 @@
     <row r="5" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="36"/>
       <c r="B5" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" s="36"/>
       <c r="D5" s="36"/>
@@ -1648,7 +1659,7 @@
       <c r="A7" s="36"/>
       <c r="B7" s="43"/>
       <c r="C7" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D7" s="36"/>
       <c r="E7" s="36"/>
@@ -1673,7 +1684,7 @@
     <row r="9" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="36"/>
       <c r="B9" s="35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" s="43"/>
       <c r="D9" s="36"/>
@@ -1699,7 +1710,7 @@
       <c r="B11" s="36"/>
       <c r="C11" s="43"/>
       <c r="D11" s="36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E11" s="36"/>
       <c r="F11" s="14"/>
@@ -1723,7 +1734,7 @@
     <row r="13" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="36"/>
       <c r="B13" s="60" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C13" s="43"/>
       <c r="D13" s="36"/>
@@ -1748,7 +1759,7 @@
       <c r="A15" s="36"/>
       <c r="B15" s="43"/>
       <c r="C15" s="47" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D15" s="36"/>
       <c r="E15" s="43"/>
@@ -1773,7 +1784,7 @@
     <row r="17" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="36"/>
       <c r="B17" s="35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C17" s="36"/>
       <c r="D17" s="36"/>
@@ -1800,7 +1811,7 @@
       <c r="C19" s="36"/>
       <c r="D19" s="36"/>
       <c r="E19" s="43">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" s="19"/>
       <c r="G19" s="42"/>
@@ -1821,7 +1832,7 @@
     <row r="21" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="36"/>
       <c r="B21" s="36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C21" s="36"/>
       <c r="D21" s="36"/>
@@ -1846,7 +1857,7 @@
       <c r="A23" s="36"/>
       <c r="B23" s="43"/>
       <c r="C23" s="36" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D23" s="36"/>
       <c r="E23" s="43"/>
@@ -1871,7 +1882,7 @@
     <row r="25" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="36"/>
       <c r="B25" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C25" s="43"/>
       <c r="D25" s="36"/>
@@ -1897,7 +1908,7 @@
       <c r="B27" s="36"/>
       <c r="C27" s="43"/>
       <c r="D27" s="50" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E27" s="35"/>
       <c r="F27" s="36"/>
@@ -1921,7 +1932,7 @@
     <row r="29" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="36"/>
       <c r="B29" s="36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C29" s="43"/>
       <c r="D29" s="36"/>
@@ -1950,7 +1961,7 @@
       <c r="A31" s="36"/>
       <c r="B31" s="43"/>
       <c r="C31" s="34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D31" s="36"/>
       <c r="E31" s="36"/>
@@ -1975,12 +1986,12 @@
     <row r="33" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="36"/>
       <c r="B33" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C33" s="36"/>
       <c r="D33" s="36"/>
       <c r="E33" s="51" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="F33" s="36"/>
       <c r="G33" s="43"/>
@@ -1999,8 +2010,8 @@
       <c r="I34" s="36"/>
     </row>
     <row r="35" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="75"/>
-      <c r="B35" s="75"/>
+      <c r="A35" s="78"/>
+      <c r="B35" s="78"/>
       <c r="C35" s="36"/>
       <c r="D35" s="36"/>
       <c r="E35" s="36"/>
@@ -2012,13 +2023,13 @@
     <row r="36" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="61"/>
       <c r="B36" s="62" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C36" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="D36" s="81" t="s">
-        <v>48</v>
+      <c r="D36" s="73" t="s">
+        <v>47</v>
       </c>
       <c r="E36" s="36"/>
       <c r="F36" s="43"/>
@@ -2054,7 +2065,7 @@
         <v>1</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D39" s="43"/>
       <c r="E39" s="36"/>
@@ -2069,7 +2080,7 @@
       <c r="C40" s="42"/>
       <c r="D40" s="43"/>
       <c r="E40" s="50" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="F40" s="43"/>
       <c r="G40" s="43"/>
@@ -2107,7 +2118,7 @@
       <c r="B43" s="36"/>
       <c r="C43" s="43"/>
       <c r="D43" s="35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E43" s="43"/>
       <c r="F43" s="43"/>
@@ -2156,7 +2167,7 @@
         <v>2</v>
       </c>
       <c r="C47" s="35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D47" s="36"/>
       <c r="E47" s="43"/>
@@ -2171,7 +2182,9 @@
       <c r="C48" s="36"/>
       <c r="D48" s="36"/>
       <c r="E48" s="43"/>
-      <c r="F48" s="47"/>
+      <c r="F48" s="47" t="s">
+        <v>71</v>
+      </c>
       <c r="G48" s="36"/>
       <c r="H48" s="36"/>
       <c r="I48" s="36"/>
@@ -2182,7 +2195,7 @@
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
       <c r="E49" s="36">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F49" s="54"/>
       <c r="G49" s="36"/>
@@ -2218,7 +2231,7 @@
         <v>5</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E52" s="43"/>
       <c r="F52" s="36"/>
@@ -2254,7 +2267,7 @@
         <v>3</v>
       </c>
       <c r="C55" s="36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D55" s="43"/>
       <c r="E55" s="55"/>
@@ -2268,8 +2281,8 @@
       <c r="B56" s="36"/>
       <c r="C56" s="42"/>
       <c r="D56" s="43"/>
-      <c r="E56" s="80" t="s">
-        <v>73</v>
+      <c r="E56" s="82" t="s">
+        <v>76</v>
       </c>
       <c r="F56" s="36"/>
       <c r="G56" s="36"/>
@@ -2304,8 +2317,8 @@
       <c r="A59" s="51"/>
       <c r="B59" s="36"/>
       <c r="C59" s="43"/>
-      <c r="D59" s="80" t="s">
-        <v>72</v>
+      <c r="D59" s="72" t="s">
+        <v>70</v>
       </c>
       <c r="E59" s="36"/>
       <c r="F59" s="36"/>
@@ -2354,7 +2367,7 @@
         <v>4</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D63" s="36"/>
       <c r="E63" s="36"/>
@@ -2388,13 +2401,13 @@
     <row r="66" spans="1:9" s="12" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="41"/>
       <c r="B66" s="67" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C66" s="70" t="s">
-        <v>61</v>
-      </c>
-      <c r="D66" s="79" t="s">
-        <v>70</v>
+        <v>60</v>
+      </c>
+      <c r="D66" s="71" t="s">
+        <v>72</v>
       </c>
       <c r="E66" s="64"/>
       <c r="F66" s="64"/>
@@ -2433,9 +2446,11 @@
     <row r="70" spans="1:9" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="58"/>
       <c r="D70" s="16"/>
-      <c r="E70" s="7"/>
+      <c r="E70" s="7" t="s">
+        <v>73</v>
+      </c>
       <c r="F70" s="65" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G70" s="64"/>
       <c r="H70" s="58"/>
@@ -2464,10 +2479,10 @@
     </row>
     <row r="74" spans="1:9" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C74" s="69" t="s">
-        <v>62</v>
-      </c>
-      <c r="D74" s="5" t="s">
-        <v>74</v>
+        <v>61</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="E74" s="65"/>
       <c r="F74" s="65"/>
@@ -2491,7 +2506,7 @@
     </row>
     <row r="79" spans="1:9" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B79" s="66" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C79" s="58"/>
       <c r="D79" s="58"/>
@@ -2500,10 +2515,10 @@
     </row>
     <row r="80" spans="1:9" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B80" s="68" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C80" s="48" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D80" s="64"/>
       <c r="E80" s="64"/>
@@ -2527,10 +2542,10 @@
     <row r="84" spans="2:5" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C84" s="16"/>
       <c r="D84" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E84" s="65" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="85" spans="2:5" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
@@ -2550,10 +2565,10 @@
     </row>
     <row r="88" spans="2:5" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B88" s="69" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D88" s="65"/>
       <c r="E88" s="65"/>
@@ -2576,8 +2591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC41AD02-D213-4B8C-8C48-D69FD6AD7D98}">
   <dimension ref="A1:I90"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.375" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -2592,25 +2607,25 @@
     <row r="1" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="59"/>
       <c r="B1" s="40"/>
-      <c r="C1" s="76" t="s">
+      <c r="C1" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
       <c r="I1" s="40"/>
     </row>
     <row r="2" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="77"/>
-      <c r="B2" s="77"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
+      <c r="A2" s="80"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
       <c r="I2" s="40"/>
     </row>
     <row r="3" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
@@ -2706,7 +2721,7 @@
     </row>
     <row r="19" spans="2:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E19" s="43">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" s="19"/>
       <c r="G19" s="42"/>
@@ -2789,7 +2804,7 @@
     <row r="33" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="35"/>
       <c r="E33" s="51" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="G33" s="43"/>
     </row>
@@ -2798,16 +2813,16 @@
       <c r="G34" s="43"/>
     </row>
     <row r="35" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="75"/>
-      <c r="B35" s="75"/>
+      <c r="A35" s="78"/>
+      <c r="B35" s="78"/>
       <c r="F35" s="43"/>
       <c r="G35" s="43"/>
     </row>
     <row r="36" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="78" t="s">
+      <c r="A36" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="78"/>
+      <c r="B36" s="81"/>
       <c r="C36" s="51" t="s">
         <v>6</v>
       </c>
@@ -2899,7 +2914,7 @@
     </row>
     <row r="49" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E49" s="36">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F49" s="54"/>
     </row>
@@ -3000,10 +3015,10 @@
     <row r="67" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="57"/>
       <c r="B67" s="67" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C67" s="70" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D67" s="48"/>
       <c r="E67" s="64"/>
@@ -3038,7 +3053,7 @@
       <c r="D71" s="16"/>
       <c r="E71" s="7"/>
       <c r="F71" s="65" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
@@ -3065,7 +3080,7 @@
     <row r="75" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B75" s="11"/>
       <c r="C75" s="69" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D75" s="5"/>
       <c r="E75" s="65"/>
@@ -3101,13 +3116,13 @@
     </row>
     <row r="80" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B80" s="66" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F80" s="11"/>
     </row>
     <row r="81" spans="2:6" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B81" s="68" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C81" s="48"/>
       <c r="D81" s="64"/>
@@ -3139,7 +3154,7 @@
       <c r="C85" s="16"/>
       <c r="D85" s="7"/>
       <c r="E85" s="65" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F85" s="11"/>
     </row>
@@ -3166,7 +3181,7 @@
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B89" s="69" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C89" s="5"/>
       <c r="D89" s="65"/>

--- a/8-team-double.xlsx
+++ b/8-team-double.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lts\Documents\GitHub\2018_world_cup_draw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCE3AE98-633E-4C32-8334-85EBBEFECB6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F1A1B4-7C7E-4D6E-B1BA-23CC8A416A0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="80">
   <si>
     <t>PrintYourBrackets</t>
   </si>
@@ -298,10 +298,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">莎拉公主(3) </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>孙小美(6)    0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -319,6 +315,22 @@
   </si>
   <si>
     <t>莎拉公主(3)    3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小丹尼(5)    3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莎拉公主(3)    2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小丹尼(5)   1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙隆巴斯</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -545,7 +557,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -674,6 +686,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -698,9 +713,7 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1057,25 +1070,25 @@
     <row r="1" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="9"/>
       <c r="B1" s="10"/>
-      <c r="C1" s="74" t="s">
+      <c r="C1" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
       <c r="I1" s="10"/>
     </row>
     <row r="2" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="76"/>
-      <c r="B2" s="76"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
+      <c r="A2" s="77"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
       <c r="I2" s="10"/>
     </row>
     <row r="3" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
@@ -1306,17 +1319,17 @@
       <c r="G34" s="16"/>
     </row>
     <row r="35" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="77"/>
-      <c r="B35" s="77"/>
+      <c r="A35" s="78"/>
+      <c r="B35" s="78"/>
       <c r="C35" s="22"/>
       <c r="F35" s="16"/>
       <c r="G35" s="16"/>
     </row>
     <row r="36" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="75" t="s">
+      <c r="A36" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="75"/>
+      <c r="B36" s="76"/>
       <c r="C36" s="21" t="s">
         <v>6</v>
       </c>
@@ -1512,45 +1525,45 @@
       </c>
     </row>
     <row r="64" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C64" s="74"/>
-      <c r="D64" s="74"/>
-      <c r="E64" s="74"/>
-      <c r="F64" s="74"/>
-      <c r="G64" s="74"/>
-      <c r="H64" s="74"/>
+      <c r="C64" s="75"/>
+      <c r="D64" s="75"/>
+      <c r="E64" s="75"/>
+      <c r="F64" s="75"/>
+      <c r="G64" s="75"/>
+      <c r="H64" s="75"/>
     </row>
     <row r="65" spans="1:8" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C65" s="74"/>
-      <c r="D65" s="74"/>
-      <c r="E65" s="74"/>
-      <c r="F65" s="74"/>
-      <c r="G65" s="74"/>
-      <c r="H65" s="74"/>
+      <c r="C65" s="75"/>
+      <c r="D65" s="75"/>
+      <c r="E65" s="75"/>
+      <c r="F65" s="75"/>
+      <c r="G65" s="75"/>
+      <c r="H65" s="75"/>
     </row>
     <row r="66" spans="1:8" s="12" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C66" s="74"/>
-      <c r="D66" s="74"/>
-      <c r="E66" s="74"/>
-      <c r="F66" s="74"/>
-      <c r="G66" s="74"/>
-      <c r="H66" s="74"/>
+      <c r="C66" s="75"/>
+      <c r="D66" s="75"/>
+      <c r="E66" s="75"/>
+      <c r="F66" s="75"/>
+      <c r="G66" s="75"/>
+      <c r="H66" s="75"/>
     </row>
     <row r="67" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="28"/>
-      <c r="C67" s="74"/>
-      <c r="D67" s="74"/>
-      <c r="E67" s="74"/>
-      <c r="F67" s="74"/>
-      <c r="G67" s="74"/>
-      <c r="H67" s="74"/>
+      <c r="C67" s="75"/>
+      <c r="D67" s="75"/>
+      <c r="E67" s="75"/>
+      <c r="F67" s="75"/>
+      <c r="G67" s="75"/>
+      <c r="H67" s="75"/>
     </row>
     <row r="68" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C68" s="74"/>
-      <c r="D68" s="74"/>
-      <c r="E68" s="74"/>
-      <c r="F68" s="74"/>
-      <c r="G68" s="74"/>
-      <c r="H68" s="74"/>
+      <c r="C68" s="75"/>
+      <c r="D68" s="75"/>
+      <c r="E68" s="75"/>
+      <c r="F68" s="75"/>
+      <c r="G68" s="75"/>
+      <c r="H68" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1570,8 +1583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E2329AE-8E4E-42E7-B08B-4E199AF74E76}">
   <dimension ref="A1:I90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H49" sqref="H49"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.375" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -1586,25 +1599,25 @@
     <row r="1" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="9"/>
       <c r="B1" s="10"/>
-      <c r="C1" s="74" t="s">
+      <c r="C1" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
       <c r="I1" s="10"/>
     </row>
     <row r="2" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="76"/>
-      <c r="B2" s="76"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
+      <c r="A2" s="77"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
       <c r="I2" s="10"/>
     </row>
     <row r="3" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
@@ -1709,10 +1722,12 @@
       <c r="A11" s="36"/>
       <c r="B11" s="36"/>
       <c r="C11" s="43"/>
-      <c r="D11" s="36" t="s">
+      <c r="D11" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="36"/>
+      <c r="E11" s="6">
+        <v>3</v>
+      </c>
       <c r="F11" s="14"/>
       <c r="G11" s="36"/>
       <c r="H11" s="36"/>
@@ -1801,7 +1816,9 @@
       <c r="D18" s="36"/>
       <c r="E18" s="43"/>
       <c r="F18" s="32"/>
-      <c r="G18" s="48"/>
+      <c r="G18" s="83" t="s">
+        <v>64</v>
+      </c>
       <c r="H18" s="36"/>
       <c r="I18" s="36"/>
     </row>
@@ -1910,7 +1927,9 @@
       <c r="D27" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="E27" s="35"/>
+      <c r="E27" s="35">
+        <v>2</v>
+      </c>
       <c r="F27" s="36"/>
       <c r="G27" s="43"/>
       <c r="H27" s="36"/>
@@ -1939,7 +1958,9 @@
       <c r="E29" s="36"/>
       <c r="F29" s="36"/>
       <c r="G29" s="43"/>
-      <c r="H29" s="36"/>
+      <c r="H29" s="36" t="s">
+        <v>79</v>
+      </c>
       <c r="I29" s="48" t="s">
         <v>40</v>
       </c>
@@ -1991,9 +2012,11 @@
       <c r="C33" s="36"/>
       <c r="D33" s="36"/>
       <c r="E33" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="F33" s="36"/>
+        <v>73</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>76</v>
+      </c>
       <c r="G33" s="43"/>
       <c r="H33" s="36"/>
       <c r="I33" s="36"/>
@@ -2010,8 +2033,8 @@
       <c r="I34" s="36"/>
     </row>
     <row r="35" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="78"/>
-      <c r="B35" s="78"/>
+      <c r="A35" s="79"/>
+      <c r="B35" s="79"/>
       <c r="C35" s="36"/>
       <c r="D35" s="36"/>
       <c r="E35" s="36"/>
@@ -2080,7 +2103,7 @@
       <c r="C40" s="42"/>
       <c r="D40" s="43"/>
       <c r="E40" s="50" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F40" s="43"/>
       <c r="G40" s="43"/>
@@ -2096,7 +2119,9 @@
       </c>
       <c r="E41" s="43"/>
       <c r="F41" s="43"/>
-      <c r="G41" s="47"/>
+      <c r="G41" s="47" t="s">
+        <v>78</v>
+      </c>
       <c r="H41" s="36"/>
       <c r="I41" s="36"/>
     </row>
@@ -2183,7 +2208,7 @@
       <c r="D48" s="36"/>
       <c r="E48" s="43"/>
       <c r="F48" s="47" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G48" s="36"/>
       <c r="H48" s="36"/>
@@ -2281,8 +2306,8 @@
       <c r="B56" s="36"/>
       <c r="C56" s="42"/>
       <c r="D56" s="43"/>
-      <c r="E56" s="82" t="s">
-        <v>76</v>
+      <c r="E56" s="74" t="s">
+        <v>75</v>
       </c>
       <c r="F56" s="36"/>
       <c r="G56" s="36"/>
@@ -2407,7 +2432,7 @@
         <v>60</v>
       </c>
       <c r="D66" s="71" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E66" s="64"/>
       <c r="F66" s="64"/>
@@ -2447,7 +2472,7 @@
       <c r="A70" s="58"/>
       <c r="D70" s="16"/>
       <c r="E70" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F70" s="65" t="s">
         <v>56</v>
@@ -2607,25 +2632,25 @@
     <row r="1" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="59"/>
       <c r="B1" s="40"/>
-      <c r="C1" s="79" t="s">
+      <c r="C1" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
       <c r="I1" s="40"/>
     </row>
     <row r="2" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="80"/>
-      <c r="B2" s="80"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
+      <c r="A2" s="81"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
       <c r="I2" s="40"/>
     </row>
     <row r="3" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
@@ -2804,7 +2829,7 @@
     <row r="33" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="35"/>
       <c r="E33" s="51" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G33" s="43"/>
     </row>
@@ -2813,16 +2838,16 @@
       <c r="G34" s="43"/>
     </row>
     <row r="35" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="78"/>
-      <c r="B35" s="78"/>
+      <c r="A35" s="79"/>
+      <c r="B35" s="79"/>
       <c r="F35" s="43"/>
       <c r="G35" s="43"/>
     </row>
     <row r="36" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="81" t="s">
+      <c r="A36" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="81"/>
+      <c r="B36" s="82"/>
       <c r="C36" s="51" t="s">
         <v>6</v>
       </c>

--- a/8-team-double.xlsx
+++ b/8-team-double.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lts\Documents\GitHub\2018_world_cup_draw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUAWEI\Documents\GitHub\2018_world_cup_draw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F1A1B4-7C7E-4D6E-B1BA-23CC8A416A0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE005AB2-9D62-4C43-9BB4-1F5297FC6660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="88">
   <si>
     <t>PrintYourBrackets</t>
   </si>
@@ -331,6 +331,38 @@
   </si>
   <si>
     <t>沙隆巴斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金贝贝(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿土伯(7)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱夫人(3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小丹尼(5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙隆巴斯(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宫本宝藏(8)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忍太郎(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莎拉公主(6)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -557,7 +589,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -689,6 +721,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -713,7 +752,6 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1070,25 +1108,25 @@
     <row r="1" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="9"/>
       <c r="B1" s="10"/>
-      <c r="C1" s="75" t="s">
+      <c r="C1" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
       <c r="I1" s="10"/>
     </row>
     <row r="2" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="77"/>
-      <c r="B2" s="77"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
+      <c r="A2" s="80"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
       <c r="I2" s="10"/>
     </row>
     <row r="3" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
@@ -1319,17 +1357,17 @@
       <c r="G34" s="16"/>
     </row>
     <row r="35" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="78"/>
-      <c r="B35" s="78"/>
+      <c r="A35" s="81"/>
+      <c r="B35" s="81"/>
       <c r="C35" s="22"/>
       <c r="F35" s="16"/>
       <c r="G35" s="16"/>
     </row>
     <row r="36" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="76" t="s">
+      <c r="A36" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="76"/>
+      <c r="B36" s="79"/>
       <c r="C36" s="21" t="s">
         <v>6</v>
       </c>
@@ -1525,45 +1563,45 @@
       </c>
     </row>
     <row r="64" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C64" s="75"/>
-      <c r="D64" s="75"/>
-      <c r="E64" s="75"/>
-      <c r="F64" s="75"/>
-      <c r="G64" s="75"/>
-      <c r="H64" s="75"/>
+      <c r="C64" s="78"/>
+      <c r="D64" s="78"/>
+      <c r="E64" s="78"/>
+      <c r="F64" s="78"/>
+      <c r="G64" s="78"/>
+      <c r="H64" s="78"/>
     </row>
     <row r="65" spans="1:8" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C65" s="75"/>
-      <c r="D65" s="75"/>
-      <c r="E65" s="75"/>
-      <c r="F65" s="75"/>
-      <c r="G65" s="75"/>
-      <c r="H65" s="75"/>
+      <c r="C65" s="78"/>
+      <c r="D65" s="78"/>
+      <c r="E65" s="78"/>
+      <c r="F65" s="78"/>
+      <c r="G65" s="78"/>
+      <c r="H65" s="78"/>
     </row>
     <row r="66" spans="1:8" s="12" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C66" s="75"/>
-      <c r="D66" s="75"/>
-      <c r="E66" s="75"/>
-      <c r="F66" s="75"/>
-      <c r="G66" s="75"/>
-      <c r="H66" s="75"/>
+      <c r="C66" s="78"/>
+      <c r="D66" s="78"/>
+      <c r="E66" s="78"/>
+      <c r="F66" s="78"/>
+      <c r="G66" s="78"/>
+      <c r="H66" s="78"/>
     </row>
     <row r="67" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="28"/>
-      <c r="C67" s="75"/>
-      <c r="D67" s="75"/>
-      <c r="E67" s="75"/>
-      <c r="F67" s="75"/>
-      <c r="G67" s="75"/>
-      <c r="H67" s="75"/>
+      <c r="C67" s="78"/>
+      <c r="D67" s="78"/>
+      <c r="E67" s="78"/>
+      <c r="F67" s="78"/>
+      <c r="G67" s="78"/>
+      <c r="H67" s="78"/>
     </row>
     <row r="68" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C68" s="75"/>
-      <c r="D68" s="75"/>
-      <c r="E68" s="75"/>
-      <c r="F68" s="75"/>
-      <c r="G68" s="75"/>
-      <c r="H68" s="75"/>
+      <c r="C68" s="78"/>
+      <c r="D68" s="78"/>
+      <c r="E68" s="78"/>
+      <c r="F68" s="78"/>
+      <c r="G68" s="78"/>
+      <c r="H68" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1583,7 +1621,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E2329AE-8E4E-42E7-B08B-4E199AF74E76}">
   <dimension ref="A1:I90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
@@ -1599,25 +1637,25 @@
     <row r="1" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="9"/>
       <c r="B1" s="10"/>
-      <c r="C1" s="75" t="s">
+      <c r="C1" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
       <c r="I1" s="10"/>
     </row>
     <row r="2" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="77"/>
-      <c r="B2" s="77"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
+      <c r="A2" s="80"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
       <c r="I2" s="10"/>
     </row>
     <row r="3" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
@@ -1816,7 +1854,7 @@
       <c r="D18" s="36"/>
       <c r="E18" s="43"/>
       <c r="F18" s="32"/>
-      <c r="G18" s="83" t="s">
+      <c r="G18" s="77" t="s">
         <v>64</v>
       </c>
       <c r="H18" s="36"/>
@@ -2033,8 +2071,8 @@
       <c r="I34" s="36"/>
     </row>
     <row r="35" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="79"/>
-      <c r="B35" s="79"/>
+      <c r="A35" s="82"/>
+      <c r="B35" s="82"/>
       <c r="C35" s="36"/>
       <c r="D35" s="36"/>
       <c r="E35" s="36"/>
@@ -2616,8 +2654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC41AD02-D213-4B8C-8C48-D69FD6AD7D98}">
   <dimension ref="A1:I90"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.375" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -2632,38 +2670,38 @@
     <row r="1" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="59"/>
       <c r="B1" s="40"/>
-      <c r="C1" s="80" t="s">
+      <c r="C1" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
       <c r="I1" s="40"/>
     </row>
     <row r="2" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="81"/>
-      <c r="B2" s="81"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
+      <c r="A2" s="84"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
       <c r="I2" s="40"/>
     </row>
     <row r="3" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="37"/>
+      <c r="A3" s="76"/>
       <c r="B3" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
       <c r="I3" s="40"/>
     </row>
     <row r="4" spans="1:9" s="41" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
@@ -2671,6 +2709,9 @@
       <c r="F4" s="13"/>
     </row>
     <row r="5" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="36" t="s">
+        <v>80</v>
+      </c>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
     </row>
@@ -2690,7 +2731,9 @@
       <c r="F8" s="14"/>
     </row>
     <row r="9" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="35"/>
+      <c r="B9" s="35" t="s">
+        <v>81</v>
+      </c>
       <c r="C9" s="43"/>
       <c r="F9" s="14"/>
     </row>
@@ -2711,7 +2754,9 @@
       <c r="F12" s="14"/>
     </row>
     <row r="13" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="46"/>
+      <c r="B13" s="46" t="s">
+        <v>82</v>
+      </c>
       <c r="C13" s="43"/>
       <c r="E13" s="43"/>
     </row>
@@ -2735,7 +2780,9 @@
       <c r="F16" s="19"/>
     </row>
     <row r="17" spans="2:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="35"/>
+      <c r="B17" s="35" t="s">
+        <v>83</v>
+      </c>
       <c r="E17" s="43"/>
       <c r="F17" s="19"/>
     </row>
@@ -2756,6 +2803,9 @@
       <c r="G20" s="43"/>
     </row>
     <row r="21" spans="2:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="36" t="s">
+        <v>84</v>
+      </c>
       <c r="E21" s="43"/>
       <c r="G21" s="43"/>
     </row>
@@ -2778,7 +2828,9 @@
       <c r="G24" s="43"/>
     </row>
     <row r="25" spans="2:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="35"/>
+      <c r="B25" s="35" t="s">
+        <v>85</v>
+      </c>
       <c r="C25" s="43"/>
       <c r="E25" s="43"/>
       <c r="G25" s="43"/>
@@ -2801,6 +2853,9 @@
       <c r="G28" s="43"/>
     </row>
     <row r="29" spans="2:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="36" t="s">
+        <v>86</v>
+      </c>
       <c r="C29" s="43"/>
       <c r="G29" s="43"/>
       <c r="I29" s="48" t="s">
@@ -2827,7 +2882,9 @@
       <c r="G32" s="43"/>
     </row>
     <row r="33" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="35"/>
+      <c r="B33" s="35" t="s">
+        <v>87</v>
+      </c>
       <c r="E33" s="51" t="s">
         <v>73</v>
       </c>
@@ -2838,16 +2895,16 @@
       <c r="G34" s="43"/>
     </row>
     <row r="35" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="79"/>
-      <c r="B35" s="79"/>
+      <c r="A35" s="82"/>
+      <c r="B35" s="82"/>
       <c r="F35" s="43"/>
       <c r="G35" s="43"/>
     </row>
     <row r="36" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="82" t="s">
+      <c r="A36" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="82"/>
+      <c r="B36" s="85"/>
       <c r="C36" s="51" t="s">
         <v>6</v>
       </c>

--- a/8-team-double.xlsx
+++ b/8-team-double.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUAWEI\Documents\GitHub\2018_world_cup_draw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE005AB2-9D62-4C43-9BB4-1F5297FC6660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39EEB7D7-0A45-4026-B435-19451CA9AE11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
   <si>
     <t>PrintYourBrackets</t>
   </si>
@@ -338,10 +338,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>阿土伯(7)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>钱夫人(3)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -363,6 +359,26 @@
   </si>
   <si>
     <t>莎拉公主(6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙隆巴斯(1)   3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宫本宝藏(8)   0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金贝贝(2)   1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿土伯(7)   3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">阿土伯(7) </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -589,7 +605,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -728,6 +744,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1108,25 +1127,25 @@
     <row r="1" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="9"/>
       <c r="B1" s="10"/>
-      <c r="C1" s="78" t="s">
+      <c r="C1" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
       <c r="I1" s="10"/>
     </row>
     <row r="2" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="80"/>
-      <c r="B2" s="80"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
+      <c r="A2" s="81"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
       <c r="I2" s="10"/>
     </row>
     <row r="3" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
@@ -1357,17 +1376,17 @@
       <c r="G34" s="16"/>
     </row>
     <row r="35" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="81"/>
-      <c r="B35" s="81"/>
+      <c r="A35" s="82"/>
+      <c r="B35" s="82"/>
       <c r="C35" s="22"/>
       <c r="F35" s="16"/>
       <c r="G35" s="16"/>
     </row>
     <row r="36" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="79" t="s">
+      <c r="A36" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="79"/>
+      <c r="B36" s="80"/>
       <c r="C36" s="21" t="s">
         <v>6</v>
       </c>
@@ -1563,45 +1582,45 @@
       </c>
     </row>
     <row r="64" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C64" s="78"/>
-      <c r="D64" s="78"/>
-      <c r="E64" s="78"/>
-      <c r="F64" s="78"/>
-      <c r="G64" s="78"/>
-      <c r="H64" s="78"/>
+      <c r="C64" s="79"/>
+      <c r="D64" s="79"/>
+      <c r="E64" s="79"/>
+      <c r="F64" s="79"/>
+      <c r="G64" s="79"/>
+      <c r="H64" s="79"/>
     </row>
     <row r="65" spans="1:8" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C65" s="78"/>
-      <c r="D65" s="78"/>
-      <c r="E65" s="78"/>
-      <c r="F65" s="78"/>
-      <c r="G65" s="78"/>
-      <c r="H65" s="78"/>
+      <c r="C65" s="79"/>
+      <c r="D65" s="79"/>
+      <c r="E65" s="79"/>
+      <c r="F65" s="79"/>
+      <c r="G65" s="79"/>
+      <c r="H65" s="79"/>
     </row>
     <row r="66" spans="1:8" s="12" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C66" s="78"/>
-      <c r="D66" s="78"/>
-      <c r="E66" s="78"/>
-      <c r="F66" s="78"/>
-      <c r="G66" s="78"/>
-      <c r="H66" s="78"/>
+      <c r="C66" s="79"/>
+      <c r="D66" s="79"/>
+      <c r="E66" s="79"/>
+      <c r="F66" s="79"/>
+      <c r="G66" s="79"/>
+      <c r="H66" s="79"/>
     </row>
     <row r="67" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="28"/>
-      <c r="C67" s="78"/>
-      <c r="D67" s="78"/>
-      <c r="E67" s="78"/>
-      <c r="F67" s="78"/>
-      <c r="G67" s="78"/>
-      <c r="H67" s="78"/>
+      <c r="C67" s="79"/>
+      <c r="D67" s="79"/>
+      <c r="E67" s="79"/>
+      <c r="F67" s="79"/>
+      <c r="G67" s="79"/>
+      <c r="H67" s="79"/>
     </row>
     <row r="68" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C68" s="78"/>
-      <c r="D68" s="78"/>
-      <c r="E68" s="78"/>
-      <c r="F68" s="78"/>
-      <c r="G68" s="78"/>
-      <c r="H68" s="78"/>
+      <c r="C68" s="79"/>
+      <c r="D68" s="79"/>
+      <c r="E68" s="79"/>
+      <c r="F68" s="79"/>
+      <c r="G68" s="79"/>
+      <c r="H68" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1637,25 +1656,25 @@
     <row r="1" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="9"/>
       <c r="B1" s="10"/>
-      <c r="C1" s="78" t="s">
+      <c r="C1" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
       <c r="I1" s="10"/>
     </row>
     <row r="2" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="80"/>
-      <c r="B2" s="80"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
+      <c r="A2" s="81"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
       <c r="I2" s="10"/>
     </row>
     <row r="3" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
@@ -2071,8 +2090,8 @@
       <c r="I34" s="36"/>
     </row>
     <row r="35" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="82"/>
-      <c r="B35" s="82"/>
+      <c r="A35" s="83"/>
+      <c r="B35" s="83"/>
       <c r="C35" s="36"/>
       <c r="D35" s="36"/>
       <c r="E35" s="36"/>
@@ -2652,10 +2671,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC41AD02-D213-4B8C-8C48-D69FD6AD7D98}">
-  <dimension ref="A1:I90"/>
+  <dimension ref="A1:K90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.375" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -2670,25 +2689,25 @@
     <row r="1" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="59"/>
       <c r="B1" s="40"/>
-      <c r="C1" s="83" t="s">
+      <c r="C1" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
       <c r="I1" s="40"/>
     </row>
     <row r="2" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="84"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
+      <c r="A2" s="85"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
       <c r="I2" s="40"/>
     </row>
     <row r="3" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
@@ -2710,7 +2729,7 @@
     </row>
     <row r="5" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="36" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
@@ -2721,6 +2740,9 @@
     </row>
     <row r="7" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="43"/>
+      <c r="C7" s="36" t="s">
+        <v>91</v>
+      </c>
       <c r="F7" s="14"/>
     </row>
     <row r="8" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
@@ -2731,8 +2753,8 @@
       <c r="F8" s="14"/>
     </row>
     <row r="9" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="35" t="s">
-        <v>81</v>
+      <c r="B9" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="C9" s="43"/>
       <c r="F9" s="14"/>
@@ -2755,7 +2777,7 @@
     </row>
     <row r="13" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="46" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C13" s="43"/>
       <c r="E13" s="43"/>
@@ -2779,90 +2801,102 @@
       <c r="E16" s="43"/>
       <c r="F16" s="19"/>
     </row>
-    <row r="17" spans="2:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E17" s="43"/>
       <c r="F17" s="19"/>
     </row>
-    <row r="18" spans="2:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E18" s="43"/>
       <c r="F18" s="32"/>
       <c r="G18" s="48"/>
     </row>
-    <row r="19" spans="2:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E19" s="43">
         <v>12</v>
       </c>
       <c r="F19" s="19"/>
       <c r="G19" s="42"/>
     </row>
-    <row r="20" spans="2:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E20" s="43"/>
       <c r="G20" s="43"/>
     </row>
-    <row r="21" spans="2:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="36" t="s">
-        <v>84</v>
+    <row r="21" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="6" t="s">
+        <v>87</v>
       </c>
       <c r="E21" s="43"/>
       <c r="G21" s="43"/>
     </row>
-    <row r="22" spans="2:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="42"/>
       <c r="E22" s="43"/>
       <c r="G22" s="43"/>
     </row>
-    <row r="23" spans="2:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="43"/>
+      <c r="C23" s="36" t="s">
+        <v>83</v>
+      </c>
       <c r="E23" s="43"/>
       <c r="G23" s="43"/>
     </row>
-    <row r="24" spans="2:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="43">
         <v>3</v>
       </c>
       <c r="C24" s="49"/>
       <c r="E24" s="43"/>
       <c r="G24" s="43"/>
-    </row>
-    <row r="25" spans="2:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I24" s="48"/>
+    </row>
+    <row r="25" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="35" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C25" s="43"/>
       <c r="E25" s="43"/>
       <c r="G25" s="43"/>
-    </row>
-    <row r="26" spans="2:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I25" s="43"/>
+    </row>
+    <row r="26" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C26" s="43"/>
       <c r="E26" s="43"/>
       <c r="G26" s="43"/>
-    </row>
-    <row r="27" spans="2:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I26" s="43"/>
+    </row>
+    <row r="27" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C27" s="43"/>
       <c r="D27" s="50"/>
       <c r="E27" s="35"/>
       <c r="G27" s="43"/>
-    </row>
-    <row r="28" spans="2:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I27" s="43">
+        <v>15</v>
+      </c>
+      <c r="J27" s="78"/>
+      <c r="K27" s="36" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C28" s="43">
         <v>8</v>
       </c>
       <c r="G28" s="43"/>
-    </row>
-    <row r="29" spans="2:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I28" s="43"/>
+    </row>
+    <row r="29" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="36" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C29" s="43"/>
       <c r="G29" s="43"/>
-      <c r="I29" s="48" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I29" s="35"/>
+    </row>
+    <row r="30" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="42"/>
       <c r="C30" s="43"/>
       <c r="G30" s="43">
@@ -2870,12 +2904,12 @@
       </c>
       <c r="H30" s="45"/>
     </row>
-    <row r="31" spans="2:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="43"/>
       <c r="C31" s="47"/>
       <c r="G31" s="43"/>
     </row>
-    <row r="32" spans="2:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="43">
         <v>4</v>
       </c>
@@ -2883,7 +2917,7 @@
     </row>
     <row r="33" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="35" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E33" s="51" t="s">
         <v>73</v>
@@ -2895,16 +2929,16 @@
       <c r="G34" s="43"/>
     </row>
     <row r="35" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="82"/>
-      <c r="B35" s="82"/>
+      <c r="A35" s="83"/>
+      <c r="B35" s="83"/>
       <c r="F35" s="43"/>
       <c r="G35" s="43"/>
     </row>
     <row r="36" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="85" t="s">
+      <c r="A36" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="85"/>
+      <c r="B36" s="86"/>
       <c r="C36" s="51" t="s">
         <v>6</v>
       </c>
@@ -2926,6 +2960,9 @@
       <c r="A39" s="51"/>
       <c r="B39" s="53" t="s">
         <v>1</v>
+      </c>
+      <c r="C39" s="36" t="s">
+        <v>80</v>
       </c>
       <c r="D39" s="43"/>
       <c r="F39" s="52"/>
@@ -3025,6 +3062,9 @@
       <c r="A55" s="51"/>
       <c r="B55" s="53" t="s">
         <v>3</v>
+      </c>
+      <c r="C55" s="36" t="s">
+        <v>84</v>
       </c>
       <c r="D55" s="43"/>
       <c r="E55" s="55"/>

--- a/8-team-double.xlsx
+++ b/8-team-double.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUAWEI\Documents\GitHub\2018_world_cup_draw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39EEB7D7-0A45-4026-B435-19451CA9AE11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E73845F8-B4DC-4BF6-A755-2366AF72DEC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="96">
   <si>
     <t>PrintYourBrackets</t>
   </si>
@@ -379,6 +379,22 @@
   </si>
   <si>
     <t xml:space="preserve">阿土伯(7) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱夫人(3)   3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小丹尼(5)   2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忍太郎(4)   3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莎拉公主(6)   2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -605,7 +621,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -678,7 +694,6 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1127,25 +1142,25 @@
     <row r="1" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="9"/>
       <c r="B1" s="10"/>
-      <c r="C1" s="79" t="s">
+      <c r="C1" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
       <c r="I1" s="10"/>
     </row>
     <row r="2" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="81"/>
-      <c r="B2" s="81"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
+      <c r="A2" s="80"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
       <c r="I2" s="10"/>
     </row>
     <row r="3" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
@@ -1376,17 +1391,17 @@
       <c r="G34" s="16"/>
     </row>
     <row r="35" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="82"/>
-      <c r="B35" s="82"/>
+      <c r="A35" s="81"/>
+      <c r="B35" s="81"/>
       <c r="C35" s="22"/>
       <c r="F35" s="16"/>
       <c r="G35" s="16"/>
     </row>
     <row r="36" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="80" t="s">
+      <c r="A36" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="80"/>
+      <c r="B36" s="79"/>
       <c r="C36" s="21" t="s">
         <v>6</v>
       </c>
@@ -1582,45 +1597,45 @@
       </c>
     </row>
     <row r="64" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C64" s="79"/>
-      <c r="D64" s="79"/>
-      <c r="E64" s="79"/>
-      <c r="F64" s="79"/>
-      <c r="G64" s="79"/>
-      <c r="H64" s="79"/>
+      <c r="C64" s="78"/>
+      <c r="D64" s="78"/>
+      <c r="E64" s="78"/>
+      <c r="F64" s="78"/>
+      <c r="G64" s="78"/>
+      <c r="H64" s="78"/>
     </row>
     <row r="65" spans="1:8" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C65" s="79"/>
-      <c r="D65" s="79"/>
-      <c r="E65" s="79"/>
-      <c r="F65" s="79"/>
-      <c r="G65" s="79"/>
-      <c r="H65" s="79"/>
+      <c r="C65" s="78"/>
+      <c r="D65" s="78"/>
+      <c r="E65" s="78"/>
+      <c r="F65" s="78"/>
+      <c r="G65" s="78"/>
+      <c r="H65" s="78"/>
     </row>
     <row r="66" spans="1:8" s="12" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C66" s="79"/>
-      <c r="D66" s="79"/>
-      <c r="E66" s="79"/>
-      <c r="F66" s="79"/>
-      <c r="G66" s="79"/>
-      <c r="H66" s="79"/>
+      <c r="C66" s="78"/>
+      <c r="D66" s="78"/>
+      <c r="E66" s="78"/>
+      <c r="F66" s="78"/>
+      <c r="G66" s="78"/>
+      <c r="H66" s="78"/>
     </row>
     <row r="67" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="28"/>
-      <c r="C67" s="79"/>
-      <c r="D67" s="79"/>
-      <c r="E67" s="79"/>
-      <c r="F67" s="79"/>
-      <c r="G67" s="79"/>
-      <c r="H67" s="79"/>
+      <c r="C67" s="78"/>
+      <c r="D67" s="78"/>
+      <c r="E67" s="78"/>
+      <c r="F67" s="78"/>
+      <c r="G67" s="78"/>
+      <c r="H67" s="78"/>
     </row>
     <row r="68" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C68" s="79"/>
-      <c r="D68" s="79"/>
-      <c r="E68" s="79"/>
-      <c r="F68" s="79"/>
-      <c r="G68" s="79"/>
-      <c r="H68" s="79"/>
+      <c r="C68" s="78"/>
+      <c r="D68" s="78"/>
+      <c r="E68" s="78"/>
+      <c r="F68" s="78"/>
+      <c r="G68" s="78"/>
+      <c r="H68" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1656,25 +1671,25 @@
     <row r="1" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="9"/>
       <c r="B1" s="10"/>
-      <c r="C1" s="79" t="s">
+      <c r="C1" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
       <c r="I1" s="10"/>
     </row>
     <row r="2" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="81"/>
-      <c r="B2" s="81"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
+      <c r="A2" s="80"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
       <c r="I2" s="10"/>
     </row>
     <row r="3" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
@@ -1805,7 +1820,7 @@
     </row>
     <row r="13" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="36"/>
-      <c r="B13" s="60" t="s">
+      <c r="B13" s="59" t="s">
         <v>44</v>
       </c>
       <c r="C13" s="43"/>
@@ -1830,7 +1845,7 @@
     <row r="15" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="36"/>
       <c r="B15" s="43"/>
-      <c r="C15" s="47" t="s">
+      <c r="C15" s="46" t="s">
         <v>65</v>
       </c>
       <c r="D15" s="36"/>
@@ -1873,7 +1888,7 @@
       <c r="D18" s="36"/>
       <c r="E18" s="43"/>
       <c r="F18" s="32"/>
-      <c r="G18" s="77" t="s">
+      <c r="G18" s="76" t="s">
         <v>64</v>
       </c>
       <c r="H18" s="36"/>
@@ -1945,7 +1960,7 @@
       <c r="B24" s="43">
         <v>3</v>
       </c>
-      <c r="C24" s="49"/>
+      <c r="C24" s="48"/>
       <c r="D24" s="36"/>
       <c r="E24" s="43"/>
       <c r="F24" s="36"/>
@@ -1981,7 +1996,7 @@
       <c r="A27" s="36"/>
       <c r="B27" s="36"/>
       <c r="C27" s="43"/>
-      <c r="D27" s="50" t="s">
+      <c r="D27" s="49" t="s">
         <v>67</v>
       </c>
       <c r="E27" s="35">
@@ -2018,7 +2033,7 @@
       <c r="H29" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="I29" s="48" t="s">
+      <c r="I29" s="47" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2068,7 +2083,7 @@
       </c>
       <c r="C33" s="36"/>
       <c r="D33" s="36"/>
-      <c r="E33" s="51" t="s">
+      <c r="E33" s="50" t="s">
         <v>73</v>
       </c>
       <c r="F33" s="6" t="s">
@@ -2090,8 +2105,8 @@
       <c r="I34" s="36"/>
     </row>
     <row r="35" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="83"/>
-      <c r="B35" s="83"/>
+      <c r="A35" s="82"/>
+      <c r="B35" s="82"/>
       <c r="C35" s="36"/>
       <c r="D35" s="36"/>
       <c r="E35" s="36"/>
@@ -2101,14 +2116,14 @@
       <c r="I35" s="36"/>
     </row>
     <row r="36" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="61"/>
-      <c r="B36" s="62" t="s">
+      <c r="A36" s="60"/>
+      <c r="B36" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="C36" s="51" t="s">
+      <c r="C36" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="D36" s="73" t="s">
+      <c r="D36" s="72" t="s">
         <v>47</v>
       </c>
       <c r="E36" s="36"/>
@@ -2134,14 +2149,14 @@
       <c r="C38" s="36"/>
       <c r="D38" s="43"/>
       <c r="E38" s="36"/>
-      <c r="F38" s="52"/>
+      <c r="F38" s="51"/>
       <c r="G38" s="43"/>
       <c r="H38" s="36"/>
       <c r="I38" s="36"/>
     </row>
     <row r="39" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="51"/>
-      <c r="B39" s="53" t="s">
+      <c r="A39" s="50"/>
+      <c r="B39" s="52" t="s">
         <v>1</v>
       </c>
       <c r="C39" s="6" t="s">
@@ -2149,7 +2164,7 @@
       </c>
       <c r="D39" s="43"/>
       <c r="E39" s="36"/>
-      <c r="F39" s="52"/>
+      <c r="F39" s="51"/>
       <c r="G39" s="43"/>
       <c r="H39" s="36"/>
       <c r="I39" s="36"/>
@@ -2159,7 +2174,7 @@
       <c r="B40" s="36"/>
       <c r="C40" s="42"/>
       <c r="D40" s="43"/>
-      <c r="E40" s="50" t="s">
+      <c r="E40" s="49" t="s">
         <v>74</v>
       </c>
       <c r="F40" s="43"/>
@@ -2176,7 +2191,7 @@
       </c>
       <c r="E41" s="43"/>
       <c r="F41" s="43"/>
-      <c r="G41" s="47" t="s">
+      <c r="G41" s="46" t="s">
         <v>78</v>
       </c>
       <c r="H41" s="36"/>
@@ -2196,7 +2211,7 @@
       <c r="I42" s="36"/>
     </row>
     <row r="43" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="51"/>
+      <c r="A43" s="50"/>
       <c r="B43" s="36"/>
       <c r="C43" s="43"/>
       <c r="D43" s="35" t="s">
@@ -2236,7 +2251,7 @@
       <c r="A46" s="36"/>
       <c r="B46" s="36"/>
       <c r="C46" s="43"/>
-      <c r="D46" s="54"/>
+      <c r="D46" s="53"/>
       <c r="E46" s="43"/>
       <c r="F46" s="43"/>
       <c r="G46" s="36"/>
@@ -2244,8 +2259,8 @@
       <c r="I46" s="36"/>
     </row>
     <row r="47" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="51"/>
-      <c r="B47" s="53" t="s">
+      <c r="A47" s="50"/>
+      <c r="B47" s="52" t="s">
         <v>2</v>
       </c>
       <c r="C47" s="35" t="s">
@@ -2264,7 +2279,7 @@
       <c r="C48" s="36"/>
       <c r="D48" s="36"/>
       <c r="E48" s="43"/>
-      <c r="F48" s="47" t="s">
+      <c r="F48" s="46" t="s">
         <v>77</v>
       </c>
       <c r="G48" s="36"/>
@@ -2279,7 +2294,7 @@
       <c r="E49" s="36">
         <v>11</v>
       </c>
-      <c r="F49" s="54"/>
+      <c r="F49" s="53"/>
       <c r="G49" s="36"/>
       <c r="H49" s="36"/>
       <c r="I49" s="36"/>
@@ -2290,13 +2305,13 @@
       <c r="C50" s="36"/>
       <c r="D50" s="36"/>
       <c r="E50" s="36"/>
-      <c r="F50" s="54"/>
+      <c r="F50" s="53"/>
       <c r="G50" s="36"/>
       <c r="H50" s="36"/>
       <c r="I50" s="36"/>
     </row>
     <row r="51" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="51"/>
+      <c r="A51" s="50"/>
       <c r="B51" s="36"/>
       <c r="C51" s="36"/>
       <c r="D51" s="36"/>
@@ -2309,7 +2324,7 @@
     <row r="52" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="36"/>
       <c r="B52" s="36"/>
-      <c r="C52" s="51" t="s">
+      <c r="C52" s="50" t="s">
         <v>5</v>
       </c>
       <c r="D52" s="6" t="s">
@@ -2326,7 +2341,7 @@
       <c r="B53" s="36"/>
       <c r="C53" s="36"/>
       <c r="D53" s="42"/>
-      <c r="E53" s="55"/>
+      <c r="E53" s="54"/>
       <c r="F53" s="36"/>
       <c r="G53" s="36"/>
       <c r="H53" s="36"/>
@@ -2337,22 +2352,22 @@
       <c r="B54" s="36"/>
       <c r="C54" s="36"/>
       <c r="D54" s="43"/>
-      <c r="E54" s="55"/>
+      <c r="E54" s="54"/>
       <c r="F54" s="36"/>
       <c r="G54" s="36"/>
       <c r="H54" s="36"/>
       <c r="I54" s="36"/>
     </row>
     <row r="55" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="51"/>
-      <c r="B55" s="53" t="s">
+      <c r="A55" s="50"/>
+      <c r="B55" s="52" t="s">
         <v>3</v>
       </c>
       <c r="C55" s="36" t="s">
         <v>46</v>
       </c>
       <c r="D55" s="43"/>
-      <c r="E55" s="55"/>
+      <c r="E55" s="54"/>
       <c r="F55" s="36"/>
       <c r="G55" s="36"/>
       <c r="H55" s="36"/>
@@ -2363,7 +2378,7 @@
       <c r="B56" s="36"/>
       <c r="C56" s="42"/>
       <c r="D56" s="43"/>
-      <c r="E56" s="74" t="s">
+      <c r="E56" s="73" t="s">
         <v>75</v>
       </c>
       <c r="F56" s="36"/>
@@ -2381,8 +2396,8 @@
       <c r="E57" s="36"/>
       <c r="F57" s="36"/>
       <c r="G57" s="36"/>
-      <c r="H57" s="56"/>
-      <c r="I57" s="56"/>
+      <c r="H57" s="55"/>
+      <c r="I57" s="55"/>
     </row>
     <row r="58" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="36"/>
@@ -2396,10 +2411,10 @@
       <c r="I58" s="36"/>
     </row>
     <row r="59" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="51"/>
+      <c r="A59" s="50"/>
       <c r="B59" s="36"/>
       <c r="C59" s="43"/>
-      <c r="D59" s="72" t="s">
+      <c r="D59" s="71" t="s">
         <v>70</v>
       </c>
       <c r="E59" s="36"/>
@@ -2444,8 +2459,8 @@
       <c r="I62" s="36"/>
     </row>
     <row r="63" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="51"/>
-      <c r="B63" s="53" t="s">
+      <c r="A63" s="50"/>
+      <c r="B63" s="52" t="s">
         <v>4</v>
       </c>
       <c r="C63" s="2" t="s">
@@ -2482,178 +2497,178 @@
     </row>
     <row r="66" spans="1:9" s="12" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="41"/>
-      <c r="B66" s="67" t="s">
+      <c r="B66" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="C66" s="70" t="s">
+      <c r="C66" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="D66" s="71" t="s">
+      <c r="D66" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="E66" s="64"/>
-      <c r="F66" s="64"/>
+      <c r="E66" s="63"/>
+      <c r="F66" s="63"/>
       <c r="G66" s="40"/>
       <c r="H66" s="40"/>
       <c r="I66" s="41"/>
     </row>
     <row r="67" spans="1:9" ht="11.85" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="57"/>
-      <c r="C67" s="69"/>
+      <c r="A67" s="56"/>
+      <c r="C67" s="68"/>
       <c r="D67" s="42"/>
-      <c r="E67" s="64"/>
-      <c r="F67" s="64"/>
+      <c r="E67" s="63"/>
+      <c r="F67" s="63"/>
       <c r="G67" s="40"/>
       <c r="H67" s="40"/>
-      <c r="I67" s="58"/>
+      <c r="I67" s="57"/>
     </row>
     <row r="68" spans="1:9" ht="11.85" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="58"/>
+      <c r="A68" s="57"/>
       <c r="D68" s="16"/>
-      <c r="E68" s="65"/>
-      <c r="F68" s="65"/>
+      <c r="E68" s="64"/>
+      <c r="F68" s="64"/>
       <c r="G68" s="40"/>
       <c r="H68" s="40"/>
-      <c r="I68" s="58"/>
+      <c r="I68" s="57"/>
     </row>
     <row r="69" spans="1:9" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="58"/>
+      <c r="A69" s="57"/>
       <c r="D69" s="16"/>
-      <c r="E69" s="65"/>
-      <c r="F69" s="65"/>
-      <c r="G69" s="58"/>
-      <c r="H69" s="58"/>
-      <c r="I69" s="58"/>
+      <c r="E69" s="64"/>
+      <c r="F69" s="64"/>
+      <c r="G69" s="57"/>
+      <c r="H69" s="57"/>
+      <c r="I69" s="57"/>
     </row>
     <row r="70" spans="1:9" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="58"/>
+      <c r="A70" s="57"/>
       <c r="D70" s="16"/>
       <c r="E70" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F70" s="65" t="s">
+      <c r="F70" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="G70" s="64"/>
-      <c r="H70" s="58"/>
-      <c r="I70" s="58"/>
+      <c r="G70" s="63"/>
+      <c r="H70" s="57"/>
+      <c r="I70" s="57"/>
     </row>
     <row r="71" spans="1:9" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="58"/>
-      <c r="D71" s="63"/>
-      <c r="E71" s="65"/>
-      <c r="F71" s="65"/>
-      <c r="G71" s="64"/>
-      <c r="H71" s="58"/>
-      <c r="I71" s="58"/>
+      <c r="A71" s="57"/>
+      <c r="D71" s="62"/>
+      <c r="E71" s="64"/>
+      <c r="F71" s="64"/>
+      <c r="G71" s="63"/>
+      <c r="H71" s="57"/>
+      <c r="I71" s="57"/>
     </row>
     <row r="72" spans="1:9" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D72" s="16"/>
-      <c r="E72" s="65"/>
-      <c r="F72" s="65"/>
-      <c r="G72" s="65"/>
+      <c r="E72" s="64"/>
+      <c r="F72" s="64"/>
+      <c r="G72" s="64"/>
     </row>
     <row r="73" spans="1:9" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D73" s="16"/>
-      <c r="E73" s="65"/>
-      <c r="F73" s="65"/>
-      <c r="G73" s="65"/>
+      <c r="E73" s="64"/>
+      <c r="F73" s="64"/>
+      <c r="G73" s="64"/>
     </row>
     <row r="74" spans="1:9" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C74" s="69" t="s">
+      <c r="C74" s="68" t="s">
         <v>61</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E74" s="65"/>
-      <c r="F74" s="65"/>
-      <c r="G74" s="65"/>
+      <c r="E74" s="64"/>
+      <c r="F74" s="64"/>
+      <c r="G74" s="64"/>
     </row>
     <row r="75" spans="1:9" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C75" s="65"/>
-      <c r="D75" s="65"/>
-      <c r="E75" s="65"/>
-      <c r="F75" s="65"/>
-      <c r="G75" s="65"/>
+      <c r="C75" s="64"/>
+      <c r="D75" s="64"/>
+      <c r="E75" s="64"/>
+      <c r="F75" s="64"/>
+      <c r="G75" s="64"/>
     </row>
     <row r="76" spans="1:9" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G76" s="65"/>
+      <c r="G76" s="64"/>
     </row>
     <row r="77" spans="1:9" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G77" s="65"/>
+      <c r="G77" s="64"/>
     </row>
     <row r="78" spans="1:9" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G78" s="65"/>
+      <c r="G78" s="64"/>
     </row>
     <row r="79" spans="1:9" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="66" t="s">
+      <c r="B79" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="C79" s="58"/>
-      <c r="D79" s="58"/>
-      <c r="E79" s="58"/>
-      <c r="G79" s="65"/>
+      <c r="C79" s="57"/>
+      <c r="D79" s="57"/>
+      <c r="E79" s="57"/>
+      <c r="G79" s="64"/>
     </row>
     <row r="80" spans="1:9" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="68" t="s">
+      <c r="B80" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="C80" s="48" t="s">
+      <c r="C80" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="D80" s="64"/>
-      <c r="E80" s="64"/>
+      <c r="D80" s="63"/>
+      <c r="E80" s="63"/>
     </row>
     <row r="81" spans="2:5" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="58"/>
+      <c r="B81" s="57"/>
       <c r="C81" s="42"/>
-      <c r="D81" s="64"/>
-      <c r="E81" s="64"/>
+      <c r="D81" s="63"/>
+      <c r="E81" s="63"/>
     </row>
     <row r="82" spans="2:5" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C82" s="16"/>
-      <c r="D82" s="65"/>
-      <c r="E82" s="65"/>
+      <c r="D82" s="64"/>
+      <c r="E82" s="64"/>
     </row>
     <row r="83" spans="2:5" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C83" s="16"/>
-      <c r="D83" s="65"/>
-      <c r="E83" s="65"/>
+      <c r="D83" s="64"/>
+      <c r="E83" s="64"/>
     </row>
     <row r="84" spans="2:5" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C84" s="16"/>
       <c r="D84" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="E84" s="65" t="s">
+      <c r="E84" s="64" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="85" spans="2:5" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C85" s="63"/>
-      <c r="D85" s="65"/>
-      <c r="E85" s="65"/>
+      <c r="C85" s="62"/>
+      <c r="D85" s="64"/>
+      <c r="E85" s="64"/>
     </row>
     <row r="86" spans="2:5" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C86" s="16"/>
-      <c r="D86" s="65"/>
-      <c r="E86" s="65"/>
+      <c r="D86" s="64"/>
+      <c r="E86" s="64"/>
     </row>
     <row r="87" spans="2:5" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C87" s="16"/>
-      <c r="D87" s="65"/>
-      <c r="E87" s="65"/>
+      <c r="D87" s="64"/>
+      <c r="E87" s="64"/>
     </row>
     <row r="88" spans="2:5" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="69" t="s">
+      <c r="B88" s="68" t="s">
         <v>59</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D88" s="65"/>
-      <c r="E88" s="65"/>
+      <c r="D88" s="64"/>
+      <c r="E88" s="64"/>
     </row>
     <row r="89" spans="2:5" ht="11.85" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="90" spans="2:5" ht="11.85" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2673,54 +2688,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC41AD02-D213-4B8C-8C48-D69FD6AD7D98}">
   <dimension ref="A1:K90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.375" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.75" style="58" customWidth="1"/>
-    <col min="2" max="7" width="12.25" style="58" customWidth="1"/>
-    <col min="8" max="8" width="12.75" style="58" customWidth="1"/>
-    <col min="9" max="9" width="12.875" style="58" customWidth="1"/>
-    <col min="10" max="16384" width="17.375" style="58"/>
+    <col min="1" max="1" width="2.75" style="57" customWidth="1"/>
+    <col min="2" max="7" width="12.25" style="57" customWidth="1"/>
+    <col min="8" max="8" width="12.75" style="57" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="57" customWidth="1"/>
+    <col min="10" max="16384" width="17.375" style="57"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="59"/>
+      <c r="A1" s="58"/>
       <c r="B1" s="40"/>
-      <c r="C1" s="84" t="s">
+      <c r="C1" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
       <c r="I1" s="40"/>
     </row>
     <row r="2" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
+      <c r="A2" s="84"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
       <c r="I2" s="40"/>
     </row>
     <row r="3" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="76"/>
+      <c r="A3" s="75"/>
       <c r="B3" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
       <c r="I3" s="40"/>
     </row>
     <row r="4" spans="1:9" s="41" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
@@ -2776,8 +2791,8 @@
       <c r="F12" s="14"/>
     </row>
     <row r="13" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="46" t="s">
-        <v>81</v>
+      <c r="B13" s="59" t="s">
+        <v>92</v>
       </c>
       <c r="C13" s="43"/>
       <c r="E13" s="43"/>
@@ -2790,7 +2805,9 @@
     </row>
     <row r="15" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="43"/>
-      <c r="C15" s="47"/>
+      <c r="C15" s="46" t="s">
+        <v>81</v>
+      </c>
       <c r="E15" s="43"/>
       <c r="F15" s="19"/>
     </row>
@@ -2803,7 +2820,7 @@
     </row>
     <row r="17" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="35" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="E17" s="43"/>
       <c r="F17" s="19"/>
@@ -2811,7 +2828,7 @@
     <row r="18" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E18" s="43"/>
       <c r="F18" s="32"/>
-      <c r="G18" s="48"/>
+      <c r="G18" s="47"/>
     </row>
     <row r="19" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E19" s="43">
@@ -2848,10 +2865,10 @@
       <c r="B24" s="43">
         <v>3</v>
       </c>
-      <c r="C24" s="49"/>
+      <c r="C24" s="48"/>
       <c r="E24" s="43"/>
       <c r="G24" s="43"/>
-      <c r="I24" s="48"/>
+      <c r="I24" s="47"/>
     </row>
     <row r="25" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="35" t="s">
@@ -2870,13 +2887,13 @@
     </row>
     <row r="27" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C27" s="43"/>
-      <c r="D27" s="50"/>
+      <c r="D27" s="49"/>
       <c r="E27" s="35"/>
       <c r="G27" s="43"/>
       <c r="I27" s="43">
         <v>15</v>
       </c>
-      <c r="J27" s="78"/>
+      <c r="J27" s="77"/>
       <c r="K27" s="36" t="s">
         <v>40</v>
       </c>
@@ -2889,8 +2906,8 @@
       <c r="I28" s="43"/>
     </row>
     <row r="29" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="36" t="s">
-        <v>85</v>
+      <c r="B29" s="6" t="s">
+        <v>94</v>
       </c>
       <c r="C29" s="43"/>
       <c r="G29" s="43"/>
@@ -2906,7 +2923,9 @@
     </row>
     <row r="31" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="43"/>
-      <c r="C31" s="47"/>
+      <c r="C31" s="46" t="s">
+        <v>85</v>
+      </c>
       <c r="G31" s="43"/>
     </row>
     <row r="32" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
@@ -2917,9 +2936,9 @@
     </row>
     <row r="33" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="E33" s="51" t="s">
+        <v>95</v>
+      </c>
+      <c r="E33" s="50" t="s">
         <v>73</v>
       </c>
       <c r="G33" s="43"/>
@@ -2929,20 +2948,20 @@
       <c r="G34" s="43"/>
     </row>
     <row r="35" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="83"/>
-      <c r="B35" s="83"/>
+      <c r="A35" s="82"/>
+      <c r="B35" s="82"/>
       <c r="F35" s="43"/>
       <c r="G35" s="43"/>
     </row>
     <row r="36" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="86" t="s">
+      <c r="A36" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="86"/>
-      <c r="C36" s="51" t="s">
+      <c r="B36" s="85"/>
+      <c r="C36" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="D36" s="48"/>
+      <c r="D36" s="47"/>
       <c r="F36" s="43"/>
       <c r="G36" s="43"/>
     </row>
@@ -2953,25 +2972,25 @@
     </row>
     <row r="38" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D38" s="43"/>
-      <c r="F38" s="52"/>
+      <c r="F38" s="51"/>
       <c r="G38" s="43"/>
     </row>
     <row r="39" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="51"/>
-      <c r="B39" s="53" t="s">
+      <c r="A39" s="50"/>
+      <c r="B39" s="52" t="s">
         <v>1</v>
       </c>
       <c r="C39" s="36" t="s">
         <v>80</v>
       </c>
       <c r="D39" s="43"/>
-      <c r="F39" s="52"/>
+      <c r="F39" s="51"/>
       <c r="G39" s="43"/>
     </row>
     <row r="40" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C40" s="42"/>
       <c r="D40" s="43"/>
-      <c r="E40" s="50"/>
+      <c r="E40" s="49"/>
       <c r="F40" s="43"/>
       <c r="G40" s="43"/>
     </row>
@@ -2982,7 +3001,7 @@
       </c>
       <c r="E41" s="43"/>
       <c r="F41" s="43"/>
-      <c r="G41" s="47"/>
+      <c r="G41" s="46"/>
     </row>
     <row r="42" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C42" s="43"/>
@@ -2993,7 +3012,7 @@
       </c>
     </row>
     <row r="43" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="51"/>
+      <c r="A43" s="50"/>
       <c r="C43" s="43"/>
       <c r="D43" s="35"/>
       <c r="E43" s="43"/>
@@ -3014,82 +3033,84 @@
     </row>
     <row r="46" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C46" s="43"/>
-      <c r="D46" s="54"/>
+      <c r="D46" s="53"/>
       <c r="E46" s="43"/>
       <c r="F46" s="43"/>
     </row>
     <row r="47" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="51"/>
-      <c r="B47" s="53" t="s">
+      <c r="A47" s="50"/>
+      <c r="B47" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="C47" s="35"/>
+      <c r="C47" s="35" t="s">
+        <v>82</v>
+      </c>
       <c r="E47" s="43"/>
       <c r="F47" s="43"/>
     </row>
     <row r="48" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E48" s="43"/>
-      <c r="F48" s="47"/>
+      <c r="F48" s="46"/>
     </row>
     <row r="49" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E49" s="36">
         <v>11</v>
       </c>
-      <c r="F49" s="54"/>
+      <c r="F49" s="53"/>
     </row>
     <row r="50" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F50" s="54"/>
+      <c r="F50" s="53"/>
     </row>
     <row r="51" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="51"/>
+      <c r="A51" s="50"/>
       <c r="E51" s="43"/>
     </row>
     <row r="52" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C52" s="51" t="s">
+      <c r="C52" s="50" t="s">
         <v>5</v>
       </c>
       <c r="E52" s="43"/>
     </row>
     <row r="53" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D53" s="42"/>
-      <c r="E53" s="55"/>
+      <c r="E53" s="54"/>
     </row>
     <row r="54" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D54" s="43"/>
-      <c r="E54" s="55"/>
+      <c r="E54" s="54"/>
     </row>
     <row r="55" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="51"/>
-      <c r="B55" s="53" t="s">
+      <c r="A55" s="50"/>
+      <c r="B55" s="52" t="s">
         <v>3</v>
       </c>
       <c r="C55" s="36" t="s">
         <v>84</v>
       </c>
       <c r="D55" s="43"/>
-      <c r="E55" s="55"/>
+      <c r="E55" s="54"/>
     </row>
     <row r="56" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C56" s="42"/>
       <c r="D56" s="43"/>
-      <c r="E56" s="47"/>
+      <c r="E56" s="46"/>
     </row>
     <row r="57" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C57" s="43"/>
       <c r="D57" s="43">
         <v>10</v>
       </c>
-      <c r="H57" s="56"/>
-      <c r="I57" s="56"/>
+      <c r="H57" s="55"/>
+      <c r="I57" s="55"/>
     </row>
     <row r="58" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C58" s="43"/>
       <c r="D58" s="43"/>
     </row>
     <row r="59" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="51"/>
+      <c r="A59" s="50"/>
       <c r="C59" s="43"/>
-      <c r="D59" s="47"/>
+      <c r="D59" s="46"/>
     </row>
     <row r="60" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C60" s="43">
@@ -3103,11 +3124,13 @@
       <c r="C62" s="43"/>
     </row>
     <row r="63" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="51"/>
-      <c r="B63" s="53" t="s">
+      <c r="A63" s="50"/>
+      <c r="B63" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="C63" s="35"/>
+      <c r="C63" s="35" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="64" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C64" s="40"/>
@@ -3130,90 +3153,90 @@
       <c r="C66" s="11"/>
       <c r="D66" s="11"/>
       <c r="E66" s="11"/>
-      <c r="F66" s="58"/>
-      <c r="G66" s="58"/>
+      <c r="F66" s="57"/>
+      <c r="G66" s="57"/>
       <c r="H66" s="40"/>
     </row>
     <row r="67" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="57"/>
-      <c r="B67" s="67" t="s">
+      <c r="A67" s="56"/>
+      <c r="B67" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="C67" s="70" t="s">
+      <c r="C67" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="D67" s="48"/>
-      <c r="E67" s="64"/>
-      <c r="F67" s="64"/>
+      <c r="D67" s="47"/>
+      <c r="E67" s="63"/>
+      <c r="F67" s="63"/>
       <c r="H67" s="40"/>
     </row>
     <row r="68" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B68" s="11"/>
-      <c r="C68" s="69"/>
+      <c r="C68" s="68"/>
       <c r="D68" s="42"/>
-      <c r="E68" s="64"/>
-      <c r="F68" s="64"/>
+      <c r="E68" s="63"/>
+      <c r="F68" s="63"/>
       <c r="H68" s="40"/>
     </row>
     <row r="69" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
       <c r="D69" s="16"/>
-      <c r="E69" s="65"/>
-      <c r="F69" s="65"/>
+      <c r="E69" s="64"/>
+      <c r="F69" s="64"/>
     </row>
     <row r="70" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
       <c r="D70" s="16"/>
-      <c r="E70" s="65"/>
-      <c r="F70" s="65"/>
+      <c r="E70" s="64"/>
+      <c r="F70" s="64"/>
     </row>
     <row r="71" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
       <c r="D71" s="16"/>
       <c r="E71" s="7"/>
-      <c r="F71" s="65" t="s">
+      <c r="F71" s="64" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
-      <c r="D72" s="63"/>
-      <c r="E72" s="65"/>
-      <c r="F72" s="65"/>
+      <c r="D72" s="62"/>
+      <c r="E72" s="64"/>
+      <c r="F72" s="64"/>
     </row>
     <row r="73" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
       <c r="D73" s="16"/>
-      <c r="E73" s="65"/>
-      <c r="F73" s="65"/>
+      <c r="E73" s="64"/>
+      <c r="F73" s="64"/>
     </row>
     <row r="74" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
       <c r="D74" s="16"/>
-      <c r="E74" s="65"/>
-      <c r="F74" s="65"/>
+      <c r="E74" s="64"/>
+      <c r="F74" s="64"/>
     </row>
     <row r="75" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B75" s="11"/>
-      <c r="C75" s="69" t="s">
+      <c r="C75" s="68" t="s">
         <v>61</v>
       </c>
       <c r="D75" s="5"/>
-      <c r="E75" s="65"/>
-      <c r="F75" s="65"/>
+      <c r="E75" s="64"/>
+      <c r="F75" s="64"/>
     </row>
     <row r="76" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B76" s="11"/>
-      <c r="C76" s="65"/>
-      <c r="D76" s="65"/>
-      <c r="E76" s="65"/>
-      <c r="F76" s="65"/>
+      <c r="C76" s="64"/>
+      <c r="D76" s="64"/>
+      <c r="E76" s="64"/>
+      <c r="F76" s="64"/>
     </row>
     <row r="77" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B77" s="11"/>
@@ -3237,77 +3260,77 @@
       <c r="F79" s="11"/>
     </row>
     <row r="80" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="66" t="s">
+      <c r="B80" s="65" t="s">
         <v>55</v>
       </c>
       <c r="F80" s="11"/>
     </row>
     <row r="81" spans="2:6" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="68" t="s">
+      <c r="B81" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="C81" s="48"/>
-      <c r="D81" s="64"/>
-      <c r="E81" s="64"/>
+      <c r="C81" s="47"/>
+      <c r="D81" s="63"/>
+      <c r="E81" s="63"/>
       <c r="F81" s="11"/>
     </row>
     <row r="82" spans="2:6" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C82" s="42"/>
-      <c r="D82" s="64"/>
-      <c r="E82" s="64"/>
+      <c r="D82" s="63"/>
+      <c r="E82" s="63"/>
       <c r="F82" s="11"/>
     </row>
     <row r="83" spans="2:6" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B83" s="11"/>
       <c r="C83" s="16"/>
-      <c r="D83" s="65"/>
-      <c r="E83" s="65"/>
+      <c r="D83" s="64"/>
+      <c r="E83" s="64"/>
       <c r="F83" s="11"/>
     </row>
     <row r="84" spans="2:6" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B84" s="11"/>
       <c r="C84" s="16"/>
-      <c r="D84" s="65"/>
-      <c r="E84" s="65"/>
+      <c r="D84" s="64"/>
+      <c r="E84" s="64"/>
       <c r="F84" s="11"/>
     </row>
     <row r="85" spans="2:6" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B85" s="11"/>
       <c r="C85" s="16"/>
       <c r="D85" s="7"/>
-      <c r="E85" s="65" t="s">
+      <c r="E85" s="64" t="s">
         <v>53</v>
       </c>
       <c r="F85" s="11"/>
     </row>
     <row r="86" spans="2:6" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B86" s="11"/>
-      <c r="C86" s="63"/>
-      <c r="D86" s="65"/>
-      <c r="E86" s="65"/>
+      <c r="C86" s="62"/>
+      <c r="D86" s="64"/>
+      <c r="E86" s="64"/>
       <c r="F86" s="11"/>
     </row>
     <row r="87" spans="2:6" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B87" s="11"/>
       <c r="C87" s="16"/>
-      <c r="D87" s="65"/>
-      <c r="E87" s="65"/>
+      <c r="D87" s="64"/>
+      <c r="E87" s="64"/>
       <c r="F87" s="11"/>
     </row>
     <row r="88" spans="2:6" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B88" s="11"/>
       <c r="C88" s="16"/>
-      <c r="D88" s="65"/>
-      <c r="E88" s="65"/>
+      <c r="D88" s="64"/>
+      <c r="E88" s="64"/>
       <c r="F88" s="11"/>
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B89" s="69" t="s">
+      <c r="B89" s="68" t="s">
         <v>59</v>
       </c>
       <c r="C89" s="5"/>
-      <c r="D89" s="65"/>
-      <c r="E89" s="65"/>
+      <c r="D89" s="64"/>
+      <c r="E89" s="64"/>
       <c r="F89" s="11"/>
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.3">

--- a/8-team-double.xlsx
+++ b/8-team-double.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUAWEI\Documents\GitHub\2018_world_cup_draw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lts\Documents\GitHub\2018_world_cup_draw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E73845F8-B4DC-4BF6-A755-2366AF72DEC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0672931B-6770-4BFE-9155-3A553C243580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="98">
   <si>
     <t>PrintYourBrackets</t>
   </si>
@@ -334,26 +334,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>金贝贝(2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>钱夫人(3)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>小丹尼(5)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>沙隆巴斯(1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>宫本宝藏(8)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>忍太郎(4)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -395,6 +383,26 @@
   </si>
   <si>
     <t>莎拉公主(6)   2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宫本宝藏(8)   1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莎拉公主(6)   3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宫本宝藏(8)   2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">宫本宝藏(8) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿土伯(7)    0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2688,8 +2696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC41AD02-D213-4B8C-8C48-D69FD6AD7D98}">
   <dimension ref="A1:K90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K41" sqref="K41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.375" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -2744,7 +2752,7 @@
     </row>
     <row r="5" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="36" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
@@ -2756,7 +2764,7 @@
     <row r="7" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="43"/>
       <c r="C7" s="36" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="F7" s="14"/>
     </row>
@@ -2769,7 +2777,7 @@
     </row>
     <row r="9" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C9" s="43"/>
       <c r="F9" s="14"/>
@@ -2780,6 +2788,9 @@
     </row>
     <row r="11" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="43"/>
+      <c r="D11" s="36" t="s">
+        <v>80</v>
+      </c>
       <c r="F11" s="14"/>
     </row>
     <row r="12" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
@@ -2792,7 +2803,7 @@
     </row>
     <row r="13" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="59" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C13" s="43"/>
       <c r="E13" s="43"/>
@@ -2805,8 +2816,8 @@
     </row>
     <row r="15" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="43"/>
-      <c r="C15" s="46" t="s">
-        <v>81</v>
+      <c r="C15" s="34" t="s">
+        <v>89</v>
       </c>
       <c r="E15" s="43"/>
       <c r="F15" s="19"/>
@@ -2820,7 +2831,7 @@
     </row>
     <row r="17" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="35" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E17" s="43"/>
       <c r="F17" s="19"/>
@@ -2843,7 +2854,7 @@
     </row>
     <row r="21" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E21" s="43"/>
       <c r="G21" s="43"/>
@@ -2856,7 +2867,7 @@
     <row r="23" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="43"/>
       <c r="C23" s="36" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E23" s="43"/>
       <c r="G23" s="43"/>
@@ -2872,7 +2883,7 @@
     </row>
     <row r="25" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="35" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C25" s="43"/>
       <c r="E25" s="43"/>
@@ -2907,7 +2918,7 @@
     </row>
     <row r="29" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="6" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C29" s="43"/>
       <c r="G29" s="43"/>
@@ -2924,7 +2935,7 @@
     <row r="31" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="43"/>
       <c r="C31" s="46" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G31" s="43"/>
     </row>
@@ -2936,7 +2947,7 @@
     </row>
     <row r="33" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="35" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E33" s="50" t="s">
         <v>73</v>
@@ -2981,7 +2992,7 @@
         <v>1</v>
       </c>
       <c r="C39" s="36" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D39" s="43"/>
       <c r="F39" s="51"/>
@@ -3014,7 +3025,9 @@
     <row r="43" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="50"/>
       <c r="C43" s="43"/>
-      <c r="D43" s="35"/>
+      <c r="D43" s="35" t="s">
+        <v>67</v>
+      </c>
       <c r="E43" s="43"/>
       <c r="F43" s="43"/>
     </row>
@@ -3042,8 +3055,8 @@
       <c r="B47" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="C47" s="35" t="s">
-        <v>82</v>
+      <c r="C47" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="E47" s="43"/>
       <c r="F47" s="43"/>
@@ -3068,6 +3081,9 @@
     <row r="52" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C52" s="50" t="s">
         <v>5</v>
+      </c>
+      <c r="D52" s="36" t="s">
+        <v>88</v>
       </c>
       <c r="E52" s="43"/>
     </row>
@@ -3085,7 +3101,7 @@
         <v>3</v>
       </c>
       <c r="C55" s="36" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="D55" s="43"/>
       <c r="E55" s="54"/>
@@ -3110,7 +3126,9 @@
     <row r="59" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="50"/>
       <c r="C59" s="43"/>
-      <c r="D59" s="46"/>
+      <c r="D59" s="46" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="60" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C60" s="43">
@@ -3128,8 +3146,8 @@
       <c r="B63" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="C63" s="35" t="s">
-        <v>86</v>
+      <c r="C63" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="64" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.4">
@@ -3269,7 +3287,9 @@
       <c r="B81" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="C81" s="47"/>
+      <c r="C81" s="47" t="s">
+        <v>86</v>
+      </c>
       <c r="D81" s="63"/>
       <c r="E81" s="63"/>
       <c r="F81" s="11"/>
@@ -3297,7 +3317,9 @@
     <row r="85" spans="2:6" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B85" s="11"/>
       <c r="C85" s="16"/>
-      <c r="D85" s="7"/>
+      <c r="D85" s="7" t="s">
+        <v>96</v>
+      </c>
       <c r="E85" s="64" t="s">
         <v>53</v>
       </c>
@@ -3328,7 +3350,9 @@
       <c r="B89" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="C89" s="5"/>
+      <c r="C89" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="D89" s="64"/>
       <c r="E89" s="64"/>
       <c r="F89" s="11"/>

--- a/8-team-double.xlsx
+++ b/8-team-double.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lts\Documents\GitHub\2018_world_cup_draw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUAWEI\Documents\GitHub\2018_world_cup_draw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0672931B-6770-4BFE-9155-3A553C243580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E74D99E8-1CFC-4F19-B6DC-972AABF3BB9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="99">
   <si>
     <t>PrintYourBrackets</t>
   </si>
@@ -338,10 +338,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>沙隆巴斯(1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>忍太郎(4)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -403,6 +399,14 @@
   </si>
   <si>
     <t>阿土伯(7)    0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忍太郎(4)   2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">沙隆巴斯(1) </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2696,8 +2700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC41AD02-D213-4B8C-8C48-D69FD6AD7D98}">
   <dimension ref="A1:K90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.375" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -2752,7 +2756,7 @@
     </row>
     <row r="5" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="36" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
@@ -2764,7 +2768,7 @@
     <row r="7" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="43"/>
       <c r="C7" s="36" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F7" s="14"/>
     </row>
@@ -2777,7 +2781,7 @@
     </row>
     <row r="9" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C9" s="43"/>
       <c r="F9" s="14"/>
@@ -2803,7 +2807,7 @@
     </row>
     <row r="13" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="59" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C13" s="43"/>
       <c r="E13" s="43"/>
@@ -2817,7 +2821,7 @@
     <row r="15" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="43"/>
       <c r="C15" s="34" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E15" s="43"/>
       <c r="F15" s="19"/>
@@ -2831,7 +2835,7 @@
     </row>
     <row r="17" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="35" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E17" s="43"/>
       <c r="F17" s="19"/>
@@ -2854,7 +2858,7 @@
     </row>
     <row r="21" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E21" s="43"/>
       <c r="G21" s="43"/>
@@ -2866,8 +2870,8 @@
     </row>
     <row r="23" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="43"/>
-      <c r="C23" s="36" t="s">
-        <v>81</v>
+      <c r="C23" s="6" t="s">
+        <v>83</v>
       </c>
       <c r="E23" s="43"/>
       <c r="G23" s="43"/>
@@ -2883,7 +2887,7 @@
     </row>
     <row r="25" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="35" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C25" s="43"/>
       <c r="E25" s="43"/>
@@ -2898,7 +2902,9 @@
     </row>
     <row r="27" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C27" s="43"/>
-      <c r="D27" s="49"/>
+      <c r="D27" s="49" t="s">
+        <v>98</v>
+      </c>
       <c r="E27" s="35"/>
       <c r="G27" s="43"/>
       <c r="I27" s="43">
@@ -2918,7 +2924,7 @@
     </row>
     <row r="29" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C29" s="43"/>
       <c r="G29" s="43"/>
@@ -2935,7 +2941,7 @@
     <row r="31" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="43"/>
       <c r="C31" s="46" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="G31" s="43"/>
     </row>
@@ -2947,7 +2953,7 @@
     </row>
     <row r="33" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E33" s="50" t="s">
         <v>73</v>
@@ -2972,7 +2978,9 @@
       <c r="C36" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="D36" s="47"/>
+      <c r="D36" s="47" t="s">
+        <v>81</v>
+      </c>
       <c r="F36" s="43"/>
       <c r="G36" s="43"/>
     </row>
@@ -2992,7 +3000,7 @@
         <v>1</v>
       </c>
       <c r="C39" s="36" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D39" s="43"/>
       <c r="F39" s="51"/>
@@ -3083,7 +3091,7 @@
         <v>5</v>
       </c>
       <c r="D52" s="36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E52" s="43"/>
     </row>
@@ -3101,7 +3109,7 @@
         <v>3</v>
       </c>
       <c r="C55" s="36" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D55" s="43"/>
       <c r="E55" s="54"/>
@@ -3127,7 +3135,7 @@
       <c r="A59" s="50"/>
       <c r="C59" s="43"/>
       <c r="D59" s="46" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="60" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
@@ -3147,7 +3155,7 @@
         <v>4</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="64" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.4">
@@ -3288,7 +3296,7 @@
         <v>58</v>
       </c>
       <c r="C81" s="47" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D81" s="63"/>
       <c r="E81" s="63"/>
@@ -3318,7 +3326,7 @@
       <c r="B85" s="11"/>
       <c r="C85" s="16"/>
       <c r="D85" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E85" s="64" t="s">
         <v>53</v>
@@ -3351,7 +3359,7 @@
         <v>59</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D89" s="64"/>
       <c r="E89" s="64"/>

--- a/8-team-double.xlsx
+++ b/8-team-double.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUAWEI\Documents\GitHub\2018_world_cup_draw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E74D99E8-1CFC-4F19-B6DC-972AABF3BB9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08170E03-5F37-41CB-B63F-D5CCEEE48252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="101">
   <si>
     <t>PrintYourBrackets</t>
   </si>
@@ -338,76 +338,83 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>莎拉公主(6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙隆巴斯(1)   3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宫本宝藏(8)   0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金贝贝(2)   1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿土伯(7)   3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱夫人(3)   3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小丹尼(5)   2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忍太郎(4)   3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莎拉公主(6)   2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宫本宝藏(8)   1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莎拉公主(6)   3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宫本宝藏(8)   2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">宫本宝藏(8) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿土伯(7)    0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忍太郎(4)   2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">沙隆巴斯(1) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忍太郎(4)   0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小丹尼(5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿土伯(7)    1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>忍太郎(4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>莎拉公主(6)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沙隆巴斯(1)   3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宫本宝藏(8)   0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金贝贝(2)   1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阿土伯(7)   3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">阿土伯(7) </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>钱夫人(3)   3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小丹尼(5)   2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>忍太郎(4)   3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>莎拉公主(6)   2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宫本宝藏(8)   1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>莎拉公主(6)   3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宫本宝藏(8)   2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">宫本宝藏(8) </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阿土伯(7)    0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>忍太郎(4)   2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">沙隆巴斯(1) </t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -633,7 +640,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -797,6 +804,9 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2700,8 +2710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC41AD02-D213-4B8C-8C48-D69FD6AD7D98}">
   <dimension ref="A1:K90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.375" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -2756,7 +2766,7 @@
     </row>
     <row r="5" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="36" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
@@ -2768,7 +2778,7 @@
     <row r="7" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="43"/>
       <c r="C7" s="36" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F7" s="14"/>
     </row>
@@ -2781,7 +2791,7 @@
     </row>
     <row r="9" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C9" s="43"/>
       <c r="F9" s="14"/>
@@ -2807,7 +2817,7 @@
     </row>
     <row r="13" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="59" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C13" s="43"/>
       <c r="E13" s="43"/>
@@ -2821,7 +2831,7 @@
     <row r="15" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="43"/>
       <c r="C15" s="34" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E15" s="43"/>
       <c r="F15" s="19"/>
@@ -2835,7 +2845,7 @@
     </row>
     <row r="17" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="35" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E17" s="43"/>
       <c r="F17" s="19"/>
@@ -2858,7 +2868,7 @@
     </row>
     <row r="21" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E21" s="43"/>
       <c r="G21" s="43"/>
@@ -2871,7 +2881,7 @@
     <row r="23" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="43"/>
       <c r="C23" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E23" s="43"/>
       <c r="G23" s="43"/>
@@ -2887,7 +2897,7 @@
     </row>
     <row r="25" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C25" s="43"/>
       <c r="E25" s="43"/>
@@ -2903,7 +2913,7 @@
     <row r="27" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C27" s="43"/>
       <c r="D27" s="49" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E27" s="35"/>
       <c r="G27" s="43"/>
@@ -2924,7 +2934,7 @@
     </row>
     <row r="29" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C29" s="43"/>
       <c r="G29" s="43"/>
@@ -2941,7 +2951,7 @@
     <row r="31" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="43"/>
       <c r="C31" s="46" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G31" s="43"/>
     </row>
@@ -2953,7 +2963,7 @@
     </row>
     <row r="33" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="35" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E33" s="50" t="s">
         <v>73</v>
@@ -2979,7 +2989,7 @@
         <v>6</v>
       </c>
       <c r="D36" s="47" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="F36" s="43"/>
       <c r="G36" s="43"/>
@@ -3000,7 +3010,7 @@
         <v>1</v>
       </c>
       <c r="C39" s="36" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D39" s="43"/>
       <c r="F39" s="51"/>
@@ -3009,7 +3019,9 @@
     <row r="40" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C40" s="42"/>
       <c r="D40" s="43"/>
-      <c r="E40" s="49"/>
+      <c r="E40" s="49" t="s">
+        <v>98</v>
+      </c>
       <c r="F40" s="43"/>
       <c r="G40" s="43"/>
     </row>
@@ -3033,8 +3045,8 @@
     <row r="43" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="50"/>
       <c r="C43" s="43"/>
-      <c r="D43" s="35" t="s">
-        <v>67</v>
+      <c r="D43" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="E43" s="43"/>
       <c r="F43" s="43"/>
@@ -3091,7 +3103,7 @@
         <v>5</v>
       </c>
       <c r="D52" s="36" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="E52" s="43"/>
     </row>
@@ -3109,7 +3121,7 @@
         <v>3</v>
       </c>
       <c r="C55" s="36" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D55" s="43"/>
       <c r="E55" s="54"/>
@@ -3117,7 +3129,9 @@
     <row r="56" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C56" s="42"/>
       <c r="D56" s="43"/>
-      <c r="E56" s="46"/>
+      <c r="E56" s="46" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="57" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C57" s="43"/>
@@ -3134,8 +3148,8 @@
     <row r="59" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="50"/>
       <c r="C59" s="43"/>
-      <c r="D59" s="46" t="s">
-        <v>82</v>
+      <c r="D59" s="34" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="60" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
@@ -3155,7 +3169,7 @@
         <v>4</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="64" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.4">
@@ -3191,7 +3205,9 @@
       <c r="C67" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="D67" s="47"/>
+      <c r="D67" s="72" t="s">
+        <v>95</v>
+      </c>
       <c r="E67" s="63"/>
       <c r="F67" s="63"/>
       <c r="H67" s="40"/>
@@ -3222,7 +3238,9 @@
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
       <c r="D71" s="16"/>
-      <c r="E71" s="7"/>
+      <c r="E71" s="86" t="s">
+        <v>100</v>
+      </c>
       <c r="F71" s="64" t="s">
         <v>56</v>
       </c>
@@ -3253,7 +3271,9 @@
       <c r="C75" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="D75" s="5"/>
+      <c r="D75" s="5" t="s">
+        <v>94</v>
+      </c>
       <c r="E75" s="64"/>
       <c r="F75" s="64"/>
     </row>
@@ -3296,7 +3316,7 @@
         <v>58</v>
       </c>
       <c r="C81" s="47" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D81" s="63"/>
       <c r="E81" s="63"/>
@@ -3326,7 +3346,7 @@
       <c r="B85" s="11"/>
       <c r="C85" s="16"/>
       <c r="D85" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E85" s="64" t="s">
         <v>53</v>
@@ -3359,7 +3379,7 @@
         <v>59</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D89" s="64"/>
       <c r="E89" s="64"/>

--- a/8-team-double.xlsx
+++ b/8-team-double.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUAWEI\Documents\GitHub\2018_world_cup_draw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lts\Documents\GitHub\2018_world_cup_draw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08170E03-5F37-41CB-B63F-D5CCEEE48252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79E0303D-9DFA-4145-9BD1-800366F47E69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="100">
   <si>
     <t>PrintYourBrackets</t>
   </si>
@@ -338,10 +338,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>莎拉公主(6)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>沙隆巴斯(1)   3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -406,15 +402,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>小丹尼(5)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>阿土伯(7)    1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>忍太郎(4)</t>
+  </si>
+  <si>
+    <t>莎拉公主(6)   0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -781,6 +777,9 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -804,9 +803,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1164,25 +1160,25 @@
     <row r="1" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="9"/>
       <c r="B1" s="10"/>
-      <c r="C1" s="78" t="s">
+      <c r="C1" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
       <c r="I1" s="10"/>
     </row>
     <row r="2" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="80"/>
-      <c r="B2" s="80"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
+      <c r="A2" s="81"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
       <c r="I2" s="10"/>
     </row>
     <row r="3" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
@@ -1413,17 +1409,17 @@
       <c r="G34" s="16"/>
     </row>
     <row r="35" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="81"/>
-      <c r="B35" s="81"/>
+      <c r="A35" s="82"/>
+      <c r="B35" s="82"/>
       <c r="C35" s="22"/>
       <c r="F35" s="16"/>
       <c r="G35" s="16"/>
     </row>
     <row r="36" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="79" t="s">
+      <c r="A36" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="79"/>
+      <c r="B36" s="80"/>
       <c r="C36" s="21" t="s">
         <v>6</v>
       </c>
@@ -1619,45 +1615,45 @@
       </c>
     </row>
     <row r="64" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C64" s="78"/>
-      <c r="D64" s="78"/>
-      <c r="E64" s="78"/>
-      <c r="F64" s="78"/>
-      <c r="G64" s="78"/>
-      <c r="H64" s="78"/>
+      <c r="C64" s="79"/>
+      <c r="D64" s="79"/>
+      <c r="E64" s="79"/>
+      <c r="F64" s="79"/>
+      <c r="G64" s="79"/>
+      <c r="H64" s="79"/>
     </row>
     <row r="65" spans="1:8" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C65" s="78"/>
-      <c r="D65" s="78"/>
-      <c r="E65" s="78"/>
-      <c r="F65" s="78"/>
-      <c r="G65" s="78"/>
-      <c r="H65" s="78"/>
+      <c r="C65" s="79"/>
+      <c r="D65" s="79"/>
+      <c r="E65" s="79"/>
+      <c r="F65" s="79"/>
+      <c r="G65" s="79"/>
+      <c r="H65" s="79"/>
     </row>
     <row r="66" spans="1:8" s="12" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C66" s="78"/>
-      <c r="D66" s="78"/>
-      <c r="E66" s="78"/>
-      <c r="F66" s="78"/>
-      <c r="G66" s="78"/>
-      <c r="H66" s="78"/>
+      <c r="C66" s="79"/>
+      <c r="D66" s="79"/>
+      <c r="E66" s="79"/>
+      <c r="F66" s="79"/>
+      <c r="G66" s="79"/>
+      <c r="H66" s="79"/>
     </row>
     <row r="67" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="28"/>
-      <c r="C67" s="78"/>
-      <c r="D67" s="78"/>
-      <c r="E67" s="78"/>
-      <c r="F67" s="78"/>
-      <c r="G67" s="78"/>
-      <c r="H67" s="78"/>
+      <c r="C67" s="79"/>
+      <c r="D67" s="79"/>
+      <c r="E67" s="79"/>
+      <c r="F67" s="79"/>
+      <c r="G67" s="79"/>
+      <c r="H67" s="79"/>
     </row>
     <row r="68" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C68" s="78"/>
-      <c r="D68" s="78"/>
-      <c r="E68" s="78"/>
-      <c r="F68" s="78"/>
-      <c r="G68" s="78"/>
-      <c r="H68" s="78"/>
+      <c r="C68" s="79"/>
+      <c r="D68" s="79"/>
+      <c r="E68" s="79"/>
+      <c r="F68" s="79"/>
+      <c r="G68" s="79"/>
+      <c r="H68" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1693,25 +1689,25 @@
     <row r="1" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="9"/>
       <c r="B1" s="10"/>
-      <c r="C1" s="78" t="s">
+      <c r="C1" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
       <c r="I1" s="10"/>
     </row>
     <row r="2" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="80"/>
-      <c r="B2" s="80"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
+      <c r="A2" s="81"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
       <c r="I2" s="10"/>
     </row>
     <row r="3" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
@@ -2127,8 +2123,8 @@
       <c r="I34" s="36"/>
     </row>
     <row r="35" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="82"/>
-      <c r="B35" s="82"/>
+      <c r="A35" s="83"/>
+      <c r="B35" s="83"/>
       <c r="C35" s="36"/>
       <c r="D35" s="36"/>
       <c r="E35" s="36"/>
@@ -2710,8 +2706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC41AD02-D213-4B8C-8C48-D69FD6AD7D98}">
   <dimension ref="A1:K90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="E65" sqref="E65"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.375" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -2726,25 +2722,25 @@
     <row r="1" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="58"/>
       <c r="B1" s="40"/>
-      <c r="C1" s="83" t="s">
+      <c r="C1" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
       <c r="I1" s="40"/>
     </row>
     <row r="2" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="84"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
+      <c r="A2" s="85"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
       <c r="I2" s="40"/>
     </row>
     <row r="3" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
@@ -2766,7 +2762,7 @@
     </row>
     <row r="5" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="36" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
@@ -2778,7 +2774,7 @@
     <row r="7" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="43"/>
       <c r="C7" s="36" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F7" s="14"/>
     </row>
@@ -2791,7 +2787,7 @@
     </row>
     <row r="9" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C9" s="43"/>
       <c r="F9" s="14"/>
@@ -2817,7 +2813,7 @@
     </row>
     <row r="13" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="59" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C13" s="43"/>
       <c r="E13" s="43"/>
@@ -2831,7 +2827,7 @@
     <row r="15" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="43"/>
       <c r="C15" s="34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E15" s="43"/>
       <c r="F15" s="19"/>
@@ -2845,7 +2841,7 @@
     </row>
     <row r="17" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="35" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E17" s="43"/>
       <c r="F17" s="19"/>
@@ -2868,7 +2864,7 @@
     </row>
     <row r="21" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E21" s="43"/>
       <c r="G21" s="43"/>
@@ -2881,7 +2877,7 @@
     <row r="23" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="43"/>
       <c r="C23" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E23" s="43"/>
       <c r="G23" s="43"/>
@@ -2897,7 +2893,7 @@
     </row>
     <row r="25" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C25" s="43"/>
       <c r="E25" s="43"/>
@@ -2913,7 +2909,7 @@
     <row r="27" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C27" s="43"/>
       <c r="D27" s="49" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E27" s="35"/>
       <c r="G27" s="43"/>
@@ -2934,7 +2930,7 @@
     </row>
     <row r="29" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C29" s="43"/>
       <c r="G29" s="43"/>
@@ -2951,7 +2947,7 @@
     <row r="31" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="43"/>
       <c r="C31" s="46" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G31" s="43"/>
     </row>
@@ -2963,7 +2959,7 @@
     </row>
     <row r="33" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="35" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E33" s="50" t="s">
         <v>73</v>
@@ -2975,21 +2971,21 @@
       <c r="G34" s="43"/>
     </row>
     <row r="35" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="82"/>
-      <c r="B35" s="82"/>
+      <c r="A35" s="83"/>
+      <c r="B35" s="83"/>
       <c r="F35" s="43"/>
       <c r="G35" s="43"/>
     </row>
     <row r="36" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="85" t="s">
+      <c r="A36" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="85"/>
+      <c r="B36" s="86"/>
       <c r="C36" s="50" t="s">
         <v>6</v>
       </c>
       <c r="D36" s="47" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F36" s="43"/>
       <c r="G36" s="43"/>
@@ -3010,7 +3006,7 @@
         <v>1</v>
       </c>
       <c r="C39" s="36" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D39" s="43"/>
       <c r="F39" s="51"/>
@@ -3019,8 +3015,8 @@
     <row r="40" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C40" s="42"/>
       <c r="D40" s="43"/>
-      <c r="E40" s="49" t="s">
-        <v>98</v>
+      <c r="E40" s="33" t="s">
+        <v>49</v>
       </c>
       <c r="F40" s="43"/>
       <c r="G40" s="43"/>
@@ -3083,7 +3079,9 @@
     </row>
     <row r="48" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E48" s="43"/>
-      <c r="F48" s="46"/>
+      <c r="F48" s="46" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="49" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E49" s="36">
@@ -3103,7 +3101,7 @@
         <v>5</v>
       </c>
       <c r="D52" s="36" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E52" s="43"/>
     </row>
@@ -3121,7 +3119,7 @@
         <v>3</v>
       </c>
       <c r="C55" s="36" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D55" s="43"/>
       <c r="E55" s="54"/>
@@ -3130,7 +3128,7 @@
       <c r="C56" s="42"/>
       <c r="D56" s="43"/>
       <c r="E56" s="46" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
     </row>
     <row r="57" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
@@ -3149,7 +3147,7 @@
       <c r="A59" s="50"/>
       <c r="C59" s="43"/>
       <c r="D59" s="34" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="60" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
@@ -3169,7 +3167,7 @@
         <v>4</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="64" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.4">
@@ -3206,7 +3204,7 @@
         <v>60</v>
       </c>
       <c r="D67" s="72" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E67" s="63"/>
       <c r="F67" s="63"/>
@@ -3238,8 +3236,8 @@
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
       <c r="D71" s="16"/>
-      <c r="E71" s="86" t="s">
-        <v>100</v>
+      <c r="E71" s="78" t="s">
+        <v>98</v>
       </c>
       <c r="F71" s="64" t="s">
         <v>56</v>
@@ -3272,7 +3270,7 @@
         <v>61</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E75" s="64"/>
       <c r="F75" s="64"/>
@@ -3316,7 +3314,7 @@
         <v>58</v>
       </c>
       <c r="C81" s="47" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D81" s="63"/>
       <c r="E81" s="63"/>
@@ -3346,7 +3344,7 @@
       <c r="B85" s="11"/>
       <c r="C85" s="16"/>
       <c r="D85" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E85" s="64" t="s">
         <v>53</v>
@@ -3379,7 +3377,7 @@
         <v>59</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D89" s="64"/>
       <c r="E89" s="64"/>

--- a/8-team-double.xlsx
+++ b/8-team-double.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lts\Documents\GitHub\2018_world_cup_draw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79E0303D-9DFA-4145-9BD1-800366F47E69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{639B2E06-C691-4739-8697-155760BBFEE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="104">
   <si>
     <t>PrintYourBrackets</t>
   </si>
@@ -410,6 +411,22 @@
   </si>
   <si>
     <t>莎拉公主(6)   0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小丹尼(5)    0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙隆巴斯(1)    3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱夫人(3)   1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙隆巴斯(1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -636,7 +653,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -774,12 +791,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -802,6 +822,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1160,25 +1183,25 @@
     <row r="1" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="9"/>
       <c r="B1" s="10"/>
-      <c r="C1" s="79" t="s">
+      <c r="C1" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
       <c r="I1" s="10"/>
     </row>
     <row r="2" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="81"/>
-      <c r="B2" s="81"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
+      <c r="A2" s="82"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
       <c r="I2" s="10"/>
     </row>
     <row r="3" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
@@ -1409,17 +1432,17 @@
       <c r="G34" s="16"/>
     </row>
     <row r="35" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="82"/>
-      <c r="B35" s="82"/>
+      <c r="A35" s="83"/>
+      <c r="B35" s="83"/>
       <c r="C35" s="22"/>
       <c r="F35" s="16"/>
       <c r="G35" s="16"/>
     </row>
     <row r="36" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="80" t="s">
+      <c r="A36" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="80"/>
+      <c r="B36" s="81"/>
       <c r="C36" s="21" t="s">
         <v>6</v>
       </c>
@@ -1615,45 +1638,45 @@
       </c>
     </row>
     <row r="64" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C64" s="79"/>
-      <c r="D64" s="79"/>
-      <c r="E64" s="79"/>
-      <c r="F64" s="79"/>
-      <c r="G64" s="79"/>
-      <c r="H64" s="79"/>
+      <c r="C64" s="80"/>
+      <c r="D64" s="80"/>
+      <c r="E64" s="80"/>
+      <c r="F64" s="80"/>
+      <c r="G64" s="80"/>
+      <c r="H64" s="80"/>
     </row>
     <row r="65" spans="1:8" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C65" s="79"/>
-      <c r="D65" s="79"/>
-      <c r="E65" s="79"/>
-      <c r="F65" s="79"/>
-      <c r="G65" s="79"/>
-      <c r="H65" s="79"/>
+      <c r="C65" s="80"/>
+      <c r="D65" s="80"/>
+      <c r="E65" s="80"/>
+      <c r="F65" s="80"/>
+      <c r="G65" s="80"/>
+      <c r="H65" s="80"/>
     </row>
     <row r="66" spans="1:8" s="12" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C66" s="79"/>
-      <c r="D66" s="79"/>
-      <c r="E66" s="79"/>
-      <c r="F66" s="79"/>
-      <c r="G66" s="79"/>
-      <c r="H66" s="79"/>
+      <c r="C66" s="80"/>
+      <c r="D66" s="80"/>
+      <c r="E66" s="80"/>
+      <c r="F66" s="80"/>
+      <c r="G66" s="80"/>
+      <c r="H66" s="80"/>
     </row>
     <row r="67" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="28"/>
-      <c r="C67" s="79"/>
-      <c r="D67" s="79"/>
-      <c r="E67" s="79"/>
-      <c r="F67" s="79"/>
-      <c r="G67" s="79"/>
-      <c r="H67" s="79"/>
+      <c r="C67" s="80"/>
+      <c r="D67" s="80"/>
+      <c r="E67" s="80"/>
+      <c r="F67" s="80"/>
+      <c r="G67" s="80"/>
+      <c r="H67" s="80"/>
     </row>
     <row r="68" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C68" s="79"/>
-      <c r="D68" s="79"/>
-      <c r="E68" s="79"/>
-      <c r="F68" s="79"/>
-      <c r="G68" s="79"/>
-      <c r="H68" s="79"/>
+      <c r="C68" s="80"/>
+      <c r="D68" s="80"/>
+      <c r="E68" s="80"/>
+      <c r="F68" s="80"/>
+      <c r="G68" s="80"/>
+      <c r="H68" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1689,25 +1712,25 @@
     <row r="1" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="9"/>
       <c r="B1" s="10"/>
-      <c r="C1" s="79" t="s">
+      <c r="C1" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
       <c r="I1" s="10"/>
     </row>
     <row r="2" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="81"/>
-      <c r="B2" s="81"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
+      <c r="A2" s="82"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
       <c r="I2" s="10"/>
     </row>
     <row r="3" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
@@ -2123,8 +2146,8 @@
       <c r="I34" s="36"/>
     </row>
     <row r="35" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="83"/>
-      <c r="B35" s="83"/>
+      <c r="A35" s="84"/>
+      <c r="B35" s="84"/>
       <c r="C35" s="36"/>
       <c r="D35" s="36"/>
       <c r="E35" s="36"/>
@@ -2706,8 +2729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC41AD02-D213-4B8C-8C48-D69FD6AD7D98}">
   <dimension ref="A1:K90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="K91" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.375" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -2722,25 +2745,25 @@
     <row r="1" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="58"/>
       <c r="B1" s="40"/>
-      <c r="C1" s="84" t="s">
+      <c r="C1" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
       <c r="I1" s="40"/>
     </row>
     <row r="2" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
+      <c r="A2" s="86"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
       <c r="I2" s="40"/>
     </row>
     <row r="3" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
@@ -2801,6 +2824,9 @@
       <c r="D11" s="36" t="s">
         <v>80</v>
       </c>
+      <c r="E11" s="36">
+        <v>0</v>
+      </c>
       <c r="F11" s="14"/>
     </row>
     <row r="12" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
@@ -2849,7 +2875,9 @@
     <row r="18" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E18" s="43"/>
       <c r="F18" s="32"/>
-      <c r="G18" s="47"/>
+      <c r="G18" s="76" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="19" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E19" s="43">
@@ -2908,15 +2936,19 @@
     </row>
     <row r="27" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C27" s="43"/>
-      <c r="D27" s="49" t="s">
+      <c r="D27" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="E27" s="35"/>
+      <c r="E27" s="2">
+        <v>3</v>
+      </c>
       <c r="G27" s="43"/>
       <c r="I27" s="43">
         <v>15</v>
       </c>
-      <c r="J27" s="77"/>
+      <c r="J27" s="88" t="s">
+        <v>103</v>
+      </c>
       <c r="K27" s="36" t="s">
         <v>40</v>
       </c>
@@ -2964,6 +2996,9 @@
       <c r="E33" s="50" t="s">
         <v>73</v>
       </c>
+      <c r="F33" s="6" t="s">
+        <v>85</v>
+      </c>
       <c r="G33" s="43"/>
     </row>
     <row r="34" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
@@ -2971,16 +3006,16 @@
       <c r="G34" s="43"/>
     </row>
     <row r="35" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="83"/>
-      <c r="B35" s="83"/>
+      <c r="A35" s="84"/>
+      <c r="B35" s="84"/>
       <c r="F35" s="43"/>
       <c r="G35" s="43"/>
     </row>
     <row r="36" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="86" t="s">
+      <c r="A36" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="86"/>
+      <c r="B36" s="87"/>
       <c r="C36" s="50" t="s">
         <v>6</v>
       </c>
@@ -3028,7 +3063,9 @@
       </c>
       <c r="E41" s="43"/>
       <c r="F41" s="43"/>
-      <c r="G41" s="46"/>
+      <c r="G41" s="46" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="42" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C42" s="43"/>
@@ -3080,7 +3117,7 @@
     <row r="48" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E48" s="43"/>
       <c r="F48" s="46" t="s">
-        <v>67</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
@@ -3236,7 +3273,7 @@
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
       <c r="D71" s="16"/>
-      <c r="E71" s="78" t="s">
+      <c r="E71" s="77" t="s">
         <v>98</v>
       </c>
       <c r="F71" s="64" t="s">
@@ -3401,4 +3438,639 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D10CBD3F-029F-4541-8142-F43EE81AFB98}">
+  <dimension ref="A1:K90"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="17.375" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2.75" style="57" customWidth="1"/>
+    <col min="2" max="7" width="12.25" style="57" customWidth="1"/>
+    <col min="8" max="8" width="12.75" style="57" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="57" customWidth="1"/>
+    <col min="10" max="16384" width="17.375" style="57"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="58"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="85" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="40"/>
+    </row>
+    <row r="2" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="86"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="40"/>
+    </row>
+    <row r="3" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="79"/>
+      <c r="B3" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="40"/>
+    </row>
+    <row r="4" spans="1:9" s="41" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+    </row>
+    <row r="5" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+    </row>
+    <row r="6" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="42"/>
+      <c r="F6" s="14"/>
+    </row>
+    <row r="7" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="43"/>
+      <c r="F7" s="14"/>
+    </row>
+    <row r="8" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="43">
+        <v>1</v>
+      </c>
+      <c r="C8" s="42"/>
+      <c r="F8" s="14"/>
+    </row>
+    <row r="9" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="2"/>
+      <c r="C9" s="43"/>
+      <c r="F9" s="14"/>
+    </row>
+    <row r="10" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="43"/>
+      <c r="F10" s="14"/>
+    </row>
+    <row r="11" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="43"/>
+      <c r="F11" s="14"/>
+    </row>
+    <row r="12" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="44">
+        <v>7</v>
+      </c>
+      <c r="D12" s="45"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="14"/>
+    </row>
+    <row r="13" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="59"/>
+      <c r="C13" s="43"/>
+      <c r="E13" s="43"/>
+    </row>
+    <row r="14" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="42"/>
+      <c r="C14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="19"/>
+    </row>
+    <row r="15" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="43"/>
+      <c r="C15" s="34"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="19"/>
+    </row>
+    <row r="16" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="43">
+        <v>2</v>
+      </c>
+      <c r="E16" s="43"/>
+      <c r="F16" s="19"/>
+    </row>
+    <row r="17" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="35"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="19"/>
+    </row>
+    <row r="18" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E18" s="43"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="76"/>
+    </row>
+    <row r="19" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E19" s="43">
+        <v>12</v>
+      </c>
+      <c r="F19" s="19"/>
+      <c r="G19" s="42"/>
+    </row>
+    <row r="20" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E20" s="43"/>
+      <c r="G20" s="43"/>
+    </row>
+    <row r="21" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="6"/>
+      <c r="E21" s="43"/>
+      <c r="G21" s="43"/>
+    </row>
+    <row r="22" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="42"/>
+      <c r="E22" s="43"/>
+      <c r="G22" s="43"/>
+    </row>
+    <row r="23" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="43"/>
+      <c r="C23" s="6"/>
+      <c r="E23" s="43"/>
+      <c r="G23" s="43"/>
+    </row>
+    <row r="24" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="43">
+        <v>3</v>
+      </c>
+      <c r="C24" s="48"/>
+      <c r="E24" s="43"/>
+      <c r="G24" s="43"/>
+      <c r="I24" s="47"/>
+    </row>
+    <row r="25" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="35"/>
+      <c r="C25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="G25" s="43"/>
+      <c r="I25" s="43"/>
+    </row>
+    <row r="26" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="I26" s="43"/>
+    </row>
+    <row r="27" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="43"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="2"/>
+      <c r="G27" s="43"/>
+      <c r="I27" s="43">
+        <v>15</v>
+      </c>
+      <c r="J27" s="88"/>
+      <c r="K27" s="36" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="43">
+        <v>8</v>
+      </c>
+      <c r="G28" s="43"/>
+      <c r="I28" s="43"/>
+    </row>
+    <row r="29" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="6"/>
+      <c r="C29" s="43"/>
+      <c r="G29" s="43"/>
+      <c r="I29" s="35"/>
+    </row>
+    <row r="30" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="42"/>
+      <c r="C30" s="43"/>
+      <c r="G30" s="43">
+        <v>14</v>
+      </c>
+      <c r="H30" s="45"/>
+    </row>
+    <row r="31" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="43"/>
+      <c r="C31" s="46"/>
+      <c r="G31" s="43"/>
+    </row>
+    <row r="32" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="43">
+        <v>4</v>
+      </c>
+      <c r="G32" s="43"/>
+    </row>
+    <row r="33" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="35"/>
+      <c r="E33" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="F33" s="6"/>
+      <c r="G33" s="43"/>
+    </row>
+    <row r="34" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F34" s="42"/>
+      <c r="G34" s="43"/>
+    </row>
+    <row r="35" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="84"/>
+      <c r="B35" s="84"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="43"/>
+    </row>
+    <row r="36" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="87" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" s="87"/>
+      <c r="C36" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="47"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="43"/>
+    </row>
+    <row r="37" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D37" s="43"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="43"/>
+    </row>
+    <row r="38" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D38" s="43"/>
+      <c r="F38" s="51"/>
+      <c r="G38" s="43"/>
+    </row>
+    <row r="39" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="50"/>
+      <c r="B39" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" s="43"/>
+      <c r="F39" s="51"/>
+      <c r="G39" s="43"/>
+    </row>
+    <row r="40" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C40" s="42"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="43"/>
+    </row>
+    <row r="41" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C41" s="43"/>
+      <c r="D41" s="43">
+        <v>9</v>
+      </c>
+      <c r="E41" s="43"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="46"/>
+    </row>
+    <row r="42" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C42" s="43"/>
+      <c r="D42" s="43"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="43">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="50"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="43"/>
+    </row>
+    <row r="44" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C44" s="43">
+        <v>5</v>
+      </c>
+      <c r="D44" s="45"/>
+      <c r="E44" s="43"/>
+      <c r="F44" s="43"/>
+    </row>
+    <row r="45" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C45" s="43"/>
+      <c r="E45" s="43"/>
+      <c r="F45" s="43"/>
+    </row>
+    <row r="46" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C46" s="43"/>
+      <c r="D46" s="53"/>
+      <c r="E46" s="43"/>
+      <c r="F46" s="43"/>
+    </row>
+    <row r="47" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="50"/>
+      <c r="B47" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="E47" s="43"/>
+      <c r="F47" s="43"/>
+    </row>
+    <row r="48" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E48" s="43"/>
+      <c r="F48" s="46"/>
+    </row>
+    <row r="49" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E49" s="36">
+        <v>11</v>
+      </c>
+      <c r="F49" s="53"/>
+    </row>
+    <row r="50" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F50" s="53"/>
+    </row>
+    <row r="51" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="50"/>
+      <c r="E51" s="43"/>
+    </row>
+    <row r="52" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C52" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="E52" s="43"/>
+    </row>
+    <row r="53" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D53" s="42"/>
+      <c r="E53" s="54"/>
+    </row>
+    <row r="54" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D54" s="43"/>
+      <c r="E54" s="54"/>
+    </row>
+    <row r="55" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="50"/>
+      <c r="B55" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="D55" s="43"/>
+      <c r="E55" s="54"/>
+    </row>
+    <row r="56" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C56" s="42"/>
+      <c r="D56" s="43"/>
+      <c r="E56" s="46"/>
+    </row>
+    <row r="57" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C57" s="43"/>
+      <c r="D57" s="43">
+        <v>10</v>
+      </c>
+      <c r="H57" s="55"/>
+      <c r="I57" s="55"/>
+    </row>
+    <row r="58" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C58" s="43"/>
+      <c r="D58" s="43"/>
+    </row>
+    <row r="59" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="50"/>
+      <c r="C59" s="43"/>
+      <c r="D59" s="34"/>
+    </row>
+    <row r="60" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C60" s="43">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C61" s="43"/>
+    </row>
+    <row r="62" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C62" s="43"/>
+    </row>
+    <row r="63" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="50"/>
+      <c r="B63" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="C63" s="2"/>
+    </row>
+    <row r="64" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C64" s="40"/>
+      <c r="D64" s="40"/>
+      <c r="E64" s="40"/>
+      <c r="F64" s="40"/>
+      <c r="G64" s="40"/>
+      <c r="H64" s="40"/>
+    </row>
+    <row r="65" spans="1:8" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C65" s="40"/>
+      <c r="D65" s="40"/>
+      <c r="E65" s="40"/>
+      <c r="F65" s="40"/>
+      <c r="G65" s="40"/>
+      <c r="H65" s="40"/>
+    </row>
+    <row r="66" spans="1:8" s="41" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B66" s="11"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="57"/>
+      <c r="G66" s="57"/>
+      <c r="H66" s="40"/>
+    </row>
+    <row r="67" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A67" s="56"/>
+      <c r="B67" s="66" t="s">
+        <v>54</v>
+      </c>
+      <c r="C67" s="69" t="s">
+        <v>60</v>
+      </c>
+      <c r="D67" s="72"/>
+      <c r="E67" s="63"/>
+      <c r="F67" s="63"/>
+      <c r="H67" s="40"/>
+    </row>
+    <row r="68" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B68" s="11"/>
+      <c r="C68" s="68"/>
+      <c r="D68" s="42"/>
+      <c r="E68" s="63"/>
+      <c r="F68" s="63"/>
+      <c r="H68" s="40"/>
+    </row>
+    <row r="69" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="11"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="16"/>
+      <c r="E69" s="64"/>
+      <c r="F69" s="64"/>
+    </row>
+    <row r="70" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="11"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="16"/>
+      <c r="E70" s="64"/>
+      <c r="F70" s="64"/>
+    </row>
+    <row r="71" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="11"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="16"/>
+      <c r="E71" s="77"/>
+      <c r="F71" s="64" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="11"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="62"/>
+      <c r="E72" s="64"/>
+      <c r="F72" s="64"/>
+    </row>
+    <row r="73" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="11"/>
+      <c r="C73" s="11"/>
+      <c r="D73" s="16"/>
+      <c r="E73" s="64"/>
+      <c r="F73" s="64"/>
+    </row>
+    <row r="74" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="11"/>
+      <c r="C74" s="11"/>
+      <c r="D74" s="16"/>
+      <c r="E74" s="64"/>
+      <c r="F74" s="64"/>
+    </row>
+    <row r="75" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="11"/>
+      <c r="C75" s="68" t="s">
+        <v>61</v>
+      </c>
+      <c r="D75" s="5"/>
+      <c r="E75" s="64"/>
+      <c r="F75" s="64"/>
+    </row>
+    <row r="76" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="11"/>
+      <c r="C76" s="64"/>
+      <c r="D76" s="64"/>
+      <c r="E76" s="64"/>
+      <c r="F76" s="64"/>
+    </row>
+    <row r="77" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="11"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="11"/>
+      <c r="F77" s="11"/>
+    </row>
+    <row r="78" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="11"/>
+      <c r="C78" s="11"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="11"/>
+    </row>
+    <row r="79" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="11"/>
+      <c r="C79" s="11"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="11"/>
+      <c r="F79" s="11"/>
+    </row>
+    <row r="80" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="65" t="s">
+        <v>55</v>
+      </c>
+      <c r="F80" s="11"/>
+    </row>
+    <row r="81" spans="2:6" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="67" t="s">
+        <v>58</v>
+      </c>
+      <c r="C81" s="47"/>
+      <c r="D81" s="63"/>
+      <c r="E81" s="63"/>
+      <c r="F81" s="11"/>
+    </row>
+    <row r="82" spans="2:6" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C82" s="42"/>
+      <c r="D82" s="63"/>
+      <c r="E82" s="63"/>
+      <c r="F82" s="11"/>
+    </row>
+    <row r="83" spans="2:6" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="11"/>
+      <c r="C83" s="16"/>
+      <c r="D83" s="64"/>
+      <c r="E83" s="64"/>
+      <c r="F83" s="11"/>
+    </row>
+    <row r="84" spans="2:6" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="11"/>
+      <c r="C84" s="16"/>
+      <c r="D84" s="64"/>
+      <c r="E84" s="64"/>
+      <c r="F84" s="11"/>
+    </row>
+    <row r="85" spans="2:6" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B85" s="11"/>
+      <c r="C85" s="16"/>
+      <c r="D85" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E85" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="F85" s="11"/>
+    </row>
+    <row r="86" spans="2:6" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="11"/>
+      <c r="C86" s="62"/>
+      <c r="D86" s="64"/>
+      <c r="E86" s="64"/>
+      <c r="F86" s="11"/>
+    </row>
+    <row r="87" spans="2:6" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B87" s="11"/>
+      <c r="C87" s="16"/>
+      <c r="D87" s="64"/>
+      <c r="E87" s="64"/>
+      <c r="F87" s="11"/>
+    </row>
+    <row r="88" spans="2:6" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B88" s="11"/>
+      <c r="C88" s="16"/>
+      <c r="D88" s="64"/>
+      <c r="E88" s="64"/>
+      <c r="F88" s="11"/>
+    </row>
+    <row r="89" spans="2:6" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="B89" s="68" t="s">
+        <v>59</v>
+      </c>
+      <c r="C89" s="2"/>
+      <c r="D89" s="64"/>
+      <c r="E89" s="64"/>
+      <c r="F89" s="11"/>
+    </row>
+    <row r="90" spans="2:6" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="B90" s="11"/>
+      <c r="C90" s="11"/>
+      <c r="D90" s="11"/>
+      <c r="E90" s="11"/>
+      <c r="F90" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C1:H2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/8-team-double.xlsx
+++ b/8-team-double.xlsx
@@ -1,29 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lts\Documents\GitHub\2018_world_cup_draw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUAWEI\Documents\GitHub\2018_world_cup_draw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{639B2E06-C691-4739-8697-155760BBFEE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F0BAF05-9B41-46A4-BEBF-99EE178A3AA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="104">
   <si>
     <t>PrintYourBrackets</t>
   </si>
@@ -653,7 +654,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -800,6 +801,15 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -822,9 +832,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1171,40 +1178,40 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.375" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="17.36328125" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.75" style="11" customWidth="1"/>
-    <col min="2" max="7" width="12.25" style="11" customWidth="1"/>
-    <col min="8" max="8" width="12.75" style="11" customWidth="1"/>
-    <col min="9" max="9" width="12.875" style="11" customWidth="1"/>
-    <col min="10" max="16384" width="17.375" style="11"/>
+    <col min="1" max="1" width="2.7265625" style="11" customWidth="1"/>
+    <col min="2" max="7" width="12.26953125" style="11" customWidth="1"/>
+    <col min="8" max="8" width="12.7265625" style="11" customWidth="1"/>
+    <col min="9" max="9" width="12.90625" style="11" customWidth="1"/>
+    <col min="10" max="16384" width="17.36328125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="9"/>
       <c r="B1" s="10"/>
-      <c r="C1" s="80" t="s">
+      <c r="C1" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
       <c r="I1" s="10"/>
     </row>
-    <row r="2" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="82"/>
-      <c r="B2" s="82"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
+    <row r="2" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="85"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="30"/>
       <c r="B3" s="31" t="s">
         <v>26</v>
@@ -1217,54 +1224,54 @@
       <c r="H3" s="29"/>
       <c r="I3" s="10"/>
     </row>
-    <row r="4" spans="1:9" s="12" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" s="12" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
     </row>
-    <row r="5" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
     </row>
-    <row r="6" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="15"/>
       <c r="F6" s="14"/>
     </row>
-    <row r="7" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="16"/>
       <c r="C7" s="6" t="s">
         <v>22</v>
       </c>
       <c r="F7" s="14"/>
     </row>
-    <row r="8" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="16">
         <v>1</v>
       </c>
       <c r="C8" s="15"/>
       <c r="F8" s="14"/>
     </row>
-    <row r="9" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="16"/>
       <c r="F9" s="14"/>
     </row>
-    <row r="10" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C10" s="16"/>
       <c r="F10" s="14"/>
     </row>
-    <row r="11" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C11" s="16"/>
       <c r="D11" s="4" t="s">
         <v>31</v>
       </c>
       <c r="F11" s="14"/>
     </row>
-    <row r="12" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C12" s="17">
         <v>7</v>
       </c>
@@ -1272,20 +1279,20 @@
       <c r="E12" s="15"/>
       <c r="F12" s="14"/>
     </row>
-    <row r="13" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="16"/>
       <c r="E13" s="16"/>
     </row>
-    <row r="14" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="15"/>
       <c r="C14" s="16"/>
       <c r="E14" s="16"/>
       <c r="F14" s="19"/>
     </row>
-    <row r="15" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="16"/>
       <c r="C15" s="3" t="s">
         <v>23</v>
@@ -1293,51 +1300,51 @@
       <c r="E15" s="16"/>
       <c r="F15" s="19"/>
     </row>
-    <row r="16" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="16">
         <v>2</v>
       </c>
       <c r="E16" s="16"/>
       <c r="F16" s="19"/>
     </row>
-    <row r="17" spans="2:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E17" s="16"/>
       <c r="F17" s="19"/>
     </row>
-    <row r="18" spans="2:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E18" s="16"/>
       <c r="F18" s="32" t="s">
         <v>38</v>
       </c>
       <c r="G18" s="8"/>
     </row>
-    <row r="19" spans="2:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E19" s="16">
         <v>11</v>
       </c>
       <c r="F19" s="19"/>
       <c r="G19" s="15"/>
     </row>
-    <row r="20" spans="2:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E20" s="16"/>
       <c r="G20" s="16"/>
     </row>
-    <row r="21" spans="2:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E21" s="16"/>
       <c r="G21" s="16"/>
     </row>
-    <row r="22" spans="2:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="15"/>
       <c r="E22" s="16"/>
       <c r="G22" s="16"/>
     </row>
-    <row r="23" spans="2:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="16"/>
       <c r="C23" s="6" t="s">
         <v>24</v>
@@ -1345,7 +1352,7 @@
       <c r="E23" s="16"/>
       <c r="G23" s="16"/>
     </row>
-    <row r="24" spans="2:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="16">
         <v>3</v>
       </c>
@@ -1353,7 +1360,7 @@
       <c r="E24" s="16"/>
       <c r="G24" s="16"/>
     </row>
-    <row r="25" spans="2:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="5" t="s">
         <v>15</v>
       </c>
@@ -1361,12 +1368,12 @@
       <c r="E25" s="16"/>
       <c r="G25" s="16"/>
     </row>
-    <row r="26" spans="2:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C26" s="16"/>
       <c r="E26" s="16"/>
       <c r="G26" s="16"/>
     </row>
-    <row r="27" spans="2:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C27" s="16"/>
       <c r="D27" s="33" t="s">
         <v>32</v>
@@ -1374,13 +1381,13 @@
       <c r="E27" s="5"/>
       <c r="G27" s="16"/>
     </row>
-    <row r="28" spans="2:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C28" s="16">
         <v>8</v>
       </c>
       <c r="G28" s="16"/>
     </row>
-    <row r="29" spans="2:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="6" t="s">
         <v>16</v>
       </c>
@@ -1393,7 +1400,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="2:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="15"/>
       <c r="C30" s="16"/>
       <c r="G30" s="16">
@@ -1401,20 +1408,20 @@
       </c>
       <c r="H30" s="18"/>
     </row>
-    <row r="31" spans="2:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="16"/>
       <c r="C31" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G31" s="16"/>
     </row>
-    <row r="32" spans="2:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="16">
         <v>4</v>
       </c>
       <c r="G32" s="16"/>
     </row>
-    <row r="33" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="5" t="s">
         <v>17</v>
       </c>
@@ -1426,23 +1433,23 @@
       </c>
       <c r="G33" s="16"/>
     </row>
-    <row r="34" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C34" s="22"/>
       <c r="F34" s="15"/>
       <c r="G34" s="16"/>
     </row>
-    <row r="35" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="83"/>
-      <c r="B35" s="83"/>
+    <row r="35" spans="1:7" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="86"/>
+      <c r="B35" s="86"/>
       <c r="C35" s="22"/>
       <c r="F35" s="16"/>
       <c r="G35" s="16"/>
     </row>
-    <row r="36" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="81" t="s">
+    <row r="36" spans="1:7" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="81"/>
+      <c r="B36" s="84"/>
       <c r="C36" s="21" t="s">
         <v>6</v>
       </c>
@@ -1452,17 +1459,17 @@
       <c r="F36" s="16"/>
       <c r="G36" s="16"/>
     </row>
-    <row r="37" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D37" s="16"/>
       <c r="F37" s="16"/>
       <c r="G37" s="16"/>
     </row>
-    <row r="38" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D38" s="16"/>
       <c r="F38" s="23"/>
       <c r="G38" s="16"/>
     </row>
-    <row r="39" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="21"/>
       <c r="B39" s="24" t="s">
         <v>1</v>
@@ -1474,7 +1481,7 @@
       <c r="F39" s="23"/>
       <c r="G39" s="16"/>
     </row>
-    <row r="40" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C40" s="15"/>
       <c r="D40" s="16"/>
       <c r="E40" s="7" t="s">
@@ -1483,7 +1490,7 @@
       <c r="F40" s="16"/>
       <c r="G40" s="16"/>
     </row>
-    <row r="41" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C41" s="16"/>
       <c r="D41" s="16">
         <v>9</v>
@@ -1494,7 +1501,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C42" s="16"/>
       <c r="D42" s="16"/>
       <c r="E42" s="16"/>
@@ -1502,7 +1509,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="21"/>
       <c r="C43" s="16"/>
       <c r="D43" s="2" t="s">
@@ -1511,7 +1518,7 @@
       <c r="E43" s="16"/>
       <c r="F43" s="16"/>
     </row>
-    <row r="44" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C44" s="16">
         <v>5</v>
       </c>
@@ -1519,18 +1526,18 @@
       <c r="E44" s="16"/>
       <c r="F44" s="16"/>
     </row>
-    <row r="45" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C45" s="16"/>
       <c r="E45" s="16"/>
       <c r="F45" s="16"/>
     </row>
-    <row r="46" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C46" s="16"/>
       <c r="D46" s="25"/>
       <c r="E46" s="16"/>
       <c r="F46" s="16"/>
     </row>
-    <row r="47" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="21"/>
       <c r="B47" s="24" t="s">
         <v>2</v>
@@ -1541,29 +1548,29 @@
       <c r="E47" s="16"/>
       <c r="F47" s="16"/>
     </row>
-    <row r="48" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E48" s="16"/>
       <c r="F48" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="49" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E49" s="4">
         <v>12</v>
       </c>
       <c r="F49" s="25"/>
     </row>
-    <row r="50" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F50" s="25"/>
     </row>
-    <row r="51" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="21"/>
       <c r="B51" s="22" t="s">
         <v>0</v>
       </c>
       <c r="E51" s="16"/>
     </row>
-    <row r="52" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C52" s="21" t="s">
         <v>5</v>
       </c>
@@ -1572,15 +1579,15 @@
       </c>
       <c r="E52" s="16"/>
     </row>
-    <row r="53" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D53" s="15"/>
       <c r="E53" s="26"/>
     </row>
-    <row r="54" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D54" s="16"/>
       <c r="E54" s="26"/>
     </row>
-    <row r="55" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="21"/>
       <c r="B55" s="24" t="s">
         <v>3</v>
@@ -1591,14 +1598,14 @@
       <c r="D55" s="16"/>
       <c r="E55" s="26"/>
     </row>
-    <row r="56" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C56" s="15"/>
       <c r="D56" s="16"/>
       <c r="E56" s="34" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="57" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C57" s="16"/>
       <c r="D57" s="16">
         <v>10</v>
@@ -1606,29 +1613,29 @@
       <c r="H57" s="27"/>
       <c r="I57" s="27"/>
     </row>
-    <row r="58" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C58" s="16"/>
       <c r="D58" s="16"/>
     </row>
-    <row r="59" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="21"/>
       <c r="C59" s="16"/>
       <c r="D59" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="60" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C60" s="16">
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C61" s="16"/>
     </row>
-    <row r="62" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C62" s="16"/>
     </row>
-    <row r="63" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="21"/>
       <c r="B63" s="24" t="s">
         <v>4</v>
@@ -1637,46 +1644,46 @@
         <v>21</v>
       </c>
     </row>
-    <row r="64" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C64" s="80"/>
-      <c r="D64" s="80"/>
-      <c r="E64" s="80"/>
-      <c r="F64" s="80"/>
-      <c r="G64" s="80"/>
-      <c r="H64" s="80"/>
-    </row>
-    <row r="65" spans="1:8" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C65" s="80"/>
-      <c r="D65" s="80"/>
-      <c r="E65" s="80"/>
-      <c r="F65" s="80"/>
-      <c r="G65" s="80"/>
-      <c r="H65" s="80"/>
-    </row>
-    <row r="66" spans="1:8" s="12" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C66" s="80"/>
-      <c r="D66" s="80"/>
-      <c r="E66" s="80"/>
-      <c r="F66" s="80"/>
-      <c r="G66" s="80"/>
-      <c r="H66" s="80"/>
-    </row>
-    <row r="67" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C64" s="83"/>
+      <c r="D64" s="83"/>
+      <c r="E64" s="83"/>
+      <c r="F64" s="83"/>
+      <c r="G64" s="83"/>
+      <c r="H64" s="83"/>
+    </row>
+    <row r="65" spans="1:8" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C65" s="83"/>
+      <c r="D65" s="83"/>
+      <c r="E65" s="83"/>
+      <c r="F65" s="83"/>
+      <c r="G65" s="83"/>
+      <c r="H65" s="83"/>
+    </row>
+    <row r="66" spans="1:8" s="12" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C66" s="83"/>
+      <c r="D66" s="83"/>
+      <c r="E66" s="83"/>
+      <c r="F66" s="83"/>
+      <c r="G66" s="83"/>
+      <c r="H66" s="83"/>
+    </row>
+    <row r="67" spans="1:8" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="28"/>
-      <c r="C67" s="80"/>
-      <c r="D67" s="80"/>
-      <c r="E67" s="80"/>
-      <c r="F67" s="80"/>
-      <c r="G67" s="80"/>
-      <c r="H67" s="80"/>
-    </row>
-    <row r="68" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C68" s="80"/>
-      <c r="D68" s="80"/>
-      <c r="E68" s="80"/>
-      <c r="F68" s="80"/>
-      <c r="G68" s="80"/>
-      <c r="H68" s="80"/>
+      <c r="C67" s="83"/>
+      <c r="D67" s="83"/>
+      <c r="E67" s="83"/>
+      <c r="F67" s="83"/>
+      <c r="G67" s="83"/>
+      <c r="H67" s="83"/>
+    </row>
+    <row r="68" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C68" s="83"/>
+      <c r="D68" s="83"/>
+      <c r="E68" s="83"/>
+      <c r="F68" s="83"/>
+      <c r="G68" s="83"/>
+      <c r="H68" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1700,40 +1707,40 @@
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.375" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="17.36328125" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.75" style="11" customWidth="1"/>
-    <col min="2" max="7" width="12.25" style="11" customWidth="1"/>
-    <col min="8" max="8" width="12.75" style="11" customWidth="1"/>
-    <col min="9" max="9" width="12.875" style="11" customWidth="1"/>
-    <col min="10" max="16384" width="17.375" style="11"/>
+    <col min="1" max="1" width="2.7265625" style="11" customWidth="1"/>
+    <col min="2" max="7" width="12.26953125" style="11" customWidth="1"/>
+    <col min="8" max="8" width="12.7265625" style="11" customWidth="1"/>
+    <col min="9" max="9" width="12.90625" style="11" customWidth="1"/>
+    <col min="10" max="16384" width="17.36328125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="9"/>
       <c r="B1" s="10"/>
-      <c r="C1" s="80" t="s">
+      <c r="C1" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
       <c r="I1" s="10"/>
     </row>
-    <row r="2" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="82"/>
-      <c r="B2" s="82"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
+    <row r="2" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="85"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="37"/>
       <c r="B3" s="38" t="s">
         <v>26</v>
@@ -1746,7 +1753,7 @@
       <c r="H3" s="39"/>
       <c r="I3" s="40"/>
     </row>
-    <row r="4" spans="1:9" s="12" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" s="12" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="41"/>
       <c r="B4" s="41"/>
       <c r="C4" s="41"/>
@@ -1757,7 +1764,7 @@
       <c r="H4" s="41"/>
       <c r="I4" s="41"/>
     </row>
-    <row r="5" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="36"/>
       <c r="B5" s="6" t="s">
         <v>41</v>
@@ -1770,7 +1777,7 @@
       <c r="H5" s="36"/>
       <c r="I5" s="36"/>
     </row>
-    <row r="6" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="36"/>
       <c r="B6" s="42"/>
       <c r="C6" s="36"/>
@@ -1781,7 +1788,7 @@
       <c r="H6" s="36"/>
       <c r="I6" s="36"/>
     </row>
-    <row r="7" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="36"/>
       <c r="B7" s="43"/>
       <c r="C7" s="6" t="s">
@@ -1794,7 +1801,7 @@
       <c r="H7" s="36"/>
       <c r="I7" s="36"/>
     </row>
-    <row r="8" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="36"/>
       <c r="B8" s="43">
         <v>1</v>
@@ -1807,7 +1814,7 @@
       <c r="H8" s="36"/>
       <c r="I8" s="36"/>
     </row>
-    <row r="9" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="36"/>
       <c r="B9" s="35" t="s">
         <v>42</v>
@@ -1820,7 +1827,7 @@
       <c r="H9" s="36"/>
       <c r="I9" s="36"/>
     </row>
-    <row r="10" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="36"/>
       <c r="B10" s="36"/>
       <c r="C10" s="43"/>
@@ -1831,7 +1838,7 @@
       <c r="H10" s="36"/>
       <c r="I10" s="36"/>
     </row>
-    <row r="11" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="36"/>
       <c r="B11" s="36"/>
       <c r="C11" s="43"/>
@@ -1846,7 +1853,7 @@
       <c r="H11" s="36"/>
       <c r="I11" s="36"/>
     </row>
-    <row r="12" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="36"/>
       <c r="B12" s="36"/>
       <c r="C12" s="44">
@@ -1859,7 +1866,7 @@
       <c r="H12" s="36"/>
       <c r="I12" s="36"/>
     </row>
-    <row r="13" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="36"/>
       <c r="B13" s="59" t="s">
         <v>44</v>
@@ -1872,7 +1879,7 @@
       <c r="H13" s="36"/>
       <c r="I13" s="36"/>
     </row>
-    <row r="14" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="36"/>
       <c r="B14" s="42"/>
       <c r="C14" s="43"/>
@@ -1883,7 +1890,7 @@
       <c r="H14" s="36"/>
       <c r="I14" s="36"/>
     </row>
-    <row r="15" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="36"/>
       <c r="B15" s="43"/>
       <c r="C15" s="46" t="s">
@@ -1896,7 +1903,7 @@
       <c r="H15" s="36"/>
       <c r="I15" s="36"/>
     </row>
-    <row r="16" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="36"/>
       <c r="B16" s="43">
         <v>2</v>
@@ -1909,7 +1916,7 @@
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="36"/>
       <c r="B17" s="35" t="s">
         <v>45</v>
@@ -1922,7 +1929,7 @@
       <c r="H17" s="36"/>
       <c r="I17" s="36"/>
     </row>
-    <row r="18" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="36"/>
       <c r="B18" s="36"/>
       <c r="C18" s="36"/>
@@ -1935,7 +1942,7 @@
       <c r="H18" s="36"/>
       <c r="I18" s="36"/>
     </row>
-    <row r="19" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="36"/>
       <c r="B19" s="36"/>
       <c r="C19" s="36"/>
@@ -1948,7 +1955,7 @@
       <c r="H19" s="36"/>
       <c r="I19" s="36"/>
     </row>
-    <row r="20" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="36"/>
       <c r="B20" s="36"/>
       <c r="C20" s="36"/>
@@ -1959,7 +1966,7 @@
       <c r="H20" s="36"/>
       <c r="I20" s="36"/>
     </row>
-    <row r="21" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="36"/>
       <c r="B21" s="36" t="s">
         <v>46</v>
@@ -1972,7 +1979,7 @@
       <c r="H21" s="36"/>
       <c r="I21" s="36"/>
     </row>
-    <row r="22" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="36"/>
       <c r="B22" s="42"/>
       <c r="C22" s="36"/>
@@ -1983,7 +1990,7 @@
       <c r="H22" s="36"/>
       <c r="I22" s="36"/>
     </row>
-    <row r="23" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="36"/>
       <c r="B23" s="43"/>
       <c r="C23" s="36" t="s">
@@ -1996,7 +2003,7 @@
       <c r="H23" s="36"/>
       <c r="I23" s="36"/>
     </row>
-    <row r="24" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="36"/>
       <c r="B24" s="43">
         <v>3</v>
@@ -2009,7 +2016,7 @@
       <c r="H24" s="36"/>
       <c r="I24" s="36"/>
     </row>
-    <row r="25" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="36"/>
       <c r="B25" s="2" t="s">
         <v>47</v>
@@ -2022,7 +2029,7 @@
       <c r="H25" s="36"/>
       <c r="I25" s="36"/>
     </row>
-    <row r="26" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="36"/>
       <c r="B26" s="36"/>
       <c r="C26" s="43"/>
@@ -2033,7 +2040,7 @@
       <c r="H26" s="36"/>
       <c r="I26" s="36"/>
     </row>
-    <row r="27" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="36"/>
       <c r="B27" s="36"/>
       <c r="C27" s="43"/>
@@ -2048,7 +2055,7 @@
       <c r="H27" s="36"/>
       <c r="I27" s="36"/>
     </row>
-    <row r="28" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="36"/>
       <c r="B28" s="36"/>
       <c r="C28" s="43">
@@ -2061,7 +2068,7 @@
       <c r="H28" s="36"/>
       <c r="I28" s="36"/>
     </row>
-    <row r="29" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="36"/>
       <c r="B29" s="36" t="s">
         <v>48</v>
@@ -2078,7 +2085,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="36"/>
       <c r="B30" s="42"/>
       <c r="C30" s="43"/>
@@ -2091,7 +2098,7 @@
       <c r="H30" s="45"/>
       <c r="I30" s="36"/>
     </row>
-    <row r="31" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="36"/>
       <c r="B31" s="43"/>
       <c r="C31" s="34" t="s">
@@ -2104,7 +2111,7 @@
       <c r="H31" s="36"/>
       <c r="I31" s="36"/>
     </row>
-    <row r="32" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="36"/>
       <c r="B32" s="43">
         <v>4</v>
@@ -2117,7 +2124,7 @@
       <c r="H32" s="36"/>
       <c r="I32" s="36"/>
     </row>
-    <row r="33" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="36"/>
       <c r="B33" s="2" t="s">
         <v>49</v>
@@ -2134,7 +2141,7 @@
       <c r="H33" s="36"/>
       <c r="I33" s="36"/>
     </row>
-    <row r="34" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="36"/>
       <c r="B34" s="36"/>
       <c r="C34" s="36"/>
@@ -2145,9 +2152,9 @@
       <c r="H34" s="36"/>
       <c r="I34" s="36"/>
     </row>
-    <row r="35" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="84"/>
-      <c r="B35" s="84"/>
+    <row r="35" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="87"/>
+      <c r="B35" s="87"/>
       <c r="C35" s="36"/>
       <c r="D35" s="36"/>
       <c r="E35" s="36"/>
@@ -2156,7 +2163,7 @@
       <c r="H35" s="36"/>
       <c r="I35" s="36"/>
     </row>
-    <row r="36" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="60"/>
       <c r="B36" s="61" t="s">
         <v>50</v>
@@ -2173,7 +2180,7 @@
       <c r="H36" s="36"/>
       <c r="I36" s="36"/>
     </row>
-    <row r="37" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="36"/>
       <c r="B37" s="36"/>
       <c r="C37" s="36"/>
@@ -2184,7 +2191,7 @@
       <c r="H37" s="36"/>
       <c r="I37" s="36"/>
     </row>
-    <row r="38" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="36"/>
       <c r="B38" s="36"/>
       <c r="C38" s="36"/>
@@ -2195,7 +2202,7 @@
       <c r="H38" s="36"/>
       <c r="I38" s="36"/>
     </row>
-    <row r="39" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="50"/>
       <c r="B39" s="52" t="s">
         <v>1</v>
@@ -2210,7 +2217,7 @@
       <c r="H39" s="36"/>
       <c r="I39" s="36"/>
     </row>
-    <row r="40" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="36"/>
       <c r="B40" s="36"/>
       <c r="C40" s="42"/>
@@ -2223,7 +2230,7 @@
       <c r="H40" s="36"/>
       <c r="I40" s="36"/>
     </row>
-    <row r="41" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="36"/>
       <c r="B41" s="36"/>
       <c r="C41" s="43"/>
@@ -2238,7 +2245,7 @@
       <c r="H41" s="36"/>
       <c r="I41" s="36"/>
     </row>
-    <row r="42" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="36"/>
       <c r="B42" s="36"/>
       <c r="C42" s="43"/>
@@ -2251,7 +2258,7 @@
       <c r="H42" s="36"/>
       <c r="I42" s="36"/>
     </row>
-    <row r="43" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="50"/>
       <c r="B43" s="36"/>
       <c r="C43" s="43"/>
@@ -2264,7 +2271,7 @@
       <c r="H43" s="36"/>
       <c r="I43" s="36"/>
     </row>
-    <row r="44" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="36"/>
       <c r="B44" s="36"/>
       <c r="C44" s="43">
@@ -2277,7 +2284,7 @@
       <c r="H44" s="36"/>
       <c r="I44" s="36"/>
     </row>
-    <row r="45" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="36"/>
       <c r="B45" s="36"/>
       <c r="C45" s="43"/>
@@ -2288,7 +2295,7 @@
       <c r="H45" s="36"/>
       <c r="I45" s="36"/>
     </row>
-    <row r="46" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="36"/>
       <c r="B46" s="36"/>
       <c r="C46" s="43"/>
@@ -2299,7 +2306,7 @@
       <c r="H46" s="36"/>
       <c r="I46" s="36"/>
     </row>
-    <row r="47" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="50"/>
       <c r="B47" s="52" t="s">
         <v>2</v>
@@ -2314,7 +2321,7 @@
       <c r="H47" s="36"/>
       <c r="I47" s="36"/>
     </row>
-    <row r="48" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="36"/>
       <c r="B48" s="36"/>
       <c r="C48" s="36"/>
@@ -2327,7 +2334,7 @@
       <c r="H48" s="36"/>
       <c r="I48" s="36"/>
     </row>
-    <row r="49" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="36"/>
       <c r="B49" s="36"/>
       <c r="C49" s="36"/>
@@ -2340,7 +2347,7 @@
       <c r="H49" s="36"/>
       <c r="I49" s="36"/>
     </row>
-    <row r="50" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="36"/>
       <c r="B50" s="36"/>
       <c r="C50" s="36"/>
@@ -2351,7 +2358,7 @@
       <c r="H50" s="36"/>
       <c r="I50" s="36"/>
     </row>
-    <row r="51" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="50"/>
       <c r="B51" s="36"/>
       <c r="C51" s="36"/>
@@ -2362,7 +2369,7 @@
       <c r="H51" s="36"/>
       <c r="I51" s="36"/>
     </row>
-    <row r="52" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="36"/>
       <c r="B52" s="36"/>
       <c r="C52" s="50" t="s">
@@ -2377,7 +2384,7 @@
       <c r="H52" s="36"/>
       <c r="I52" s="36"/>
     </row>
-    <row r="53" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="36"/>
       <c r="B53" s="36"/>
       <c r="C53" s="36"/>
@@ -2388,7 +2395,7 @@
       <c r="H53" s="36"/>
       <c r="I53" s="36"/>
     </row>
-    <row r="54" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="36"/>
       <c r="B54" s="36"/>
       <c r="C54" s="36"/>
@@ -2399,7 +2406,7 @@
       <c r="H54" s="36"/>
       <c r="I54" s="36"/>
     </row>
-    <row r="55" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="50"/>
       <c r="B55" s="52" t="s">
         <v>3</v>
@@ -2414,7 +2421,7 @@
       <c r="H55" s="36"/>
       <c r="I55" s="36"/>
     </row>
-    <row r="56" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="36"/>
       <c r="B56" s="36"/>
       <c r="C56" s="42"/>
@@ -2427,7 +2434,7 @@
       <c r="H56" s="36"/>
       <c r="I56" s="36"/>
     </row>
-    <row r="57" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="36"/>
       <c r="B57" s="36"/>
       <c r="C57" s="43"/>
@@ -2440,7 +2447,7 @@
       <c r="H57" s="55"/>
       <c r="I57" s="55"/>
     </row>
-    <row r="58" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="36"/>
       <c r="B58" s="36"/>
       <c r="C58" s="43"/>
@@ -2451,7 +2458,7 @@
       <c r="H58" s="36"/>
       <c r="I58" s="36"/>
     </row>
-    <row r="59" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="50"/>
       <c r="B59" s="36"/>
       <c r="C59" s="43"/>
@@ -2464,7 +2471,7 @@
       <c r="H59" s="36"/>
       <c r="I59" s="36"/>
     </row>
-    <row r="60" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="36"/>
       <c r="B60" s="36"/>
       <c r="C60" s="43">
@@ -2477,7 +2484,7 @@
       <c r="H60" s="36"/>
       <c r="I60" s="36"/>
     </row>
-    <row r="61" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="36"/>
       <c r="B61" s="36"/>
       <c r="C61" s="43"/>
@@ -2488,7 +2495,7 @@
       <c r="H61" s="36"/>
       <c r="I61" s="36"/>
     </row>
-    <row r="62" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="36"/>
       <c r="B62" s="36"/>
       <c r="C62" s="43"/>
@@ -2499,7 +2506,7 @@
       <c r="H62" s="36"/>
       <c r="I62" s="36"/>
     </row>
-    <row r="63" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="50"/>
       <c r="B63" s="52" t="s">
         <v>4</v>
@@ -2514,7 +2521,7 @@
       <c r="H63" s="36"/>
       <c r="I63" s="36"/>
     </row>
-    <row r="64" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="36"/>
       <c r="B64" s="36"/>
       <c r="C64" s="40"/>
@@ -2525,7 +2532,7 @@
       <c r="H64" s="40"/>
       <c r="I64" s="36"/>
     </row>
-    <row r="65" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="36"/>
       <c r="B65" s="36"/>
       <c r="C65" s="40"/>
@@ -2536,7 +2543,7 @@
       <c r="H65" s="40"/>
       <c r="I65" s="36"/>
     </row>
-    <row r="66" spans="1:9" s="12" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:9" s="12" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="41"/>
       <c r="B66" s="66" t="s">
         <v>54</v>
@@ -2553,7 +2560,7 @@
       <c r="H66" s="40"/>
       <c r="I66" s="41"/>
     </row>
-    <row r="67" spans="1:9" ht="11.85" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:9" ht="11.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="56"/>
       <c r="C67" s="68"/>
       <c r="D67" s="42"/>
@@ -2563,7 +2570,7 @@
       <c r="H67" s="40"/>
       <c r="I67" s="57"/>
     </row>
-    <row r="68" spans="1:9" ht="11.85" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:9" ht="11.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="57"/>
       <c r="D68" s="16"/>
       <c r="E68" s="64"/>
@@ -2572,7 +2579,7 @@
       <c r="H68" s="40"/>
       <c r="I68" s="57"/>
     </row>
-    <row r="69" spans="1:9" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="57"/>
       <c r="D69" s="16"/>
       <c r="E69" s="64"/>
@@ -2581,7 +2588,7 @@
       <c r="H69" s="57"/>
       <c r="I69" s="57"/>
     </row>
-    <row r="70" spans="1:9" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="57"/>
       <c r="D70" s="16"/>
       <c r="E70" s="7" t="s">
@@ -2594,7 +2601,7 @@
       <c r="H70" s="57"/>
       <c r="I70" s="57"/>
     </row>
-    <row r="71" spans="1:9" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="57"/>
       <c r="D71" s="62"/>
       <c r="E71" s="64"/>
@@ -2603,19 +2610,19 @@
       <c r="H71" s="57"/>
       <c r="I71" s="57"/>
     </row>
-    <row r="72" spans="1:9" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D72" s="16"/>
       <c r="E72" s="64"/>
       <c r="F72" s="64"/>
       <c r="G72" s="64"/>
     </row>
-    <row r="73" spans="1:9" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D73" s="16"/>
       <c r="E73" s="64"/>
       <c r="F73" s="64"/>
       <c r="G73" s="64"/>
     </row>
-    <row r="74" spans="1:9" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C74" s="68" t="s">
         <v>61</v>
       </c>
@@ -2626,23 +2633,23 @@
       <c r="F74" s="64"/>
       <c r="G74" s="64"/>
     </row>
-    <row r="75" spans="1:9" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C75" s="64"/>
       <c r="D75" s="64"/>
       <c r="E75" s="64"/>
       <c r="F75" s="64"/>
       <c r="G75" s="64"/>
     </row>
-    <row r="76" spans="1:9" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G76" s="64"/>
     </row>
-    <row r="77" spans="1:9" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G77" s="64"/>
     </row>
-    <row r="78" spans="1:9" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G78" s="64"/>
     </row>
-    <row r="79" spans="1:9" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B79" s="65" t="s">
         <v>55</v>
       </c>
@@ -2651,7 +2658,7 @@
       <c r="E79" s="57"/>
       <c r="G79" s="64"/>
     </row>
-    <row r="80" spans="1:9" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B80" s="67" t="s">
         <v>58</v>
       </c>
@@ -2661,23 +2668,23 @@
       <c r="D80" s="63"/>
       <c r="E80" s="63"/>
     </row>
-    <row r="81" spans="2:5" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:5" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B81" s="57"/>
       <c r="C81" s="42"/>
       <c r="D81" s="63"/>
       <c r="E81" s="63"/>
     </row>
-    <row r="82" spans="2:5" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:5" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C82" s="16"/>
       <c r="D82" s="64"/>
       <c r="E82" s="64"/>
     </row>
-    <row r="83" spans="2:5" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:5" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C83" s="16"/>
       <c r="D83" s="64"/>
       <c r="E83" s="64"/>
     </row>
-    <row r="84" spans="2:5" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:5" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C84" s="16"/>
       <c r="D84" s="7" t="s">
         <v>63</v>
@@ -2686,22 +2693,22 @@
         <v>53</v>
       </c>
     </row>
-    <row r="85" spans="2:5" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:5" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C85" s="62"/>
       <c r="D85" s="64"/>
       <c r="E85" s="64"/>
     </row>
-    <row r="86" spans="2:5" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:5" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C86" s="16"/>
       <c r="D86" s="64"/>
       <c r="E86" s="64"/>
     </row>
-    <row r="87" spans="2:5" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:5" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C87" s="16"/>
       <c r="D87" s="64"/>
       <c r="E87" s="64"/>
     </row>
-    <row r="88" spans="2:5" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:5" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B88" s="68" t="s">
         <v>59</v>
       </c>
@@ -2711,8 +2718,8 @@
       <c r="D88" s="64"/>
       <c r="E88" s="64"/>
     </row>
-    <row r="89" spans="2:5" ht="11.85" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="90" spans="2:5" ht="11.85" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="89" spans="2:5" ht="11.9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="90" spans="2:5" ht="11.9" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="C1:H2"/>
@@ -2729,44 +2736,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC41AD02-D213-4B8C-8C48-D69FD6AD7D98}">
   <dimension ref="A1:K90"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K91" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.375" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="17.36328125" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.75" style="57" customWidth="1"/>
-    <col min="2" max="7" width="12.25" style="57" customWidth="1"/>
-    <col min="8" max="8" width="12.75" style="57" customWidth="1"/>
-    <col min="9" max="9" width="12.875" style="57" customWidth="1"/>
-    <col min="10" max="16384" width="17.375" style="57"/>
+    <col min="1" max="1" width="2.7265625" style="57" customWidth="1"/>
+    <col min="2" max="7" width="12.26953125" style="57" customWidth="1"/>
+    <col min="8" max="8" width="12.7265625" style="57" customWidth="1"/>
+    <col min="9" max="9" width="12.90625" style="57" customWidth="1"/>
+    <col min="10" max="16384" width="17.36328125" style="57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="58"/>
       <c r="B1" s="40"/>
-      <c r="C1" s="85" t="s">
+      <c r="C1" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
       <c r="I1" s="40"/>
     </row>
-    <row r="2" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="86"/>
-      <c r="B2" s="86"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
+    <row r="2" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="89"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
       <c r="I2" s="40"/>
     </row>
-    <row r="3" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="75"/>
       <c r="B3" s="38" t="s">
         <v>26</v>
@@ -2779,47 +2786,47 @@
       <c r="H3" s="74"/>
       <c r="I3" s="40"/>
     </row>
-    <row r="4" spans="1:9" s="41" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" s="41" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
     </row>
-    <row r="5" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="36" t="s">
         <v>83</v>
       </c>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
     </row>
-    <row r="6" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="42"/>
       <c r="F6" s="14"/>
     </row>
-    <row r="7" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="43"/>
       <c r="C7" s="36" t="s">
         <v>93</v>
       </c>
       <c r="F7" s="14"/>
     </row>
-    <row r="8" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="43">
         <v>1</v>
       </c>
       <c r="C8" s="42"/>
       <c r="F8" s="14"/>
     </row>
-    <row r="9" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C9" s="43"/>
       <c r="F9" s="14"/>
     </row>
-    <row r="10" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C10" s="43"/>
       <c r="F10" s="14"/>
     </row>
-    <row r="11" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C11" s="43"/>
       <c r="D11" s="36" t="s">
         <v>80</v>
@@ -2829,7 +2836,7 @@
       </c>
       <c r="F11" s="14"/>
     </row>
-    <row r="12" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C12" s="44">
         <v>7</v>
       </c>
@@ -2837,20 +2844,20 @@
       <c r="E12" s="42"/>
       <c r="F12" s="14"/>
     </row>
-    <row r="13" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="59" t="s">
         <v>85</v>
       </c>
       <c r="C13" s="43"/>
       <c r="E13" s="43"/>
     </row>
-    <row r="14" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="42"/>
       <c r="C14" s="43"/>
       <c r="E14" s="43"/>
       <c r="F14" s="19"/>
     </row>
-    <row r="15" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="43"/>
       <c r="C15" s="34" t="s">
         <v>85</v>
@@ -2858,51 +2865,51 @@
       <c r="E15" s="43"/>
       <c r="F15" s="19"/>
     </row>
-    <row r="16" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="43">
         <v>2</v>
       </c>
       <c r="E16" s="43"/>
       <c r="F16" s="19"/>
     </row>
-    <row r="17" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:11" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="35" t="s">
         <v>86</v>
       </c>
       <c r="E17" s="43"/>
       <c r="F17" s="19"/>
     </row>
-    <row r="18" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:11" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E18" s="43"/>
       <c r="F18" s="32"/>
       <c r="G18" s="76" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="19" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:11" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E19" s="43">
         <v>12</v>
       </c>
       <c r="F19" s="19"/>
       <c r="G19" s="42"/>
     </row>
-    <row r="20" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:11" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E20" s="43"/>
       <c r="G20" s="43"/>
     </row>
-    <row r="21" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:11" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="6" t="s">
         <v>81</v>
       </c>
       <c r="E21" s="43"/>
       <c r="G21" s="43"/>
     </row>
-    <row r="22" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:11" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="42"/>
       <c r="E22" s="43"/>
       <c r="G22" s="43"/>
     </row>
-    <row r="23" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:11" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="43"/>
       <c r="C23" s="6" t="s">
         <v>81</v>
@@ -2910,7 +2917,7 @@
       <c r="E23" s="43"/>
       <c r="G23" s="43"/>
     </row>
-    <row r="24" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:11" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="43">
         <v>3</v>
       </c>
@@ -2919,7 +2926,7 @@
       <c r="G24" s="43"/>
       <c r="I24" s="47"/>
     </row>
-    <row r="25" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:11" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="35" t="s">
         <v>82</v>
       </c>
@@ -2928,13 +2935,13 @@
       <c r="G25" s="43"/>
       <c r="I25" s="43"/>
     </row>
-    <row r="26" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:11" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C26" s="43"/>
       <c r="E26" s="43"/>
       <c r="G26" s="43"/>
       <c r="I26" s="43"/>
     </row>
-    <row r="27" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:11" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C27" s="43"/>
       <c r="D27" s="33" t="s">
         <v>95</v>
@@ -2946,21 +2953,21 @@
       <c r="I27" s="43">
         <v>15</v>
       </c>
-      <c r="J27" s="88" t="s">
+      <c r="J27" s="82" t="s">
         <v>103</v>
       </c>
       <c r="K27" s="36" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:11" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C28" s="43">
         <v>8</v>
       </c>
       <c r="G28" s="43"/>
       <c r="I28" s="43"/>
     </row>
-    <row r="29" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:11" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="6" t="s">
         <v>87</v>
       </c>
@@ -2968,7 +2975,7 @@
       <c r="G29" s="43"/>
       <c r="I29" s="35"/>
     </row>
-    <row r="30" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:11" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="42"/>
       <c r="C30" s="43"/>
       <c r="G30" s="43">
@@ -2976,20 +2983,20 @@
       </c>
       <c r="H30" s="45"/>
     </row>
-    <row r="31" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:11" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="43"/>
       <c r="C31" s="46" t="s">
         <v>94</v>
       </c>
       <c r="G31" s="43"/>
     </row>
-    <row r="32" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:11" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="43">
         <v>4</v>
       </c>
       <c r="G32" s="43"/>
     </row>
-    <row r="33" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="35" t="s">
         <v>88</v>
       </c>
@@ -3001,21 +3008,21 @@
       </c>
       <c r="G33" s="43"/>
     </row>
-    <row r="34" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F34" s="42"/>
       <c r="G34" s="43"/>
     </row>
-    <row r="35" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="84"/>
-      <c r="B35" s="84"/>
+    <row r="35" spans="1:7" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="87"/>
+      <c r="B35" s="87"/>
       <c r="F35" s="43"/>
       <c r="G35" s="43"/>
     </row>
-    <row r="36" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="87" t="s">
+    <row r="36" spans="1:7" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="87"/>
+      <c r="B36" s="90"/>
       <c r="C36" s="50" t="s">
         <v>6</v>
       </c>
@@ -3025,17 +3032,17 @@
       <c r="F36" s="43"/>
       <c r="G36" s="43"/>
     </row>
-    <row r="37" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D37" s="43"/>
       <c r="F37" s="43"/>
       <c r="G37" s="43"/>
     </row>
-    <row r="38" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D38" s="43"/>
       <c r="F38" s="51"/>
       <c r="G38" s="43"/>
     </row>
-    <row r="39" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="50"/>
       <c r="B39" s="52" t="s">
         <v>1</v>
@@ -3047,7 +3054,7 @@
       <c r="F39" s="51"/>
       <c r="G39" s="43"/>
     </row>
-    <row r="40" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C40" s="42"/>
       <c r="D40" s="43"/>
       <c r="E40" s="33" t="s">
@@ -3056,7 +3063,7 @@
       <c r="F40" s="43"/>
       <c r="G40" s="43"/>
     </row>
-    <row r="41" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C41" s="43"/>
       <c r="D41" s="43">
         <v>9</v>
@@ -3067,7 +3074,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="42" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C42" s="43"/>
       <c r="D42" s="43"/>
       <c r="E42" s="43"/>
@@ -3075,7 +3082,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="50"/>
       <c r="C43" s="43"/>
       <c r="D43" s="2" t="s">
@@ -3084,7 +3091,7 @@
       <c r="E43" s="43"/>
       <c r="F43" s="43"/>
     </row>
-    <row r="44" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C44" s="43">
         <v>5</v>
       </c>
@@ -3092,18 +3099,18 @@
       <c r="E44" s="43"/>
       <c r="F44" s="43"/>
     </row>
-    <row r="45" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C45" s="43"/>
       <c r="E45" s="43"/>
       <c r="F45" s="43"/>
     </row>
-    <row r="46" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C46" s="43"/>
       <c r="D46" s="53"/>
       <c r="E46" s="43"/>
       <c r="F46" s="43"/>
     </row>
-    <row r="47" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="50"/>
       <c r="B47" s="52" t="s">
         <v>2</v>
@@ -3114,26 +3121,26 @@
       <c r="E47" s="43"/>
       <c r="F47" s="43"/>
     </row>
-    <row r="48" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E48" s="43"/>
       <c r="F48" s="46" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E49" s="36">
         <v>11</v>
       </c>
       <c r="F49" s="53"/>
     </row>
-    <row r="50" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F50" s="53"/>
     </row>
-    <row r="51" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="50"/>
       <c r="E51" s="43"/>
     </row>
-    <row r="52" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C52" s="50" t="s">
         <v>5</v>
       </c>
@@ -3142,15 +3149,15 @@
       </c>
       <c r="E52" s="43"/>
     </row>
-    <row r="53" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D53" s="42"/>
       <c r="E53" s="54"/>
     </row>
-    <row r="54" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D54" s="43"/>
       <c r="E54" s="54"/>
     </row>
-    <row r="55" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="50"/>
       <c r="B55" s="52" t="s">
         <v>3</v>
@@ -3161,14 +3168,14 @@
       <c r="D55" s="43"/>
       <c r="E55" s="54"/>
     </row>
-    <row r="56" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C56" s="42"/>
       <c r="D56" s="43"/>
       <c r="E56" s="46" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="57" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C57" s="43"/>
       <c r="D57" s="43">
         <v>10</v>
@@ -3176,29 +3183,29 @@
       <c r="H57" s="55"/>
       <c r="I57" s="55"/>
     </row>
-    <row r="58" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C58" s="43"/>
       <c r="D58" s="43"/>
     </row>
-    <row r="59" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="50"/>
       <c r="C59" s="43"/>
       <c r="D59" s="34" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="60" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C60" s="43">
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C61" s="43"/>
     </row>
-    <row r="62" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C62" s="43"/>
     </row>
-    <row r="63" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="50"/>
       <c r="B63" s="52" t="s">
         <v>4</v>
@@ -3207,7 +3214,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="64" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C64" s="40"/>
       <c r="D64" s="40"/>
       <c r="E64" s="40"/>
@@ -3215,7 +3222,7 @@
       <c r="G64" s="40"/>
       <c r="H64" s="40"/>
     </row>
-    <row r="65" spans="1:8" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:8" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C65" s="40"/>
       <c r="D65" s="40"/>
       <c r="E65" s="40"/>
@@ -3223,7 +3230,7 @@
       <c r="G65" s="40"/>
       <c r="H65" s="40"/>
     </row>
-    <row r="66" spans="1:8" s="41" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:8" s="41" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B66" s="11"/>
       <c r="C66" s="11"/>
       <c r="D66" s="11"/>
@@ -3232,7 +3239,7 @@
       <c r="G66" s="57"/>
       <c r="H66" s="40"/>
     </row>
-    <row r="67" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:8" ht="11.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="56"/>
       <c r="B67" s="66" t="s">
         <v>54</v>
@@ -3247,7 +3254,7 @@
       <c r="F67" s="63"/>
       <c r="H67" s="40"/>
     </row>
-    <row r="68" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:8" ht="11.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B68" s="11"/>
       <c r="C68" s="68"/>
       <c r="D68" s="42"/>
@@ -3255,21 +3262,21 @@
       <c r="F68" s="63"/>
       <c r="H68" s="40"/>
     </row>
-    <row r="69" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
       <c r="D69" s="16"/>
       <c r="E69" s="64"/>
       <c r="F69" s="64"/>
     </row>
-    <row r="70" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
       <c r="D70" s="16"/>
       <c r="E70" s="64"/>
       <c r="F70" s="64"/>
     </row>
-    <row r="71" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
       <c r="D71" s="16"/>
@@ -3280,28 +3287,28 @@
         <v>56</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
       <c r="D72" s="62"/>
       <c r="E72" s="64"/>
       <c r="F72" s="64"/>
     </row>
-    <row r="73" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
       <c r="D73" s="16"/>
       <c r="E73" s="64"/>
       <c r="F73" s="64"/>
     </row>
-    <row r="74" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
       <c r="D74" s="16"/>
       <c r="E74" s="64"/>
       <c r="F74" s="64"/>
     </row>
-    <row r="75" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B75" s="11"/>
       <c r="C75" s="68" t="s">
         <v>61</v>
@@ -3312,41 +3319,41 @@
       <c r="E75" s="64"/>
       <c r="F75" s="64"/>
     </row>
-    <row r="76" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B76" s="11"/>
       <c r="C76" s="64"/>
       <c r="D76" s="64"/>
       <c r="E76" s="64"/>
       <c r="F76" s="64"/>
     </row>
-    <row r="77" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
       <c r="D77" s="11"/>
       <c r="E77" s="11"/>
       <c r="F77" s="11"/>
     </row>
-    <row r="78" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
       <c r="D78" s="11"/>
       <c r="E78" s="11"/>
       <c r="F78" s="11"/>
     </row>
-    <row r="79" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B79" s="11"/>
       <c r="C79" s="11"/>
       <c r="D79" s="11"/>
       <c r="E79" s="11"/>
       <c r="F79" s="11"/>
     </row>
-    <row r="80" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B80" s="65" t="s">
         <v>55</v>
       </c>
       <c r="F80" s="11"/>
     </row>
-    <row r="81" spans="2:6" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:6" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B81" s="67" t="s">
         <v>58</v>
       </c>
@@ -3357,27 +3364,27 @@
       <c r="E81" s="63"/>
       <c r="F81" s="11"/>
     </row>
-    <row r="82" spans="2:6" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:6" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C82" s="42"/>
       <c r="D82" s="63"/>
       <c r="E82" s="63"/>
       <c r="F82" s="11"/>
     </row>
-    <row r="83" spans="2:6" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:6" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B83" s="11"/>
       <c r="C83" s="16"/>
       <c r="D83" s="64"/>
       <c r="E83" s="64"/>
       <c r="F83" s="11"/>
     </row>
-    <row r="84" spans="2:6" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:6" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B84" s="11"/>
       <c r="C84" s="16"/>
       <c r="D84" s="64"/>
       <c r="E84" s="64"/>
       <c r="F84" s="11"/>
     </row>
-    <row r="85" spans="2:6" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:6" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B85" s="11"/>
       <c r="C85" s="16"/>
       <c r="D85" s="7" t="s">
@@ -3388,28 +3395,28 @@
       </c>
       <c r="F85" s="11"/>
     </row>
-    <row r="86" spans="2:6" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:6" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B86" s="11"/>
       <c r="C86" s="62"/>
       <c r="D86" s="64"/>
       <c r="E86" s="64"/>
       <c r="F86" s="11"/>
     </row>
-    <row r="87" spans="2:6" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:6" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B87" s="11"/>
       <c r="C87" s="16"/>
       <c r="D87" s="64"/>
       <c r="E87" s="64"/>
       <c r="F87" s="11"/>
     </row>
-    <row r="88" spans="2:6" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:6" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B88" s="11"/>
       <c r="C88" s="16"/>
       <c r="D88" s="64"/>
       <c r="E88" s="64"/>
       <c r="F88" s="11"/>
     </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B89" s="68" t="s">
         <v>59</v>
       </c>
@@ -3420,7 +3427,7 @@
       <c r="E89" s="64"/>
       <c r="F89" s="11"/>
     </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
       <c r="D90" s="11"/>
@@ -3444,44 +3451,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D10CBD3F-029F-4541-8142-F43EE81AFB98}">
   <dimension ref="A1:K90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.375" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="17.36328125" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.75" style="57" customWidth="1"/>
-    <col min="2" max="7" width="12.25" style="57" customWidth="1"/>
-    <col min="8" max="8" width="12.75" style="57" customWidth="1"/>
-    <col min="9" max="9" width="12.875" style="57" customWidth="1"/>
-    <col min="10" max="16384" width="17.375" style="57"/>
+    <col min="1" max="1" width="2.7265625" style="57" customWidth="1"/>
+    <col min="2" max="7" width="12.26953125" style="57" customWidth="1"/>
+    <col min="8" max="8" width="12.7265625" style="57" customWidth="1"/>
+    <col min="9" max="9" width="12.90625" style="57" customWidth="1"/>
+    <col min="10" max="16384" width="17.36328125" style="57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="58"/>
       <c r="B1" s="40"/>
-      <c r="C1" s="85" t="s">
+      <c r="C1" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
       <c r="I1" s="40"/>
     </row>
-    <row r="2" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="86"/>
-      <c r="B2" s="86"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
+    <row r="2" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="89"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
       <c r="I2" s="40"/>
     </row>
-    <row r="3" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="79"/>
       <c r="B3" s="38" t="s">
         <v>26</v>
@@ -3494,43 +3501,43 @@
       <c r="H3" s="78"/>
       <c r="I3" s="40"/>
     </row>
-    <row r="4" spans="1:9" s="41" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" s="41" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
     </row>
-    <row r="5" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
     </row>
-    <row r="6" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="42"/>
       <c r="F6" s="14"/>
     </row>
-    <row r="7" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="43"/>
       <c r="F7" s="14"/>
     </row>
-    <row r="8" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="43">
         <v>1</v>
       </c>
       <c r="C8" s="42"/>
       <c r="F8" s="14"/>
     </row>
-    <row r="9" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="2"/>
       <c r="C9" s="43"/>
       <c r="F9" s="14"/>
     </row>
-    <row r="10" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C10" s="43"/>
       <c r="F10" s="14"/>
     </row>
-    <row r="11" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C11" s="43"/>
       <c r="F11" s="14"/>
     </row>
-    <row r="12" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C12" s="44">
         <v>7</v>
       </c>
@@ -3538,68 +3545,68 @@
       <c r="E12" s="42"/>
       <c r="F12" s="14"/>
     </row>
-    <row r="13" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="59"/>
       <c r="C13" s="43"/>
       <c r="E13" s="43"/>
     </row>
-    <row r="14" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="42"/>
       <c r="C14" s="43"/>
       <c r="E14" s="43"/>
       <c r="F14" s="19"/>
     </row>
-    <row r="15" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="43"/>
       <c r="C15" s="34"/>
       <c r="E15" s="43"/>
       <c r="F15" s="19"/>
     </row>
-    <row r="16" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="43">
         <v>2</v>
       </c>
       <c r="E16" s="43"/>
       <c r="F16" s="19"/>
     </row>
-    <row r="17" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:11" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="35"/>
       <c r="E17" s="43"/>
       <c r="F17" s="19"/>
     </row>
-    <row r="18" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:11" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E18" s="43"/>
       <c r="F18" s="32"/>
       <c r="G18" s="76"/>
     </row>
-    <row r="19" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:11" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E19" s="43">
         <v>12</v>
       </c>
       <c r="F19" s="19"/>
       <c r="G19" s="42"/>
     </row>
-    <row r="20" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:11" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E20" s="43"/>
       <c r="G20" s="43"/>
     </row>
-    <row r="21" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:11" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="6"/>
       <c r="E21" s="43"/>
       <c r="G21" s="43"/>
     </row>
-    <row r="22" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:11" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="42"/>
       <c r="E22" s="43"/>
       <c r="G22" s="43"/>
     </row>
-    <row r="23" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:11" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="43"/>
       <c r="C23" s="6"/>
       <c r="E23" s="43"/>
       <c r="G23" s="43"/>
     </row>
-    <row r="24" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:11" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="43">
         <v>3</v>
       </c>
@@ -3608,20 +3615,20 @@
       <c r="G24" s="43"/>
       <c r="I24" s="47"/>
     </row>
-    <row r="25" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:11" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="35"/>
       <c r="C25" s="43"/>
       <c r="E25" s="43"/>
       <c r="G25" s="43"/>
       <c r="I25" s="43"/>
     </row>
-    <row r="26" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:11" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C26" s="43"/>
       <c r="E26" s="43"/>
       <c r="G26" s="43"/>
       <c r="I26" s="43"/>
     </row>
-    <row r="27" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:11" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C27" s="43"/>
       <c r="D27" s="33"/>
       <c r="E27" s="2"/>
@@ -3629,25 +3636,25 @@
       <c r="I27" s="43">
         <v>15</v>
       </c>
-      <c r="J27" s="88"/>
+      <c r="J27" s="82"/>
       <c r="K27" s="36" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:11" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C28" s="43">
         <v>8</v>
       </c>
       <c r="G28" s="43"/>
       <c r="I28" s="43"/>
     </row>
-    <row r="29" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:11" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="6"/>
       <c r="C29" s="43"/>
       <c r="G29" s="43"/>
       <c r="I29" s="35"/>
     </row>
-    <row r="30" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:11" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="42"/>
       <c r="C30" s="43"/>
       <c r="G30" s="43">
@@ -3655,18 +3662,18 @@
       </c>
       <c r="H30" s="45"/>
     </row>
-    <row r="31" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:11" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="43"/>
       <c r="C31" s="46"/>
       <c r="G31" s="43"/>
     </row>
-    <row r="32" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:11" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="43">
         <v>4</v>
       </c>
       <c r="G32" s="43"/>
     </row>
-    <row r="33" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="35"/>
       <c r="E33" s="50" t="s">
         <v>73</v>
@@ -3674,21 +3681,21 @@
       <c r="F33" s="6"/>
       <c r="G33" s="43"/>
     </row>
-    <row r="34" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F34" s="42"/>
       <c r="G34" s="43"/>
     </row>
-    <row r="35" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="84"/>
-      <c r="B35" s="84"/>
+    <row r="35" spans="1:7" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="87"/>
+      <c r="B35" s="87"/>
       <c r="F35" s="43"/>
       <c r="G35" s="43"/>
     </row>
-    <row r="36" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="87" t="s">
+    <row r="36" spans="1:7" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="87"/>
+      <c r="B36" s="90"/>
       <c r="C36" s="50" t="s">
         <v>6</v>
       </c>
@@ -3696,17 +3703,17 @@
       <c r="F36" s="43"/>
       <c r="G36" s="43"/>
     </row>
-    <row r="37" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D37" s="43"/>
       <c r="F37" s="43"/>
       <c r="G37" s="43"/>
     </row>
-    <row r="38" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D38" s="43"/>
       <c r="F38" s="51"/>
       <c r="G38" s="43"/>
     </row>
-    <row r="39" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="50"/>
       <c r="B39" s="52" t="s">
         <v>1</v>
@@ -3715,14 +3722,14 @@
       <c r="F39" s="51"/>
       <c r="G39" s="43"/>
     </row>
-    <row r="40" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C40" s="42"/>
       <c r="D40" s="43"/>
       <c r="E40" s="33"/>
       <c r="F40" s="43"/>
       <c r="G40" s="43"/>
     </row>
-    <row r="41" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C41" s="43"/>
       <c r="D41" s="43">
         <v>9</v>
@@ -3731,7 +3738,7 @@
       <c r="F41" s="43"/>
       <c r="G41" s="46"/>
     </row>
-    <row r="42" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C42" s="43"/>
       <c r="D42" s="43"/>
       <c r="E42" s="43"/>
@@ -3739,14 +3746,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="50"/>
       <c r="C43" s="43"/>
       <c r="D43" s="2"/>
       <c r="E43" s="43"/>
       <c r="F43" s="43"/>
     </row>
-    <row r="44" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C44" s="43">
         <v>5</v>
       </c>
@@ -3754,18 +3761,18 @@
       <c r="E44" s="43"/>
       <c r="F44" s="43"/>
     </row>
-    <row r="45" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C45" s="43"/>
       <c r="E45" s="43"/>
       <c r="F45" s="43"/>
     </row>
-    <row r="46" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C46" s="43"/>
       <c r="D46" s="53"/>
       <c r="E46" s="43"/>
       <c r="F46" s="43"/>
     </row>
-    <row r="47" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="50"/>
       <c r="B47" s="52" t="s">
         <v>2</v>
@@ -3774,38 +3781,38 @@
       <c r="E47" s="43"/>
       <c r="F47" s="43"/>
     </row>
-    <row r="48" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E48" s="43"/>
       <c r="F48" s="46"/>
     </row>
-    <row r="49" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E49" s="36">
         <v>11</v>
       </c>
       <c r="F49" s="53"/>
     </row>
-    <row r="50" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F50" s="53"/>
     </row>
-    <row r="51" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="50"/>
       <c r="E51" s="43"/>
     </row>
-    <row r="52" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C52" s="50" t="s">
         <v>5</v>
       </c>
       <c r="E52" s="43"/>
     </row>
-    <row r="53" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D53" s="42"/>
       <c r="E53" s="54"/>
     </row>
-    <row r="54" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D54" s="43"/>
       <c r="E54" s="54"/>
     </row>
-    <row r="55" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="50"/>
       <c r="B55" s="52" t="s">
         <v>3</v>
@@ -3813,12 +3820,12 @@
       <c r="D55" s="43"/>
       <c r="E55" s="54"/>
     </row>
-    <row r="56" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C56" s="42"/>
       <c r="D56" s="43"/>
       <c r="E56" s="46"/>
     </row>
-    <row r="57" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C57" s="43"/>
       <c r="D57" s="43">
         <v>10</v>
@@ -3826,34 +3833,34 @@
       <c r="H57" s="55"/>
       <c r="I57" s="55"/>
     </row>
-    <row r="58" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C58" s="43"/>
       <c r="D58" s="43"/>
     </row>
-    <row r="59" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="50"/>
       <c r="C59" s="43"/>
       <c r="D59" s="34"/>
     </row>
-    <row r="60" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C60" s="43">
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C61" s="43"/>
     </row>
-    <row r="62" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C62" s="43"/>
     </row>
-    <row r="63" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="50"/>
       <c r="B63" s="52" t="s">
         <v>4</v>
       </c>
       <c r="C63" s="2"/>
     </row>
-    <row r="64" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C64" s="40"/>
       <c r="D64" s="40"/>
       <c r="E64" s="40"/>
@@ -3861,7 +3868,7 @@
       <c r="G64" s="40"/>
       <c r="H64" s="40"/>
     </row>
-    <row r="65" spans="1:8" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:8" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C65" s="40"/>
       <c r="D65" s="40"/>
       <c r="E65" s="40"/>
@@ -3869,7 +3876,7 @@
       <c r="G65" s="40"/>
       <c r="H65" s="40"/>
     </row>
-    <row r="66" spans="1:8" s="41" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:8" s="41" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B66" s="11"/>
       <c r="C66" s="11"/>
       <c r="D66" s="11"/>
@@ -3878,7 +3885,7 @@
       <c r="G66" s="57"/>
       <c r="H66" s="40"/>
     </row>
-    <row r="67" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:8" ht="11.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="56"/>
       <c r="B67" s="66" t="s">
         <v>54</v>
@@ -3891,7 +3898,7 @@
       <c r="F67" s="63"/>
       <c r="H67" s="40"/>
     </row>
-    <row r="68" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:8" ht="11.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B68" s="11"/>
       <c r="C68" s="68"/>
       <c r="D68" s="42"/>
@@ -3899,21 +3906,21 @@
       <c r="F68" s="63"/>
       <c r="H68" s="40"/>
     </row>
-    <row r="69" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
       <c r="D69" s="16"/>
       <c r="E69" s="64"/>
       <c r="F69" s="64"/>
     </row>
-    <row r="70" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
       <c r="D70" s="16"/>
       <c r="E70" s="64"/>
       <c r="F70" s="64"/>
     </row>
-    <row r="71" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
       <c r="D71" s="16"/>
@@ -3922,28 +3929,28 @@
         <v>56</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
       <c r="D72" s="62"/>
       <c r="E72" s="64"/>
       <c r="F72" s="64"/>
     </row>
-    <row r="73" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
       <c r="D73" s="16"/>
       <c r="E73" s="64"/>
       <c r="F73" s="64"/>
     </row>
-    <row r="74" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
       <c r="D74" s="16"/>
       <c r="E74" s="64"/>
       <c r="F74" s="64"/>
     </row>
-    <row r="75" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B75" s="11"/>
       <c r="C75" s="68" t="s">
         <v>61</v>
@@ -3952,41 +3959,41 @@
       <c r="E75" s="64"/>
       <c r="F75" s="64"/>
     </row>
-    <row r="76" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B76" s="11"/>
       <c r="C76" s="64"/>
       <c r="D76" s="64"/>
       <c r="E76" s="64"/>
       <c r="F76" s="64"/>
     </row>
-    <row r="77" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
       <c r="D77" s="11"/>
       <c r="E77" s="11"/>
       <c r="F77" s="11"/>
     </row>
-    <row r="78" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
       <c r="D78" s="11"/>
       <c r="E78" s="11"/>
       <c r="F78" s="11"/>
     </row>
-    <row r="79" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B79" s="11"/>
       <c r="C79" s="11"/>
       <c r="D79" s="11"/>
       <c r="E79" s="11"/>
       <c r="F79" s="11"/>
     </row>
-    <row r="80" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B80" s="65" t="s">
         <v>55</v>
       </c>
       <c r="F80" s="11"/>
     </row>
-    <row r="81" spans="2:6" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:6" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B81" s="67" t="s">
         <v>58</v>
       </c>
@@ -3995,27 +4002,27 @@
       <c r="E81" s="63"/>
       <c r="F81" s="11"/>
     </row>
-    <row r="82" spans="2:6" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:6" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C82" s="42"/>
       <c r="D82" s="63"/>
       <c r="E82" s="63"/>
       <c r="F82" s="11"/>
     </row>
-    <row r="83" spans="2:6" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:6" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B83" s="11"/>
       <c r="C83" s="16"/>
       <c r="D83" s="64"/>
       <c r="E83" s="64"/>
       <c r="F83" s="11"/>
     </row>
-    <row r="84" spans="2:6" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:6" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B84" s="11"/>
       <c r="C84" s="16"/>
       <c r="D84" s="64"/>
       <c r="E84" s="64"/>
       <c r="F84" s="11"/>
     </row>
-    <row r="85" spans="2:6" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:6" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B85" s="11"/>
       <c r="C85" s="16"/>
       <c r="D85" s="7" t="s">
@@ -4026,28 +4033,28 @@
       </c>
       <c r="F85" s="11"/>
     </row>
-    <row r="86" spans="2:6" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:6" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B86" s="11"/>
       <c r="C86" s="62"/>
       <c r="D86" s="64"/>
       <c r="E86" s="64"/>
       <c r="F86" s="11"/>
     </row>
-    <row r="87" spans="2:6" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:6" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B87" s="11"/>
       <c r="C87" s="16"/>
       <c r="D87" s="64"/>
       <c r="E87" s="64"/>
       <c r="F87" s="11"/>
     </row>
-    <row r="88" spans="2:6" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:6" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B88" s="11"/>
       <c r="C88" s="16"/>
       <c r="D88" s="64"/>
       <c r="E88" s="64"/>
       <c r="F88" s="11"/>
     </row>
-    <row r="89" spans="2:6" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B89" s="68" t="s">
         <v>59</v>
       </c>
@@ -4056,7 +4063,7 @@
       <c r="E89" s="64"/>
       <c r="F89" s="11"/>
     </row>
-    <row r="90" spans="2:6" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
       <c r="D90" s="11"/>
@@ -4073,4 +4080,640 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFDD3758-D1D3-4DDF-ADF0-FED2CD00CB37}">
+  <dimension ref="A1:K90"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="17.36328125" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="2.7265625" style="57" customWidth="1"/>
+    <col min="2" max="7" width="12.26953125" style="57" customWidth="1"/>
+    <col min="8" max="8" width="12.7265625" style="57" customWidth="1"/>
+    <col min="9" max="9" width="12.90625" style="57" customWidth="1"/>
+    <col min="10" max="16384" width="17.36328125" style="57"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="58"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="88" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="40"/>
+    </row>
+    <row r="2" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="89"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="40"/>
+    </row>
+    <row r="3" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="81"/>
+      <c r="B3" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="40"/>
+    </row>
+    <row r="4" spans="1:9" s="41" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+    </row>
+    <row r="5" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+    </row>
+    <row r="6" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="42"/>
+      <c r="F6" s="14"/>
+    </row>
+    <row r="7" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="43"/>
+      <c r="F7" s="14"/>
+    </row>
+    <row r="8" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="43">
+        <v>1</v>
+      </c>
+      <c r="C8" s="42"/>
+      <c r="F8" s="14"/>
+    </row>
+    <row r="9" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="2"/>
+      <c r="C9" s="43"/>
+      <c r="F9" s="14"/>
+    </row>
+    <row r="10" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C10" s="43"/>
+      <c r="F10" s="14"/>
+    </row>
+    <row r="11" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C11" s="43"/>
+      <c r="F11" s="14"/>
+    </row>
+    <row r="12" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C12" s="44">
+        <v>7</v>
+      </c>
+      <c r="D12" s="45"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="14"/>
+    </row>
+    <row r="13" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="59"/>
+      <c r="C13" s="43"/>
+      <c r="E13" s="43"/>
+    </row>
+    <row r="14" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="42"/>
+      <c r="C14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="19"/>
+    </row>
+    <row r="15" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="43"/>
+      <c r="C15" s="34"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="19"/>
+    </row>
+    <row r="16" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="43">
+        <v>2</v>
+      </c>
+      <c r="E16" s="43"/>
+      <c r="F16" s="19"/>
+    </row>
+    <row r="17" spans="2:11" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="35"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="19"/>
+    </row>
+    <row r="18" spans="2:11" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E18" s="43"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="76"/>
+    </row>
+    <row r="19" spans="2:11" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E19" s="43">
+        <v>12</v>
+      </c>
+      <c r="F19" s="19"/>
+      <c r="G19" s="42"/>
+    </row>
+    <row r="20" spans="2:11" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E20" s="43"/>
+      <c r="G20" s="43"/>
+    </row>
+    <row r="21" spans="2:11" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="6"/>
+      <c r="E21" s="43"/>
+      <c r="G21" s="43"/>
+    </row>
+    <row r="22" spans="2:11" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="42"/>
+      <c r="E22" s="43"/>
+      <c r="G22" s="43"/>
+    </row>
+    <row r="23" spans="2:11" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="43"/>
+      <c r="C23" s="6"/>
+      <c r="E23" s="43"/>
+      <c r="G23" s="43"/>
+    </row>
+    <row r="24" spans="2:11" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="43">
+        <v>3</v>
+      </c>
+      <c r="C24" s="48"/>
+      <c r="E24" s="43"/>
+      <c r="G24" s="43"/>
+      <c r="I24" s="47"/>
+    </row>
+    <row r="25" spans="2:11" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="35"/>
+      <c r="C25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="G25" s="43"/>
+      <c r="I25" s="43"/>
+    </row>
+    <row r="26" spans="2:11" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="I26" s="43"/>
+    </row>
+    <row r="27" spans="2:11" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="43"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="2"/>
+      <c r="G27" s="43"/>
+      <c r="I27" s="43">
+        <v>15</v>
+      </c>
+      <c r="J27" s="82"/>
+      <c r="K27" s="36" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="43">
+        <v>8</v>
+      </c>
+      <c r="G28" s="43"/>
+      <c r="I28" s="43"/>
+    </row>
+    <row r="29" spans="2:11" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="6"/>
+      <c r="C29" s="43"/>
+      <c r="G29" s="43"/>
+      <c r="I29" s="35"/>
+    </row>
+    <row r="30" spans="2:11" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="42"/>
+      <c r="C30" s="43"/>
+      <c r="G30" s="43">
+        <v>14</v>
+      </c>
+      <c r="H30" s="45"/>
+    </row>
+    <row r="31" spans="2:11" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="43"/>
+      <c r="C31" s="46"/>
+      <c r="G31" s="43"/>
+    </row>
+    <row r="32" spans="2:11" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="43">
+        <v>4</v>
+      </c>
+      <c r="G32" s="43"/>
+    </row>
+    <row r="33" spans="1:7" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="35"/>
+      <c r="E33" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="F33" s="6"/>
+      <c r="G33" s="43"/>
+    </row>
+    <row r="34" spans="1:7" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F34" s="42"/>
+      <c r="G34" s="43"/>
+    </row>
+    <row r="35" spans="1:7" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="87"/>
+      <c r="B35" s="87"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="43"/>
+    </row>
+    <row r="36" spans="1:7" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="90" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" s="90"/>
+      <c r="C36" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="47"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="43"/>
+    </row>
+    <row r="37" spans="1:7" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D37" s="43"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="43"/>
+    </row>
+    <row r="38" spans="1:7" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D38" s="43"/>
+      <c r="F38" s="51"/>
+      <c r="G38" s="43"/>
+    </row>
+    <row r="39" spans="1:7" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="50"/>
+      <c r="B39" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" s="43"/>
+      <c r="F39" s="51"/>
+      <c r="G39" s="43"/>
+    </row>
+    <row r="40" spans="1:7" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C40" s="42"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="43"/>
+    </row>
+    <row r="41" spans="1:7" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C41" s="43"/>
+      <c r="D41" s="43">
+        <v>9</v>
+      </c>
+      <c r="E41" s="43"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="46"/>
+    </row>
+    <row r="42" spans="1:7" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C42" s="43"/>
+      <c r="D42" s="43"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="43">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="50"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="43"/>
+    </row>
+    <row r="44" spans="1:7" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C44" s="43">
+        <v>5</v>
+      </c>
+      <c r="D44" s="45"/>
+      <c r="E44" s="43"/>
+      <c r="F44" s="43"/>
+    </row>
+    <row r="45" spans="1:7" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C45" s="43"/>
+      <c r="E45" s="43"/>
+      <c r="F45" s="43"/>
+    </row>
+    <row r="46" spans="1:7" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C46" s="43"/>
+      <c r="D46" s="53"/>
+      <c r="E46" s="43"/>
+      <c r="F46" s="43"/>
+    </row>
+    <row r="47" spans="1:7" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="50"/>
+      <c r="B47" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="E47" s="43"/>
+      <c r="F47" s="43"/>
+    </row>
+    <row r="48" spans="1:7" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E48" s="43"/>
+      <c r="F48" s="46"/>
+    </row>
+    <row r="49" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E49" s="36">
+        <v>11</v>
+      </c>
+      <c r="F49" s="53"/>
+    </row>
+    <row r="50" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F50" s="53"/>
+    </row>
+    <row r="51" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="50"/>
+      <c r="E51" s="43"/>
+    </row>
+    <row r="52" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C52" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="E52" s="43"/>
+    </row>
+    <row r="53" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D53" s="42"/>
+      <c r="E53" s="54"/>
+    </row>
+    <row r="54" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D54" s="43"/>
+      <c r="E54" s="54"/>
+    </row>
+    <row r="55" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="50"/>
+      <c r="B55" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="D55" s="43"/>
+      <c r="E55" s="54"/>
+    </row>
+    <row r="56" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C56" s="42"/>
+      <c r="D56" s="43"/>
+      <c r="E56" s="46"/>
+    </row>
+    <row r="57" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C57" s="43"/>
+      <c r="D57" s="43">
+        <v>10</v>
+      </c>
+      <c r="H57" s="55"/>
+      <c r="I57" s="55"/>
+    </row>
+    <row r="58" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C58" s="43"/>
+      <c r="D58" s="43"/>
+    </row>
+    <row r="59" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="50"/>
+      <c r="C59" s="43"/>
+      <c r="D59" s="34"/>
+    </row>
+    <row r="60" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C60" s="43">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C61" s="43"/>
+    </row>
+    <row r="62" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C62" s="43"/>
+    </row>
+    <row r="63" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="50"/>
+      <c r="B63" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="C63" s="2"/>
+    </row>
+    <row r="64" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C64" s="40"/>
+      <c r="D64" s="40"/>
+      <c r="E64" s="40"/>
+      <c r="F64" s="40"/>
+      <c r="G64" s="40"/>
+      <c r="H64" s="40"/>
+    </row>
+    <row r="65" spans="1:8" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C65" s="40"/>
+      <c r="D65" s="40"/>
+      <c r="E65" s="40"/>
+      <c r="F65" s="40"/>
+      <c r="G65" s="40"/>
+      <c r="H65" s="40"/>
+    </row>
+    <row r="66" spans="1:8" s="41" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B66" s="11"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="57"/>
+      <c r="G66" s="57"/>
+      <c r="H66" s="40"/>
+    </row>
+    <row r="67" spans="1:8" ht="11.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67" s="56"/>
+      <c r="B67" s="66" t="s">
+        <v>54</v>
+      </c>
+      <c r="C67" s="69" t="s">
+        <v>60</v>
+      </c>
+      <c r="D67" s="72"/>
+      <c r="E67" s="63"/>
+      <c r="F67" s="63"/>
+      <c r="H67" s="40"/>
+    </row>
+    <row r="68" spans="1:8" ht="11.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B68" s="11"/>
+      <c r="C68" s="68"/>
+      <c r="D68" s="42"/>
+      <c r="E68" s="63"/>
+      <c r="F68" s="63"/>
+      <c r="H68" s="40"/>
+    </row>
+    <row r="69" spans="1:8" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B69" s="11"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="16"/>
+      <c r="E69" s="64"/>
+      <c r="F69" s="64"/>
+    </row>
+    <row r="70" spans="1:8" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B70" s="11"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="16"/>
+      <c r="E70" s="64"/>
+      <c r="F70" s="64"/>
+    </row>
+    <row r="71" spans="1:8" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B71" s="11"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="16"/>
+      <c r="E71" s="77"/>
+      <c r="F71" s="64" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B72" s="11"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="62"/>
+      <c r="E72" s="64"/>
+      <c r="F72" s="64"/>
+    </row>
+    <row r="73" spans="1:8" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B73" s="11"/>
+      <c r="C73" s="11"/>
+      <c r="D73" s="16"/>
+      <c r="E73" s="64"/>
+      <c r="F73" s="64"/>
+    </row>
+    <row r="74" spans="1:8" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B74" s="11"/>
+      <c r="C74" s="11"/>
+      <c r="D74" s="16"/>
+      <c r="E74" s="64"/>
+      <c r="F74" s="64"/>
+    </row>
+    <row r="75" spans="1:8" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B75" s="11"/>
+      <c r="C75" s="68" t="s">
+        <v>61</v>
+      </c>
+      <c r="D75" s="5"/>
+      <c r="E75" s="64"/>
+      <c r="F75" s="64"/>
+    </row>
+    <row r="76" spans="1:8" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B76" s="11"/>
+      <c r="C76" s="64"/>
+      <c r="D76" s="64"/>
+      <c r="E76" s="64"/>
+      <c r="F76" s="64"/>
+    </row>
+    <row r="77" spans="1:8" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B77" s="11"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="11"/>
+      <c r="F77" s="11"/>
+    </row>
+    <row r="78" spans="1:8" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B78" s="11"/>
+      <c r="C78" s="11"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="11"/>
+    </row>
+    <row r="79" spans="1:8" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B79" s="11"/>
+      <c r="C79" s="11"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="11"/>
+      <c r="F79" s="11"/>
+    </row>
+    <row r="80" spans="1:8" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B80" s="65" t="s">
+        <v>55</v>
+      </c>
+      <c r="F80" s="11"/>
+    </row>
+    <row r="81" spans="2:6" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B81" s="67" t="s">
+        <v>58</v>
+      </c>
+      <c r="C81" s="47"/>
+      <c r="D81" s="63"/>
+      <c r="E81" s="63"/>
+      <c r="F81" s="11"/>
+    </row>
+    <row r="82" spans="2:6" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C82" s="42"/>
+      <c r="D82" s="63"/>
+      <c r="E82" s="63"/>
+      <c r="F82" s="11"/>
+    </row>
+    <row r="83" spans="2:6" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B83" s="11"/>
+      <c r="C83" s="16"/>
+      <c r="D83" s="64"/>
+      <c r="E83" s="64"/>
+      <c r="F83" s="11"/>
+    </row>
+    <row r="84" spans="2:6" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B84" s="11"/>
+      <c r="C84" s="16"/>
+      <c r="D84" s="64"/>
+      <c r="E84" s="64"/>
+      <c r="F84" s="11"/>
+    </row>
+    <row r="85" spans="2:6" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B85" s="11"/>
+      <c r="C85" s="16"/>
+      <c r="D85" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E85" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="F85" s="11"/>
+    </row>
+    <row r="86" spans="2:6" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B86" s="11"/>
+      <c r="C86" s="62"/>
+      <c r="D86" s="64"/>
+      <c r="E86" s="64"/>
+      <c r="F86" s="11"/>
+    </row>
+    <row r="87" spans="2:6" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B87" s="11"/>
+      <c r="C87" s="16"/>
+      <c r="D87" s="64"/>
+      <c r="E87" s="64"/>
+      <c r="F87" s="11"/>
+    </row>
+    <row r="88" spans="2:6" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B88" s="11"/>
+      <c r="C88" s="16"/>
+      <c r="D88" s="64"/>
+      <c r="E88" s="64"/>
+      <c r="F88" s="11"/>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B89" s="68" t="s">
+        <v>59</v>
+      </c>
+      <c r="C89" s="2"/>
+      <c r="D89" s="64"/>
+      <c r="E89" s="64"/>
+      <c r="F89" s="11"/>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B90" s="11"/>
+      <c r="C90" s="11"/>
+      <c r="D90" s="11"/>
+      <c r="E90" s="11"/>
+      <c r="F90" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C1:H2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/8-team-double.xlsx
+++ b/8-team-double.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUAWEI\Documents\GitHub\2018_world_cup_draw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F0BAF05-9B41-46A4-BEBF-99EE178A3AA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C91916-3B58-4326-8153-C9F310D233A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="110">
   <si>
     <t>PrintYourBrackets</t>
   </si>
@@ -428,6 +428,30 @@
   </si>
   <si>
     <t>沙隆巴斯(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小丹尼(5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忍太郎(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莎拉公主(8)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>约翰乔(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙小美(7)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金贝贝(6)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -654,7 +678,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -795,19 +819,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -834,6 +852,17 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1178,40 +1207,40 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.36328125" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="17.375" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.7265625" style="11" customWidth="1"/>
-    <col min="2" max="7" width="12.26953125" style="11" customWidth="1"/>
-    <col min="8" max="8" width="12.7265625" style="11" customWidth="1"/>
-    <col min="9" max="9" width="12.90625" style="11" customWidth="1"/>
-    <col min="10" max="16384" width="17.36328125" style="11"/>
+    <col min="1" max="1" width="2.75" style="11" customWidth="1"/>
+    <col min="2" max="7" width="12.25" style="11" customWidth="1"/>
+    <col min="8" max="8" width="12.75" style="11" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="11" customWidth="1"/>
+    <col min="10" max="16384" width="17.375" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="9"/>
       <c r="B1" s="10"/>
-      <c r="C1" s="83" t="s">
+      <c r="C1" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
       <c r="I1" s="10"/>
     </row>
-    <row r="2" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
+    <row r="2" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="83"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="30"/>
       <c r="B3" s="31" t="s">
         <v>26</v>
@@ -1224,54 +1253,54 @@
       <c r="H3" s="29"/>
       <c r="I3" s="10"/>
     </row>
-    <row r="4" spans="1:9" s="12" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" s="12" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
     </row>
-    <row r="5" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
     </row>
-    <row r="6" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="15"/>
       <c r="F6" s="14"/>
     </row>
-    <row r="7" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="16"/>
       <c r="C7" s="6" t="s">
         <v>22</v>
       </c>
       <c r="F7" s="14"/>
     </row>
-    <row r="8" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="16">
         <v>1</v>
       </c>
       <c r="C8" s="15"/>
       <c r="F8" s="14"/>
     </row>
-    <row r="9" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="16"/>
       <c r="F9" s="14"/>
     </row>
-    <row r="10" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="16"/>
       <c r="F10" s="14"/>
     </row>
-    <row r="11" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="16"/>
       <c r="D11" s="4" t="s">
         <v>31</v>
       </c>
       <c r="F11" s="14"/>
     </row>
-    <row r="12" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="17">
         <v>7</v>
       </c>
@@ -1279,20 +1308,20 @@
       <c r="E12" s="15"/>
       <c r="F12" s="14"/>
     </row>
-    <row r="13" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="16"/>
       <c r="E13" s="16"/>
     </row>
-    <row r="14" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="15"/>
       <c r="C14" s="16"/>
       <c r="E14" s="16"/>
       <c r="F14" s="19"/>
     </row>
-    <row r="15" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="16"/>
       <c r="C15" s="3" t="s">
         <v>23</v>
@@ -1300,51 +1329,51 @@
       <c r="E15" s="16"/>
       <c r="F15" s="19"/>
     </row>
-    <row r="16" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="16">
         <v>2</v>
       </c>
       <c r="E16" s="16"/>
       <c r="F16" s="19"/>
     </row>
-    <row r="17" spans="2:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E17" s="16"/>
       <c r="F17" s="19"/>
     </row>
-    <row r="18" spans="2:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E18" s="16"/>
       <c r="F18" s="32" t="s">
         <v>38</v>
       </c>
       <c r="G18" s="8"/>
     </row>
-    <row r="19" spans="2:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E19" s="16">
         <v>11</v>
       </c>
       <c r="F19" s="19"/>
       <c r="G19" s="15"/>
     </row>
-    <row r="20" spans="2:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E20" s="16"/>
       <c r="G20" s="16"/>
     </row>
-    <row r="21" spans="2:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E21" s="16"/>
       <c r="G21" s="16"/>
     </row>
-    <row r="22" spans="2:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="15"/>
       <c r="E22" s="16"/>
       <c r="G22" s="16"/>
     </row>
-    <row r="23" spans="2:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="16"/>
       <c r="C23" s="6" t="s">
         <v>24</v>
@@ -1352,7 +1381,7 @@
       <c r="E23" s="16"/>
       <c r="G23" s="16"/>
     </row>
-    <row r="24" spans="2:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="16">
         <v>3</v>
       </c>
@@ -1360,7 +1389,7 @@
       <c r="E24" s="16"/>
       <c r="G24" s="16"/>
     </row>
-    <row r="25" spans="2:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="5" t="s">
         <v>15</v>
       </c>
@@ -1368,12 +1397,12 @@
       <c r="E25" s="16"/>
       <c r="G25" s="16"/>
     </row>
-    <row r="26" spans="2:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C26" s="16"/>
       <c r="E26" s="16"/>
       <c r="G26" s="16"/>
     </row>
-    <row r="27" spans="2:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C27" s="16"/>
       <c r="D27" s="33" t="s">
         <v>32</v>
@@ -1381,13 +1410,13 @@
       <c r="E27" s="5"/>
       <c r="G27" s="16"/>
     </row>
-    <row r="28" spans="2:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C28" s="16">
         <v>8</v>
       </c>
       <c r="G28" s="16"/>
     </row>
-    <row r="29" spans="2:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="6" t="s">
         <v>16</v>
       </c>
@@ -1400,7 +1429,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="2:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="15"/>
       <c r="C30" s="16"/>
       <c r="G30" s="16">
@@ -1408,20 +1437,20 @@
       </c>
       <c r="H30" s="18"/>
     </row>
-    <row r="31" spans="2:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="16"/>
       <c r="C31" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G31" s="16"/>
     </row>
-    <row r="32" spans="2:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="16">
         <v>4</v>
       </c>
       <c r="G32" s="16"/>
     </row>
-    <row r="33" spans="1:7" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="5" t="s">
         <v>17</v>
       </c>
@@ -1433,23 +1462,23 @@
       </c>
       <c r="G33" s="16"/>
     </row>
-    <row r="34" spans="1:7" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C34" s="22"/>
       <c r="F34" s="15"/>
       <c r="G34" s="16"/>
     </row>
-    <row r="35" spans="1:7" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="86"/>
-      <c r="B35" s="86"/>
+    <row r="35" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="84"/>
+      <c r="B35" s="84"/>
       <c r="C35" s="22"/>
       <c r="F35" s="16"/>
       <c r="G35" s="16"/>
     </row>
-    <row r="36" spans="1:7" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="84" t="s">
+    <row r="36" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="84"/>
+      <c r="B36" s="82"/>
       <c r="C36" s="21" t="s">
         <v>6</v>
       </c>
@@ -1459,17 +1488,17 @@
       <c r="F36" s="16"/>
       <c r="G36" s="16"/>
     </row>
-    <row r="37" spans="1:7" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D37" s="16"/>
       <c r="F37" s="16"/>
       <c r="G37" s="16"/>
     </row>
-    <row r="38" spans="1:7" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D38" s="16"/>
       <c r="F38" s="23"/>
       <c r="G38" s="16"/>
     </row>
-    <row r="39" spans="1:7" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="21"/>
       <c r="B39" s="24" t="s">
         <v>1</v>
@@ -1481,7 +1510,7 @@
       <c r="F39" s="23"/>
       <c r="G39" s="16"/>
     </row>
-    <row r="40" spans="1:7" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C40" s="15"/>
       <c r="D40" s="16"/>
       <c r="E40" s="7" t="s">
@@ -1490,7 +1519,7 @@
       <c r="F40" s="16"/>
       <c r="G40" s="16"/>
     </row>
-    <row r="41" spans="1:7" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C41" s="16"/>
       <c r="D41" s="16">
         <v>9</v>
@@ -1501,7 +1530,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:7" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C42" s="16"/>
       <c r="D42" s="16"/>
       <c r="E42" s="16"/>
@@ -1509,7 +1538,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:7" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="21"/>
       <c r="C43" s="16"/>
       <c r="D43" s="2" t="s">
@@ -1518,7 +1547,7 @@
       <c r="E43" s="16"/>
       <c r="F43" s="16"/>
     </row>
-    <row r="44" spans="1:7" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C44" s="16">
         <v>5</v>
       </c>
@@ -1526,18 +1555,18 @@
       <c r="E44" s="16"/>
       <c r="F44" s="16"/>
     </row>
-    <row r="45" spans="1:7" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C45" s="16"/>
       <c r="E45" s="16"/>
       <c r="F45" s="16"/>
     </row>
-    <row r="46" spans="1:7" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C46" s="16"/>
       <c r="D46" s="25"/>
       <c r="E46" s="16"/>
       <c r="F46" s="16"/>
     </row>
-    <row r="47" spans="1:7" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="21"/>
       <c r="B47" s="24" t="s">
         <v>2</v>
@@ -1548,29 +1577,29 @@
       <c r="E47" s="16"/>
       <c r="F47" s="16"/>
     </row>
-    <row r="48" spans="1:7" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E48" s="16"/>
       <c r="F48" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="49" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E49" s="4">
         <v>12</v>
       </c>
       <c r="F49" s="25"/>
     </row>
-    <row r="50" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F50" s="25"/>
     </row>
-    <row r="51" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="21"/>
       <c r="B51" s="22" t="s">
         <v>0</v>
       </c>
       <c r="E51" s="16"/>
     </row>
-    <row r="52" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C52" s="21" t="s">
         <v>5</v>
       </c>
@@ -1579,15 +1608,15 @@
       </c>
       <c r="E52" s="16"/>
     </row>
-    <row r="53" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D53" s="15"/>
       <c r="E53" s="26"/>
     </row>
-    <row r="54" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D54" s="16"/>
       <c r="E54" s="26"/>
     </row>
-    <row r="55" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="21"/>
       <c r="B55" s="24" t="s">
         <v>3</v>
@@ -1598,14 +1627,14 @@
       <c r="D55" s="16"/>
       <c r="E55" s="26"/>
     </row>
-    <row r="56" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C56" s="15"/>
       <c r="D56" s="16"/>
       <c r="E56" s="34" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="57" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C57" s="16"/>
       <c r="D57" s="16">
         <v>10</v>
@@ -1613,29 +1642,29 @@
       <c r="H57" s="27"/>
       <c r="I57" s="27"/>
     </row>
-    <row r="58" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C58" s="16"/>
       <c r="D58" s="16"/>
     </row>
-    <row r="59" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="21"/>
       <c r="C59" s="16"/>
       <c r="D59" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="60" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C60" s="16">
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C61" s="16"/>
     </row>
-    <row r="62" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C62" s="16"/>
     </row>
-    <row r="63" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="21"/>
       <c r="B63" s="24" t="s">
         <v>4</v>
@@ -1644,46 +1673,46 @@
         <v>21</v>
       </c>
     </row>
-    <row r="64" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C64" s="83"/>
-      <c r="D64" s="83"/>
-      <c r="E64" s="83"/>
-      <c r="F64" s="83"/>
-      <c r="G64" s="83"/>
-      <c r="H64" s="83"/>
-    </row>
-    <row r="65" spans="1:8" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C65" s="83"/>
-      <c r="D65" s="83"/>
-      <c r="E65" s="83"/>
-      <c r="F65" s="83"/>
-      <c r="G65" s="83"/>
-      <c r="H65" s="83"/>
-    </row>
-    <row r="66" spans="1:8" s="12" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C66" s="83"/>
-      <c r="D66" s="83"/>
-      <c r="E66" s="83"/>
-      <c r="F66" s="83"/>
-      <c r="G66" s="83"/>
-      <c r="H66" s="83"/>
-    </row>
-    <row r="67" spans="1:8" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C64" s="81"/>
+      <c r="D64" s="81"/>
+      <c r="E64" s="81"/>
+      <c r="F64" s="81"/>
+      <c r="G64" s="81"/>
+      <c r="H64" s="81"/>
+    </row>
+    <row r="65" spans="1:8" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C65" s="81"/>
+      <c r="D65" s="81"/>
+      <c r="E65" s="81"/>
+      <c r="F65" s="81"/>
+      <c r="G65" s="81"/>
+      <c r="H65" s="81"/>
+    </row>
+    <row r="66" spans="1:8" s="12" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C66" s="81"/>
+      <c r="D66" s="81"/>
+      <c r="E66" s="81"/>
+      <c r="F66" s="81"/>
+      <c r="G66" s="81"/>
+      <c r="H66" s="81"/>
+    </row>
+    <row r="67" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="28"/>
-      <c r="C67" s="83"/>
-      <c r="D67" s="83"/>
-      <c r="E67" s="83"/>
-      <c r="F67" s="83"/>
-      <c r="G67" s="83"/>
-      <c r="H67" s="83"/>
-    </row>
-    <row r="68" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C68" s="83"/>
-      <c r="D68" s="83"/>
-      <c r="E68" s="83"/>
-      <c r="F68" s="83"/>
-      <c r="G68" s="83"/>
-      <c r="H68" s="83"/>
+      <c r="C67" s="81"/>
+      <c r="D67" s="81"/>
+      <c r="E67" s="81"/>
+      <c r="F67" s="81"/>
+      <c r="G67" s="81"/>
+      <c r="H67" s="81"/>
+    </row>
+    <row r="68" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C68" s="81"/>
+      <c r="D68" s="81"/>
+      <c r="E68" s="81"/>
+      <c r="F68" s="81"/>
+      <c r="G68" s="81"/>
+      <c r="H68" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1707,40 +1736,40 @@
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.36328125" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="17.375" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.7265625" style="11" customWidth="1"/>
-    <col min="2" max="7" width="12.26953125" style="11" customWidth="1"/>
-    <col min="8" max="8" width="12.7265625" style="11" customWidth="1"/>
-    <col min="9" max="9" width="12.90625" style="11" customWidth="1"/>
-    <col min="10" max="16384" width="17.36328125" style="11"/>
+    <col min="1" max="1" width="2.75" style="11" customWidth="1"/>
+    <col min="2" max="7" width="12.25" style="11" customWidth="1"/>
+    <col min="8" max="8" width="12.75" style="11" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="11" customWidth="1"/>
+    <col min="10" max="16384" width="17.375" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="9"/>
       <c r="B1" s="10"/>
-      <c r="C1" s="83" t="s">
+      <c r="C1" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
       <c r="I1" s="10"/>
     </row>
-    <row r="2" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
+    <row r="2" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="83"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="37"/>
       <c r="B3" s="38" t="s">
         <v>26</v>
@@ -1753,7 +1782,7 @@
       <c r="H3" s="39"/>
       <c r="I3" s="40"/>
     </row>
-    <row r="4" spans="1:9" s="12" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" s="12" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="41"/>
       <c r="B4" s="41"/>
       <c r="C4" s="41"/>
@@ -1764,7 +1793,7 @@
       <c r="H4" s="41"/>
       <c r="I4" s="41"/>
     </row>
-    <row r="5" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="36"/>
       <c r="B5" s="6" t="s">
         <v>41</v>
@@ -1777,7 +1806,7 @@
       <c r="H5" s="36"/>
       <c r="I5" s="36"/>
     </row>
-    <row r="6" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="36"/>
       <c r="B6" s="42"/>
       <c r="C6" s="36"/>
@@ -1788,7 +1817,7 @@
       <c r="H6" s="36"/>
       <c r="I6" s="36"/>
     </row>
-    <row r="7" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="36"/>
       <c r="B7" s="43"/>
       <c r="C7" s="6" t="s">
@@ -1801,7 +1830,7 @@
       <c r="H7" s="36"/>
       <c r="I7" s="36"/>
     </row>
-    <row r="8" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="36"/>
       <c r="B8" s="43">
         <v>1</v>
@@ -1814,7 +1843,7 @@
       <c r="H8" s="36"/>
       <c r="I8" s="36"/>
     </row>
-    <row r="9" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="36"/>
       <c r="B9" s="35" t="s">
         <v>42</v>
@@ -1827,7 +1856,7 @@
       <c r="H9" s="36"/>
       <c r="I9" s="36"/>
     </row>
-    <row r="10" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="36"/>
       <c r="B10" s="36"/>
       <c r="C10" s="43"/>
@@ -1838,7 +1867,7 @@
       <c r="H10" s="36"/>
       <c r="I10" s="36"/>
     </row>
-    <row r="11" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="36"/>
       <c r="B11" s="36"/>
       <c r="C11" s="43"/>
@@ -1853,7 +1882,7 @@
       <c r="H11" s="36"/>
       <c r="I11" s="36"/>
     </row>
-    <row r="12" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="36"/>
       <c r="B12" s="36"/>
       <c r="C12" s="44">
@@ -1866,7 +1895,7 @@
       <c r="H12" s="36"/>
       <c r="I12" s="36"/>
     </row>
-    <row r="13" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="36"/>
       <c r="B13" s="59" t="s">
         <v>44</v>
@@ -1879,7 +1908,7 @@
       <c r="H13" s="36"/>
       <c r="I13" s="36"/>
     </row>
-    <row r="14" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="36"/>
       <c r="B14" s="42"/>
       <c r="C14" s="43"/>
@@ -1890,7 +1919,7 @@
       <c r="H14" s="36"/>
       <c r="I14" s="36"/>
     </row>
-    <row r="15" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="36"/>
       <c r="B15" s="43"/>
       <c r="C15" s="46" t="s">
@@ -1903,7 +1932,7 @@
       <c r="H15" s="36"/>
       <c r="I15" s="36"/>
     </row>
-    <row r="16" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="36"/>
       <c r="B16" s="43">
         <v>2</v>
@@ -1916,7 +1945,7 @@
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="36"/>
       <c r="B17" s="35" t="s">
         <v>45</v>
@@ -1929,7 +1958,7 @@
       <c r="H17" s="36"/>
       <c r="I17" s="36"/>
     </row>
-    <row r="18" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="36"/>
       <c r="B18" s="36"/>
       <c r="C18" s="36"/>
@@ -1942,7 +1971,7 @@
       <c r="H18" s="36"/>
       <c r="I18" s="36"/>
     </row>
-    <row r="19" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="36"/>
       <c r="B19" s="36"/>
       <c r="C19" s="36"/>
@@ -1955,7 +1984,7 @@
       <c r="H19" s="36"/>
       <c r="I19" s="36"/>
     </row>
-    <row r="20" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="36"/>
       <c r="B20" s="36"/>
       <c r="C20" s="36"/>
@@ -1966,7 +1995,7 @@
       <c r="H20" s="36"/>
       <c r="I20" s="36"/>
     </row>
-    <row r="21" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="36"/>
       <c r="B21" s="36" t="s">
         <v>46</v>
@@ -1979,7 +2008,7 @@
       <c r="H21" s="36"/>
       <c r="I21" s="36"/>
     </row>
-    <row r="22" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="36"/>
       <c r="B22" s="42"/>
       <c r="C22" s="36"/>
@@ -1990,7 +2019,7 @@
       <c r="H22" s="36"/>
       <c r="I22" s="36"/>
     </row>
-    <row r="23" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="36"/>
       <c r="B23" s="43"/>
       <c r="C23" s="36" t="s">
@@ -2003,7 +2032,7 @@
       <c r="H23" s="36"/>
       <c r="I23" s="36"/>
     </row>
-    <row r="24" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="36"/>
       <c r="B24" s="43">
         <v>3</v>
@@ -2016,7 +2045,7 @@
       <c r="H24" s="36"/>
       <c r="I24" s="36"/>
     </row>
-    <row r="25" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="36"/>
       <c r="B25" s="2" t="s">
         <v>47</v>
@@ -2029,7 +2058,7 @@
       <c r="H25" s="36"/>
       <c r="I25" s="36"/>
     </row>
-    <row r="26" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="36"/>
       <c r="B26" s="36"/>
       <c r="C26" s="43"/>
@@ -2040,7 +2069,7 @@
       <c r="H26" s="36"/>
       <c r="I26" s="36"/>
     </row>
-    <row r="27" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="36"/>
       <c r="B27" s="36"/>
       <c r="C27" s="43"/>
@@ -2055,7 +2084,7 @@
       <c r="H27" s="36"/>
       <c r="I27" s="36"/>
     </row>
-    <row r="28" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="36"/>
       <c r="B28" s="36"/>
       <c r="C28" s="43">
@@ -2068,7 +2097,7 @@
       <c r="H28" s="36"/>
       <c r="I28" s="36"/>
     </row>
-    <row r="29" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="36"/>
       <c r="B29" s="36" t="s">
         <v>48</v>
@@ -2085,7 +2114,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="36"/>
       <c r="B30" s="42"/>
       <c r="C30" s="43"/>
@@ -2098,7 +2127,7 @@
       <c r="H30" s="45"/>
       <c r="I30" s="36"/>
     </row>
-    <row r="31" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="36"/>
       <c r="B31" s="43"/>
       <c r="C31" s="34" t="s">
@@ -2111,7 +2140,7 @@
       <c r="H31" s="36"/>
       <c r="I31" s="36"/>
     </row>
-    <row r="32" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="36"/>
       <c r="B32" s="43">
         <v>4</v>
@@ -2124,7 +2153,7 @@
       <c r="H32" s="36"/>
       <c r="I32" s="36"/>
     </row>
-    <row r="33" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="36"/>
       <c r="B33" s="2" t="s">
         <v>49</v>
@@ -2141,7 +2170,7 @@
       <c r="H33" s="36"/>
       <c r="I33" s="36"/>
     </row>
-    <row r="34" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="36"/>
       <c r="B34" s="36"/>
       <c r="C34" s="36"/>
@@ -2152,9 +2181,9 @@
       <c r="H34" s="36"/>
       <c r="I34" s="36"/>
     </row>
-    <row r="35" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="87"/>
-      <c r="B35" s="87"/>
+    <row r="35" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="85"/>
+      <c r="B35" s="85"/>
       <c r="C35" s="36"/>
       <c r="D35" s="36"/>
       <c r="E35" s="36"/>
@@ -2163,7 +2192,7 @@
       <c r="H35" s="36"/>
       <c r="I35" s="36"/>
     </row>
-    <row r="36" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="60"/>
       <c r="B36" s="61" t="s">
         <v>50</v>
@@ -2180,7 +2209,7 @@
       <c r="H36" s="36"/>
       <c r="I36" s="36"/>
     </row>
-    <row r="37" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="36"/>
       <c r="B37" s="36"/>
       <c r="C37" s="36"/>
@@ -2191,7 +2220,7 @@
       <c r="H37" s="36"/>
       <c r="I37" s="36"/>
     </row>
-    <row r="38" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="36"/>
       <c r="B38" s="36"/>
       <c r="C38" s="36"/>
@@ -2202,7 +2231,7 @@
       <c r="H38" s="36"/>
       <c r="I38" s="36"/>
     </row>
-    <row r="39" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="50"/>
       <c r="B39" s="52" t="s">
         <v>1</v>
@@ -2217,7 +2246,7 @@
       <c r="H39" s="36"/>
       <c r="I39" s="36"/>
     </row>
-    <row r="40" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="36"/>
       <c r="B40" s="36"/>
       <c r="C40" s="42"/>
@@ -2230,7 +2259,7 @@
       <c r="H40" s="36"/>
       <c r="I40" s="36"/>
     </row>
-    <row r="41" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="36"/>
       <c r="B41" s="36"/>
       <c r="C41" s="43"/>
@@ -2245,7 +2274,7 @@
       <c r="H41" s="36"/>
       <c r="I41" s="36"/>
     </row>
-    <row r="42" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="36"/>
       <c r="B42" s="36"/>
       <c r="C42" s="43"/>
@@ -2258,7 +2287,7 @@
       <c r="H42" s="36"/>
       <c r="I42" s="36"/>
     </row>
-    <row r="43" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="50"/>
       <c r="B43" s="36"/>
       <c r="C43" s="43"/>
@@ -2271,7 +2300,7 @@
       <c r="H43" s="36"/>
       <c r="I43" s="36"/>
     </row>
-    <row r="44" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="36"/>
       <c r="B44" s="36"/>
       <c r="C44" s="43">
@@ -2284,7 +2313,7 @@
       <c r="H44" s="36"/>
       <c r="I44" s="36"/>
     </row>
-    <row r="45" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="36"/>
       <c r="B45" s="36"/>
       <c r="C45" s="43"/>
@@ -2295,7 +2324,7 @@
       <c r="H45" s="36"/>
       <c r="I45" s="36"/>
     </row>
-    <row r="46" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="36"/>
       <c r="B46" s="36"/>
       <c r="C46" s="43"/>
@@ -2306,7 +2335,7 @@
       <c r="H46" s="36"/>
       <c r="I46" s="36"/>
     </row>
-    <row r="47" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="50"/>
       <c r="B47" s="52" t="s">
         <v>2</v>
@@ -2321,7 +2350,7 @@
       <c r="H47" s="36"/>
       <c r="I47" s="36"/>
     </row>
-    <row r="48" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="36"/>
       <c r="B48" s="36"/>
       <c r="C48" s="36"/>
@@ -2334,7 +2363,7 @@
       <c r="H48" s="36"/>
       <c r="I48" s="36"/>
     </row>
-    <row r="49" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="36"/>
       <c r="B49" s="36"/>
       <c r="C49" s="36"/>
@@ -2347,7 +2376,7 @@
       <c r="H49" s="36"/>
       <c r="I49" s="36"/>
     </row>
-    <row r="50" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="36"/>
       <c r="B50" s="36"/>
       <c r="C50" s="36"/>
@@ -2358,7 +2387,7 @@
       <c r="H50" s="36"/>
       <c r="I50" s="36"/>
     </row>
-    <row r="51" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="50"/>
       <c r="B51" s="36"/>
       <c r="C51" s="36"/>
@@ -2369,7 +2398,7 @@
       <c r="H51" s="36"/>
       <c r="I51" s="36"/>
     </row>
-    <row r="52" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="36"/>
       <c r="B52" s="36"/>
       <c r="C52" s="50" t="s">
@@ -2384,7 +2413,7 @@
       <c r="H52" s="36"/>
       <c r="I52" s="36"/>
     </row>
-    <row r="53" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="36"/>
       <c r="B53" s="36"/>
       <c r="C53" s="36"/>
@@ -2395,7 +2424,7 @@
       <c r="H53" s="36"/>
       <c r="I53" s="36"/>
     </row>
-    <row r="54" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="36"/>
       <c r="B54" s="36"/>
       <c r="C54" s="36"/>
@@ -2406,7 +2435,7 @@
       <c r="H54" s="36"/>
       <c r="I54" s="36"/>
     </row>
-    <row r="55" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="50"/>
       <c r="B55" s="52" t="s">
         <v>3</v>
@@ -2421,7 +2450,7 @@
       <c r="H55" s="36"/>
       <c r="I55" s="36"/>
     </row>
-    <row r="56" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="36"/>
       <c r="B56" s="36"/>
       <c r="C56" s="42"/>
@@ -2434,7 +2463,7 @@
       <c r="H56" s="36"/>
       <c r="I56" s="36"/>
     </row>
-    <row r="57" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="36"/>
       <c r="B57" s="36"/>
       <c r="C57" s="43"/>
@@ -2447,7 +2476,7 @@
       <c r="H57" s="55"/>
       <c r="I57" s="55"/>
     </row>
-    <row r="58" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="36"/>
       <c r="B58" s="36"/>
       <c r="C58" s="43"/>
@@ -2458,7 +2487,7 @@
       <c r="H58" s="36"/>
       <c r="I58" s="36"/>
     </row>
-    <row r="59" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="50"/>
       <c r="B59" s="36"/>
       <c r="C59" s="43"/>
@@ -2471,7 +2500,7 @@
       <c r="H59" s="36"/>
       <c r="I59" s="36"/>
     </row>
-    <row r="60" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="36"/>
       <c r="B60" s="36"/>
       <c r="C60" s="43">
@@ -2484,7 +2513,7 @@
       <c r="H60" s="36"/>
       <c r="I60" s="36"/>
     </row>
-    <row r="61" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="36"/>
       <c r="B61" s="36"/>
       <c r="C61" s="43"/>
@@ -2495,7 +2524,7 @@
       <c r="H61" s="36"/>
       <c r="I61" s="36"/>
     </row>
-    <row r="62" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="36"/>
       <c r="B62" s="36"/>
       <c r="C62" s="43"/>
@@ -2506,7 +2535,7 @@
       <c r="H62" s="36"/>
       <c r="I62" s="36"/>
     </row>
-    <row r="63" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="50"/>
       <c r="B63" s="52" t="s">
         <v>4</v>
@@ -2521,7 +2550,7 @@
       <c r="H63" s="36"/>
       <c r="I63" s="36"/>
     </row>
-    <row r="64" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="36"/>
       <c r="B64" s="36"/>
       <c r="C64" s="40"/>
@@ -2532,7 +2561,7 @@
       <c r="H64" s="40"/>
       <c r="I64" s="36"/>
     </row>
-    <row r="65" spans="1:9" s="4" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="36"/>
       <c r="B65" s="36"/>
       <c r="C65" s="40"/>
@@ -2543,7 +2572,7 @@
       <c r="H65" s="40"/>
       <c r="I65" s="36"/>
     </row>
-    <row r="66" spans="1:9" s="12" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:9" s="12" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="41"/>
       <c r="B66" s="66" t="s">
         <v>54</v>
@@ -2560,7 +2589,7 @@
       <c r="H66" s="40"/>
       <c r="I66" s="41"/>
     </row>
-    <row r="67" spans="1:9" ht="11.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:9" ht="11.85" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="56"/>
       <c r="C67" s="68"/>
       <c r="D67" s="42"/>
@@ -2570,7 +2599,7 @@
       <c r="H67" s="40"/>
       <c r="I67" s="57"/>
     </row>
-    <row r="68" spans="1:9" ht="11.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:9" ht="11.85" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="57"/>
       <c r="D68" s="16"/>
       <c r="E68" s="64"/>
@@ -2579,7 +2608,7 @@
       <c r="H68" s="40"/>
       <c r="I68" s="57"/>
     </row>
-    <row r="69" spans="1:9" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="57"/>
       <c r="D69" s="16"/>
       <c r="E69" s="64"/>
@@ -2588,7 +2617,7 @@
       <c r="H69" s="57"/>
       <c r="I69" s="57"/>
     </row>
-    <row r="70" spans="1:9" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="57"/>
       <c r="D70" s="16"/>
       <c r="E70" s="7" t="s">
@@ -2601,7 +2630,7 @@
       <c r="H70" s="57"/>
       <c r="I70" s="57"/>
     </row>
-    <row r="71" spans="1:9" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="57"/>
       <c r="D71" s="62"/>
       <c r="E71" s="64"/>
@@ -2610,19 +2639,19 @@
       <c r="H71" s="57"/>
       <c r="I71" s="57"/>
     </row>
-    <row r="72" spans="1:9" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D72" s="16"/>
       <c r="E72" s="64"/>
       <c r="F72" s="64"/>
       <c r="G72" s="64"/>
     </row>
-    <row r="73" spans="1:9" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D73" s="16"/>
       <c r="E73" s="64"/>
       <c r="F73" s="64"/>
       <c r="G73" s="64"/>
     </row>
-    <row r="74" spans="1:9" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C74" s="68" t="s">
         <v>61</v>
       </c>
@@ -2633,23 +2662,23 @@
       <c r="F74" s="64"/>
       <c r="G74" s="64"/>
     </row>
-    <row r="75" spans="1:9" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C75" s="64"/>
       <c r="D75" s="64"/>
       <c r="E75" s="64"/>
       <c r="F75" s="64"/>
       <c r="G75" s="64"/>
     </row>
-    <row r="76" spans="1:9" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G76" s="64"/>
     </row>
-    <row r="77" spans="1:9" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G77" s="64"/>
     </row>
-    <row r="78" spans="1:9" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G78" s="64"/>
     </row>
-    <row r="79" spans="1:9" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B79" s="65" t="s">
         <v>55</v>
       </c>
@@ -2658,7 +2687,7 @@
       <c r="E79" s="57"/>
       <c r="G79" s="64"/>
     </row>
-    <row r="80" spans="1:9" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B80" s="67" t="s">
         <v>58</v>
       </c>
@@ -2668,23 +2697,23 @@
       <c r="D80" s="63"/>
       <c r="E80" s="63"/>
     </row>
-    <row r="81" spans="2:5" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:5" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B81" s="57"/>
       <c r="C81" s="42"/>
       <c r="D81" s="63"/>
       <c r="E81" s="63"/>
     </row>
-    <row r="82" spans="2:5" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:5" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C82" s="16"/>
       <c r="D82" s="64"/>
       <c r="E82" s="64"/>
     </row>
-    <row r="83" spans="2:5" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:5" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C83" s="16"/>
       <c r="D83" s="64"/>
       <c r="E83" s="64"/>
     </row>
-    <row r="84" spans="2:5" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:5" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C84" s="16"/>
       <c r="D84" s="7" t="s">
         <v>63</v>
@@ -2693,22 +2722,22 @@
         <v>53</v>
       </c>
     </row>
-    <row r="85" spans="2:5" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:5" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C85" s="62"/>
       <c r="D85" s="64"/>
       <c r="E85" s="64"/>
     </row>
-    <row r="86" spans="2:5" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:5" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C86" s="16"/>
       <c r="D86" s="64"/>
       <c r="E86" s="64"/>
     </row>
-    <row r="87" spans="2:5" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:5" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C87" s="16"/>
       <c r="D87" s="64"/>
       <c r="E87" s="64"/>
     </row>
-    <row r="88" spans="2:5" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:5" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B88" s="68" t="s">
         <v>59</v>
       </c>
@@ -2718,8 +2747,8 @@
       <c r="D88" s="64"/>
       <c r="E88" s="64"/>
     </row>
-    <row r="89" spans="2:5" ht="11.9" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="90" spans="2:5" ht="11.9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="89" spans="2:5" ht="11.85" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="90" spans="2:5" ht="11.85" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="C1:H2"/>
@@ -2736,44 +2765,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC41AD02-D213-4B8C-8C48-D69FD6AD7D98}">
   <dimension ref="A1:K90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.36328125" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="17.375" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.7265625" style="57" customWidth="1"/>
-    <col min="2" max="7" width="12.26953125" style="57" customWidth="1"/>
-    <col min="8" max="8" width="12.7265625" style="57" customWidth="1"/>
-    <col min="9" max="9" width="12.90625" style="57" customWidth="1"/>
-    <col min="10" max="16384" width="17.36328125" style="57"/>
+    <col min="1" max="1" width="2.75" style="57" customWidth="1"/>
+    <col min="2" max="7" width="12.25" style="57" customWidth="1"/>
+    <col min="8" max="8" width="12.75" style="57" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="57" customWidth="1"/>
+    <col min="10" max="16384" width="17.375" style="57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="58"/>
       <c r="B1" s="40"/>
-      <c r="C1" s="88" t="s">
+      <c r="C1" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
       <c r="I1" s="40"/>
     </row>
-    <row r="2" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="89"/>
-      <c r="B2" s="89"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
+    <row r="2" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="87"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
       <c r="I2" s="40"/>
     </row>
-    <row r="3" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="75"/>
       <c r="B3" s="38" t="s">
         <v>26</v>
@@ -2786,47 +2815,47 @@
       <c r="H3" s="74"/>
       <c r="I3" s="40"/>
     </row>
-    <row r="4" spans="1:9" s="41" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" s="41" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
     </row>
-    <row r="5" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="36" t="s">
         <v>83</v>
       </c>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
     </row>
-    <row r="6" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="42"/>
       <c r="F6" s="14"/>
     </row>
-    <row r="7" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="43"/>
       <c r="C7" s="36" t="s">
         <v>93</v>
       </c>
       <c r="F7" s="14"/>
     </row>
-    <row r="8" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="43">
         <v>1</v>
       </c>
       <c r="C8" s="42"/>
       <c r="F8" s="14"/>
     </row>
-    <row r="9" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C9" s="43"/>
       <c r="F9" s="14"/>
     </row>
-    <row r="10" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="43"/>
       <c r="F10" s="14"/>
     </row>
-    <row r="11" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="43"/>
       <c r="D11" s="36" t="s">
         <v>80</v>
@@ -2836,7 +2865,7 @@
       </c>
       <c r="F11" s="14"/>
     </row>
-    <row r="12" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="44">
         <v>7</v>
       </c>
@@ -2844,20 +2873,20 @@
       <c r="E12" s="42"/>
       <c r="F12" s="14"/>
     </row>
-    <row r="13" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="59" t="s">
         <v>85</v>
       </c>
       <c r="C13" s="43"/>
       <c r="E13" s="43"/>
     </row>
-    <row r="14" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="42"/>
       <c r="C14" s="43"/>
       <c r="E14" s="43"/>
       <c r="F14" s="19"/>
     </row>
-    <row r="15" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="43"/>
       <c r="C15" s="34" t="s">
         <v>85</v>
@@ -2865,51 +2894,51 @@
       <c r="E15" s="43"/>
       <c r="F15" s="19"/>
     </row>
-    <row r="16" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="43">
         <v>2</v>
       </c>
       <c r="E16" s="43"/>
       <c r="F16" s="19"/>
     </row>
-    <row r="17" spans="2:11" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="35" t="s">
         <v>86</v>
       </c>
       <c r="E17" s="43"/>
       <c r="F17" s="19"/>
     </row>
-    <row r="18" spans="2:11" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E18" s="43"/>
       <c r="F18" s="32"/>
       <c r="G18" s="76" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="19" spans="2:11" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E19" s="43">
         <v>12</v>
       </c>
       <c r="F19" s="19"/>
       <c r="G19" s="42"/>
     </row>
-    <row r="20" spans="2:11" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E20" s="43"/>
       <c r="G20" s="43"/>
     </row>
-    <row r="21" spans="2:11" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="6" t="s">
         <v>81</v>
       </c>
       <c r="E21" s="43"/>
       <c r="G21" s="43"/>
     </row>
-    <row r="22" spans="2:11" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="42"/>
       <c r="E22" s="43"/>
       <c r="G22" s="43"/>
     </row>
-    <row r="23" spans="2:11" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="43"/>
       <c r="C23" s="6" t="s">
         <v>81</v>
@@ -2917,7 +2946,7 @@
       <c r="E23" s="43"/>
       <c r="G23" s="43"/>
     </row>
-    <row r="24" spans="2:11" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="43">
         <v>3</v>
       </c>
@@ -2926,7 +2955,7 @@
       <c r="G24" s="43"/>
       <c r="I24" s="47"/>
     </row>
-    <row r="25" spans="2:11" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="35" t="s">
         <v>82</v>
       </c>
@@ -2935,13 +2964,13 @@
       <c r="G25" s="43"/>
       <c r="I25" s="43"/>
     </row>
-    <row r="26" spans="2:11" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C26" s="43"/>
       <c r="E26" s="43"/>
       <c r="G26" s="43"/>
       <c r="I26" s="43"/>
     </row>
-    <row r="27" spans="2:11" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C27" s="43"/>
       <c r="D27" s="33" t="s">
         <v>95</v>
@@ -2953,21 +2982,21 @@
       <c r="I27" s="43">
         <v>15</v>
       </c>
-      <c r="J27" s="82" t="s">
+      <c r="J27" s="78" t="s">
         <v>103</v>
       </c>
       <c r="K27" s="36" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="2:11" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C28" s="43">
         <v>8</v>
       </c>
       <c r="G28" s="43"/>
       <c r="I28" s="43"/>
     </row>
-    <row r="29" spans="2:11" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="6" t="s">
         <v>87</v>
       </c>
@@ -2975,7 +3004,7 @@
       <c r="G29" s="43"/>
       <c r="I29" s="35"/>
     </row>
-    <row r="30" spans="2:11" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="42"/>
       <c r="C30" s="43"/>
       <c r="G30" s="43">
@@ -2983,20 +3012,20 @@
       </c>
       <c r="H30" s="45"/>
     </row>
-    <row r="31" spans="2:11" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="43"/>
       <c r="C31" s="46" t="s">
         <v>94</v>
       </c>
       <c r="G31" s="43"/>
     </row>
-    <row r="32" spans="2:11" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="43">
         <v>4</v>
       </c>
       <c r="G32" s="43"/>
     </row>
-    <row r="33" spans="1:7" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="35" t="s">
         <v>88</v>
       </c>
@@ -3008,21 +3037,21 @@
       </c>
       <c r="G33" s="43"/>
     </row>
-    <row r="34" spans="1:7" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F34" s="42"/>
       <c r="G34" s="43"/>
     </row>
-    <row r="35" spans="1:7" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="87"/>
-      <c r="B35" s="87"/>
+    <row r="35" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="85"/>
+      <c r="B35" s="85"/>
       <c r="F35" s="43"/>
       <c r="G35" s="43"/>
     </row>
-    <row r="36" spans="1:7" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="90" t="s">
+    <row r="36" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="90"/>
+      <c r="B36" s="88"/>
       <c r="C36" s="50" t="s">
         <v>6</v>
       </c>
@@ -3032,17 +3061,17 @@
       <c r="F36" s="43"/>
       <c r="G36" s="43"/>
     </row>
-    <row r="37" spans="1:7" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D37" s="43"/>
       <c r="F37" s="43"/>
       <c r="G37" s="43"/>
     </row>
-    <row r="38" spans="1:7" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D38" s="43"/>
       <c r="F38" s="51"/>
       <c r="G38" s="43"/>
     </row>
-    <row r="39" spans="1:7" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="50"/>
       <c r="B39" s="52" t="s">
         <v>1</v>
@@ -3054,7 +3083,7 @@
       <c r="F39" s="51"/>
       <c r="G39" s="43"/>
     </row>
-    <row r="40" spans="1:7" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C40" s="42"/>
       <c r="D40" s="43"/>
       <c r="E40" s="33" t="s">
@@ -3063,7 +3092,7 @@
       <c r="F40" s="43"/>
       <c r="G40" s="43"/>
     </row>
-    <row r="41" spans="1:7" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C41" s="43"/>
       <c r="D41" s="43">
         <v>9</v>
@@ -3074,7 +3103,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="42" spans="1:7" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C42" s="43"/>
       <c r="D42" s="43"/>
       <c r="E42" s="43"/>
@@ -3082,7 +3111,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:7" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="50"/>
       <c r="C43" s="43"/>
       <c r="D43" s="2" t="s">
@@ -3091,7 +3120,7 @@
       <c r="E43" s="43"/>
       <c r="F43" s="43"/>
     </row>
-    <row r="44" spans="1:7" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C44" s="43">
         <v>5</v>
       </c>
@@ -3099,18 +3128,18 @@
       <c r="E44" s="43"/>
       <c r="F44" s="43"/>
     </row>
-    <row r="45" spans="1:7" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C45" s="43"/>
       <c r="E45" s="43"/>
       <c r="F45" s="43"/>
     </row>
-    <row r="46" spans="1:7" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C46" s="43"/>
       <c r="D46" s="53"/>
       <c r="E46" s="43"/>
       <c r="F46" s="43"/>
     </row>
-    <row r="47" spans="1:7" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="50"/>
       <c r="B47" s="52" t="s">
         <v>2</v>
@@ -3121,26 +3150,26 @@
       <c r="E47" s="43"/>
       <c r="F47" s="43"/>
     </row>
-    <row r="48" spans="1:7" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E48" s="43"/>
       <c r="F48" s="46" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E49" s="36">
         <v>11</v>
       </c>
       <c r="F49" s="53"/>
     </row>
-    <row r="50" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F50" s="53"/>
     </row>
-    <row r="51" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="50"/>
       <c r="E51" s="43"/>
     </row>
-    <row r="52" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C52" s="50" t="s">
         <v>5</v>
       </c>
@@ -3149,15 +3178,15 @@
       </c>
       <c r="E52" s="43"/>
     </row>
-    <row r="53" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D53" s="42"/>
       <c r="E53" s="54"/>
     </row>
-    <row r="54" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D54" s="43"/>
       <c r="E54" s="54"/>
     </row>
-    <row r="55" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="50"/>
       <c r="B55" s="52" t="s">
         <v>3</v>
@@ -3168,14 +3197,14 @@
       <c r="D55" s="43"/>
       <c r="E55" s="54"/>
     </row>
-    <row r="56" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C56" s="42"/>
       <c r="D56" s="43"/>
       <c r="E56" s="46" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="57" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C57" s="43"/>
       <c r="D57" s="43">
         <v>10</v>
@@ -3183,29 +3212,29 @@
       <c r="H57" s="55"/>
       <c r="I57" s="55"/>
     </row>
-    <row r="58" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C58" s="43"/>
       <c r="D58" s="43"/>
     </row>
-    <row r="59" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="50"/>
       <c r="C59" s="43"/>
       <c r="D59" s="34" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="60" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C60" s="43">
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C61" s="43"/>
     </row>
-    <row r="62" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C62" s="43"/>
     </row>
-    <row r="63" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="50"/>
       <c r="B63" s="52" t="s">
         <v>4</v>
@@ -3214,7 +3243,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="64" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C64" s="40"/>
       <c r="D64" s="40"/>
       <c r="E64" s="40"/>
@@ -3222,7 +3251,7 @@
       <c r="G64" s="40"/>
       <c r="H64" s="40"/>
     </row>
-    <row r="65" spans="1:8" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:8" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C65" s="40"/>
       <c r="D65" s="40"/>
       <c r="E65" s="40"/>
@@ -3230,7 +3259,7 @@
       <c r="G65" s="40"/>
       <c r="H65" s="40"/>
     </row>
-    <row r="66" spans="1:8" s="41" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:8" s="41" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B66" s="11"/>
       <c r="C66" s="11"/>
       <c r="D66" s="11"/>
@@ -3239,7 +3268,7 @@
       <c r="G66" s="57"/>
       <c r="H66" s="40"/>
     </row>
-    <row r="67" spans="1:8" ht="11.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="56"/>
       <c r="B67" s="66" t="s">
         <v>54</v>
@@ -3254,7 +3283,7 @@
       <c r="F67" s="63"/>
       <c r="H67" s="40"/>
     </row>
-    <row r="68" spans="1:8" ht="11.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B68" s="11"/>
       <c r="C68" s="68"/>
       <c r="D68" s="42"/>
@@ -3262,21 +3291,21 @@
       <c r="F68" s="63"/>
       <c r="H68" s="40"/>
     </row>
-    <row r="69" spans="1:8" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
       <c r="D69" s="16"/>
       <c r="E69" s="64"/>
       <c r="F69" s="64"/>
     </row>
-    <row r="70" spans="1:8" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
       <c r="D70" s="16"/>
       <c r="E70" s="64"/>
       <c r="F70" s="64"/>
     </row>
-    <row r="71" spans="1:8" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
       <c r="D71" s="16"/>
@@ -3287,28 +3316,28 @@
         <v>56</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
       <c r="D72" s="62"/>
       <c r="E72" s="64"/>
       <c r="F72" s="64"/>
     </row>
-    <row r="73" spans="1:8" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
       <c r="D73" s="16"/>
       <c r="E73" s="64"/>
       <c r="F73" s="64"/>
     </row>
-    <row r="74" spans="1:8" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
       <c r="D74" s="16"/>
       <c r="E74" s="64"/>
       <c r="F74" s="64"/>
     </row>
-    <row r="75" spans="1:8" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B75" s="11"/>
       <c r="C75" s="68" t="s">
         <v>61</v>
@@ -3319,41 +3348,41 @@
       <c r="E75" s="64"/>
       <c r="F75" s="64"/>
     </row>
-    <row r="76" spans="1:8" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B76" s="11"/>
       <c r="C76" s="64"/>
       <c r="D76" s="64"/>
       <c r="E76" s="64"/>
       <c r="F76" s="64"/>
     </row>
-    <row r="77" spans="1:8" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
       <c r="D77" s="11"/>
       <c r="E77" s="11"/>
       <c r="F77" s="11"/>
     </row>
-    <row r="78" spans="1:8" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
       <c r="D78" s="11"/>
       <c r="E78" s="11"/>
       <c r="F78" s="11"/>
     </row>
-    <row r="79" spans="1:8" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B79" s="11"/>
       <c r="C79" s="11"/>
       <c r="D79" s="11"/>
       <c r="E79" s="11"/>
       <c r="F79" s="11"/>
     </row>
-    <row r="80" spans="1:8" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B80" s="65" t="s">
         <v>55</v>
       </c>
       <c r="F80" s="11"/>
     </row>
-    <row r="81" spans="2:6" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:6" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B81" s="67" t="s">
         <v>58</v>
       </c>
@@ -3364,27 +3393,27 @@
       <c r="E81" s="63"/>
       <c r="F81" s="11"/>
     </row>
-    <row r="82" spans="2:6" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:6" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C82" s="42"/>
       <c r="D82" s="63"/>
       <c r="E82" s="63"/>
       <c r="F82" s="11"/>
     </row>
-    <row r="83" spans="2:6" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:6" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B83" s="11"/>
       <c r="C83" s="16"/>
       <c r="D83" s="64"/>
       <c r="E83" s="64"/>
       <c r="F83" s="11"/>
     </row>
-    <row r="84" spans="2:6" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:6" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B84" s="11"/>
       <c r="C84" s="16"/>
       <c r="D84" s="64"/>
       <c r="E84" s="64"/>
       <c r="F84" s="11"/>
     </row>
-    <row r="85" spans="2:6" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:6" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B85" s="11"/>
       <c r="C85" s="16"/>
       <c r="D85" s="7" t="s">
@@ -3395,28 +3424,28 @@
       </c>
       <c r="F85" s="11"/>
     </row>
-    <row r="86" spans="2:6" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:6" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B86" s="11"/>
       <c r="C86" s="62"/>
       <c r="D86" s="64"/>
       <c r="E86" s="64"/>
       <c r="F86" s="11"/>
     </row>
-    <row r="87" spans="2:6" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:6" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B87" s="11"/>
       <c r="C87" s="16"/>
       <c r="D87" s="64"/>
       <c r="E87" s="64"/>
       <c r="F87" s="11"/>
     </row>
-    <row r="88" spans="2:6" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:6" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B88" s="11"/>
       <c r="C88" s="16"/>
       <c r="D88" s="64"/>
       <c r="E88" s="64"/>
       <c r="F88" s="11"/>
     </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B89" s="68" t="s">
         <v>59</v>
       </c>
@@ -3427,7 +3456,7 @@
       <c r="E89" s="64"/>
       <c r="F89" s="11"/>
     </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
       <c r="D90" s="11"/>
@@ -3449,95 +3478,100 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D10CBD3F-029F-4541-8142-F43EE81AFB98}">
-  <dimension ref="A1:K90"/>
+  <dimension ref="A1:K89"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="D85" sqref="D85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.36328125" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="17.375" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.7265625" style="57" customWidth="1"/>
-    <col min="2" max="7" width="12.26953125" style="57" customWidth="1"/>
-    <col min="8" max="8" width="12.7265625" style="57" customWidth="1"/>
-    <col min="9" max="9" width="12.90625" style="57" customWidth="1"/>
-    <col min="10" max="16384" width="17.36328125" style="57"/>
+    <col min="1" max="1" width="2.75" style="57" customWidth="1"/>
+    <col min="2" max="7" width="12.25" style="57" customWidth="1"/>
+    <col min="8" max="8" width="12.75" style="57" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="57" customWidth="1"/>
+    <col min="10" max="16384" width="17.375" style="57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="58"/>
       <c r="B1" s="40"/>
-      <c r="C1" s="88" t="s">
+      <c r="C1" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
       <c r="I1" s="40"/>
     </row>
-    <row r="2" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="89"/>
-      <c r="B2" s="89"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
+    <row r="2" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="87"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
       <c r="I2" s="40"/>
     </row>
-    <row r="3" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="79"/>
+    <row r="3" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="80"/>
       <c r="B3" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
       <c r="I3" s="40"/>
     </row>
-    <row r="4" spans="1:9" s="41" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" s="41" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
     </row>
-    <row r="5" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="36" t="s">
+        <v>80</v>
+      </c>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
     </row>
-    <row r="6" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="42"/>
       <c r="F6" s="14"/>
     </row>
-    <row r="7" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="43"/>
       <c r="F7" s="14"/>
     </row>
-    <row r="8" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="43">
         <v>1</v>
       </c>
       <c r="C8" s="42"/>
       <c r="F8" s="14"/>
     </row>
-    <row r="9" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="2"/>
+    <row r="9" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="35" t="s">
+        <v>104</v>
+      </c>
       <c r="C9" s="43"/>
       <c r="F9" s="14"/>
     </row>
-    <row r="10" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="43"/>
       <c r="F10" s="14"/>
     </row>
-    <row r="11" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="43"/>
       <c r="F11" s="14"/>
     </row>
-    <row r="12" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="44">
         <v>7</v>
       </c>
@@ -3545,68 +3579,73 @@
       <c r="E12" s="42"/>
       <c r="F12" s="14"/>
     </row>
-    <row r="13" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="59"/>
+    <row r="13" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="89" t="s">
+        <v>105</v>
+      </c>
       <c r="C13" s="43"/>
       <c r="E13" s="43"/>
     </row>
-    <row r="14" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="42"/>
       <c r="C14" s="43"/>
       <c r="E14" s="43"/>
       <c r="F14" s="19"/>
     </row>
-    <row r="15" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="43"/>
-      <c r="C15" s="34"/>
+      <c r="C15" s="46"/>
       <c r="E15" s="43"/>
       <c r="F15" s="19"/>
     </row>
-    <row r="16" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="43">
         <v>2</v>
       </c>
       <c r="E16" s="43"/>
       <c r="F16" s="19"/>
     </row>
-    <row r="17" spans="2:11" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="35"/>
+    <row r="17" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="35" t="s">
+        <v>106</v>
+      </c>
       <c r="E17" s="43"/>
       <c r="F17" s="19"/>
     </row>
-    <row r="18" spans="2:11" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E18" s="43"/>
       <c r="F18" s="32"/>
-      <c r="G18" s="76"/>
-    </row>
-    <row r="19" spans="2:11" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G18" s="47"/>
+    </row>
+    <row r="19" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E19" s="43">
         <v>12</v>
       </c>
       <c r="F19" s="19"/>
       <c r="G19" s="42"/>
     </row>
-    <row r="20" spans="2:11" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E20" s="43"/>
       <c r="G20" s="43"/>
     </row>
-    <row r="21" spans="2:11" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="6"/>
+    <row r="21" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="36" t="s">
+        <v>107</v>
+      </c>
       <c r="E21" s="43"/>
       <c r="G21" s="43"/>
     </row>
-    <row r="22" spans="2:11" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="42"/>
       <c r="E22" s="43"/>
       <c r="G22" s="43"/>
     </row>
-    <row r="23" spans="2:11" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="43"/>
-      <c r="C23" s="6"/>
       <c r="E23" s="43"/>
       <c r="G23" s="43"/>
     </row>
-    <row r="24" spans="2:11" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="43">
         <v>3</v>
       </c>
@@ -3615,46 +3654,50 @@
       <c r="G24" s="43"/>
       <c r="I24" s="47"/>
     </row>
-    <row r="25" spans="2:11" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="35"/>
+    <row r="25" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="35" t="s">
+        <v>108</v>
+      </c>
       <c r="C25" s="43"/>
       <c r="E25" s="43"/>
       <c r="G25" s="43"/>
       <c r="I25" s="43"/>
     </row>
-    <row r="26" spans="2:11" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C26" s="43"/>
       <c r="E26" s="43"/>
       <c r="G26" s="43"/>
       <c r="I26" s="43"/>
     </row>
-    <row r="27" spans="2:11" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C27" s="43"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="2"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="35"/>
       <c r="G27" s="43"/>
       <c r="I27" s="43">
         <v>15</v>
       </c>
-      <c r="J27" s="82"/>
+      <c r="J27" s="90"/>
       <c r="K27" s="36" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="2:11" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C28" s="43">
         <v>8</v>
       </c>
       <c r="G28" s="43"/>
       <c r="I28" s="43"/>
     </row>
-    <row r="29" spans="2:11" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="6"/>
+    <row r="29" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="36" t="s">
+        <v>43</v>
+      </c>
       <c r="C29" s="43"/>
       <c r="G29" s="43"/>
       <c r="I29" s="35"/>
     </row>
-    <row r="30" spans="2:11" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="42"/>
       <c r="C30" s="43"/>
       <c r="G30" s="43">
@@ -3662,40 +3705,41 @@
       </c>
       <c r="H30" s="45"/>
     </row>
-    <row r="31" spans="2:11" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="43"/>
       <c r="C31" s="46"/>
       <c r="G31" s="43"/>
     </row>
-    <row r="32" spans="2:11" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="43">
         <v>4</v>
       </c>
       <c r="G32" s="43"/>
     </row>
-    <row r="33" spans="1:7" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="35"/>
+    <row r="33" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="35" t="s">
+        <v>109</v>
+      </c>
       <c r="E33" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="F33" s="6"/>
       <c r="G33" s="43"/>
     </row>
-    <row r="34" spans="1:7" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F34" s="42"/>
       <c r="G34" s="43"/>
     </row>
-    <row r="35" spans="1:7" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="87"/>
-      <c r="B35" s="87"/>
+    <row r="35" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="85"/>
+      <c r="B35" s="85"/>
       <c r="F35" s="43"/>
       <c r="G35" s="43"/>
     </row>
-    <row r="36" spans="1:7" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="90" t="s">
+    <row r="36" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="90"/>
+      <c r="B36" s="88"/>
       <c r="C36" s="50" t="s">
         <v>6</v>
       </c>
@@ -3703,17 +3747,17 @@
       <c r="F36" s="43"/>
       <c r="G36" s="43"/>
     </row>
-    <row r="37" spans="1:7" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D37" s="43"/>
       <c r="F37" s="43"/>
       <c r="G37" s="43"/>
     </row>
-    <row r="38" spans="1:7" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D38" s="43"/>
       <c r="F38" s="51"/>
       <c r="G38" s="43"/>
     </row>
-    <row r="39" spans="1:7" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="50"/>
       <c r="B39" s="52" t="s">
         <v>1</v>
@@ -3722,14 +3766,14 @@
       <c r="F39" s="51"/>
       <c r="G39" s="43"/>
     </row>
-    <row r="40" spans="1:7" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C40" s="42"/>
       <c r="D40" s="43"/>
-      <c r="E40" s="33"/>
+      <c r="E40" s="49"/>
       <c r="F40" s="43"/>
       <c r="G40" s="43"/>
     </row>
-    <row r="41" spans="1:7" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C41" s="43"/>
       <c r="D41" s="43">
         <v>9</v>
@@ -3738,7 +3782,7 @@
       <c r="F41" s="43"/>
       <c r="G41" s="46"/>
     </row>
-    <row r="42" spans="1:7" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C42" s="43"/>
       <c r="D42" s="43"/>
       <c r="E42" s="43"/>
@@ -3746,14 +3790,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:7" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="50"/>
       <c r="C43" s="43"/>
-      <c r="D43" s="2"/>
+      <c r="D43" s="35"/>
       <c r="E43" s="43"/>
       <c r="F43" s="43"/>
     </row>
-    <row r="44" spans="1:7" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C44" s="43">
         <v>5</v>
       </c>
@@ -3761,58 +3805,58 @@
       <c r="E44" s="43"/>
       <c r="F44" s="43"/>
     </row>
-    <row r="45" spans="1:7" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C45" s="43"/>
       <c r="E45" s="43"/>
       <c r="F45" s="43"/>
     </row>
-    <row r="46" spans="1:7" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C46" s="43"/>
       <c r="D46" s="53"/>
       <c r="E46" s="43"/>
       <c r="F46" s="43"/>
     </row>
-    <row r="47" spans="1:7" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="50"/>
       <c r="B47" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="C47" s="2"/>
+      <c r="C47" s="35"/>
       <c r="E47" s="43"/>
       <c r="F47" s="43"/>
     </row>
-    <row r="48" spans="1:7" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E48" s="43"/>
       <c r="F48" s="46"/>
     </row>
-    <row r="49" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E49" s="36">
         <v>11</v>
       </c>
       <c r="F49" s="53"/>
     </row>
-    <row r="50" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F50" s="53"/>
     </row>
-    <row r="51" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="50"/>
       <c r="E51" s="43"/>
     </row>
-    <row r="52" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C52" s="50" t="s">
         <v>5</v>
       </c>
       <c r="E52" s="43"/>
     </row>
-    <row r="53" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D53" s="42"/>
       <c r="E53" s="54"/>
     </row>
-    <row r="54" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D54" s="43"/>
       <c r="E54" s="54"/>
     </row>
-    <row r="55" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="50"/>
       <c r="B55" s="52" t="s">
         <v>3</v>
@@ -3820,12 +3864,12 @@
       <c r="D55" s="43"/>
       <c r="E55" s="54"/>
     </row>
-    <row r="56" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C56" s="42"/>
       <c r="D56" s="43"/>
       <c r="E56" s="46"/>
     </row>
-    <row r="57" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C57" s="43"/>
       <c r="D57" s="43">
         <v>10</v>
@@ -3833,34 +3877,34 @@
       <c r="H57" s="55"/>
       <c r="I57" s="55"/>
     </row>
-    <row r="58" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C58" s="43"/>
       <c r="D58" s="43"/>
     </row>
-    <row r="59" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="50"/>
       <c r="C59" s="43"/>
-      <c r="D59" s="34"/>
-    </row>
-    <row r="60" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D59" s="46"/>
+    </row>
+    <row r="60" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C60" s="43">
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C61" s="43"/>
     </row>
-    <row r="62" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C62" s="43"/>
     </row>
-    <row r="63" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="50"/>
       <c r="B63" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="C63" s="2"/>
-    </row>
-    <row r="64" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C63" s="35"/>
+    </row>
+    <row r="64" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C64" s="40"/>
       <c r="D64" s="40"/>
       <c r="E64" s="40"/>
@@ -3868,7 +3912,7 @@
       <c r="G64" s="40"/>
       <c r="H64" s="40"/>
     </row>
-    <row r="65" spans="1:8" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:8" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C65" s="40"/>
       <c r="D65" s="40"/>
       <c r="E65" s="40"/>
@@ -3876,199 +3920,141 @@
       <c r="G65" s="40"/>
       <c r="H65" s="40"/>
     </row>
-    <row r="66" spans="1:8" s="41" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B66" s="11"/>
-      <c r="C66" s="11"/>
-      <c r="D66" s="11"/>
-      <c r="E66" s="11"/>
+    <row r="66" spans="1:8" s="41" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B66" s="57"/>
+      <c r="C66" s="57"/>
+      <c r="D66" s="57"/>
+      <c r="E66" s="57"/>
       <c r="F66" s="57"/>
       <c r="G66" s="57"/>
       <c r="H66" s="40"/>
     </row>
-    <row r="67" spans="1:8" ht="11.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="56"/>
-      <c r="B67" s="66" t="s">
+      <c r="B67" s="65" t="s">
         <v>54</v>
       </c>
-      <c r="C67" s="69" t="s">
+      <c r="C67" s="91" t="s">
         <v>60</v>
       </c>
-      <c r="D67" s="72"/>
+      <c r="D67" s="70"/>
       <c r="E67" s="63"/>
       <c r="F67" s="63"/>
       <c r="H67" s="40"/>
     </row>
-    <row r="68" spans="1:8" ht="11.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B68" s="11"/>
-      <c r="C68" s="68"/>
+    <row r="68" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C68" s="67"/>
       <c r="D68" s="42"/>
       <c r="E68" s="63"/>
       <c r="F68" s="63"/>
       <c r="H68" s="40"/>
     </row>
-    <row r="69" spans="1:8" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="11"/>
-      <c r="C69" s="11"/>
-      <c r="D69" s="16"/>
-      <c r="E69" s="64"/>
-      <c r="F69" s="64"/>
-    </row>
-    <row r="70" spans="1:8" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="11"/>
-      <c r="C70" s="11"/>
-      <c r="D70" s="16"/>
-      <c r="E70" s="64"/>
-      <c r="F70" s="64"/>
-    </row>
-    <row r="71" spans="1:8" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="11"/>
-      <c r="C71" s="11"/>
-      <c r="D71" s="16"/>
-      <c r="E71" s="77"/>
-      <c r="F71" s="64" t="s">
+    <row r="69" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D69" s="43"/>
+      <c r="E69" s="63"/>
+      <c r="F69" s="63"/>
+    </row>
+    <row r="70" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D70" s="43"/>
+      <c r="E70" s="63"/>
+      <c r="F70" s="63"/>
+    </row>
+    <row r="71" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D71" s="43"/>
+      <c r="E71" s="92"/>
+      <c r="F71" s="63" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="11"/>
-      <c r="C72" s="11"/>
-      <c r="D72" s="62"/>
-      <c r="E72" s="64"/>
-      <c r="F72" s="64"/>
-    </row>
-    <row r="73" spans="1:8" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="11"/>
-      <c r="C73" s="11"/>
-      <c r="D73" s="16"/>
-      <c r="E73" s="64"/>
-      <c r="F73" s="64"/>
-    </row>
-    <row r="74" spans="1:8" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="11"/>
-      <c r="C74" s="11"/>
-      <c r="D74" s="16"/>
-      <c r="E74" s="64"/>
-      <c r="F74" s="64"/>
-    </row>
-    <row r="75" spans="1:8" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="11"/>
-      <c r="C75" s="68" t="s">
+    <row r="72" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D72" s="93"/>
+      <c r="E72" s="63"/>
+      <c r="F72" s="63"/>
+    </row>
+    <row r="73" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D73" s="43"/>
+      <c r="E73" s="63"/>
+      <c r="F73" s="63"/>
+    </row>
+    <row r="74" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D74" s="43"/>
+      <c r="E74" s="63"/>
+      <c r="F74" s="63"/>
+    </row>
+    <row r="75" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C75" s="67" t="s">
         <v>61</v>
       </c>
-      <c r="D75" s="5"/>
-      <c r="E75" s="64"/>
-      <c r="F75" s="64"/>
-    </row>
-    <row r="76" spans="1:8" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="11"/>
-      <c r="C76" s="64"/>
-      <c r="D76" s="64"/>
-      <c r="E76" s="64"/>
-      <c r="F76" s="64"/>
-    </row>
-    <row r="77" spans="1:8" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="11"/>
-      <c r="C77" s="11"/>
-      <c r="D77" s="11"/>
-      <c r="E77" s="11"/>
-      <c r="F77" s="11"/>
-    </row>
-    <row r="78" spans="1:8" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="11"/>
-      <c r="C78" s="11"/>
-      <c r="D78" s="11"/>
-      <c r="E78" s="11"/>
-      <c r="F78" s="11"/>
-    </row>
-    <row r="79" spans="1:8" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B79" s="11"/>
-      <c r="C79" s="11"/>
-      <c r="D79" s="11"/>
-      <c r="E79" s="11"/>
-      <c r="F79" s="11"/>
-    </row>
-    <row r="80" spans="1:8" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D75" s="35"/>
+      <c r="E75" s="63"/>
+      <c r="F75" s="63"/>
+    </row>
+    <row r="76" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C76" s="63"/>
+      <c r="D76" s="63"/>
+      <c r="E76" s="63"/>
+      <c r="F76" s="63"/>
+    </row>
+    <row r="77" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="78" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="79" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="80" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B80" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="F80" s="11"/>
-    </row>
-    <row r="81" spans="2:6" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="81" spans="2:5" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B81" s="67" t="s">
         <v>58</v>
       </c>
       <c r="C81" s="47"/>
       <c r="D81" s="63"/>
       <c r="E81" s="63"/>
-      <c r="F81" s="11"/>
-    </row>
-    <row r="82" spans="2:6" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="82" spans="2:5" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C82" s="42"/>
       <c r="D82" s="63"/>
       <c r="E82" s="63"/>
-      <c r="F82" s="11"/>
-    </row>
-    <row r="83" spans="2:6" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B83" s="11"/>
-      <c r="C83" s="16"/>
-      <c r="D83" s="64"/>
-      <c r="E83" s="64"/>
-      <c r="F83" s="11"/>
-    </row>
-    <row r="84" spans="2:6" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="11"/>
-      <c r="C84" s="16"/>
-      <c r="D84" s="64"/>
-      <c r="E84" s="64"/>
-      <c r="F84" s="11"/>
-    </row>
-    <row r="85" spans="2:6" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B85" s="11"/>
-      <c r="C85" s="16"/>
-      <c r="D85" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="E85" s="64" t="s">
+    </row>
+    <row r="83" spans="2:5" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C83" s="43"/>
+      <c r="D83" s="63"/>
+      <c r="E83" s="63"/>
+    </row>
+    <row r="84" spans="2:5" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C84" s="43"/>
+      <c r="D84" s="63"/>
+      <c r="E84" s="63"/>
+    </row>
+    <row r="85" spans="2:5" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C85" s="43"/>
+      <c r="D85" s="49"/>
+      <c r="E85" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="F85" s="11"/>
-    </row>
-    <row r="86" spans="2:6" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B86" s="11"/>
-      <c r="C86" s="62"/>
-      <c r="D86" s="64"/>
-      <c r="E86" s="64"/>
-      <c r="F86" s="11"/>
-    </row>
-    <row r="87" spans="2:6" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B87" s="11"/>
-      <c r="C87" s="16"/>
-      <c r="D87" s="64"/>
-      <c r="E87" s="64"/>
-      <c r="F87" s="11"/>
-    </row>
-    <row r="88" spans="2:6" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B88" s="11"/>
-      <c r="C88" s="16"/>
-      <c r="D88" s="64"/>
-      <c r="E88" s="64"/>
-      <c r="F88" s="11"/>
-    </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B89" s="68" t="s">
+    </row>
+    <row r="86" spans="2:5" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C86" s="93"/>
+      <c r="D86" s="63"/>
+      <c r="E86" s="63"/>
+    </row>
+    <row r="87" spans="2:5" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C87" s="43"/>
+      <c r="D87" s="63"/>
+      <c r="E87" s="63"/>
+    </row>
+    <row r="88" spans="2:5" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C88" s="43"/>
+      <c r="D88" s="63"/>
+      <c r="E88" s="63"/>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B89" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="C89" s="2"/>
-      <c r="D89" s="64"/>
-      <c r="E89" s="64"/>
-      <c r="F89" s="11"/>
-    </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B90" s="11"/>
-      <c r="C90" s="11"/>
-      <c r="D90" s="11"/>
-      <c r="E90" s="11"/>
-      <c r="F90" s="11"/>
+      <c r="C89" s="35"/>
+      <c r="D89" s="63"/>
+      <c r="E89" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4084,95 +4070,95 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFDD3758-D1D3-4DDF-ADF0-FED2CD00CB37}">
-  <dimension ref="A1:K90"/>
+  <dimension ref="A1:K89"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.36328125" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="17.375" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.7265625" style="57" customWidth="1"/>
-    <col min="2" max="7" width="12.26953125" style="57" customWidth="1"/>
-    <col min="8" max="8" width="12.7265625" style="57" customWidth="1"/>
-    <col min="9" max="9" width="12.90625" style="57" customWidth="1"/>
-    <col min="10" max="16384" width="17.36328125" style="57"/>
+    <col min="1" max="1" width="2.75" style="57" customWidth="1"/>
+    <col min="2" max="7" width="12.25" style="57" customWidth="1"/>
+    <col min="8" max="8" width="12.75" style="57" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="57" customWidth="1"/>
+    <col min="10" max="16384" width="17.375" style="57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="58"/>
       <c r="B1" s="40"/>
-      <c r="C1" s="88" t="s">
+      <c r="C1" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
       <c r="I1" s="40"/>
     </row>
-    <row r="2" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="89"/>
-      <c r="B2" s="89"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
+    <row r="2" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="87"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
       <c r="I2" s="40"/>
     </row>
-    <row r="3" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="81"/>
+    <row r="3" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="80"/>
       <c r="B3" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
       <c r="I3" s="40"/>
     </row>
-    <row r="4" spans="1:9" s="41" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" s="41" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
     </row>
-    <row r="5" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
     </row>
-    <row r="6" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="42"/>
       <c r="F6" s="14"/>
     </row>
-    <row r="7" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="43"/>
       <c r="F7" s="14"/>
     </row>
-    <row r="8" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="43">
         <v>1</v>
       </c>
       <c r="C8" s="42"/>
       <c r="F8" s="14"/>
     </row>
-    <row r="9" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="2"/>
+    <row r="9" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="35"/>
       <c r="C9" s="43"/>
       <c r="F9" s="14"/>
     </row>
-    <row r="10" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="43"/>
       <c r="F10" s="14"/>
     </row>
-    <row r="11" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="43"/>
       <c r="F11" s="14"/>
     </row>
-    <row r="12" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="44">
         <v>7</v>
       </c>
@@ -4180,68 +4166,66 @@
       <c r="E12" s="42"/>
       <c r="F12" s="14"/>
     </row>
-    <row r="13" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="59"/>
+    <row r="13" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="89"/>
       <c r="C13" s="43"/>
       <c r="E13" s="43"/>
     </row>
-    <row r="14" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="42"/>
       <c r="C14" s="43"/>
       <c r="E14" s="43"/>
       <c r="F14" s="19"/>
     </row>
-    <row r="15" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="43"/>
-      <c r="C15" s="34"/>
+      <c r="C15" s="46"/>
       <c r="E15" s="43"/>
       <c r="F15" s="19"/>
     </row>
-    <row r="16" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="43">
         <v>2</v>
       </c>
       <c r="E16" s="43"/>
       <c r="F16" s="19"/>
     </row>
-    <row r="17" spans="2:11" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="35"/>
       <c r="E17" s="43"/>
       <c r="F17" s="19"/>
     </row>
-    <row r="18" spans="2:11" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E18" s="43"/>
       <c r="F18" s="32"/>
-      <c r="G18" s="76"/>
-    </row>
-    <row r="19" spans="2:11" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G18" s="47"/>
+    </row>
+    <row r="19" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E19" s="43">
         <v>12</v>
       </c>
       <c r="F19" s="19"/>
       <c r="G19" s="42"/>
     </row>
-    <row r="20" spans="2:11" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E20" s="43"/>
       <c r="G20" s="43"/>
     </row>
-    <row r="21" spans="2:11" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="6"/>
+    <row r="21" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E21" s="43"/>
       <c r="G21" s="43"/>
     </row>
-    <row r="22" spans="2:11" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="42"/>
       <c r="E22" s="43"/>
       <c r="G22" s="43"/>
     </row>
-    <row r="23" spans="2:11" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="43"/>
-      <c r="C23" s="6"/>
       <c r="E23" s="43"/>
       <c r="G23" s="43"/>
     </row>
-    <row r="24" spans="2:11" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="43">
         <v>3</v>
       </c>
@@ -4250,46 +4234,45 @@
       <c r="G24" s="43"/>
       <c r="I24" s="47"/>
     </row>
-    <row r="25" spans="2:11" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="35"/>
       <c r="C25" s="43"/>
       <c r="E25" s="43"/>
       <c r="G25" s="43"/>
       <c r="I25" s="43"/>
     </row>
-    <row r="26" spans="2:11" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C26" s="43"/>
       <c r="E26" s="43"/>
       <c r="G26" s="43"/>
       <c r="I26" s="43"/>
     </row>
-    <row r="27" spans="2:11" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C27" s="43"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="2"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="35"/>
       <c r="G27" s="43"/>
       <c r="I27" s="43">
         <v>15</v>
       </c>
-      <c r="J27" s="82"/>
+      <c r="J27" s="90"/>
       <c r="K27" s="36" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="2:11" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C28" s="43">
         <v>8</v>
       </c>
       <c r="G28" s="43"/>
       <c r="I28" s="43"/>
     </row>
-    <row r="29" spans="2:11" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="6"/>
+    <row r="29" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C29" s="43"/>
       <c r="G29" s="43"/>
       <c r="I29" s="35"/>
     </row>
-    <row r="30" spans="2:11" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="42"/>
       <c r="C30" s="43"/>
       <c r="G30" s="43">
@@ -4297,40 +4280,39 @@
       </c>
       <c r="H30" s="45"/>
     </row>
-    <row r="31" spans="2:11" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="43"/>
       <c r="C31" s="46"/>
       <c r="G31" s="43"/>
     </row>
-    <row r="32" spans="2:11" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="43">
         <v>4</v>
       </c>
       <c r="G32" s="43"/>
     </row>
-    <row r="33" spans="1:7" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="35"/>
       <c r="E33" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="F33" s="6"/>
       <c r="G33" s="43"/>
     </row>
-    <row r="34" spans="1:7" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F34" s="42"/>
       <c r="G34" s="43"/>
     </row>
-    <row r="35" spans="1:7" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="87"/>
-      <c r="B35" s="87"/>
+    <row r="35" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="85"/>
+      <c r="B35" s="85"/>
       <c r="F35" s="43"/>
       <c r="G35" s="43"/>
     </row>
-    <row r="36" spans="1:7" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="90" t="s">
+    <row r="36" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="90"/>
+      <c r="B36" s="88"/>
       <c r="C36" s="50" t="s">
         <v>6</v>
       </c>
@@ -4338,17 +4320,17 @@
       <c r="F36" s="43"/>
       <c r="G36" s="43"/>
     </row>
-    <row r="37" spans="1:7" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D37" s="43"/>
       <c r="F37" s="43"/>
       <c r="G37" s="43"/>
     </row>
-    <row r="38" spans="1:7" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D38" s="43"/>
       <c r="F38" s="51"/>
       <c r="G38" s="43"/>
     </row>
-    <row r="39" spans="1:7" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="50"/>
       <c r="B39" s="52" t="s">
         <v>1</v>
@@ -4357,14 +4339,14 @@
       <c r="F39" s="51"/>
       <c r="G39" s="43"/>
     </row>
-    <row r="40" spans="1:7" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C40" s="42"/>
       <c r="D40" s="43"/>
-      <c r="E40" s="33"/>
+      <c r="E40" s="49"/>
       <c r="F40" s="43"/>
       <c r="G40" s="43"/>
     </row>
-    <row r="41" spans="1:7" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C41" s="43"/>
       <c r="D41" s="43">
         <v>9</v>
@@ -4373,7 +4355,7 @@
       <c r="F41" s="43"/>
       <c r="G41" s="46"/>
     </row>
-    <row r="42" spans="1:7" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C42" s="43"/>
       <c r="D42" s="43"/>
       <c r="E42" s="43"/>
@@ -4381,14 +4363,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:7" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="50"/>
       <c r="C43" s="43"/>
-      <c r="D43" s="2"/>
+      <c r="D43" s="35"/>
       <c r="E43" s="43"/>
       <c r="F43" s="43"/>
     </row>
-    <row r="44" spans="1:7" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C44" s="43">
         <v>5</v>
       </c>
@@ -4396,58 +4378,58 @@
       <c r="E44" s="43"/>
       <c r="F44" s="43"/>
     </row>
-    <row r="45" spans="1:7" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C45" s="43"/>
       <c r="E45" s="43"/>
       <c r="F45" s="43"/>
     </row>
-    <row r="46" spans="1:7" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C46" s="43"/>
       <c r="D46" s="53"/>
       <c r="E46" s="43"/>
       <c r="F46" s="43"/>
     </row>
-    <row r="47" spans="1:7" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="50"/>
       <c r="B47" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="C47" s="2"/>
+      <c r="C47" s="35"/>
       <c r="E47" s="43"/>
       <c r="F47" s="43"/>
     </row>
-    <row r="48" spans="1:7" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E48" s="43"/>
       <c r="F48" s="46"/>
     </row>
-    <row r="49" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E49" s="36">
         <v>11</v>
       </c>
       <c r="F49" s="53"/>
     </row>
-    <row r="50" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F50" s="53"/>
     </row>
-    <row r="51" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="50"/>
       <c r="E51" s="43"/>
     </row>
-    <row r="52" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C52" s="50" t="s">
         <v>5</v>
       </c>
       <c r="E52" s="43"/>
     </row>
-    <row r="53" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D53" s="42"/>
       <c r="E53" s="54"/>
     </row>
-    <row r="54" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D54" s="43"/>
       <c r="E54" s="54"/>
     </row>
-    <row r="55" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="50"/>
       <c r="B55" s="52" t="s">
         <v>3</v>
@@ -4455,12 +4437,12 @@
       <c r="D55" s="43"/>
       <c r="E55" s="54"/>
     </row>
-    <row r="56" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C56" s="42"/>
       <c r="D56" s="43"/>
       <c r="E56" s="46"/>
     </row>
-    <row r="57" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C57" s="43"/>
       <c r="D57" s="43">
         <v>10</v>
@@ -4468,34 +4450,34 @@
       <c r="H57" s="55"/>
       <c r="I57" s="55"/>
     </row>
-    <row r="58" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C58" s="43"/>
       <c r="D58" s="43"/>
     </row>
-    <row r="59" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="50"/>
       <c r="C59" s="43"/>
-      <c r="D59" s="34"/>
-    </row>
-    <row r="60" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D59" s="46"/>
+    </row>
+    <row r="60" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C60" s="43">
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C61" s="43"/>
     </row>
-    <row r="62" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C62" s="43"/>
     </row>
-    <row r="63" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="50"/>
       <c r="B63" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="C63" s="2"/>
-    </row>
-    <row r="64" spans="1:9" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C63" s="35"/>
+    </row>
+    <row r="64" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C64" s="40"/>
       <c r="D64" s="40"/>
       <c r="E64" s="40"/>
@@ -4503,7 +4485,7 @@
       <c r="G64" s="40"/>
       <c r="H64" s="40"/>
     </row>
-    <row r="65" spans="1:8" s="36" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:8" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C65" s="40"/>
       <c r="D65" s="40"/>
       <c r="E65" s="40"/>
@@ -4511,199 +4493,141 @@
       <c r="G65" s="40"/>
       <c r="H65" s="40"/>
     </row>
-    <row r="66" spans="1:8" s="41" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B66" s="11"/>
-      <c r="C66" s="11"/>
-      <c r="D66" s="11"/>
-      <c r="E66" s="11"/>
+    <row r="66" spans="1:8" s="41" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B66" s="57"/>
+      <c r="C66" s="57"/>
+      <c r="D66" s="57"/>
+      <c r="E66" s="57"/>
       <c r="F66" s="57"/>
       <c r="G66" s="57"/>
       <c r="H66" s="40"/>
     </row>
-    <row r="67" spans="1:8" ht="11.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="56"/>
-      <c r="B67" s="66" t="s">
+      <c r="B67" s="65" t="s">
         <v>54</v>
       </c>
-      <c r="C67" s="69" t="s">
+      <c r="C67" s="91" t="s">
         <v>60</v>
       </c>
-      <c r="D67" s="72"/>
+      <c r="D67" s="70"/>
       <c r="E67" s="63"/>
       <c r="F67" s="63"/>
       <c r="H67" s="40"/>
     </row>
-    <row r="68" spans="1:8" ht="11.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B68" s="11"/>
-      <c r="C68" s="68"/>
+    <row r="68" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C68" s="67"/>
       <c r="D68" s="42"/>
       <c r="E68" s="63"/>
       <c r="F68" s="63"/>
       <c r="H68" s="40"/>
     </row>
-    <row r="69" spans="1:8" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="11"/>
-      <c r="C69" s="11"/>
-      <c r="D69" s="16"/>
-      <c r="E69" s="64"/>
-      <c r="F69" s="64"/>
-    </row>
-    <row r="70" spans="1:8" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="11"/>
-      <c r="C70" s="11"/>
-      <c r="D70" s="16"/>
-      <c r="E70" s="64"/>
-      <c r="F70" s="64"/>
-    </row>
-    <row r="71" spans="1:8" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="11"/>
-      <c r="C71" s="11"/>
-      <c r="D71" s="16"/>
-      <c r="E71" s="77"/>
-      <c r="F71" s="64" t="s">
+    <row r="69" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D69" s="43"/>
+      <c r="E69" s="63"/>
+      <c r="F69" s="63"/>
+    </row>
+    <row r="70" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D70" s="43"/>
+      <c r="E70" s="63"/>
+      <c r="F70" s="63"/>
+    </row>
+    <row r="71" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D71" s="43"/>
+      <c r="E71" s="92"/>
+      <c r="F71" s="63" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="11"/>
-      <c r="C72" s="11"/>
-      <c r="D72" s="62"/>
-      <c r="E72" s="64"/>
-      <c r="F72" s="64"/>
-    </row>
-    <row r="73" spans="1:8" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="11"/>
-      <c r="C73" s="11"/>
-      <c r="D73" s="16"/>
-      <c r="E73" s="64"/>
-      <c r="F73" s="64"/>
-    </row>
-    <row r="74" spans="1:8" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="11"/>
-      <c r="C74" s="11"/>
-      <c r="D74" s="16"/>
-      <c r="E74" s="64"/>
-      <c r="F74" s="64"/>
-    </row>
-    <row r="75" spans="1:8" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="11"/>
-      <c r="C75" s="68" t="s">
+    <row r="72" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D72" s="93"/>
+      <c r="E72" s="63"/>
+      <c r="F72" s="63"/>
+    </row>
+    <row r="73" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D73" s="43"/>
+      <c r="E73" s="63"/>
+      <c r="F73" s="63"/>
+    </row>
+    <row r="74" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D74" s="43"/>
+      <c r="E74" s="63"/>
+      <c r="F74" s="63"/>
+    </row>
+    <row r="75" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C75" s="67" t="s">
         <v>61</v>
       </c>
-      <c r="D75" s="5"/>
-      <c r="E75" s="64"/>
-      <c r="F75" s="64"/>
-    </row>
-    <row r="76" spans="1:8" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="11"/>
-      <c r="C76" s="64"/>
-      <c r="D76" s="64"/>
-      <c r="E76" s="64"/>
-      <c r="F76" s="64"/>
-    </row>
-    <row r="77" spans="1:8" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="11"/>
-      <c r="C77" s="11"/>
-      <c r="D77" s="11"/>
-      <c r="E77" s="11"/>
-      <c r="F77" s="11"/>
-    </row>
-    <row r="78" spans="1:8" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="11"/>
-      <c r="C78" s="11"/>
-      <c r="D78" s="11"/>
-      <c r="E78" s="11"/>
-      <c r="F78" s="11"/>
-    </row>
-    <row r="79" spans="1:8" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B79" s="11"/>
-      <c r="C79" s="11"/>
-      <c r="D79" s="11"/>
-      <c r="E79" s="11"/>
-      <c r="F79" s="11"/>
-    </row>
-    <row r="80" spans="1:8" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D75" s="35"/>
+      <c r="E75" s="63"/>
+      <c r="F75" s="63"/>
+    </row>
+    <row r="76" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C76" s="63"/>
+      <c r="D76" s="63"/>
+      <c r="E76" s="63"/>
+      <c r="F76" s="63"/>
+    </row>
+    <row r="77" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="78" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="79" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="80" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B80" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="F80" s="11"/>
-    </row>
-    <row r="81" spans="2:6" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="81" spans="2:5" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B81" s="67" t="s">
         <v>58</v>
       </c>
       <c r="C81" s="47"/>
       <c r="D81" s="63"/>
       <c r="E81" s="63"/>
-      <c r="F81" s="11"/>
-    </row>
-    <row r="82" spans="2:6" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="82" spans="2:5" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C82" s="42"/>
       <c r="D82" s="63"/>
       <c r="E82" s="63"/>
-      <c r="F82" s="11"/>
-    </row>
-    <row r="83" spans="2:6" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B83" s="11"/>
-      <c r="C83" s="16"/>
-      <c r="D83" s="64"/>
-      <c r="E83" s="64"/>
-      <c r="F83" s="11"/>
-    </row>
-    <row r="84" spans="2:6" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="11"/>
-      <c r="C84" s="16"/>
-      <c r="D84" s="64"/>
-      <c r="E84" s="64"/>
-      <c r="F84" s="11"/>
-    </row>
-    <row r="85" spans="2:6" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B85" s="11"/>
-      <c r="C85" s="16"/>
-      <c r="D85" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="E85" s="64" t="s">
+    </row>
+    <row r="83" spans="2:5" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C83" s="43"/>
+      <c r="D83" s="63"/>
+      <c r="E83" s="63"/>
+    </row>
+    <row r="84" spans="2:5" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C84" s="43"/>
+      <c r="D84" s="63"/>
+      <c r="E84" s="63"/>
+    </row>
+    <row r="85" spans="2:5" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C85" s="43"/>
+      <c r="D85" s="49"/>
+      <c r="E85" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="F85" s="11"/>
-    </row>
-    <row r="86" spans="2:6" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B86" s="11"/>
-      <c r="C86" s="62"/>
-      <c r="D86" s="64"/>
-      <c r="E86" s="64"/>
-      <c r="F86" s="11"/>
-    </row>
-    <row r="87" spans="2:6" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B87" s="11"/>
-      <c r="C87" s="16"/>
-      <c r="D87" s="64"/>
-      <c r="E87" s="64"/>
-      <c r="F87" s="11"/>
-    </row>
-    <row r="88" spans="2:6" ht="11.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B88" s="11"/>
-      <c r="C88" s="16"/>
-      <c r="D88" s="64"/>
-      <c r="E88" s="64"/>
-      <c r="F88" s="11"/>
-    </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B89" s="68" t="s">
+    </row>
+    <row r="86" spans="2:5" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C86" s="93"/>
+      <c r="D86" s="63"/>
+      <c r="E86" s="63"/>
+    </row>
+    <row r="87" spans="2:5" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C87" s="43"/>
+      <c r="D87" s="63"/>
+      <c r="E87" s="63"/>
+    </row>
+    <row r="88" spans="2:5" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C88" s="43"/>
+      <c r="D88" s="63"/>
+      <c r="E88" s="63"/>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B89" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="C89" s="2"/>
-      <c r="D89" s="64"/>
-      <c r="E89" s="64"/>
-      <c r="F89" s="11"/>
-    </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B90" s="11"/>
-      <c r="C90" s="11"/>
-      <c r="D90" s="11"/>
-      <c r="E90" s="11"/>
-      <c r="F90" s="11"/>
+      <c r="C89" s="35"/>
+      <c r="D89" s="63"/>
+      <c r="E89" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/8-team-double.xlsx
+++ b/8-team-double.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUAWEI\Documents\GitHub\2018_world_cup_draw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lts\Documents\GitHub\2018_world_cup_draw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C91916-3B58-4326-8153-C9F310D233A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84AEB11B-04DE-47F2-87A7-8C557429B954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="115">
   <si>
     <t>PrintYourBrackets</t>
   </si>
@@ -452,6 +452,26 @@
   </si>
   <si>
     <t>金贝贝(6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">钱夫人(3) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忍太郎(2)   1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莎拉公主(8)   3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>约翰乔(1)   3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙小美(7)   0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -828,6 +848,17 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -852,17 +883,6 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1219,25 +1239,25 @@
     <row r="1" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="9"/>
       <c r="B1" s="10"/>
-      <c r="C1" s="81" t="s">
+      <c r="C1" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
       <c r="I1" s="10"/>
     </row>
     <row r="2" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="83"/>
-      <c r="B2" s="83"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
+      <c r="A2" s="88"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
       <c r="I2" s="10"/>
     </row>
     <row r="3" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
@@ -1468,17 +1488,17 @@
       <c r="G34" s="16"/>
     </row>
     <row r="35" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="84"/>
-      <c r="B35" s="84"/>
+      <c r="A35" s="89"/>
+      <c r="B35" s="89"/>
       <c r="C35" s="22"/>
       <c r="F35" s="16"/>
       <c r="G35" s="16"/>
     </row>
     <row r="36" spans="1:7" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="82" t="s">
+      <c r="A36" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="82"/>
+      <c r="B36" s="87"/>
       <c r="C36" s="21" t="s">
         <v>6</v>
       </c>
@@ -1674,45 +1694,45 @@
       </c>
     </row>
     <row r="64" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C64" s="81"/>
-      <c r="D64" s="81"/>
-      <c r="E64" s="81"/>
-      <c r="F64" s="81"/>
-      <c r="G64" s="81"/>
-      <c r="H64" s="81"/>
+      <c r="C64" s="86"/>
+      <c r="D64" s="86"/>
+      <c r="E64" s="86"/>
+      <c r="F64" s="86"/>
+      <c r="G64" s="86"/>
+      <c r="H64" s="86"/>
     </row>
     <row r="65" spans="1:8" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C65" s="81"/>
-      <c r="D65" s="81"/>
-      <c r="E65" s="81"/>
-      <c r="F65" s="81"/>
-      <c r="G65" s="81"/>
-      <c r="H65" s="81"/>
+      <c r="C65" s="86"/>
+      <c r="D65" s="86"/>
+      <c r="E65" s="86"/>
+      <c r="F65" s="86"/>
+      <c r="G65" s="86"/>
+      <c r="H65" s="86"/>
     </row>
     <row r="66" spans="1:8" s="12" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C66" s="81"/>
-      <c r="D66" s="81"/>
-      <c r="E66" s="81"/>
-      <c r="F66" s="81"/>
-      <c r="G66" s="81"/>
-      <c r="H66" s="81"/>
+      <c r="C66" s="86"/>
+      <c r="D66" s="86"/>
+      <c r="E66" s="86"/>
+      <c r="F66" s="86"/>
+      <c r="G66" s="86"/>
+      <c r="H66" s="86"/>
     </row>
     <row r="67" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="28"/>
-      <c r="C67" s="81"/>
-      <c r="D67" s="81"/>
-      <c r="E67" s="81"/>
-      <c r="F67" s="81"/>
-      <c r="G67" s="81"/>
-      <c r="H67" s="81"/>
+      <c r="C67" s="86"/>
+      <c r="D67" s="86"/>
+      <c r="E67" s="86"/>
+      <c r="F67" s="86"/>
+      <c r="G67" s="86"/>
+      <c r="H67" s="86"/>
     </row>
     <row r="68" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C68" s="81"/>
-      <c r="D68" s="81"/>
-      <c r="E68" s="81"/>
-      <c r="F68" s="81"/>
-      <c r="G68" s="81"/>
-      <c r="H68" s="81"/>
+      <c r="C68" s="86"/>
+      <c r="D68" s="86"/>
+      <c r="E68" s="86"/>
+      <c r="F68" s="86"/>
+      <c r="G68" s="86"/>
+      <c r="H68" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1748,25 +1768,25 @@
     <row r="1" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="9"/>
       <c r="B1" s="10"/>
-      <c r="C1" s="81" t="s">
+      <c r="C1" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
       <c r="I1" s="10"/>
     </row>
     <row r="2" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="83"/>
-      <c r="B2" s="83"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
+      <c r="A2" s="88"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
       <c r="I2" s="10"/>
     </row>
     <row r="3" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
@@ -2182,8 +2202,8 @@
       <c r="I34" s="36"/>
     </row>
     <row r="35" spans="1:9" s="4" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="85"/>
-      <c r="B35" s="85"/>
+      <c r="A35" s="90"/>
+      <c r="B35" s="90"/>
       <c r="C35" s="36"/>
       <c r="D35" s="36"/>
       <c r="E35" s="36"/>
@@ -2781,25 +2801,25 @@
     <row r="1" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="58"/>
       <c r="B1" s="40"/>
-      <c r="C1" s="86" t="s">
+      <c r="C1" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
       <c r="I1" s="40"/>
     </row>
     <row r="2" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="87"/>
-      <c r="B2" s="87"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
+      <c r="A2" s="92"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
       <c r="I2" s="40"/>
     </row>
     <row r="3" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
@@ -3042,16 +3062,16 @@
       <c r="G34" s="43"/>
     </row>
     <row r="35" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="85"/>
-      <c r="B35" s="85"/>
+      <c r="A35" s="90"/>
+      <c r="B35" s="90"/>
       <c r="F35" s="43"/>
       <c r="G35" s="43"/>
     </row>
     <row r="36" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="88" t="s">
+      <c r="A36" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="88"/>
+      <c r="B36" s="93"/>
       <c r="C36" s="50" t="s">
         <v>6</v>
       </c>
@@ -3480,8 +3500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D10CBD3F-029F-4541-8142-F43EE81AFB98}">
   <dimension ref="A1:K89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D85" sqref="D85"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.375" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -3496,25 +3516,25 @@
     <row r="1" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="58"/>
       <c r="B1" s="40"/>
-      <c r="C1" s="86" t="s">
+      <c r="C1" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
       <c r="I1" s="40"/>
     </row>
     <row r="2" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="87"/>
-      <c r="B2" s="87"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
+      <c r="A2" s="92"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
       <c r="I2" s="40"/>
     </row>
     <row r="3" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
@@ -3536,7 +3556,7 @@
     </row>
     <row r="5" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="36" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
@@ -3547,6 +3567,9 @@
     </row>
     <row r="7" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="43"/>
+      <c r="C7" s="36" t="s">
+        <v>104</v>
+      </c>
       <c r="F7" s="14"/>
     </row>
     <row r="8" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
@@ -3557,8 +3580,8 @@
       <c r="F8" s="14"/>
     </row>
     <row r="9" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="35" t="s">
-        <v>104</v>
+      <c r="B9" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="C9" s="43"/>
       <c r="F9" s="14"/>
@@ -3580,8 +3603,8 @@
       <c r="F12" s="14"/>
     </row>
     <row r="13" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="89" t="s">
-        <v>105</v>
+      <c r="B13" s="81" t="s">
+        <v>111</v>
       </c>
       <c r="C13" s="43"/>
       <c r="E13" s="43"/>
@@ -3594,7 +3617,9 @@
     </row>
     <row r="15" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="43"/>
-      <c r="C15" s="46"/>
+      <c r="C15" s="46" t="s">
+        <v>106</v>
+      </c>
       <c r="E15" s="43"/>
       <c r="F15" s="19"/>
     </row>
@@ -3606,8 +3631,8 @@
       <c r="F16" s="19"/>
     </row>
     <row r="17" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="35" t="s">
-        <v>106</v>
+      <c r="B17" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="E17" s="43"/>
       <c r="F17" s="19"/>
@@ -3629,8 +3654,8 @@
       <c r="G20" s="43"/>
     </row>
     <row r="21" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="36" t="s">
-        <v>107</v>
+      <c r="B21" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="E21" s="43"/>
       <c r="G21" s="43"/>
@@ -3642,6 +3667,9 @@
     </row>
     <row r="23" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="43"/>
+      <c r="C23" s="36" t="s">
+        <v>107</v>
+      </c>
       <c r="E23" s="43"/>
       <c r="G23" s="43"/>
     </row>
@@ -3656,7 +3684,7 @@
     </row>
     <row r="25" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="35" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C25" s="43"/>
       <c r="E25" s="43"/>
@@ -3677,7 +3705,7 @@
       <c r="I27" s="43">
         <v>15</v>
       </c>
-      <c r="J27" s="90"/>
+      <c r="J27" s="82"/>
       <c r="K27" s="36" t="s">
         <v>40</v>
       </c>
@@ -3730,16 +3758,16 @@
       <c r="G34" s="43"/>
     </row>
     <row r="35" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="85"/>
-      <c r="B35" s="85"/>
+      <c r="A35" s="90"/>
+      <c r="B35" s="90"/>
       <c r="F35" s="43"/>
       <c r="G35" s="43"/>
     </row>
     <row r="36" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="88" t="s">
+      <c r="A36" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="88"/>
+      <c r="B36" s="93"/>
       <c r="C36" s="50" t="s">
         <v>6</v>
       </c>
@@ -3761,6 +3789,9 @@
       <c r="A39" s="50"/>
       <c r="B39" s="52" t="s">
         <v>1</v>
+      </c>
+      <c r="C39" s="36" t="s">
+        <v>110</v>
       </c>
       <c r="D39" s="43"/>
       <c r="F39" s="51"/>
@@ -3821,7 +3852,9 @@
       <c r="B47" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="C47" s="35"/>
+      <c r="C47" s="35" t="s">
+        <v>105</v>
+      </c>
       <c r="E47" s="43"/>
       <c r="F47" s="43"/>
     </row>
@@ -3860,6 +3893,9 @@
       <c r="A55" s="50"/>
       <c r="B55" s="52" t="s">
         <v>3</v>
+      </c>
+      <c r="C55" s="36" t="s">
+        <v>108</v>
       </c>
       <c r="D55" s="43"/>
       <c r="E55" s="54"/>
@@ -3934,7 +3970,7 @@
       <c r="B67" s="65" t="s">
         <v>54</v>
       </c>
-      <c r="C67" s="91" t="s">
+      <c r="C67" s="83" t="s">
         <v>60</v>
       </c>
       <c r="D67" s="70"/>
@@ -3961,13 +3997,13 @@
     </row>
     <row r="71" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D71" s="43"/>
-      <c r="E71" s="92"/>
+      <c r="E71" s="84"/>
       <c r="F71" s="63" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D72" s="93"/>
+      <c r="D72" s="85"/>
       <c r="E72" s="63"/>
       <c r="F72" s="63"/>
     </row>
@@ -4034,7 +4070,7 @@
       </c>
     </row>
     <row r="86" spans="2:5" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C86" s="93"/>
+      <c r="C86" s="85"/>
       <c r="D86" s="63"/>
       <c r="E86" s="63"/>
     </row>
@@ -4088,25 +4124,25 @@
     <row r="1" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="58"/>
       <c r="B1" s="40"/>
-      <c r="C1" s="86" t="s">
+      <c r="C1" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
       <c r="I1" s="40"/>
     </row>
     <row r="2" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="87"/>
-      <c r="B2" s="87"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
+      <c r="A2" s="92"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
       <c r="I2" s="40"/>
     </row>
     <row r="3" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.4">
@@ -4167,7 +4203,7 @@
       <c r="F12" s="14"/>
     </row>
     <row r="13" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="89"/>
+      <c r="B13" s="81"/>
       <c r="C13" s="43"/>
       <c r="E13" s="43"/>
     </row>
@@ -4255,7 +4291,7 @@
       <c r="I27" s="43">
         <v>15</v>
       </c>
-      <c r="J27" s="90"/>
+      <c r="J27" s="82"/>
       <c r="K27" s="36" t="s">
         <v>40</v>
       </c>
@@ -4303,16 +4339,16 @@
       <c r="G34" s="43"/>
     </row>
     <row r="35" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="85"/>
-      <c r="B35" s="85"/>
+      <c r="A35" s="90"/>
+      <c r="B35" s="90"/>
       <c r="F35" s="43"/>
       <c r="G35" s="43"/>
     </row>
     <row r="36" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="88" t="s">
+      <c r="A36" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="88"/>
+      <c r="B36" s="93"/>
       <c r="C36" s="50" t="s">
         <v>6</v>
       </c>
@@ -4507,7 +4543,7 @@
       <c r="B67" s="65" t="s">
         <v>54</v>
       </c>
-      <c r="C67" s="91" t="s">
+      <c r="C67" s="83" t="s">
         <v>60</v>
       </c>
       <c r="D67" s="70"/>
@@ -4534,13 +4570,13 @@
     </row>
     <row r="71" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D71" s="43"/>
-      <c r="E71" s="92"/>
+      <c r="E71" s="84"/>
       <c r="F71" s="63" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D72" s="93"/>
+      <c r="D72" s="85"/>
       <c r="E72" s="63"/>
       <c r="F72" s="63"/>
     </row>
@@ -4607,7 +4643,7 @@
       </c>
     </row>
     <row r="86" spans="2:5" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C86" s="93"/>
+      <c r="C86" s="85"/>
       <c r="D86" s="63"/>
       <c r="E86" s="63"/>
     </row>

--- a/8-team-double.xlsx
+++ b/8-team-double.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lts\Documents\GitHub\2018_world_cup_draw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUAWEI\Documents\GitHub\2018_world_cup_draw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84AEB11B-04DE-47F2-87A7-8C557429B954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66688FCD-149A-4F2F-B3BC-A82EC94D8BF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="119">
   <si>
     <t>PrintYourBrackets</t>
   </si>
@@ -472,6 +472,22 @@
   </si>
   <si>
     <t>孙小美(7)   0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙隆巴斯(4)   2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金贝贝(6)   3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱夫人(3)    3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忍太郎(2)   2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3500,8 +3516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D10CBD3F-029F-4541-8142-F43EE81AFB98}">
   <dimension ref="A1:K89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.375" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -3719,7 +3735,7 @@
     </row>
     <row r="29" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="36" t="s">
-        <v>43</v>
+        <v>115</v>
       </c>
       <c r="C29" s="43"/>
       <c r="G29" s="43"/>
@@ -3735,7 +3751,9 @@
     </row>
     <row r="31" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="43"/>
-      <c r="C31" s="46"/>
+      <c r="C31" s="46" t="s">
+        <v>109</v>
+      </c>
       <c r="G31" s="43"/>
     </row>
     <row r="32" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
@@ -3745,8 +3763,8 @@
       <c r="G32" s="43"/>
     </row>
     <row r="33" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="35" t="s">
-        <v>109</v>
+      <c r="B33" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="E33" s="50" t="s">
         <v>73</v>
@@ -3790,8 +3808,8 @@
       <c r="B39" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C39" s="36" t="s">
-        <v>110</v>
+      <c r="C39" s="6" t="s">
+        <v>117</v>
       </c>
       <c r="D39" s="43"/>
       <c r="F39" s="51"/>
@@ -3824,7 +3842,9 @@
     <row r="43" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="50"/>
       <c r="C43" s="43"/>
-      <c r="D43" s="35"/>
+      <c r="D43" s="35" t="s">
+        <v>110</v>
+      </c>
       <c r="E43" s="43"/>
       <c r="F43" s="43"/>
     </row>
@@ -3853,7 +3873,7 @@
         <v>2</v>
       </c>
       <c r="C47" s="35" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="E47" s="43"/>
       <c r="F47" s="43"/>
@@ -3938,7 +3958,9 @@
       <c r="B63" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="C63" s="35"/>
+      <c r="C63" s="35" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="64" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C64" s="40"/>
@@ -4043,7 +4065,9 @@
       <c r="B81" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="C81" s="47"/>
+      <c r="C81" s="47" t="s">
+        <v>105</v>
+      </c>
       <c r="D81" s="63"/>
       <c r="E81" s="63"/>
     </row>

--- a/8-team-double.xlsx
+++ b/8-team-double.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUAWEI\Documents\GitHub\2018_world_cup_draw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66688FCD-149A-4F2F-B3BC-A82EC94D8BF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C281D52-72DD-44E4-9072-137628C0F429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11340" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="121">
   <si>
     <t>PrintYourBrackets</t>
   </si>
@@ -488,6 +488,14 @@
   </si>
   <si>
     <t>忍太郎(2)   2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙小美(7)   3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙隆巴斯(4)   0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3516,8 +3524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D10CBD3F-029F-4541-8142-F43EE81AFB98}">
   <dimension ref="A1:K89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.375" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -3914,8 +3922,8 @@
       <c r="B55" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="C55" s="36" t="s">
-        <v>108</v>
+      <c r="C55" s="6" t="s">
+        <v>119</v>
       </c>
       <c r="D55" s="43"/>
       <c r="E55" s="54"/>
@@ -3940,7 +3948,9 @@
     <row r="59" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="50"/>
       <c r="C59" s="43"/>
-      <c r="D59" s="46"/>
+      <c r="D59" s="46" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="60" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C60" s="43">
@@ -3959,7 +3969,7 @@
         <v>4</v>
       </c>
       <c r="C63" s="35" t="s">
-        <v>43</v>
+        <v>120</v>
       </c>
     </row>
     <row r="64" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.4">
@@ -4112,7 +4122,9 @@
       <c r="B89" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="C89" s="35"/>
+      <c r="C89" s="35" t="s">
+        <v>43</v>
+      </c>
       <c r="D89" s="63"/>
       <c r="E89" s="63"/>
     </row>

--- a/8-team-double.xlsx
+++ b/8-team-double.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUAWEI\Documents\GitHub\2018_world_cup_draw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C281D52-72DD-44E4-9072-137628C0F429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28608656-BED7-4EDA-BE48-D30BA5A9BBF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11340" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3990" yWindow="3675" windowWidth="21600" windowHeight="11340" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="122">
   <si>
     <t>PrintYourBrackets</t>
   </si>
@@ -496,6 +496,10 @@
   </si>
   <si>
     <t>沙隆巴斯(4)   0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙隆巴斯(4)   1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3524,8 +3528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D10CBD3F-029F-4541-8142-F43EE81AFB98}">
   <dimension ref="A1:K89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.375" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -4075,8 +4079,8 @@
       <c r="B81" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="C81" s="47" t="s">
-        <v>105</v>
+      <c r="C81" s="76" t="s">
+        <v>118</v>
       </c>
       <c r="D81" s="63"/>
       <c r="E81" s="63"/>
@@ -4098,7 +4102,9 @@
     </row>
     <row r="85" spans="2:5" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C85" s="43"/>
-      <c r="D85" s="49"/>
+      <c r="D85" s="49" t="s">
+        <v>105</v>
+      </c>
       <c r="E85" s="63" t="s">
         <v>53</v>
       </c>
@@ -4123,7 +4129,7 @@
         <v>59</v>
       </c>
       <c r="C89" s="35" t="s">
-        <v>43</v>
+        <v>121</v>
       </c>
       <c r="D89" s="63"/>
       <c r="E89" s="63"/>

--- a/8-team-double.xlsx
+++ b/8-team-double.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUAWEI\Documents\GitHub\2018_world_cup_draw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lts\Documents\GitHub\2018_world_cup_draw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28608656-BED7-4EDA-BE48-D30BA5A9BBF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6A0CAEC-17FF-4EA6-8965-2BE4DC899D09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3990" yWindow="3675" windowWidth="21600" windowHeight="11340" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="122">
   <si>
     <t>PrintYourBrackets</t>
   </si>
@@ -3528,8 +3528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D10CBD3F-029F-4541-8142-F43EE81AFB98}">
   <dimension ref="A1:K89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="C81" sqref="C81"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.375" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -3596,7 +3596,7 @@
     <row r="7" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="43"/>
       <c r="C7" s="36" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="F7" s="14"/>
     </row>
@@ -3620,6 +3620,9 @@
     </row>
     <row r="11" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="43"/>
+      <c r="E11" s="36" t="s">
+        <v>106</v>
+      </c>
       <c r="F11" s="14"/>
     </row>
     <row r="12" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
@@ -3645,8 +3648,8 @@
     </row>
     <row r="15" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="43"/>
-      <c r="C15" s="46" t="s">
-        <v>106</v>
+      <c r="C15" s="34" t="s">
+        <v>112</v>
       </c>
       <c r="E15" s="43"/>
       <c r="F15" s="19"/>
@@ -3910,6 +3913,9 @@
     <row r="52" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C52" s="50" t="s">
         <v>5</v>
+      </c>
+      <c r="D52" s="36" t="s">
+        <v>104</v>
       </c>
       <c r="E52" s="43"/>
     </row>

--- a/8-team-double.xlsx
+++ b/8-team-double.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lts\Documents\GitHub\2018_world_cup_draw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6A0CAEC-17FF-4EA6-8965-2BE4DC899D09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF6B47E-6C63-4B02-828D-601AAFF56F8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="123">
   <si>
     <t>PrintYourBrackets</t>
   </si>
@@ -500,6 +500,10 @@
   </si>
   <si>
     <t>沙隆巴斯(4)   1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金贝贝(6)   2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3529,7 +3533,7 @@
   <dimension ref="A1:K89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.375" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -3698,8 +3702,8 @@
     </row>
     <row r="23" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="43"/>
-      <c r="C23" s="36" t="s">
-        <v>107</v>
+      <c r="C23" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="E23" s="43"/>
       <c r="G23" s="43"/>
@@ -3731,7 +3735,9 @@
     <row r="27" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C27" s="43"/>
       <c r="D27" s="49"/>
-      <c r="E27" s="35"/>
+      <c r="E27" s="35" t="s">
+        <v>107</v>
+      </c>
       <c r="G27" s="43"/>
       <c r="I27" s="43">
         <v>15</v>
@@ -3767,7 +3773,7 @@
     <row r="31" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="43"/>
       <c r="C31" s="46" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="G31" s="43"/>
     </row>
@@ -3804,7 +3810,9 @@
       <c r="C36" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="D36" s="47"/>
+      <c r="D36" s="47" t="s">
+        <v>109</v>
+      </c>
       <c r="F36" s="43"/>
       <c r="G36" s="43"/>
     </row>

--- a/8-team-double.xlsx
+++ b/8-team-double.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lts\Documents\GitHub\2018_world_cup_draw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUAWEI\Documents\GitHub\2018_world_cup_draw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF6B47E-6C63-4B02-828D-601AAFF56F8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7BCD9B6-4C9B-49E2-85DB-2FB8C4B781B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="124">
   <si>
     <t>PrintYourBrackets</t>
   </si>
@@ -504,6 +504,10 @@
   </si>
   <si>
     <t>金贝贝(6)   2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金贝贝(6)   0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3532,8 +3536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D10CBD3F-029F-4541-8142-F43EE81AFB98}">
   <dimension ref="A1:K89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.375" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -3811,7 +3815,7 @@
         <v>6</v>
       </c>
       <c r="D36" s="47" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="F36" s="43"/>
       <c r="G36" s="43"/>
@@ -3841,7 +3845,9 @@
     <row r="40" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C40" s="42"/>
       <c r="D40" s="43"/>
-      <c r="E40" s="49"/>
+      <c r="E40" s="49" t="s">
+        <v>110</v>
+      </c>
       <c r="F40" s="43"/>
       <c r="G40" s="43"/>
     </row>
@@ -3865,8 +3871,8 @@
     <row r="43" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="50"/>
       <c r="C43" s="43"/>
-      <c r="D43" s="35" t="s">
-        <v>110</v>
+      <c r="D43" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="E43" s="43"/>
       <c r="F43" s="43"/>
@@ -4023,7 +4029,9 @@
       <c r="C67" s="83" t="s">
         <v>60</v>
       </c>
-      <c r="D67" s="70"/>
+      <c r="D67" s="70" t="s">
+        <v>109</v>
+      </c>
       <c r="E67" s="63"/>
       <c r="F67" s="63"/>
       <c r="H67" s="40"/>

--- a/8-team-double.xlsx
+++ b/8-team-double.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUAWEI\Documents\GitHub\2018_world_cup_draw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lts\Documents\GitHub\2018_world_cup_draw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7BCD9B6-4C9B-49E2-85DB-2FB8C4B781B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36953618-34C8-4BF4-A6E2-046618C6F96D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="124">
   <si>
     <t>PrintYourBrackets</t>
   </si>
@@ -3536,8 +3536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D10CBD3F-029F-4541-8142-F43EE81AFB98}">
   <dimension ref="A1:K89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.375" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -3929,7 +3929,7 @@
         <v>5</v>
       </c>
       <c r="D52" s="36" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="E52" s="43"/>
     </row>
@@ -3955,7 +3955,9 @@
     <row r="56" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C56" s="42"/>
       <c r="D56" s="43"/>
-      <c r="E56" s="46"/>
+      <c r="E56" s="46" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="57" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C57" s="43"/>
@@ -3972,8 +3974,8 @@
     <row r="59" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="50"/>
       <c r="C59" s="43"/>
-      <c r="D59" s="46" t="s">
-        <v>108</v>
+      <c r="D59" s="34" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="60" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
@@ -4079,7 +4081,9 @@
       <c r="C75" s="67" t="s">
         <v>61</v>
       </c>
-      <c r="D75" s="35"/>
+      <c r="D75" s="35" t="s">
+        <v>104</v>
+      </c>
       <c r="E75" s="63"/>
       <c r="F75" s="63"/>
     </row>

--- a/8-team-double.xlsx
+++ b/8-team-double.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lts\Documents\GitHub\2018_world_cup_draw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUAWEI\Documents\GitHub\2018_world_cup_draw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36953618-34C8-4BF4-A6E2-046618C6F96D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9911626D-C02A-4659-A294-67507AD2C2EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="123">
   <si>
     <t>PrintYourBrackets</t>
   </si>
@@ -448,10 +448,6 @@
   </si>
   <si>
     <t>孙小美(7)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金贝贝(6)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3536,8 +3532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D10CBD3F-029F-4541-8142-F43EE81AFB98}">
   <dimension ref="A1:K89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.375" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -3643,7 +3639,7 @@
     </row>
     <row r="13" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="81" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C13" s="43"/>
       <c r="E13" s="43"/>
@@ -3657,7 +3653,7 @@
     <row r="15" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="43"/>
       <c r="C15" s="34" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E15" s="43"/>
       <c r="F15" s="19"/>
@@ -3671,7 +3667,7 @@
     </row>
     <row r="17" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E17" s="43"/>
       <c r="F17" s="19"/>
@@ -3694,7 +3690,7 @@
     </row>
     <row r="21" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E21" s="43"/>
       <c r="G21" s="43"/>
@@ -3707,7 +3703,7 @@
     <row r="23" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="43"/>
       <c r="C23" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E23" s="43"/>
       <c r="G23" s="43"/>
@@ -3723,7 +3719,7 @@
     </row>
     <row r="25" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="35" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C25" s="43"/>
       <c r="E25" s="43"/>
@@ -3760,7 +3756,7 @@
     </row>
     <row r="29" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="36" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C29" s="43"/>
       <c r="G29" s="43"/>
@@ -3777,7 +3773,7 @@
     <row r="31" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="43"/>
       <c r="C31" s="46" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G31" s="43"/>
     </row>
@@ -3789,7 +3785,7 @@
     </row>
     <row r="33" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E33" s="50" t="s">
         <v>73</v>
@@ -3815,7 +3811,7 @@
         <v>6</v>
       </c>
       <c r="D36" s="47" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F36" s="43"/>
       <c r="G36" s="43"/>
@@ -3836,7 +3832,7 @@
         <v>1</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D39" s="43"/>
       <c r="F39" s="51"/>
@@ -3846,7 +3842,7 @@
       <c r="C40" s="42"/>
       <c r="D40" s="43"/>
       <c r="E40" s="49" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F40" s="43"/>
       <c r="G40" s="43"/>
@@ -3872,7 +3868,7 @@
       <c r="A43" s="50"/>
       <c r="C43" s="43"/>
       <c r="D43" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E43" s="43"/>
       <c r="F43" s="43"/>
@@ -3902,7 +3898,7 @@
         <v>2</v>
       </c>
       <c r="C47" s="35" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E47" s="43"/>
       <c r="F47" s="43"/>
@@ -3947,7 +3943,7 @@
         <v>3</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D55" s="43"/>
       <c r="E55" s="54"/>
@@ -3975,7 +3971,7 @@
       <c r="A59" s="50"/>
       <c r="C59" s="43"/>
       <c r="D59" s="34" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="60" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
@@ -3995,7 +3991,7 @@
         <v>4</v>
       </c>
       <c r="C63" s="35" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="64" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.4">
@@ -4032,7 +4028,7 @@
         <v>60</v>
       </c>
       <c r="D67" s="70" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="E67" s="63"/>
       <c r="F67" s="63"/>
@@ -4057,7 +4053,9 @@
     </row>
     <row r="71" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D71" s="43"/>
-      <c r="E71" s="84"/>
+      <c r="E71" s="84" t="s">
+        <v>104</v>
+      </c>
       <c r="F71" s="63" t="s">
         <v>56</v>
       </c>
@@ -4081,8 +4079,8 @@
       <c r="C75" s="67" t="s">
         <v>61</v>
       </c>
-      <c r="D75" s="35" t="s">
-        <v>104</v>
+      <c r="D75" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="E75" s="63"/>
       <c r="F75" s="63"/>
@@ -4106,7 +4104,7 @@
         <v>58</v>
       </c>
       <c r="C81" s="76" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D81" s="63"/>
       <c r="E81" s="63"/>
@@ -4155,7 +4153,7 @@
         <v>59</v>
       </c>
       <c r="C89" s="35" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D89" s="63"/>
       <c r="E89" s="63"/>

--- a/8-team-double.xlsx
+++ b/8-team-double.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUAWEI\Documents\GitHub\2018_world_cup_draw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9911626D-C02A-4659-A294-67507AD2C2EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF76B374-0F0E-4962-8BD7-BED8B7CAB342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="124">
   <si>
     <t>PrintYourBrackets</t>
   </si>
@@ -447,10 +447,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>孙小美(7)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">钱夫人(3) </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -504,6 +500,14 @@
   </si>
   <si>
     <t>金贝贝(6)   0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙小美(7)   1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莎拉公主(8)   0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3532,8 +3536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D10CBD3F-029F-4541-8142-F43EE81AFB98}">
   <dimension ref="A1:K89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="G63" sqref="G63"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.375" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -3625,7 +3629,7 @@
     <row r="11" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="43"/>
       <c r="E11" s="36" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="F11" s="14"/>
     </row>
@@ -3639,7 +3643,7 @@
     </row>
     <row r="13" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="81" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C13" s="43"/>
       <c r="E13" s="43"/>
@@ -3653,7 +3657,7 @@
     <row r="15" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="43"/>
       <c r="C15" s="34" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E15" s="43"/>
       <c r="F15" s="19"/>
@@ -3667,7 +3671,7 @@
     </row>
     <row r="17" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E17" s="43"/>
       <c r="F17" s="19"/>
@@ -3675,7 +3679,9 @@
     <row r="18" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E18" s="43"/>
       <c r="F18" s="32"/>
-      <c r="G18" s="47"/>
+      <c r="G18" s="47" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="19" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E19" s="43">
@@ -3690,7 +3696,7 @@
     </row>
     <row r="21" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E21" s="43"/>
       <c r="G21" s="43"/>
@@ -3703,7 +3709,7 @@
     <row r="23" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="43"/>
       <c r="C23" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E23" s="43"/>
       <c r="G23" s="43"/>
@@ -3719,7 +3725,7 @@
     </row>
     <row r="25" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="35" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C25" s="43"/>
       <c r="E25" s="43"/>
@@ -3735,8 +3741,8 @@
     <row r="27" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C27" s="43"/>
       <c r="D27" s="49"/>
-      <c r="E27" s="35" t="s">
-        <v>107</v>
+      <c r="E27" s="2" t="s">
+        <v>111</v>
       </c>
       <c r="G27" s="43"/>
       <c r="I27" s="43">
@@ -3756,7 +3762,7 @@
     </row>
     <row r="29" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="36" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C29" s="43"/>
       <c r="G29" s="43"/>
@@ -3773,7 +3779,7 @@
     <row r="31" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="43"/>
       <c r="C31" s="46" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G31" s="43"/>
     </row>
@@ -3785,10 +3791,13 @@
     </row>
     <row r="33" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E33" s="50" t="s">
         <v>73</v>
+      </c>
+      <c r="F33" s="36" t="s">
+        <v>106</v>
       </c>
       <c r="G33" s="43"/>
     </row>
@@ -3811,7 +3820,7 @@
         <v>6</v>
       </c>
       <c r="D36" s="47" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F36" s="43"/>
       <c r="G36" s="43"/>
@@ -3832,7 +3841,7 @@
         <v>1</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D39" s="43"/>
       <c r="F39" s="51"/>
@@ -3841,8 +3850,8 @@
     <row r="40" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C40" s="42"/>
       <c r="D40" s="43"/>
-      <c r="E40" s="49" t="s">
-        <v>109</v>
+      <c r="E40" s="33" t="s">
+        <v>115</v>
       </c>
       <c r="F40" s="43"/>
       <c r="G40" s="43"/>
@@ -3868,7 +3877,7 @@
       <c r="A43" s="50"/>
       <c r="C43" s="43"/>
       <c r="D43" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E43" s="43"/>
       <c r="F43" s="43"/>
@@ -3898,14 +3907,16 @@
         <v>2</v>
       </c>
       <c r="C47" s="35" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E47" s="43"/>
       <c r="F47" s="43"/>
     </row>
     <row r="48" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E48" s="43"/>
-      <c r="F48" s="46"/>
+      <c r="F48" s="46" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="49" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E49" s="36">
@@ -3943,7 +3954,7 @@
         <v>3</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D55" s="43"/>
       <c r="E55" s="54"/>
@@ -3952,7 +3963,7 @@
       <c r="C56" s="42"/>
       <c r="D56" s="43"/>
       <c r="E56" s="46" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
     </row>
     <row r="57" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
@@ -3971,7 +3982,7 @@
       <c r="A59" s="50"/>
       <c r="C59" s="43"/>
       <c r="D59" s="34" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="60" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
@@ -3991,7 +4002,7 @@
         <v>4</v>
       </c>
       <c r="C63" s="35" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="64" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.4">
@@ -4028,7 +4039,7 @@
         <v>60</v>
       </c>
       <c r="D67" s="70" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E67" s="63"/>
       <c r="F67" s="63"/>
@@ -4104,7 +4115,7 @@
         <v>58</v>
       </c>
       <c r="C81" s="76" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D81" s="63"/>
       <c r="E81" s="63"/>
@@ -4153,7 +4164,7 @@
         <v>59</v>
       </c>
       <c r="C89" s="35" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D89" s="63"/>
       <c r="E89" s="63"/>

--- a/8-team-double.xlsx
+++ b/8-team-double.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUAWEI\Documents\GitHub\2018_world_cup_draw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF76B374-0F0E-4962-8BD7-BED8B7CAB342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E84ED1-80B1-4635-B743-5326C165B48B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="126">
   <si>
     <t>PrintYourBrackets</t>
   </si>
@@ -439,10 +439,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>莎拉公主(8)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>约翰乔(1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -508,6 +504,18 @@
   </si>
   <si>
     <t>莎拉公主(8)   0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莎拉公主(8)   1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>约翰乔(1)   1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Match 2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3537,7 +3545,7 @@
   <dimension ref="A1:K89"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.375" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -3629,7 +3637,7 @@
     <row r="11" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="43"/>
       <c r="E11" s="36" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F11" s="14"/>
     </row>
@@ -3643,7 +3651,7 @@
     </row>
     <row r="13" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="81" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C13" s="43"/>
       <c r="E13" s="43"/>
@@ -3657,7 +3665,7 @@
     <row r="15" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="43"/>
       <c r="C15" s="34" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E15" s="43"/>
       <c r="F15" s="19"/>
@@ -3671,7 +3679,7 @@
     </row>
     <row r="17" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E17" s="43"/>
       <c r="F17" s="19"/>
@@ -3680,7 +3688,7 @@
       <c r="E18" s="43"/>
       <c r="F18" s="32"/>
       <c r="G18" s="47" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
@@ -3696,7 +3704,7 @@
     </row>
     <row r="21" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E21" s="43"/>
       <c r="G21" s="43"/>
@@ -3709,7 +3717,7 @@
     <row r="23" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="43"/>
       <c r="C23" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E23" s="43"/>
       <c r="G23" s="43"/>
@@ -3721,11 +3729,16 @@
       <c r="C24" s="48"/>
       <c r="E24" s="43"/>
       <c r="G24" s="43"/>
-      <c r="I24" s="47"/>
+      <c r="H24" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="I24" s="47" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="25" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="35" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C25" s="43"/>
       <c r="E25" s="43"/>
@@ -3742,7 +3755,7 @@
       <c r="C27" s="43"/>
       <c r="D27" s="49"/>
       <c r="E27" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G27" s="43"/>
       <c r="I27" s="43">
@@ -3762,11 +3775,13 @@
     </row>
     <row r="29" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="36" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C29" s="43"/>
       <c r="G29" s="43"/>
-      <c r="I29" s="35"/>
+      <c r="I29" s="35" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="30" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="42"/>
@@ -3779,7 +3794,7 @@
     <row r="31" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="43"/>
       <c r="C31" s="46" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G31" s="43"/>
     </row>
@@ -3791,13 +3806,13 @@
     </row>
     <row r="33" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E33" s="50" t="s">
         <v>73</v>
       </c>
       <c r="F33" s="36" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="G33" s="43"/>
     </row>
@@ -3820,7 +3835,7 @@
         <v>6</v>
       </c>
       <c r="D36" s="47" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F36" s="43"/>
       <c r="G36" s="43"/>
@@ -3841,7 +3856,7 @@
         <v>1</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D39" s="43"/>
       <c r="F39" s="51"/>
@@ -3851,7 +3866,7 @@
       <c r="C40" s="42"/>
       <c r="D40" s="43"/>
       <c r="E40" s="33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F40" s="43"/>
       <c r="G40" s="43"/>
@@ -3863,7 +3878,9 @@
       </c>
       <c r="E41" s="43"/>
       <c r="F41" s="43"/>
-      <c r="G41" s="46"/>
+      <c r="G41" s="34" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="42" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C42" s="43"/>
@@ -3877,7 +3894,7 @@
       <c r="A43" s="50"/>
       <c r="C43" s="43"/>
       <c r="D43" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E43" s="43"/>
       <c r="F43" s="43"/>
@@ -3907,15 +3924,15 @@
         <v>2</v>
       </c>
       <c r="C47" s="35" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E47" s="43"/>
       <c r="F47" s="43"/>
     </row>
     <row r="48" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E48" s="43"/>
-      <c r="F48" s="46" t="s">
-        <v>108</v>
+      <c r="F48" s="34" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="49" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
@@ -3954,7 +3971,7 @@
         <v>3</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D55" s="43"/>
       <c r="E55" s="54"/>
@@ -3963,7 +3980,7 @@
       <c r="C56" s="42"/>
       <c r="D56" s="43"/>
       <c r="E56" s="46" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="57" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
@@ -3982,7 +3999,7 @@
       <c r="A59" s="50"/>
       <c r="C59" s="43"/>
       <c r="D59" s="34" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="60" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
@@ -4002,7 +4019,7 @@
         <v>4</v>
       </c>
       <c r="C63" s="35" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="64" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.4">
@@ -4039,7 +4056,7 @@
         <v>60</v>
       </c>
       <c r="D67" s="70" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E67" s="63"/>
       <c r="F67" s="63"/>
@@ -4115,7 +4132,7 @@
         <v>58</v>
       </c>
       <c r="C81" s="76" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D81" s="63"/>
       <c r="E81" s="63"/>
@@ -4164,7 +4181,7 @@
         <v>59</v>
       </c>
       <c r="C89" s="35" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D89" s="63"/>
       <c r="E89" s="63"/>

--- a/8-team-double.xlsx
+++ b/8-team-double.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUAWEI\Documents\GitHub\2018_world_cup_draw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lts\Documents\GitHub\2018_world_cup_draw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E84ED1-80B1-4635-B743-5326C165B48B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F08765F5-6AD5-4DFE-99E5-425BC0F06129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="126">
   <si>
     <t>PrintYourBrackets</t>
   </si>
@@ -439,10 +439,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>约翰乔(1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">钱夫人(3) </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -516,6 +512,10 @@
   </si>
   <si>
     <t>Match 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>约翰乔(1)   0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3544,8 +3544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D10CBD3F-029F-4541-8142-F43EE81AFB98}">
   <dimension ref="A1:K89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.375" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -3637,7 +3637,7 @@
     <row r="11" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="43"/>
       <c r="E11" s="36" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F11" s="14"/>
     </row>
@@ -3651,7 +3651,7 @@
     </row>
     <row r="13" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="81" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C13" s="43"/>
       <c r="E13" s="43"/>
@@ -3665,7 +3665,7 @@
     <row r="15" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="43"/>
       <c r="C15" s="34" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E15" s="43"/>
       <c r="F15" s="19"/>
@@ -3679,7 +3679,7 @@
     </row>
     <row r="17" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E17" s="43"/>
       <c r="F17" s="19"/>
@@ -3688,7 +3688,7 @@
       <c r="E18" s="43"/>
       <c r="F18" s="32"/>
       <c r="G18" s="47" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
@@ -3704,7 +3704,7 @@
     </row>
     <row r="21" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E21" s="43"/>
       <c r="G21" s="43"/>
@@ -3717,7 +3717,7 @@
     <row r="23" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="43"/>
       <c r="C23" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E23" s="43"/>
       <c r="G23" s="43"/>
@@ -3730,15 +3730,15 @@
       <c r="E24" s="43"/>
       <c r="G24" s="43"/>
       <c r="H24" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="I24" s="47" t="s">
         <v>125</v>
-      </c>
-      <c r="I24" s="47" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="25" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="35" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C25" s="43"/>
       <c r="E25" s="43"/>
@@ -3755,13 +3755,15 @@
       <c r="C27" s="43"/>
       <c r="D27" s="49"/>
       <c r="E27" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G27" s="43"/>
       <c r="I27" s="43">
         <v>15</v>
       </c>
-      <c r="J27" s="82"/>
+      <c r="J27" s="82" t="s">
+        <v>106</v>
+      </c>
       <c r="K27" s="36" t="s">
         <v>40</v>
       </c>
@@ -3775,12 +3777,12 @@
     </row>
     <row r="29" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="36" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C29" s="43"/>
       <c r="G29" s="43"/>
-      <c r="I29" s="35" t="s">
-        <v>107</v>
+      <c r="I29" s="2" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="30" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
@@ -3794,7 +3796,7 @@
     <row r="31" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="43"/>
       <c r="C31" s="46" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G31" s="43"/>
     </row>
@@ -3806,13 +3808,13 @@
     </row>
     <row r="33" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E33" s="50" t="s">
         <v>73</v>
       </c>
       <c r="F33" s="36" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G33" s="43"/>
     </row>
@@ -3835,7 +3837,7 @@
         <v>6</v>
       </c>
       <c r="D36" s="47" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F36" s="43"/>
       <c r="G36" s="43"/>
@@ -3856,7 +3858,7 @@
         <v>1</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D39" s="43"/>
       <c r="F39" s="51"/>
@@ -3866,7 +3868,7 @@
       <c r="C40" s="42"/>
       <c r="D40" s="43"/>
       <c r="E40" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F40" s="43"/>
       <c r="G40" s="43"/>
@@ -3879,7 +3881,7 @@
       <c r="E41" s="43"/>
       <c r="F41" s="43"/>
       <c r="G41" s="34" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="42" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
@@ -3894,7 +3896,7 @@
       <c r="A43" s="50"/>
       <c r="C43" s="43"/>
       <c r="D43" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E43" s="43"/>
       <c r="F43" s="43"/>
@@ -3924,7 +3926,7 @@
         <v>2</v>
       </c>
       <c r="C47" s="35" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E47" s="43"/>
       <c r="F47" s="43"/>
@@ -3932,7 +3934,7 @@
     <row r="48" spans="1:7" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E48" s="43"/>
       <c r="F48" s="34" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="49" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
@@ -3971,7 +3973,7 @@
         <v>3</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D55" s="43"/>
       <c r="E55" s="54"/>
@@ -3980,7 +3982,7 @@
       <c r="C56" s="42"/>
       <c r="D56" s="43"/>
       <c r="E56" s="46" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="57" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
@@ -3999,7 +4001,7 @@
       <c r="A59" s="50"/>
       <c r="C59" s="43"/>
       <c r="D59" s="34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="60" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
@@ -4019,7 +4021,7 @@
         <v>4</v>
       </c>
       <c r="C63" s="35" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="64" spans="1:9" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.4">
@@ -4056,7 +4058,7 @@
         <v>60</v>
       </c>
       <c r="D67" s="70" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E67" s="63"/>
       <c r="F67" s="63"/>
@@ -4132,7 +4134,7 @@
         <v>58</v>
       </c>
       <c r="C81" s="76" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D81" s="63"/>
       <c r="E81" s="63"/>
@@ -4181,7 +4183,7 @@
         <v>59</v>
       </c>
       <c r="C89" s="35" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D89" s="63"/>
       <c r="E89" s="63"/>
@@ -4202,8 +4204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFDD3758-D1D3-4DDF-ADF0-FED2CD00CB37}">
   <dimension ref="A1:K89"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="F62" sqref="F62"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.375" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -4362,6 +4364,9 @@
       <c r="C24" s="48"/>
       <c r="E24" s="43"/>
       <c r="G24" s="43"/>
+      <c r="H24" s="52" t="s">
+        <v>124</v>
+      </c>
       <c r="I24" s="47"/>
     </row>
     <row r="25" spans="2:11" s="36" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
